--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76299605-E9DC-42D6-B318-F754E7E2768E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82D1F14-BA9D-404A-BDD4-BD697EFCF1FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5877" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5879" uniqueCount="1848">
   <si>
     <r>
       <rPr>
@@ -7411,12 +7411,18 @@
   <si>
     <t>hzero-iam.organization-user.countByDateInOrganization</t>
   </si>
+  <si>
+    <t>hzero-iam.choerodon-project-user.countDeployRecords</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-307</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="92">
+  <fonts count="93">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7979,6 +7985,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -8118,7 +8131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8266,6 +8279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -19150,10 +19164,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H291"/>
+  <dimension ref="A1:H292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:H13"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="G292" sqref="G292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -22618,6 +22632,18 @@
       </c>
       <c r="G291" s="105" t="s">
         <v>1089</v>
+      </c>
+    </row>
+    <row r="292" spans="5:7">
+      <c r="E292" s="111" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F292" s="111" t="str">
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-15</v>
+      </c>
+      <c r="G292" s="111" t="s">
+        <v>1846</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82D1F14-BA9D-404A-BDD4-BD697EFCF1FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E879FA-E7CF-48D8-A71B-F1787A75256E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -7422,7 +7422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="93">
+  <fonts count="94">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7992,6 +7992,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -8131,7 +8139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8264,6 +8272,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8279,7 +8288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8648,11 +8657,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -8661,21 +8670,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="108" t="s">
+      <c r="D3" s="107"/>
+      <c r="E3" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="109"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -8786,11 +8795,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -8828,19 +8837,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="106" t="s">
+      <c r="D25" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="106"/>
+      <c r="E25" s="107"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="106" t="s">
+      <c r="D26" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="106"/>
+      <c r="E26" s="107"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -8867,8 +8876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -19166,7 +19175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+    <sheetView topLeftCell="A286" workbookViewId="0">
       <selection activeCell="G292" sqref="G292"/>
     </sheetView>
   </sheetViews>
@@ -22635,14 +22644,14 @@
       </c>
     </row>
     <row r="292" spans="5:7">
-      <c r="E292" s="111" t="s">
+      <c r="E292" s="106" t="s">
         <v>1847</v>
       </c>
-      <c r="F292" s="111" t="str">
+      <c r="F292" s="106" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G292" s="111" t="s">
+      <c r="G292" s="106" t="s">
         <v>1846</v>
       </c>
     </row>
@@ -22656,13 +22665,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O302"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A232" sqref="A232:XFD233"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80:I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
     <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -24302,21 +24313,21 @@
       </c>
     </row>
     <row r="80" spans="5:9">
-      <c r="E80" t="s">
+      <c r="E80" s="112" t="s">
         <v>1523</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="105" t="s">
         <v>1462</v>
       </c>
-      <c r="G80" t="str">
+      <c r="G80" s="105" t="str">
         <f>菜单SAAS版!$E$117</f>
         <v>iam_menu-119</v>
       </c>
-      <c r="H80" t="str">
+      <c r="H80" s="105" t="str">
         <f>菜单标签数据!$E$13</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="105" t="s">
         <v>1524</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E879FA-E7CF-48D8-A71B-F1787A75256E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A81A4-099E-4AE8-8BFF-30865AB941F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7422,7 +7422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="94">
+  <fonts count="93">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7992,14 +7992,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -8139,7 +8131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8288,7 +8280,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -22666,7 +22657,7 @@
   <dimension ref="A1:O302"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80:I80"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -24313,7 +24304,7 @@
       </c>
     </row>
     <row r="80" spans="5:9">
-      <c r="E80" s="112" t="s">
+      <c r="E80" s="105" t="s">
         <v>1523</v>
       </c>
       <c r="F80" s="105" t="s">

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A81A4-099E-4AE8-8BFF-30865AB941F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B8AA3B-FE2E-42AB-B311-279B7569B8F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5879" uniqueCount="1848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5881" uniqueCount="1850">
   <si>
     <r>
       <rPr>
@@ -7417,12 +7417,18 @@
   <si>
     <t>iam_menu_permission-307</t>
   </si>
+  <si>
+    <t>hzero-iam.choerodon-project-user.check</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-308</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="93">
+  <fonts count="94">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7992,6 +7998,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -8131,7 +8144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8280,6 +8293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8628,21 +8642,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8657,7 +8671,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -8671,7 +8685,7 @@
       <c r="F3" s="109"/>
       <c r="G3" s="109"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
+    <row r="4" spans="1:8">
       <c r="C4" s="110" t="s">
         <v>3</v>
       </c>
@@ -8692,7 +8706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -8712,7 +8726,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -8726,7 +8740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -8737,7 +8751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -8769,7 +8783,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -8792,7 +8806,7 @@
       <c r="D19" s="111"/>
       <c r="E19" s="111"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -8800,7 +8814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -8808,7 +8822,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -8816,7 +8830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -8842,7 +8856,7 @@
       </c>
       <c r="E26" s="107"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -8867,14 +8881,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -19164,16 +19178,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H292"/>
+  <dimension ref="A1:H293"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="G292" sqref="G292"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="E293" sqref="E293:G293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -22644,6 +22658,18 @@
       </c>
       <c r="G292" s="106" t="s">
         <v>1846</v>
+      </c>
+    </row>
+    <row r="293" spans="5:7">
+      <c r="E293" s="112" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F293" s="112" t="str">
+        <f>菜单SAAS版!E78</f>
+        <v>iam_menu-78</v>
+      </c>
+      <c r="G293" s="112" t="s">
+        <v>1848</v>
       </c>
     </row>
   </sheetData>
@@ -22656,15 +22682,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="14.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -28550,15 +28576,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y223"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -33688,7 +33714,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="55" t="s">

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B8AA3B-FE2E-42AB-B311-279B7569B8F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EE66AF-A75D-4EE1-9432-5B75BEA55FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5881" uniqueCount="1850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5883" uniqueCount="1852">
   <si>
     <r>
       <rPr>
@@ -7423,12 +7423,18 @@
   <si>
     <t>iam_menu_permission-308</t>
   </si>
+  <si>
+    <t>hzero-iam.choerodon-project-user.create</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-309</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="94">
+  <fonts count="95">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8005,6 +8011,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -8144,7 +8157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8278,6 +8291,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8293,7 +8307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8662,11 +8676,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -8675,21 +8689,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="109" t="s">
+      <c r="D3" s="108"/>
+      <c r="E3" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -8800,11 +8814,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="111" t="s">
+      <c r="C19" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
@@ -8842,19 +8856,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="107"/>
+      <c r="E25" s="108"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="107"/>
+      <c r="E26" s="108"/>
     </row>
     <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
@@ -19178,10 +19192,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H293"/>
+  <dimension ref="A1:H294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="E293" sqref="E293:G293"/>
+      <selection activeCell="E294" sqref="E294:G294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -22661,15 +22675,27 @@
       </c>
     </row>
     <row r="293" spans="5:7">
-      <c r="E293" s="112" t="s">
+      <c r="E293" s="107" t="s">
         <v>1849</v>
       </c>
-      <c r="F293" s="112" t="str">
+      <c r="F293" s="107" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G293" s="112" t="s">
+      <c r="G293" s="107" t="s">
         <v>1848</v>
+      </c>
+    </row>
+    <row r="294" spans="5:7">
+      <c r="E294" s="113" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F294" s="113" t="str">
+        <f>菜单SAAS版!E78</f>
+        <v>iam_menu-78</v>
+      </c>
+      <c r="G294" s="113" t="s">
+        <v>1850</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EE66AF-A75D-4EE1-9432-5B75BEA55FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08907602-784A-42E6-BBAE-E63CF6D782FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5883" uniqueCount="1852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5885" uniqueCount="1854">
   <si>
     <r>
       <rPr>
@@ -7406,28 +7406,35 @@
     <t>iam_menu_permission-306</t>
   </si>
   <si>
+    <t>hzero-iam.organization-user.countByDateInOrganization</t>
+  </si>
+  <si>
+    <t>hzero-iam.choerodon-project-user.countDeployRecords</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-307</t>
+  </si>
+  <si>
+    <t>hzero-iam.choerodon-project-user.check</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-308</t>
+  </si>
+  <si>
+    <t>hzero-iam.choerodon-project-user.create</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-309</t>
+  </si>
+  <si>
     <t>hzero-iam.choerodon-project-user.listProjectsWithLimit</t>
-  </si>
-  <si>
-    <t>hzero-iam.organization-user.countByDateInOrganization</t>
-  </si>
-  <si>
-    <t>hzero-iam.choerodon-project-user.countDeployRecords</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-307</t>
-  </si>
-  <si>
-    <t>hzero-iam.choerodon-project-user.check</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-308</t>
-  </si>
-  <si>
-    <t>hzero-iam.choerodon-project-user.create</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-309</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>hzero-iam.choerodon-organization-project.listProjectsWithLimit</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-310</t>
   </si>
 </sst>
 </file>
@@ -8292,6 +8299,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8307,7 +8315,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8656,54 +8663,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="110" t="s">
+      <c r="D3" s="109"/>
+      <c r="E3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="111" t="s">
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="111"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -8720,7 +8727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -8740,7 +8747,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -8754,7 +8761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -8765,7 +8772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -8797,7 +8804,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -8814,13 +8821,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-    </row>
-    <row r="20" spans="3:5">
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -8828,7 +8835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -8836,7 +8843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -8844,7 +8851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -8856,21 +8863,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="108" t="s">
+      <c r="D25" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="108"/>
+      <c r="E25" s="109"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="108" t="s">
+      <c r="D26" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="108"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
+      <c r="E26" s="109"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -8895,13 +8902,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
     <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19192,16 +19199,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H294"/>
+  <dimension ref="A1:H295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="E294" sqref="E294:G294"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="13.08203125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -19309,7 +19316,7 @@
         <v>iam_menu-15</v>
       </c>
       <c r="G12" s="105" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="H12" s="105"/>
     </row>
@@ -19322,7 +19329,7 @@
         <v>iam_menu-15</v>
       </c>
       <c r="G13" s="105" t="s">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="H13" s="105"/>
     </row>
@@ -22664,38 +22671,50 @@
     </row>
     <row r="292" spans="5:7">
       <c r="E292" s="106" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="F292" s="106" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-15</v>
       </c>
       <c r="G292" s="106" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="293" spans="5:7">
       <c r="E293" s="107" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="F293" s="107" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
       <c r="G293" s="107" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="294" spans="5:7">
-      <c r="E294" s="113" t="s">
-        <v>1851</v>
-      </c>
-      <c r="F294" s="113" t="str">
+      <c r="E294" s="108" t="s">
+        <v>1850</v>
+      </c>
+      <c r="F294" s="108" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G294" s="113" t="s">
-        <v>1850</v>
+      <c r="G294" s="108" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="295" spans="5:7">
+      <c r="E295" s="106" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F295" s="106" t="str">
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-15</v>
+      </c>
+      <c r="G295" s="106" t="s">
+        <v>1852</v>
       </c>
     </row>
   </sheetData>
@@ -22712,11 +22731,11 @@
       <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -28606,11 +28625,11 @@
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -33740,7 +33759,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="55" t="s">

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08907602-784A-42E6-BBAE-E63CF6D782FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C263E274-392A-4376-9F30-5FF4CF0A23BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5885" uniqueCount="1854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5889" uniqueCount="1858">
   <si>
     <r>
       <rPr>
@@ -56,7 +56,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -88,7 +87,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -107,7 +105,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -126,7 +123,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -177,7 +173,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -196,7 +191,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -215,7 +209,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -238,7 +231,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -259,7 +251,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -281,7 +272,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -302,7 +292,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -333,7 +322,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -364,7 +352,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -383,7 +370,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -402,7 +388,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -421,7 +406,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -440,7 +424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -469,7 +452,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -488,7 +470,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -507,7 +488,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -526,7 +506,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -557,7 +536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -576,7 +554,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -595,7 +572,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -615,7 +591,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -634,7 +609,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -654,7 +628,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -685,7 +658,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -704,7 +676,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -728,7 +699,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -747,7 +717,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -766,7 +735,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -785,7 +753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -804,7 +771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -835,7 +801,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -866,7 +831,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -897,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -916,7 +879,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -940,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -959,7 +920,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -978,7 +938,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -998,7 +957,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -1018,7 +976,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1038,7 +995,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1059,7 +1015,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1079,7 +1034,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1095,7 +1049,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1116,7 +1069,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1147,7 +1099,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1166,7 +1117,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1187,7 +1137,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1219,7 +1168,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1238,7 +1186,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1257,7 +1204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1291,7 +1237,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1310,7 +1255,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1329,7 +1273,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1348,7 +1291,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1393,7 +1335,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1438,7 +1379,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1472,7 +1412,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1491,7 +1430,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1510,7 +1448,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1530,7 +1467,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1554,7 +1490,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1573,7 +1508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1592,7 +1526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1612,7 +1545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1666,7 +1598,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1685,7 +1616,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1704,7 +1634,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1724,7 +1653,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1743,7 +1671,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1762,7 +1689,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1781,7 +1707,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1801,7 +1726,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1820,7 +1744,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1839,7 +1762,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1858,7 +1780,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1923,7 +1844,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1954,7 +1874,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1973,7 +1892,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -7436,12 +7354,24 @@
   <si>
     <t>iam_menu_permission-310</t>
   </si>
+  <si>
+    <t>hzero-message.choerodon-webhook-organization.check</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-311</t>
+  </si>
+  <si>
+    <t>hzero-message.choerodon-webhook-organization.createInOrg</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-312</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="95">
+  <fonts count="96">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7460,13 +7390,12 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7479,14 +7408,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7513,13 +7440,11 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8024,6 +7949,11 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
     </font>
   </fonts>
   <fills count="6">
@@ -8902,8 +8832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -19199,10 +19129,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H295"/>
+  <dimension ref="A1:H297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="E297" sqref="E297"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="E297" sqref="E297:G297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -22715,6 +22645,30 @@
       </c>
       <c r="G295" s="106" t="s">
         <v>1852</v>
+      </c>
+    </row>
+    <row r="296" spans="5:7">
+      <c r="E296" s="105" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F296" s="105" t="str">
+        <f>菜单SAAS版!E72</f>
+        <v>iam_menu-72</v>
+      </c>
+      <c r="G296" s="105" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="297" spans="5:7">
+      <c r="E297" s="105" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F297" s="105" t="str">
+        <f>菜单SAAS版!E72</f>
+        <v>iam_menu-72</v>
+      </c>
+      <c r="G297" s="105" t="s">
+        <v>1856</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\iam\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96D7F11-920E-4D3B-9DEE-A6CE2CA782B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +26,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5930" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5934" uniqueCount="1888">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +57,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +70,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +159,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +178,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +282,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +303,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +315,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +346,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +403,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +422,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +539,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +655,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +729,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +748,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +786,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +898,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +917,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +941,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +960,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1000,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1020,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1041,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1061,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1096,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1117,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1148,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1311,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1349,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1410,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1439,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1454,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1473,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1492,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1594,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1802,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1821,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1860,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1872,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1883,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1905,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1924,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6114,6 +6226,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>iam_menu_permission-30</t>
@@ -6123,6 +6236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -7409,18 +7523,21 @@
   <si>
     <t>标识gitlab_developer</t>
   </si>
+  <si>
+    <t>hzero-iam.choerodon-menu-role.checkCodeExist</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-324</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-325</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="42">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7431,25 +7548,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
@@ -7514,157 +7631,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -7693,12 +7659,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7707,8 +7675,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7739,194 +7742,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -8027,254 +7844,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8296,20 +7871,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8343,9 +7906,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8353,59 +7913,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -8478,6 +8007,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -8735,270 +8267,267 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="18" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="20" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="24" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="27" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="30" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="33" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="27" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="27" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="35" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="39" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="39" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="39" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="39" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="40" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="28" t="s">
+      <c r="E25" s="38"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="41" t="s">
+      <c r="E26" s="38"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C191" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+    <sheetView topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="21.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="58.8296296296296" customWidth="1"/>
-    <col min="7" max="7" width="28.162962962963" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="58.77734375" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9012,7 +8541,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -9100,7 +8629,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -9147,7 +8676,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -9197,7 +8726,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>88</v>
       </c>
@@ -9254,7 +8783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -9305,7 +8834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>104</v>
       </c>
@@ -9353,7 +8882,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>108</v>
       </c>
@@ -9404,7 +8933,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>112</v>
       </c>
@@ -9461,7 +8990,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>119</v>
       </c>
@@ -9509,7 +9038,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>123</v>
       </c>
@@ -19329,28 +18858,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H308"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H310"/>
   <sheetViews>
-    <sheetView topLeftCell="E296" workbookViewId="0">
-      <selection activeCell="G310" sqref="G310"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="E311" sqref="E311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="35.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="17.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="64.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="64.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -19364,7 +18892,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -19375,7 +18903,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -19398,7 +18926,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:8">
       <c r="E8" t="s">
         <v>954</v>
       </c>
@@ -19410,7 +18938,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:8">
       <c r="E9" t="s">
         <v>956</v>
       </c>
@@ -19422,7 +18950,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:8">
       <c r="E10" t="s">
         <v>958</v>
       </c>
@@ -19434,7 +18962,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:8">
       <c r="E11" t="s">
         <v>960</v>
       </c>
@@ -19446,7 +18974,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" spans="1:8">
       <c r="E12" s="7" t="s">
         <v>962</v>
       </c>
@@ -19459,7 +18987,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" spans="1:8">
       <c r="E13" s="7" t="s">
         <v>964</v>
       </c>
@@ -19472,7 +19000,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:8">
       <c r="E14" t="s">
         <v>966</v>
       </c>
@@ -19484,7 +19012,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:8">
       <c r="E15" t="s">
         <v>968</v>
       </c>
@@ -19496,7 +19024,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:8">
       <c r="E16" t="s">
         <v>970</v>
       </c>
@@ -23012,15 +22540,38 @@
         <v>1495</v>
       </c>
     </row>
+    <row r="309" spans="5:7">
+      <c r="E309" s="42" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F309" s="42" t="str">
+        <f>菜单SAAS版!E17</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="G309" s="42" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="310" spans="5:7">
+      <c r="E310" s="42" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F310" s="42" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="G310" s="42" t="s">
+        <v>1885</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O302"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
@@ -23029,12 +22580,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="19.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="14.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="14.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -23048,7 +22599,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -23106,7 +22657,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1508</v>
       </c>
@@ -23138,7 +22689,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1513</v>
       </c>
@@ -23170,7 +22721,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1516</v>
       </c>
@@ -23196,7 +22747,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1519</v>
       </c>
@@ -23222,7 +22773,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1521</v>
       </c>
@@ -23254,7 +22805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1524</v>
       </c>
@@ -23283,7 +22834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1527</v>
       </c>
@@ -23312,7 +22863,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1530</v>
       </c>
@@ -23341,7 +22892,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1533</v>
       </c>
@@ -23370,7 +22921,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1536</v>
       </c>
@@ -23402,7 +22953,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1539</v>
       </c>
@@ -23434,7 +22985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1542</v>
       </c>
@@ -23466,7 +23017,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>1545</v>
       </c>
@@ -23492,7 +23043,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>1547</v>
       </c>
@@ -23524,7 +23075,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1550</v>
       </c>
@@ -23556,7 +23107,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1553</v>
       </c>
@@ -23588,7 +23139,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1556</v>
       </c>
@@ -23614,7 +23165,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1558</v>
       </c>
@@ -23643,7 +23194,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1561</v>
       </c>
@@ -23672,7 +23223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -23701,7 +23252,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1571</v>
       </c>
@@ -23720,7 +23271,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1571</v>
       </c>
@@ -23739,7 +23290,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1571</v>
       </c>
@@ -23758,7 +23309,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1571</v>
       </c>
@@ -28908,14 +28459,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y224"/>
   <sheetViews>
     <sheetView topLeftCell="A206" workbookViewId="0">
@@ -28924,12 +28474,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="24.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="21.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="19.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -28943,7 +28493,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -29031,7 +28581,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1590</v>
       </c>
@@ -29090,7 +28640,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1595</v>
       </c>
@@ -29149,7 +28699,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1600</v>
       </c>
@@ -29212,7 +28762,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1607</v>
       </c>
@@ -29275,7 +28825,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1615</v>
       </c>
@@ -29338,7 +28888,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1623</v>
       </c>
@@ -29401,7 +28951,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" s="5" t="s">
         <v>1631</v>
       </c>
@@ -29458,7 +29008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -34067,23 +33617,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -34097,7 +33644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -34155,7 +33702,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1508</v>
       </c>
@@ -34187,7 +33734,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1513</v>
       </c>
@@ -34216,7 +33763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1516</v>
       </c>
@@ -34248,7 +33795,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1519</v>
       </c>
@@ -34280,7 +33827,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1521</v>
       </c>
@@ -34312,7 +33859,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1524</v>
       </c>
@@ -34344,7 +33891,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1527</v>
       </c>
@@ -34376,7 +33923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1530</v>
       </c>
@@ -34408,7 +33955,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1533</v>
       </c>
@@ -34440,7 +33987,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1536</v>
       </c>
@@ -34472,7 +34019,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1539</v>
       </c>
@@ -34504,7 +34051,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1542</v>
       </c>
@@ -34536,7 +34083,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -34565,7 +34112,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1571</v>
       </c>
@@ -34584,7 +34131,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1571</v>
       </c>
@@ -34603,7 +34150,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1571</v>
       </c>
@@ -34622,7 +34169,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1571</v>
       </c>
@@ -34641,7 +34188,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1571</v>
       </c>
@@ -34660,7 +34207,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1571</v>
       </c>
@@ -34679,7 +34226,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1571</v>
       </c>
@@ -34698,7 +34245,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1571</v>
       </c>
@@ -34717,7 +34264,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1571</v>
       </c>
@@ -34736,7 +34283,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1571</v>
       </c>
@@ -34755,7 +34302,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1571</v>
       </c>
@@ -34832,8 +34379,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\iam\hzero-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96D7F11-920E-4D3B-9DEE-A6CE2CA782B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498312C2-7E29-4847-9C0A-382F7304FC58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5934" uniqueCount="1888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5936" uniqueCount="1890">
   <si>
     <r>
       <rPr>
@@ -7532,12 +7532,18 @@
   <si>
     <t>iam_menu_permission-325</t>
   </si>
+  <si>
+    <t>iam_menu_permission-326</t>
+  </si>
+  <si>
+    <t>hzero-iam.choerodon-client.assignRoles</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7710,6 +7716,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -7849,7 +7862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7913,11 +7926,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7928,7 +7942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8297,11 +8311,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="14"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -8314,17 +8328,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="38"/>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -8435,11 +8449,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="34" t="s">
@@ -8516,7 +8530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y208"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" workbookViewId="0">
+    <sheetView topLeftCell="C31" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -18865,10 +18879,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H310"/>
+  <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="E311" sqref="E311"/>
+      <selection activeCell="G311" sqref="G311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -22541,27 +22555,39 @@
       </c>
     </row>
     <row r="309" spans="5:7">
-      <c r="E309" s="42" t="s">
+      <c r="E309" s="37" t="s">
         <v>1886</v>
       </c>
-      <c r="F309" s="42" t="str">
+      <c r="F309" s="37" t="str">
         <f>菜单SAAS版!E17</f>
         <v>iam_menu-17</v>
       </c>
-      <c r="G309" s="42" t="s">
+      <c r="G309" s="37" t="s">
         <v>1885</v>
       </c>
     </row>
     <row r="310" spans="5:7">
-      <c r="E310" s="42" t="s">
+      <c r="E310" s="37" t="s">
         <v>1887</v>
       </c>
-      <c r="F310" s="42" t="str">
+      <c r="F310" s="37" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-18</v>
       </c>
-      <c r="G310" s="42" t="s">
+      <c r="G310" s="37" t="s">
         <v>1885</v>
+      </c>
+    </row>
+    <row r="311" spans="5:7">
+      <c r="E311" s="43" t="s">
+        <v>1888</v>
+      </c>
+      <c r="F311" s="43" t="str">
+        <f>菜单SAAS版!E52</f>
+        <v>iam_menu-52</v>
+      </c>
+      <c r="G311" s="43" t="s">
+        <v>1889</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6088" uniqueCount="1939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6104" uniqueCount="1943">
   <si>
     <r>
       <rPr>
@@ -7479,6 +7479,18 @@
     <t>iam_role_permission-235</t>
   </si>
   <si>
+    <t>iam_role_permission-236</t>
+  </si>
+  <si>
+    <t>iam_role_permission-237</t>
+  </si>
+  <si>
+    <t>iam_role_permission-238</t>
+  </si>
+  <si>
+    <t>iam_role_permission-239</t>
+  </si>
+  <si>
     <t>TENANT_MGR</t>
   </si>
   <si>
@@ -7579,10 +7591,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7651,18 +7663,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="9"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -7701,34 +7702,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7741,23 +7720,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7766,14 +7774,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7795,15 +7795,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7817,31 +7827,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7876,13 +7871,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -7895,12 +7883,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -7944,13 +7926,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7962,43 +7968,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8010,85 +7992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8106,7 +8010,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8118,13 +8070,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8231,17 +8213,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8261,13 +8237,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8298,9 +8278,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8308,8 +8290,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8331,153 +8313,153 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8491,9 +8473,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -8508,40 +8487,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8554,7 +8533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8957,8 +8936,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="17" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="15" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
@@ -8974,79 +8953,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="22"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="16"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -9054,56 +9033,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="39" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9113,30 +9092,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -9144,7 +9123,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="41" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -9152,25 +9131,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="43" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9196,7 +9175,7 @@
   <dimension ref="A1:Y215"/>
   <sheetViews>
     <sheetView topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="F220" sqref="F220"/>
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -13463,7 +13442,7 @@
       <c r="L89" t="s">
         <v>92</v>
       </c>
-      <c r="M89" s="16">
+      <c r="M89" s="13">
         <v>50</v>
       </c>
       <c r="N89" t="s">
@@ -19703,7 +19682,6 @@
       <c r="L212" t="s">
         <v>100</v>
       </c>
-      <c r="M212"/>
       <c r="N212" t="s">
         <v>82</v>
       </c>
@@ -23558,194 +23536,194 @@
       </c>
     </row>
     <row r="309" spans="5:7">
-      <c r="E309" s="12" t="s">
+      <c r="E309" s="7" t="s">
         <v>1524</v>
       </c>
-      <c r="F309" s="12" t="str">
+      <c r="F309" s="7" t="str">
         <f>菜单SAAS版!E17</f>
         <v>iam_menu-17</v>
       </c>
-      <c r="G309" s="12" t="s">
+      <c r="G309" s="7" t="s">
         <v>1525</v>
       </c>
     </row>
     <row r="310" spans="5:7">
-      <c r="E310" s="12" t="s">
+      <c r="E310" s="7" t="s">
         <v>1526</v>
       </c>
-      <c r="F310" s="12" t="str">
+      <c r="F310" s="7" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-18</v>
       </c>
-      <c r="G310" s="12" t="s">
+      <c r="G310" s="7" t="s">
         <v>1525</v>
       </c>
     </row>
     <row r="311" spans="5:7">
-      <c r="E311" s="13" t="s">
+      <c r="E311" s="12" t="s">
         <v>1527</v>
       </c>
-      <c r="F311" s="13" t="str">
+      <c r="F311" s="12" t="str">
         <f>菜单SAAS版!E52</f>
         <v>iam_menu-52</v>
       </c>
-      <c r="G311" s="13" t="s">
+      <c r="G311" s="12" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="312" s="8" customFormat="1" spans="5:7">
-      <c r="E312" s="14" t="s">
+      <c r="E312" s="8" t="s">
         <v>1529</v>
       </c>
-      <c r="F312" s="14" t="str">
+      <c r="F312" s="8" t="str">
         <f>菜单SAAS版!E209</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G312" s="15" t="s">
+      <c r="G312" s="8" t="s">
         <v>1530</v>
       </c>
     </row>
     <row r="313" s="8" customFormat="1" spans="5:7">
-      <c r="E313" s="14" t="s">
+      <c r="E313" s="8" t="s">
         <v>1531</v>
       </c>
-      <c r="F313" s="14" t="str">
+      <c r="F313" s="8" t="str">
         <f>菜单SAAS版!E209</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G313" s="15" t="s">
+      <c r="G313" s="8" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="314" s="8" customFormat="1" spans="5:7">
-      <c r="E314" s="14" t="s">
+      <c r="E314" s="8" t="s">
         <v>1532</v>
       </c>
-      <c r="F314" s="14" t="str">
+      <c r="F314" s="8" t="str">
         <f>菜单SAAS版!E209</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G314" s="15" t="s">
+      <c r="G314" s="8" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="315" spans="5:7">
-      <c r="E315" s="14" t="s">
+      <c r="E315" s="8" t="s">
         <v>1533</v>
       </c>
-      <c r="F315" s="14" t="str">
+      <c r="F315" s="8" t="str">
         <f>菜单SAAS版!E209</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G315" s="15" t="s">
+      <c r="G315" s="8" t="s">
         <v>1517</v>
       </c>
     </row>
     <row r="316" spans="5:7">
-      <c r="E316" s="14" t="s">
+      <c r="E316" s="8" t="s">
         <v>1534</v>
       </c>
-      <c r="F316" s="14" t="str">
+      <c r="F316" s="8" t="str">
         <f>菜单SAAS版!E210</f>
         <v>iam_menu-225</v>
       </c>
-      <c r="G316" s="15" t="s">
+      <c r="G316" s="8" t="s">
         <v>1521</v>
       </c>
     </row>
     <row r="317" spans="5:7">
-      <c r="E317" s="14" t="s">
+      <c r="E317" s="8" t="s">
         <v>1535</v>
       </c>
-      <c r="F317" s="14" t="str">
+      <c r="F317" s="8" t="str">
         <f>菜单SAAS版!E211</f>
         <v>iam_menu-226</v>
       </c>
-      <c r="G317" s="15" t="s">
+      <c r="G317" s="8" t="s">
         <v>1519</v>
       </c>
     </row>
     <row r="318" spans="5:7">
-      <c r="E318" s="14" t="s">
+      <c r="E318" s="8" t="s">
         <v>1536</v>
       </c>
-      <c r="F318" s="14" t="str">
+      <c r="F318" s="8" t="str">
         <f>菜单SAAS版!E212</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G318" s="15" t="s">
+      <c r="G318" s="8" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="319" spans="5:7">
-      <c r="E319" s="14" t="s">
+      <c r="E319" s="8" t="s">
         <v>1537</v>
       </c>
-      <c r="F319" s="14" t="str">
+      <c r="F319" s="8" t="str">
         <f>菜单SAAS版!E212</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G319" s="15" t="s">
+      <c r="G319" s="8" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="320" spans="5:7">
-      <c r="E320" s="14" t="s">
+      <c r="E320" s="8" t="s">
         <v>1538</v>
       </c>
-      <c r="F320" s="14" t="str">
+      <c r="F320" s="8" t="str">
         <f>菜单SAAS版!E212</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G320" s="15" t="s">
+      <c r="G320" s="8" t="s">
         <v>1509</v>
       </c>
     </row>
     <row r="321" spans="5:7">
-      <c r="E321" s="14" t="s">
+      <c r="E321" s="8" t="s">
         <v>1539</v>
       </c>
-      <c r="F321" s="14" t="str">
+      <c r="F321" s="8" t="str">
         <f>菜单SAAS版!E212</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G321" s="15" t="s">
+      <c r="G321" s="8" t="s">
         <v>1503</v>
       </c>
     </row>
     <row r="322" spans="5:7">
-      <c r="E322" s="14" t="s">
+      <c r="E322" s="8" t="s">
         <v>1540</v>
       </c>
-      <c r="F322" s="14" t="str">
+      <c r="F322" s="8" t="str">
         <f>菜单SAAS版!E213</f>
         <v>iam_menu-228</v>
       </c>
-      <c r="G322" s="15" t="s">
+      <c r="G322" s="8" t="s">
         <v>1507</v>
       </c>
     </row>
     <row r="323" spans="5:7">
-      <c r="E323" s="14" t="s">
+      <c r="E323" s="8" t="s">
         <v>1541</v>
       </c>
-      <c r="F323" s="14" t="str">
+      <c r="F323" s="8" t="str">
         <f>菜单SAAS版!E214</f>
         <v>iam_menu-229</v>
       </c>
-      <c r="G323" s="15" t="s">
+      <c r="G323" s="8" t="s">
         <v>1505</v>
       </c>
     </row>
     <row r="324" spans="5:7">
-      <c r="E324" s="14" t="s">
+      <c r="E324" s="8" t="s">
         <v>1542</v>
       </c>
-      <c r="F324" s="14" t="str">
+      <c r="F324" s="8" t="str">
         <f>菜单SAAS版!E215</f>
         <v>iam_menu-230</v>
       </c>
-      <c r="G324" s="15" t="s">
+      <c r="G324" s="8" t="s">
         <v>1515</v>
       </c>
     </row>
@@ -29653,10 +29631,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y231"/>
+  <dimension ref="A1:Y235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="A232" sqref="$A232:$XFD232"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="F238" sqref="F238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -34954,6 +34932,94 @@
         <v>1691</v>
       </c>
       <c r="J231" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="232" spans="5:10">
+      <c r="E232" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F232" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G232" t="str">
+        <f>菜单SAAS版!$E$212</f>
+        <v>iam_menu-227</v>
+      </c>
+      <c r="H232" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I232" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J232" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="233" spans="5:10">
+      <c r="E233" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F233" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G233" t="str">
+        <f>菜单SAAS版!$E$213</f>
+        <v>iam_menu-228</v>
+      </c>
+      <c r="H233" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I233" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J233" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="234" spans="5:10">
+      <c r="E234" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F234" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G234" t="str">
+        <f>菜单SAAS版!$E$214</f>
+        <v>iam_menu-229</v>
+      </c>
+      <c r="H234" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I234" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J234" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="235" spans="5:10">
+      <c r="E235" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F235" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G235" t="str">
+        <f>菜单SAAS版!$E$215</f>
+        <v>iam_menu-230</v>
+      </c>
+      <c r="H235" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I235" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J235" t="s">
         <v>1692</v>
       </c>
     </row>
@@ -35051,10 +35117,10 @@
         <v>1555</v>
       </c>
       <c r="F8" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="G8" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -35063,10 +35129,10 @@
         <v>1558</v>
       </c>
       <c r="J8" t="s">
-        <v>1910</v>
+        <v>1914</v>
       </c>
       <c r="K8" t="s">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -35083,10 +35149,10 @@
         <v>1560</v>
       </c>
       <c r="F9" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="G9" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
@@ -35095,7 +35161,7 @@
         <v>1565</v>
       </c>
       <c r="J9" t="s">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -35112,10 +35178,10 @@
         <v>1563</v>
       </c>
       <c r="F10" t="s">
-        <v>1914</v>
+        <v>1918</v>
       </c>
       <c r="G10" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -35124,10 +35190,10 @@
         <v>1558</v>
       </c>
       <c r="J10" t="s">
-        <v>1915</v>
+        <v>1919</v>
       </c>
       <c r="K10" t="s">
-        <v>1915</v>
+        <v>1919</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -35144,10 +35210,10 @@
         <v>1566</v>
       </c>
       <c r="F11" t="s">
-        <v>1916</v>
+        <v>1920</v>
       </c>
       <c r="G11" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -35156,10 +35222,10 @@
         <v>1558</v>
       </c>
       <c r="J11" t="s">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="K11" t="s">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -35176,10 +35242,10 @@
         <v>1568</v>
       </c>
       <c r="F12" t="s">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="G12" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -35188,10 +35254,10 @@
         <v>1558</v>
       </c>
       <c r="J12" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="K12" t="s">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -35208,10 +35274,10 @@
         <v>1571</v>
       </c>
       <c r="F13" t="s">
-        <v>1921</v>
+        <v>1925</v>
       </c>
       <c r="G13" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -35220,10 +35286,10 @@
         <v>1558</v>
       </c>
       <c r="J13" t="s">
-        <v>1922</v>
+        <v>1926</v>
       </c>
       <c r="K13" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -35240,10 +35306,10 @@
         <v>1574</v>
       </c>
       <c r="F14" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="G14" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
@@ -35252,7 +35318,7 @@
         <v>1558</v>
       </c>
       <c r="J14" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="K14" t="s">
         <v>1669</v>
@@ -35272,10 +35338,10 @@
         <v>1577</v>
       </c>
       <c r="F15" t="s">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="G15" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -35284,10 +35350,10 @@
         <v>1558</v>
       </c>
       <c r="J15" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="K15" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -35304,10 +35370,10 @@
         <v>1580</v>
       </c>
       <c r="F16" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="G16" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
@@ -35316,10 +35382,10 @@
         <v>1558</v>
       </c>
       <c r="J16" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="K16" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -35336,10 +35402,10 @@
         <v>1583</v>
       </c>
       <c r="F17" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="G17" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -35348,10 +35414,10 @@
         <v>1558</v>
       </c>
       <c r="J17" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="K17" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -35368,10 +35434,10 @@
         <v>1586</v>
       </c>
       <c r="F18" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="G18" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
@@ -35380,10 +35446,10 @@
         <v>1558</v>
       </c>
       <c r="J18" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="K18" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -35400,10 +35466,10 @@
         <v>1589</v>
       </c>
       <c r="F19" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="G19" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
@@ -35412,10 +35478,10 @@
         <v>1558</v>
       </c>
       <c r="J19" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="K19" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -35461,7 +35527,7 @@
         <v>1618</v>
       </c>
       <c r="F22" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -35480,7 +35546,7 @@
         <v>1618</v>
       </c>
       <c r="F23" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -35499,7 +35565,7 @@
         <v>1618</v>
       </c>
       <c r="F24" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -35518,7 +35584,7 @@
         <v>1618</v>
       </c>
       <c r="F25" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -35537,7 +35603,7 @@
         <v>1618</v>
       </c>
       <c r="F26" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -35556,7 +35622,7 @@
         <v>1618</v>
       </c>
       <c r="F27" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -35575,7 +35641,7 @@
         <v>1618</v>
       </c>
       <c r="F28" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -35594,7 +35660,7 @@
         <v>1618</v>
       </c>
       <c r="F29" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -35613,7 +35679,7 @@
         <v>1618</v>
       </c>
       <c r="F30" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -35632,7 +35698,7 @@
         <v>1618</v>
       </c>
       <c r="F31" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -35651,7 +35717,7 @@
         <v>1618</v>
       </c>
       <c r="F32" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -35670,7 +35736,7 @@
         <v>1618</v>
       </c>
       <c r="F33" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -35689,7 +35755,7 @@
         <v>1618</v>
       </c>
       <c r="F34" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -35708,7 +35774,7 @@
         <v>1618</v>
       </c>
       <c r="F35" t="s">
-        <v>1909</v>
+        <v>1913</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\choerodon\iam\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C407206-4229-4C2B-A423-534B51ED1CA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB80FC8-7748-4FCC-84D2-2908CEF2294A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5909" uniqueCount="1878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5911" uniqueCount="1880">
   <si>
     <r>
       <rPr>
@@ -48,7 +48,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -80,7 +79,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -99,7 +97,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -118,7 +115,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -169,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -188,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -207,7 +201,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -230,7 +223,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -251,7 +243,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -273,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -294,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -325,7 +314,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -356,7 +344,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -375,7 +362,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -394,7 +380,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -413,7 +398,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -432,7 +416,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -461,7 +444,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -480,7 +462,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -499,7 +480,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -518,7 +498,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -549,7 +528,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -568,7 +546,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -587,7 +564,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -607,7 +583,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -626,7 +601,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -646,7 +620,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -677,7 +650,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -696,7 +668,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -720,7 +691,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -739,7 +709,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -758,7 +727,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -777,7 +745,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -796,7 +763,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -827,7 +793,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -858,7 +823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -889,7 +853,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -908,7 +871,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -932,7 +894,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -951,7 +912,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -970,7 +930,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -990,7 +949,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -1010,7 +968,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1030,7 +987,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1051,7 +1007,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1071,7 +1026,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1087,7 +1041,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1108,7 +1061,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1139,7 +1091,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1158,7 +1109,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1179,7 +1129,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1211,7 +1160,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1230,7 +1178,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1249,7 +1196,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1283,7 +1229,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1302,7 +1247,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1321,7 +1265,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1340,7 +1283,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1385,7 +1327,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1430,7 +1371,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1464,7 +1404,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1483,7 +1422,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1502,7 +1440,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1522,7 +1459,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1546,7 +1482,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1565,7 +1500,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1584,7 +1518,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1604,7 +1537,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1658,7 +1590,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1677,7 +1608,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1696,7 +1626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1716,7 +1645,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1735,7 +1663,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1754,7 +1681,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1773,7 +1699,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1793,7 +1718,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1812,7 +1736,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1831,7 +1754,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1850,7 +1772,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1915,7 +1836,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1946,7 +1866,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1965,7 +1884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -7502,12 +7420,18 @@
   <si>
     <t>choerodon-monitor.audit-op-log-c7n.sitePage</t>
   </si>
+  <si>
+    <t>choerodon-iam.choerodon-client.assignRoles</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-323</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7542,6 +7466,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7549,30 +7474,35 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7580,37 +7510,36 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7629,7 +7558,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7649,14 +7577,6 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7666,25 +7586,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
     </font>
   </fonts>
   <fills count="6">
@@ -7890,11 +7800,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7905,7 +7816,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8274,11 +8184,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="15"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
@@ -8291,17 +8201,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="39"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
@@ -8412,11 +8322,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="35" t="s">
@@ -8483,7 +8393,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -8493,7 +8403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A61" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18784,17 +18694,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H307"/>
+  <dimension ref="A1:H308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B275" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B290" workbookViewId="0">
+      <selection activeCell="G309" sqref="G309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -22450,12 +22360,24 @@
         <f>菜单SAAS版!E71</f>
         <v>iam_menu-71</v>
       </c>
-      <c r="G307" s="43" t="s">
+      <c r="G307" s="38" t="s">
         <v>1722</v>
       </c>
     </row>
+    <row r="308" spans="5:7">
+      <c r="E308" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F308" t="str">
+        <f>菜单SAAS版!E52</f>
+        <v>iam_menu-52</v>
+      </c>
+      <c r="G308" t="s">
+        <v>1878</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -28349,7 +28271,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33485,7 +33407,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34247,7 +34169,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -7417,7 +7417,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7446,12 +7446,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7518,9 +7512,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7531,15 +7607,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7561,31 +7639,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7600,71 +7655,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7689,12 +7683,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -7750,6 +7738,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7762,13 +7774,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7780,19 +7840,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7804,103 +7870,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7918,19 +7894,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8037,11 +8025,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8057,6 +8060,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8080,221 +8118,171 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -8304,46 +8292,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8356,7 +8343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8762,7 +8749,7 @@
     <col min="1" max="1" width="15.5555555555556" style="12" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="13" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
@@ -8776,79 +8763,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="18"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -8856,56 +8843,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8915,64 +8902,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="19"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -19299,7 +19286,7 @@
   <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B292" workbookViewId="0">
-      <selection activeCell="F312" sqref="F312"/>
+      <selection activeCell="G312" sqref="G312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -23004,7 +22991,7 @@
         <v>iam_menu-71</v>
       </c>
       <c r="G311" t="s">
-        <v>1481</v>
+        <v>1447</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5917" uniqueCount="1884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5921" uniqueCount="1885">
   <si>
     <r>
       <rPr>
@@ -7314,6 +7314,9 @@
     <t>iam_role_permission-227</t>
   </si>
   <si>
+    <t>iam_role_permission-228</t>
+  </si>
+  <si>
     <t>TENANT_MGR</t>
   </si>
   <si>
@@ -7412,10 +7415,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -7512,29 +7515,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7547,40 +7557,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7593,13 +7574,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -7607,11 +7581,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7639,8 +7612,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7655,10 +7658,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7738,7 +7741,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7750,25 +7873,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7780,145 +7921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8025,6 +8028,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -8036,15 +8059,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8064,26 +8078,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8095,6 +8089,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8125,148 +8128,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -19285,7 +19288,7 @@
   <sheetPr/>
   <dimension ref="A1:H311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B292" workbookViewId="0">
+    <sheetView topLeftCell="B286" workbookViewId="0">
       <selection activeCell="G312" sqref="G312"/>
     </sheetView>
   </sheetViews>
@@ -23005,7 +23008,7 @@
   <sheetPr/>
   <dimension ref="A1:O302"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A289" workbookViewId="0">
       <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
@@ -28898,10 +28901,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y223"/>
+  <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="J224" sqref="J224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -34023,6 +34026,28 @@
         <v>1644</v>
       </c>
       <c r="J223" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="224" spans="5:10">
+      <c r="E224" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F224" t="str">
+        <f>E10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G224" t="str">
+        <f>菜单SAAS版!E71</f>
+        <v>iam_menu-71</v>
+      </c>
+      <c r="H224" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I224" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J224" t="s">
         <v>1645</v>
       </c>
     </row>
@@ -34120,10 +34145,10 @@
         <v>1508</v>
       </c>
       <c r="F8" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="G8" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -34132,10 +34157,10 @@
         <v>1511</v>
       </c>
       <c r="J8" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="K8" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -34152,10 +34177,10 @@
         <v>1513</v>
       </c>
       <c r="F9" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="G9" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
@@ -34164,7 +34189,7 @@
         <v>1518</v>
       </c>
       <c r="J9" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -34181,10 +34206,10 @@
         <v>1516</v>
       </c>
       <c r="F10" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="G10" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -34193,10 +34218,10 @@
         <v>1511</v>
       </c>
       <c r="J10" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="K10" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -34213,10 +34238,10 @@
         <v>1519</v>
       </c>
       <c r="F11" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="G11" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -34225,10 +34250,10 @@
         <v>1511</v>
       </c>
       <c r="J11" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="K11" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -34245,10 +34270,10 @@
         <v>1521</v>
       </c>
       <c r="F12" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="G12" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -34257,10 +34282,10 @@
         <v>1511</v>
       </c>
       <c r="J12" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="K12" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -34277,10 +34302,10 @@
         <v>1524</v>
       </c>
       <c r="F13" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="G13" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -34289,10 +34314,10 @@
         <v>1511</v>
       </c>
       <c r="J13" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="K13" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -34309,10 +34334,10 @@
         <v>1527</v>
       </c>
       <c r="F14" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="G14" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
@@ -34321,7 +34346,7 @@
         <v>1511</v>
       </c>
       <c r="J14" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="K14" t="s">
         <v>1622</v>
@@ -34341,10 +34366,10 @@
         <v>1530</v>
       </c>
       <c r="F15" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="G15" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -34353,10 +34378,10 @@
         <v>1511</v>
       </c>
       <c r="J15" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="K15" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -34373,10 +34398,10 @@
         <v>1533</v>
       </c>
       <c r="F16" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="G16" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
@@ -34385,10 +34410,10 @@
         <v>1511</v>
       </c>
       <c r="J16" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="K16" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -34405,10 +34430,10 @@
         <v>1536</v>
       </c>
       <c r="F17" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="G17" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -34417,10 +34442,10 @@
         <v>1511</v>
       </c>
       <c r="J17" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="K17" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -34437,10 +34462,10 @@
         <v>1539</v>
       </c>
       <c r="F18" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="G18" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
@@ -34449,10 +34474,10 @@
         <v>1511</v>
       </c>
       <c r="J18" t="s">
+        <v>1882</v>
+      </c>
+      <c r="K18" t="s">
         <v>1881</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1880</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -34469,10 +34494,10 @@
         <v>1542</v>
       </c>
       <c r="F19" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="G19" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
@@ -34481,10 +34506,10 @@
         <v>1511</v>
       </c>
       <c r="J19" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K19" t="s">
         <v>1883</v>
-      </c>
-      <c r="K19" t="s">
-        <v>1882</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -34530,7 +34555,7 @@
         <v>1571</v>
       </c>
       <c r="F22" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -34549,7 +34574,7 @@
         <v>1571</v>
       </c>
       <c r="F23" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -34568,7 +34593,7 @@
         <v>1571</v>
       </c>
       <c r="F24" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -34587,7 +34612,7 @@
         <v>1571</v>
       </c>
       <c r="F25" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -34606,7 +34631,7 @@
         <v>1571</v>
       </c>
       <c r="F26" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -34625,7 +34650,7 @@
         <v>1571</v>
       </c>
       <c r="F27" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -34644,7 +34669,7 @@
         <v>1571</v>
       </c>
       <c r="F28" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -34663,7 +34688,7 @@
         <v>1571</v>
       </c>
       <c r="F29" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -34682,7 +34707,7 @@
         <v>1571</v>
       </c>
       <c r="F30" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -34701,7 +34726,7 @@
         <v>1571</v>
       </c>
       <c r="F31" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -34720,7 +34745,7 @@
         <v>1571</v>
       </c>
       <c r="F32" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -34739,7 +34764,7 @@
         <v>1571</v>
       </c>
       <c r="F33" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -34758,7 +34783,7 @@
         <v>1571</v>
       </c>
       <c r="F34" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -34777,7 +34802,7 @@
         <v>1571</v>
       </c>
       <c r="F35" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -7415,10 +7415,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -7515,43 +7515,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7565,32 +7529,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7612,21 +7574,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -7643,7 +7599,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7654,14 +7662,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7741,19 +7741,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7777,19 +7831,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7801,61 +7879,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7873,55 +7921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8030,10 +8030,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -8041,24 +8039,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8078,6 +8063,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8089,15 +8092,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8117,159 +8111,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8987,8 +8987,8 @@
   <sheetPr/>
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView topLeftCell="B68" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView topLeftCell="C67" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -19288,8 +19288,8 @@
   <sheetPr/>
   <dimension ref="A1:H311"/>
   <sheetViews>
-    <sheetView topLeftCell="B286" workbookViewId="0">
-      <selection activeCell="G312" sqref="G312"/>
+    <sheetView topLeftCell="B292" workbookViewId="0">
+      <selection activeCell="F312" sqref="F312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -22894,8 +22894,8 @@
         <v>1480</v>
       </c>
       <c r="F303" t="str">
-        <f>菜单SAAS版!E71</f>
-        <v>iam_menu-71</v>
+        <f>菜单SAAS版!E73</f>
+        <v>iam_menu-73</v>
       </c>
       <c r="G303" t="s">
         <v>1481</v>
@@ -22918,8 +22918,8 @@
         <v>1484</v>
       </c>
       <c r="F305" t="str">
-        <f>菜单SAAS版!E71</f>
-        <v>iam_menu-71</v>
+        <f>菜单SAAS版!E73</f>
+        <v>iam_menu-73</v>
       </c>
       <c r="G305" t="s">
         <v>1485</v>
@@ -22930,8 +22930,8 @@
         <v>1486</v>
       </c>
       <c r="F306" t="str">
-        <f>菜单SAAS版!E71</f>
-        <v>iam_menu-71</v>
+        <f>菜单SAAS版!E73</f>
+        <v>iam_menu-73</v>
       </c>
       <c r="G306" t="s">
         <v>1487</v>
@@ -22942,8 +22942,8 @@
         <v>1488</v>
       </c>
       <c r="F307" t="str">
-        <f>菜单SAAS版!E71</f>
-        <v>iam_menu-71</v>
+        <f>菜单SAAS版!E73</f>
+        <v>iam_menu-73</v>
       </c>
       <c r="G307" s="5" t="s">
         <v>1489</v>
@@ -22966,8 +22966,8 @@
         <v>1492</v>
       </c>
       <c r="F309" t="str">
-        <f>菜单SAAS版!E71</f>
-        <v>iam_menu-71</v>
+        <f>菜单SAAS版!E73</f>
+        <v>iam_menu-73</v>
       </c>
       <c r="G309" t="s">
         <v>1493</v>
@@ -22978,8 +22978,8 @@
         <v>1494</v>
       </c>
       <c r="F310" t="str">
-        <f>菜单SAAS版!E71</f>
-        <v>iam_menu-71</v>
+        <f>菜单SAAS版!E73</f>
+        <v>iam_menu-73</v>
       </c>
       <c r="G310" t="s">
         <v>997</v>
@@ -22990,8 +22990,8 @@
         <v>1495</v>
       </c>
       <c r="F311" t="str">
-        <f>菜单SAAS版!E71</f>
-        <v>iam_menu-71</v>
+        <f>菜单SAAS版!E73</f>
+        <v>iam_menu-73</v>
       </c>
       <c r="G311" t="s">
         <v>1447</v>
@@ -28903,8 +28903,8 @@
   <sheetPr/>
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="J224" sqref="J224"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="G225" sqref="G225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -34038,8 +34038,8 @@
         <v>iam_role-10</v>
       </c>
       <c r="G224" t="str">
-        <f>菜单SAAS版!E71</f>
-        <v>iam_menu-71</v>
+        <f>菜单SAAS版!E73</f>
+        <v>iam_menu-73</v>
       </c>
       <c r="H224" t="s">
         <v>1643</v>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\choerodon\iam\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC6DCD3-D79D-4A0F-ABC8-7CC83E01964D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED380E82-1056-4A8E-A6AA-CBA44574425D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -8568,21 +8568,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8597,7 +8597,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -8611,7 +8611,7 @@
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="18">
       <c r="C4" s="43" t="s">
         <v>3</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
@@ -8709,7 +8709,7 @@
       <c r="D14" s="26"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
@@ -8732,7 +8732,7 @@
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
@@ -8782,7 +8782,7 @@
       </c>
       <c r="E26" s="40"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
@@ -8807,20 +8807,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y219"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
-    <col min="6" max="6" width="58.75" customWidth="1"/>
-    <col min="7" max="7" width="28.08203125" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="58.77734375" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
     <col min="10" max="10" width="26.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.4140625" customWidth="1"/>
-    <col min="15" max="15" width="25.25" customWidth="1"/>
-    <col min="16" max="16" width="28.4140625" customWidth="1"/>
-    <col min="19" max="19" width="135.25" customWidth="1"/>
+    <col min="11" max="11" width="27.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.21875" customWidth="1"/>
+    <col min="16" max="16" width="28.44140625" customWidth="1"/>
+    <col min="19" max="19" width="135.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -19694,15 +19694,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="35.75" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="64.25" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="64.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -23663,11 +23663,11 @@
       <selection activeCell="G202" sqref="G202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -29553,15 +29553,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y235"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="G175" sqref="G175"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -32436,7 +32436,7 @@
       </c>
     </row>
     <row r="122" spans="5:10">
-      <c r="E122" t="s">
+      <c r="E122" s="6" t="s">
         <v>1595</v>
       </c>
       <c r="F122" t="str">
@@ -34955,7 +34955,7 @@
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\choerodon\iam\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED380E82-1056-4A8E-A6AA-CBA44574425D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8195FCE2-77FC-4021-8E89-E5CD19D7B595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6175" uniqueCount="1974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6176" uniqueCount="1975">
   <si>
     <r>
       <rPr>
@@ -48,7 +48,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -80,7 +79,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -99,7 +97,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -118,7 +115,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -169,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -188,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -207,7 +201,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -230,7 +223,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -251,7 +243,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -273,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -294,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -325,7 +314,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -356,7 +344,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -375,7 +362,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -394,7 +380,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -413,7 +398,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -432,7 +416,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -461,7 +444,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -480,7 +462,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -499,7 +480,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -518,7 +498,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -549,7 +528,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -568,7 +546,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -587,7 +564,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -607,7 +583,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -626,7 +601,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -646,7 +620,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -677,7 +650,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -696,7 +668,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -720,7 +691,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -739,7 +709,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -758,7 +727,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -777,7 +745,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -796,7 +763,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -827,7 +793,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -858,7 +823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -889,7 +853,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -908,7 +871,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -932,7 +894,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -951,7 +912,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -970,7 +930,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -990,7 +949,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -1010,7 +968,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1030,7 +987,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1051,7 +1007,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1071,7 +1026,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1087,7 +1041,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1108,7 +1061,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1139,7 +1091,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1158,7 +1109,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1179,7 +1129,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1211,7 +1160,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1230,7 +1178,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1249,7 +1196,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1283,7 +1229,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1302,7 +1247,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1321,7 +1265,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1340,7 +1283,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1385,7 +1327,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1430,7 +1371,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1464,7 +1404,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1483,7 +1422,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1502,7 +1440,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1522,7 +1459,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1546,7 +1482,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1565,7 +1500,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1584,7 +1518,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1604,7 +1537,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1658,7 +1590,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1677,7 +1608,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1696,7 +1626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1716,7 +1645,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1735,7 +1663,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1754,7 +1681,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1773,7 +1699,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1793,7 +1718,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1812,7 +1736,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1831,7 +1754,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1850,7 +1772,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1915,7 +1836,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1946,7 +1866,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1965,7 +1884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -7220,10 +7138,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>choerodon-iam.choerodon-organization-admin.pagingQueryOrgAdministrator</t>
   </si>
   <si>
@@ -7822,13 +7736,19 @@
   </si>
   <si>
     <t>choerodon-monitor.audit-op-log-c7n.sitePage</t>
+  </si>
+  <si>
+    <t>choerodon-iam.choerodon-organization-project.countDeployRecords</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-347</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7920,13 +7840,12 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7939,13 +7858,11 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7964,7 +7881,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7984,7 +7900,6 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7998,6 +7913,11 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
     </font>
   </fonts>
   <fills count="6">
@@ -8807,8 +8727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -19694,8 +19614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H332"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="E332" sqref="E332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -19762,7 +19682,7 @@
         <v>iam_menu-12</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -19786,7 +19706,7 @@
         <v>iam_menu-15</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -19798,7 +19718,7 @@
         <v>iam_menu-15</v>
       </c>
       <c r="G11" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -19810,7 +19730,7 @@
         <v>iam_menu-15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -19823,7 +19743,7 @@
         <v>iam_menu-15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H13" s="7"/>
     </row>
@@ -19836,7 +19756,7 @@
         <v>iam_menu-15</v>
       </c>
       <c r="G14" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -19848,7 +19768,7 @@
         <v>iam_menu-15</v>
       </c>
       <c r="G15" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -19860,7 +19780,7 @@
         <v>iam_menu-15</v>
       </c>
       <c r="G16" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="17" spans="5:7">
@@ -19872,7 +19792,7 @@
         <v>iam_menu-15</v>
       </c>
       <c r="G17" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -19884,7 +19804,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G18" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="19" spans="5:7">
@@ -19896,7 +19816,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G19" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="20" spans="5:7">
@@ -19908,7 +19828,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G20" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="21" spans="5:7">
@@ -19920,7 +19840,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G21" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="22" spans="5:7">
@@ -19932,7 +19852,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G22" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="23" spans="5:7">
@@ -19944,7 +19864,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G23" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="24" spans="5:7">
@@ -19956,7 +19876,7 @@
         <v>iam_menu-24</v>
       </c>
       <c r="G24" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="25" spans="5:7">
@@ -19968,7 +19888,7 @@
         <v>iam_menu-27</v>
       </c>
       <c r="G25" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="26" spans="5:7">
@@ -19980,7 +19900,7 @@
         <v>iam_menu-37</v>
       </c>
       <c r="G26" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="27" spans="5:7">
@@ -19992,7 +19912,7 @@
         <v>iam_menu-37</v>
       </c>
       <c r="G27" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="28" spans="5:7">
@@ -20004,7 +19924,7 @@
         <v>iam_menu-37</v>
       </c>
       <c r="G28" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="29" spans="5:7">
@@ -20016,7 +19936,7 @@
         <v>iam_menu-50</v>
       </c>
       <c r="G29" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="30" spans="5:7">
@@ -20028,7 +19948,7 @@
         <v>iam_menu-50</v>
       </c>
       <c r="G30" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="31" spans="5:7">
@@ -20040,7 +19960,7 @@
         <v>iam_menu-73</v>
       </c>
       <c r="G31" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="32" spans="5:7">
@@ -20052,7 +19972,7 @@
         <v>iam_menu-93</v>
       </c>
       <c r="G32" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="33" spans="5:7">
@@ -20064,7 +19984,7 @@
         <v>iam_menu-93</v>
       </c>
       <c r="G33" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="34" spans="5:7">
@@ -20076,7 +19996,7 @@
         <v>iam_menu-93</v>
       </c>
       <c r="G34" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="35" spans="5:7">
@@ -20088,7 +20008,7 @@
         <v>iam_menu-154</v>
       </c>
       <c r="G35" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="36" spans="5:7">
@@ -20112,7 +20032,7 @@
         <v>iam_menu-176</v>
       </c>
       <c r="G37" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="38" spans="5:7">
@@ -20124,7 +20044,7 @@
         <v>iam_menu-176</v>
       </c>
       <c r="G38" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="39" spans="5:7">
@@ -20136,7 +20056,7 @@
         <v>iam_menu-176</v>
       </c>
       <c r="G39" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="40" spans="5:7">
@@ -20148,7 +20068,7 @@
         <v>iam_menu-176</v>
       </c>
       <c r="G40" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="41" spans="5:7">
@@ -20160,7 +20080,7 @@
         <v>iam_menu-176</v>
       </c>
       <c r="G41" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="42" spans="5:7">
@@ -20172,7 +20092,7 @@
         <v>iam_menu-176</v>
       </c>
       <c r="G42" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="43" spans="5:7">
@@ -20184,7 +20104,7 @@
         <v>iam_menu-176</v>
       </c>
       <c r="G43" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="44" spans="5:7">
@@ -20196,7 +20116,7 @@
         <v>iam_menu-197</v>
       </c>
       <c r="G44" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="45" spans="5:7">
@@ -20208,7 +20128,7 @@
         <v>iam_menu-214</v>
       </c>
       <c r="G45" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="46" spans="5:7">
@@ -20220,7 +20140,7 @@
         <v>iam_menu-214</v>
       </c>
       <c r="G46" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="47" spans="5:7">
@@ -20232,7 +20152,7 @@
         <v>iam_menu-214</v>
       </c>
       <c r="G47" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="48" spans="5:7">
@@ -20244,7 +20164,7 @@
         <v>iam_menu-115</v>
       </c>
       <c r="G48" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="49" spans="5:7">
@@ -20256,7 +20176,7 @@
         <v>iam_menu-120</v>
       </c>
       <c r="G49" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="50" spans="5:7">
@@ -20268,7 +20188,7 @@
         <v>iam_menu-120</v>
       </c>
       <c r="G50" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="51" spans="5:7">
@@ -20280,7 +20200,7 @@
         <v>iam_menu-120</v>
       </c>
       <c r="G51" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="52" spans="5:7">
@@ -20292,7 +20212,7 @@
         <v>iam_menu-120</v>
       </c>
       <c r="G52" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="53" spans="5:7">
@@ -20304,7 +20224,7 @@
         <v>iam_menu-120</v>
       </c>
       <c r="G53" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="54" spans="5:7">
@@ -20316,7 +20236,7 @@
         <v>iam_menu-120</v>
       </c>
       <c r="G54" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="55" spans="5:7">
@@ -20328,7 +20248,7 @@
         <v>iam_menu-120</v>
       </c>
       <c r="G55" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="56" spans="5:7">
@@ -20340,7 +20260,7 @@
         <v>iam_menu-180</v>
       </c>
       <c r="G56" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="57" spans="5:7">
@@ -20352,7 +20272,7 @@
         <v>iam_menu-189</v>
       </c>
       <c r="G57" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="58" spans="5:7">
@@ -20364,7 +20284,7 @@
         <v>iam_menu-186</v>
       </c>
       <c r="G58" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="59" spans="5:7">
@@ -20376,7 +20296,7 @@
         <v>iam_menu-186</v>
       </c>
       <c r="G59" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="60" spans="5:7">
@@ -20388,7 +20308,7 @@
         <v>iam_menu-185</v>
       </c>
       <c r="G60" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="61" spans="5:7">
@@ -20400,7 +20320,7 @@
         <v>iam_menu-185</v>
       </c>
       <c r="G61" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="62" spans="5:7">
@@ -20412,7 +20332,7 @@
         <v>iam_menu-185</v>
       </c>
       <c r="G62" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="63" spans="5:7">
@@ -20424,7 +20344,7 @@
         <v>iam_menu-185</v>
       </c>
       <c r="G63" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="64" spans="5:7">
@@ -20436,7 +20356,7 @@
         <v>iam_menu-185</v>
       </c>
       <c r="G64" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="65" spans="5:7">
@@ -20448,7 +20368,7 @@
         <v>iam_menu-185</v>
       </c>
       <c r="G65" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="66" spans="5:7">
@@ -20460,7 +20380,7 @@
         <v>iam_menu-185</v>
       </c>
       <c r="G66" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="67" spans="5:7">
@@ -20472,7 +20392,7 @@
         <v>iam_menu-158</v>
       </c>
       <c r="G67" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="68" spans="5:7">
@@ -20484,7 +20404,7 @@
         <v>iam_menu-159</v>
       </c>
       <c r="G68" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="69" spans="5:7">
@@ -20496,7 +20416,7 @@
         <v>iam_menu-161</v>
       </c>
       <c r="G69" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="70" spans="5:7">
@@ -20508,7 +20428,7 @@
         <v>iam_menu-211</v>
       </c>
       <c r="G70" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="71" spans="5:7">
@@ -20520,7 +20440,7 @@
         <v>iam_menu-211</v>
       </c>
       <c r="G71" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="72" spans="5:7">
@@ -20532,7 +20452,7 @@
         <v>iam_menu-211</v>
       </c>
       <c r="G72" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="73" spans="5:7">
@@ -20544,7 +20464,7 @@
         <v>iam_menu-212</v>
       </c>
       <c r="G73" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="74" spans="5:7">
@@ -20556,7 +20476,7 @@
         <v>iam_menu-212</v>
       </c>
       <c r="G74" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="75" spans="5:7">
@@ -20568,7 +20488,7 @@
         <v>iam_menu-19</v>
       </c>
       <c r="G75" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="76" spans="5:7">
@@ -20580,7 +20500,7 @@
         <v>iam_menu-57</v>
       </c>
       <c r="G76" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="77" spans="5:7">
@@ -20592,7 +20512,7 @@
         <v>iam_menu-66</v>
       </c>
       <c r="G77" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="78" spans="5:7">
@@ -20604,7 +20524,7 @@
         <v>iam_menu-66</v>
       </c>
       <c r="G78" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="79" spans="5:7">
@@ -20616,7 +20536,7 @@
         <v>iam_menu-66</v>
       </c>
       <c r="G79" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="80" spans="5:7">
@@ -20628,7 +20548,7 @@
         <v>iam_menu-69</v>
       </c>
       <c r="G80" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="81" spans="5:7">
@@ -20640,7 +20560,7 @@
         <v>iam_menu-125</v>
       </c>
       <c r="G81" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="82" spans="5:7">
@@ -20652,7 +20572,7 @@
         <v>iam_menu-128</v>
       </c>
       <c r="G82" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="83" spans="5:7">
@@ -20664,7 +20584,7 @@
         <v>iam_menu-128</v>
       </c>
       <c r="G83" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="84" spans="5:7">
@@ -20676,7 +20596,7 @@
         <v>iam_menu-131</v>
       </c>
       <c r="G84" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="85" spans="5:7">
@@ -20688,7 +20608,7 @@
         <v>iam_menu-131</v>
       </c>
       <c r="G85" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="86" spans="5:7">
@@ -20700,7 +20620,7 @@
         <v>iam_menu-134</v>
       </c>
       <c r="G86" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="87" spans="5:7">
@@ -20712,7 +20632,7 @@
         <v>iam_menu-134</v>
       </c>
       <c r="G87" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="88" spans="5:7">
@@ -20724,7 +20644,7 @@
         <v>iam_menu-135</v>
       </c>
       <c r="G88" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="89" spans="5:7">
@@ -21252,7 +21172,7 @@
         <v>iam_menu-179</v>
       </c>
       <c r="G132" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="133" spans="5:7">
@@ -21264,7 +21184,7 @@
         <v>iam_menu-178</v>
       </c>
       <c r="G133" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="134" spans="5:7">
@@ -21276,7 +21196,7 @@
         <v>iam_menu-156</v>
       </c>
       <c r="G134" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="135" spans="5:7">
@@ -21288,7 +21208,7 @@
         <v>iam_menu-155</v>
       </c>
       <c r="G135" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="136" spans="5:7">
@@ -21300,7 +21220,7 @@
         <v>iam_menu-79</v>
       </c>
       <c r="G136" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="137" spans="5:7">
@@ -21312,7 +21232,7 @@
         <v>iam_menu-79</v>
       </c>
       <c r="G137" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="138" spans="5:7">
@@ -21324,7 +21244,7 @@
         <v>iam_menu-79</v>
       </c>
       <c r="G138" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="139" spans="5:7">
@@ -21336,7 +21256,7 @@
         <v>iam_menu-79</v>
       </c>
       <c r="G139" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="140" spans="5:7">
@@ -21348,7 +21268,7 @@
         <v>iam_menu-79</v>
       </c>
       <c r="G140" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="141" spans="5:7">
@@ -21360,7 +21280,7 @@
         <v>iam_menu-79</v>
       </c>
       <c r="G141" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="142" spans="5:7">
@@ -21372,7 +21292,7 @@
         <v>iam_menu-78</v>
       </c>
       <c r="G142" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="143" spans="5:7">
@@ -21384,7 +21304,7 @@
         <v>iam_menu-78</v>
       </c>
       <c r="G143" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="144" spans="5:7">
@@ -21396,7 +21316,7 @@
         <v>iam_menu-92</v>
       </c>
       <c r="G144" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="145" spans="5:7">
@@ -21408,7 +21328,7 @@
         <v>iam_menu-92</v>
       </c>
       <c r="G145" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="146" spans="5:7">
@@ -21420,7 +21340,7 @@
         <v>iam_menu-95</v>
       </c>
       <c r="G146" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="147" spans="5:7">
@@ -21432,7 +21352,7 @@
         <v>iam_menu-95</v>
       </c>
       <c r="G147" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="148" spans="5:7">
@@ -21444,7 +21364,7 @@
         <v>iam_menu-95</v>
       </c>
       <c r="G148" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="149" spans="5:7">
@@ -21456,7 +21376,7 @@
         <v>iam_menu-94</v>
       </c>
       <c r="G149" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="150" spans="5:7">
@@ -21468,7 +21388,7 @@
         <v>iam_menu-126</v>
       </c>
       <c r="G150" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="151" spans="5:7">
@@ -21480,7 +21400,7 @@
         <v>iam_menu-124</v>
       </c>
       <c r="G151" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="152" spans="5:7">
@@ -21492,7 +21412,7 @@
         <v>iam_menu-181</v>
       </c>
       <c r="G152" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="153" spans="5:7">
@@ -21504,7 +21424,7 @@
         <v>iam_menu-11</v>
       </c>
       <c r="G153" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="154" spans="5:7">
@@ -21516,7 +21436,7 @@
         <v>iam_menu-11</v>
       </c>
       <c r="G154" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="155" spans="5:7">
@@ -21528,7 +21448,7 @@
         <v>iam_menu-13</v>
       </c>
       <c r="G155" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="156" spans="5:7">
@@ -21540,7 +21460,7 @@
         <v>iam_menu-17</v>
       </c>
       <c r="G156" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="157" spans="5:7">
@@ -21552,7 +21472,7 @@
         <v>iam_menu-17</v>
       </c>
       <c r="G157" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="158" spans="5:7">
@@ -21564,7 +21484,7 @@
         <v>iam_menu-18</v>
       </c>
       <c r="G158" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="159" spans="5:7">
@@ -21576,7 +21496,7 @@
         <v>iam_menu-18</v>
       </c>
       <c r="G159" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="160" spans="5:7">
@@ -21588,7 +21508,7 @@
         <v>iam_menu-18</v>
       </c>
       <c r="G160" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="161" spans="5:7">
@@ -21600,7 +21520,7 @@
         <v>iam_menu-49</v>
       </c>
       <c r="G161" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="162" spans="5:7">
@@ -21612,7 +21532,7 @@
         <v>iam_menu-49</v>
       </c>
       <c r="G162" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="163" spans="5:7">
@@ -21624,7 +21544,7 @@
         <v>iam_menu-53</v>
       </c>
       <c r="G163" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="164" spans="5:7">
@@ -21636,7 +21556,7 @@
         <v>iam_menu-53</v>
       </c>
       <c r="G164" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="165" spans="5:7">
@@ -21648,7 +21568,7 @@
         <v>iam_menu-188</v>
       </c>
       <c r="G165" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="166" spans="5:7">
@@ -21660,7 +21580,7 @@
         <v>iam_menu-188</v>
       </c>
       <c r="G166" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="167" spans="5:7">
@@ -21672,7 +21592,7 @@
         <v>iam_menu-188</v>
       </c>
       <c r="G167" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="168" spans="5:7">
@@ -21684,7 +21604,7 @@
         <v>iam_menu-188</v>
       </c>
       <c r="G168" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="169" spans="5:7">
@@ -21696,7 +21616,7 @@
         <v>iam_menu-188</v>
       </c>
       <c r="G169" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="170" spans="5:7">
@@ -21708,7 +21628,7 @@
         <v>iam_menu-193</v>
       </c>
       <c r="G170" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="171" spans="5:7">
@@ -21720,7 +21640,7 @@
         <v>iam_menu-193</v>
       </c>
       <c r="G171" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="172" spans="5:7">
@@ -21732,7 +21652,7 @@
         <v>iam_menu-194</v>
       </c>
       <c r="G172" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="173" spans="5:7">
@@ -21744,7 +21664,7 @@
         <v>iam_menu-194</v>
       </c>
       <c r="G173" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="174" spans="5:7">
@@ -21756,7 +21676,7 @@
         <v>iam_menu-191</v>
       </c>
       <c r="G174" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="175" spans="5:7">
@@ -21768,7 +21688,7 @@
         <v>iam_menu-190</v>
       </c>
       <c r="G175" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="176" spans="5:7">
@@ -21780,7 +21700,7 @@
         <v>iam_menu-192</v>
       </c>
       <c r="G176" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="177" spans="5:7">
@@ -21792,7 +21712,7 @@
         <v>iam_menu-26</v>
       </c>
       <c r="G177" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="178" spans="5:7">
@@ -21804,7 +21724,7 @@
         <v>iam_menu-26</v>
       </c>
       <c r="G178" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="179" spans="5:7">
@@ -21816,7 +21736,7 @@
         <v>iam_menu-26</v>
       </c>
       <c r="G179" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="180" spans="5:7">
@@ -21828,7 +21748,7 @@
         <v>iam_menu-26</v>
       </c>
       <c r="G180" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="181" spans="5:7">
@@ -21840,7 +21760,7 @@
         <v>iam_menu-26</v>
       </c>
       <c r="G181" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="182" spans="5:7">
@@ -21852,7 +21772,7 @@
         <v>iam_menu-31</v>
       </c>
       <c r="G182" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="183" spans="5:7">
@@ -21864,7 +21784,7 @@
         <v>iam_menu-30</v>
       </c>
       <c r="G183" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="184" spans="5:7">
@@ -21876,7 +21796,7 @@
         <v>iam_menu-28</v>
       </c>
       <c r="G184" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="185" spans="5:7">
@@ -21888,7 +21808,7 @@
         <v>iam_menu-29</v>
       </c>
       <c r="G185" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="186" spans="5:7">
@@ -21900,7 +21820,7 @@
         <v>iam_menu-29</v>
       </c>
       <c r="G186" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="187" spans="5:7">
@@ -21912,7 +21832,7 @@
         <v>iam_menu-32</v>
       </c>
       <c r="G187" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="188" spans="5:7">
@@ -21924,7 +21844,7 @@
         <v>iam_menu-32</v>
       </c>
       <c r="G188" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="189" spans="5:7">
@@ -21936,7 +21856,7 @@
         <v>iam_menu-36</v>
       </c>
       <c r="G189" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="190" spans="5:7">
@@ -21948,7 +21868,7 @@
         <v>iam_menu-36</v>
       </c>
       <c r="G190" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="191" spans="5:7">
@@ -21960,7 +21880,7 @@
         <v>iam_menu-36</v>
       </c>
       <c r="G191" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="192" spans="5:7">
@@ -21972,7 +21892,7 @@
         <v>iam_menu-41</v>
       </c>
       <c r="G192" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="193" spans="5:7">
@@ -21984,7 +21904,7 @@
         <v>iam_menu-41</v>
       </c>
       <c r="G193" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="194" spans="5:7">
@@ -21996,7 +21916,7 @@
         <v>iam_menu-41</v>
       </c>
       <c r="G194" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="195" spans="5:7">
@@ -22008,7 +21928,7 @@
         <v>iam_menu-34</v>
       </c>
       <c r="G195" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="196" spans="5:7">
@@ -22020,7 +21940,7 @@
         <v>iam_menu-34</v>
       </c>
       <c r="G196" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="197" spans="5:7">
@@ -22032,7 +21952,7 @@
         <v>iam_menu-42</v>
       </c>
       <c r="G197" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="198" spans="5:7">
@@ -22044,7 +21964,7 @@
         <v>iam_menu-42</v>
       </c>
       <c r="G198" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="199" spans="5:7">
@@ -22056,7 +21976,7 @@
         <v>iam_menu-42</v>
       </c>
       <c r="G199" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="200" spans="5:7">
@@ -22068,7 +21988,7 @@
         <v>iam_menu-35</v>
       </c>
       <c r="G200" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="201" spans="5:7">
@@ -22080,7 +22000,7 @@
         <v>iam_menu-35</v>
       </c>
       <c r="G201" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="202" spans="5:7">
@@ -22092,7 +22012,7 @@
         <v>iam_menu-43</v>
       </c>
       <c r="G202" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="203" spans="5:7">
@@ -22104,7 +22024,7 @@
         <v>iam_menu-43</v>
       </c>
       <c r="G203" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="204" spans="5:7">
@@ -22116,7 +22036,7 @@
         <v>iam_menu-43</v>
       </c>
       <c r="G204" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="205" spans="5:7">
@@ -22128,7 +22048,7 @@
         <v>iam_menu-43</v>
       </c>
       <c r="G205" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="206" spans="5:7">
@@ -22140,7 +22060,7 @@
         <v>iam_menu-43</v>
       </c>
       <c r="G206" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="207" spans="5:7">
@@ -22152,7 +22072,7 @@
         <v>iam_menu-43</v>
       </c>
       <c r="G207" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="208" spans="5:7">
@@ -22164,7 +22084,7 @@
         <v>iam_menu-43</v>
       </c>
       <c r="G208" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="209" spans="5:7">
@@ -22176,7 +22096,7 @@
         <v>iam_menu-43</v>
       </c>
       <c r="G209" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="210" spans="5:7">
@@ -22188,7 +22108,7 @@
         <v>iam_menu-44</v>
       </c>
       <c r="G210" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="211" spans="5:7">
@@ -22200,7 +22120,7 @@
         <v>iam_menu-39</v>
       </c>
       <c r="G211" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="212" spans="5:7">
@@ -22212,7 +22132,7 @@
         <v>iam_menu-40</v>
       </c>
       <c r="G212" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="213" spans="5:7">
@@ -22224,7 +22144,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G213" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="214" spans="5:7">
@@ -22236,7 +22156,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G214" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="215" spans="5:7">
@@ -22248,7 +22168,7 @@
         <v>iam_menu-22</v>
       </c>
       <c r="G215" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="216" spans="5:7">
@@ -22260,7 +22180,7 @@
         <v>iam_menu-20</v>
       </c>
       <c r="G216" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="217" spans="5:7">
@@ -22272,7 +22192,7 @@
         <v>iam_menu-21</v>
       </c>
       <c r="G217" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="218" spans="5:7">
@@ -22284,7 +22204,7 @@
         <v>iam_menu-63</v>
       </c>
       <c r="G218" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="219" spans="5:7">
@@ -22296,7 +22216,7 @@
         <v>iam_menu-64</v>
       </c>
       <c r="G219" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="220" spans="5:7">
@@ -22308,7 +22228,7 @@
         <v>iam_menu-64</v>
       </c>
       <c r="G220" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="221" spans="5:7">
@@ -22320,7 +22240,7 @@
         <v>iam_menu-58</v>
       </c>
       <c r="G221" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="222" spans="5:7">
@@ -22332,7 +22252,7 @@
         <v>iam_menu-59</v>
       </c>
       <c r="G222" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="223" spans="5:7">
@@ -22344,7 +22264,7 @@
         <v>iam_menu-62</v>
       </c>
       <c r="G223" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="224" spans="5:7">
@@ -22356,7 +22276,7 @@
         <v>iam_menu-61</v>
       </c>
       <c r="G224" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="225" spans="5:7">
@@ -22368,7 +22288,7 @@
         <v>iam_menu-61</v>
       </c>
       <c r="G225" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="226" spans="5:7">
@@ -22380,7 +22300,7 @@
         <v>iam_menu-61</v>
       </c>
       <c r="G226" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="227" spans="5:7">
@@ -22392,7 +22312,7 @@
         <v>iam_menu-60</v>
       </c>
       <c r="G227" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="228" spans="5:7">
@@ -22404,7 +22324,7 @@
         <v>iam_menu-65</v>
       </c>
       <c r="G228" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="229" spans="5:7">
@@ -22416,7 +22336,7 @@
         <v>iam_menu-65</v>
       </c>
       <c r="G229" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="230" spans="5:7">
@@ -22428,7 +22348,7 @@
         <v>iam_menu-153</v>
       </c>
       <c r="G230" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="231" spans="5:7">
@@ -22440,7 +22360,7 @@
         <v>iam_menu-70</v>
       </c>
       <c r="G231" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="232" spans="5:7">
@@ -22452,7 +22372,7 @@
         <v>iam_menu-207</v>
       </c>
       <c r="G232" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="233" spans="5:7">
@@ -22464,7 +22384,7 @@
         <v>iam_menu-51</v>
       </c>
       <c r="G233" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="234" spans="5:7">
@@ -22476,7 +22396,7 @@
         <v>iam_menu-209</v>
       </c>
       <c r="G234" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="235" spans="5:7">
@@ -22488,7 +22408,7 @@
         <v>iam_menu-210</v>
       </c>
       <c r="G235" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="236" spans="5:7">
@@ -22500,7 +22420,7 @@
         <v>iam_menu-52</v>
       </c>
       <c r="G236" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="237" spans="5:7">
@@ -22512,7 +22432,7 @@
         <v>iam_menu-52</v>
       </c>
       <c r="G237" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="238" spans="5:7">
@@ -22524,7 +22444,7 @@
         <v>iam_menu-52</v>
       </c>
       <c r="G238" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="239" spans="5:7">
@@ -22536,7 +22456,7 @@
         <v>iam_menu-215</v>
       </c>
       <c r="G239" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="240" spans="5:7">
@@ -22548,7 +22468,7 @@
         <v>iam_menu-72</v>
       </c>
       <c r="G240" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="241" spans="5:7">
@@ -22560,7 +22480,7 @@
         <v>iam_menu-74</v>
       </c>
       <c r="G241" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="242" spans="5:7">
@@ -22572,7 +22492,7 @@
         <v>iam_menu-129</v>
       </c>
       <c r="G242" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="243" spans="5:7">
@@ -22584,7 +22504,7 @@
         <v>iam_menu-203</v>
       </c>
       <c r="G243" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="244" spans="5:7">
@@ -22596,7 +22516,7 @@
         <v>iam_menu-204</v>
       </c>
       <c r="G244" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="245" spans="5:7">
@@ -22608,7 +22528,7 @@
         <v>iam_menu-202</v>
       </c>
       <c r="G245" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="246" spans="5:7">
@@ -22620,7 +22540,7 @@
         <v>iam_menu-222</v>
       </c>
       <c r="G246" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="247" spans="5:7">
@@ -22632,7 +22552,7 @@
         <v>iam_menu-96</v>
       </c>
       <c r="G247" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="248" spans="5:7">
@@ -22644,7 +22564,7 @@
         <v>iam_menu-96</v>
       </c>
       <c r="G248" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="249" spans="5:7">
@@ -22656,7 +22576,7 @@
         <v>iam_menu-96</v>
       </c>
       <c r="G249" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="250" spans="5:7">
@@ -22668,7 +22588,7 @@
         <v>iam_menu-97</v>
       </c>
       <c r="G250" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="251" spans="5:7">
@@ -22680,7 +22600,7 @@
         <v>iam_menu-46</v>
       </c>
       <c r="G251" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="252" spans="5:7">
@@ -22692,7 +22612,7 @@
         <v>iam_menu-46</v>
       </c>
       <c r="G252" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="253" spans="5:7">
@@ -22704,7 +22624,7 @@
         <v>iam_menu-136</v>
       </c>
       <c r="G253" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="254" spans="5:7">
@@ -22716,7 +22636,7 @@
         <v>iam_menu-136</v>
       </c>
       <c r="G254" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="255" spans="5:7">
@@ -22728,7 +22648,7 @@
         <v>iam_menu-136</v>
       </c>
       <c r="G255" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="256" spans="5:7">
@@ -22740,7 +22660,7 @@
         <v>iam_menu-137</v>
       </c>
       <c r="G256" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="257" spans="5:7">
@@ -22752,7 +22672,7 @@
         <v>iam_menu-38</v>
       </c>
       <c r="G257" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="258" spans="5:7">
@@ -22764,7 +22684,7 @@
         <v>iam_menu-45</v>
       </c>
       <c r="G258" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="259" spans="5:7">
@@ -23004,7 +22924,7 @@
         <v>iam_menu-198</v>
       </c>
       <c r="G278" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="279" spans="5:7">
@@ -23016,7 +22936,7 @@
         <v>iam_menu-198</v>
       </c>
       <c r="G279" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="280" spans="5:7">
@@ -23028,7 +22948,7 @@
         <v>iam_menu-218</v>
       </c>
       <c r="G280" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="281" spans="5:7">
@@ -23040,7 +22960,7 @@
         <v>iam_menu-216</v>
       </c>
       <c r="G281" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="282" spans="5:7">
@@ -23052,7 +22972,7 @@
         <v>iam_menu-216</v>
       </c>
       <c r="G282" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="283" spans="5:7">
@@ -23064,7 +22984,7 @@
         <v>iam_menu-217</v>
       </c>
       <c r="G283" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="284" spans="5:7">
@@ -23076,7 +22996,7 @@
         <v>iam_menu-75</v>
       </c>
       <c r="G284" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="285" spans="5:7">
@@ -23088,7 +23008,7 @@
         <v>iam_menu-80</v>
       </c>
       <c r="G285" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="286" spans="5:7">
@@ -23100,7 +23020,7 @@
         <v>iam_menu-80</v>
       </c>
       <c r="G286" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="287" spans="5:7">
@@ -23112,7 +23032,7 @@
         <v>iam_menu-80</v>
       </c>
       <c r="G287" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="288" spans="5:7">
@@ -23124,7 +23044,7 @@
         <v>iam_menu-52</v>
       </c>
       <c r="G288" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="289" spans="5:7">
@@ -23136,7 +23056,7 @@
         <v>iam_menu-52</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="290" spans="5:7">
@@ -23148,7 +23068,7 @@
         <v>iam_menu-60</v>
       </c>
       <c r="G290" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="291" spans="5:7">
@@ -23160,7 +23080,7 @@
         <v>iam_menu-79</v>
       </c>
       <c r="G291" s="7" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="292" spans="5:7">
@@ -23172,7 +23092,7 @@
         <v>iam_menu-15</v>
       </c>
       <c r="G292" s="9" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="293" spans="5:7">
@@ -23184,7 +23104,7 @@
         <v>iam_menu-78</v>
       </c>
       <c r="G293" s="10" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="294" spans="5:7">
@@ -23196,7 +23116,7 @@
         <v>iam_menu-78</v>
       </c>
       <c r="G294" s="11" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="295" spans="5:7">
@@ -23208,7 +23128,7 @@
         <v>iam_menu-15</v>
       </c>
       <c r="G295" s="9" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="296" spans="5:7">
@@ -23220,7 +23140,7 @@
         <v>iam_menu-72</v>
       </c>
       <c r="G296" s="7" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="297" spans="5:7">
@@ -23232,7 +23152,7 @@
         <v>iam_menu-72</v>
       </c>
       <c r="G297" s="7" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="298" spans="5:7">
@@ -23244,7 +23164,7 @@
         <v>iam_menu-135</v>
       </c>
       <c r="G298" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="299" spans="5:7">
@@ -23256,7 +23176,7 @@
         <v>iam_menu-135</v>
       </c>
       <c r="G299" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="300" spans="5:7">
@@ -23268,7 +23188,7 @@
         <v>iam_menu-135</v>
       </c>
       <c r="G300" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="301" spans="5:7">
@@ -23280,7 +23200,7 @@
         <v>iam_menu-135</v>
       </c>
       <c r="G301" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="302" spans="5:7">
@@ -23292,7 +23212,7 @@
         <v>iam_menu-135</v>
       </c>
       <c r="G302" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="303" spans="5:7">
@@ -23304,7 +23224,7 @@
         <v>iam_menu-71</v>
       </c>
       <c r="G303" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="304" spans="5:7">
@@ -23316,7 +23236,7 @@
         <v>iam_menu-135</v>
       </c>
       <c r="G304" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="305" spans="5:7">
@@ -23328,7 +23248,7 @@
         <v>iam_menu-71</v>
       </c>
       <c r="G305" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="306" spans="5:7">
@@ -23340,7 +23260,7 @@
         <v>iam_menu-71</v>
       </c>
       <c r="G306" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="307" spans="5:7">
@@ -23352,7 +23272,7 @@
         <v>iam_menu-71</v>
       </c>
       <c r="G307" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="308" spans="5:7">
@@ -23364,7 +23284,7 @@
         <v>iam_menu-223</v>
       </c>
       <c r="G308" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="309" spans="5:7">
@@ -23376,7 +23296,7 @@
         <v>iam_menu-17</v>
       </c>
       <c r="G309" s="7" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="310" spans="5:7">
@@ -23388,7 +23308,7 @@
         <v>iam_menu-18</v>
       </c>
       <c r="G310" s="7" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="311" spans="5:7">
@@ -23400,7 +23320,7 @@
         <v>iam_menu-52</v>
       </c>
       <c r="G311" s="12" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="312" spans="5:7" s="8" customFormat="1">
@@ -23412,7 +23332,7 @@
         <v>iam_menu-224</v>
       </c>
       <c r="G312" s="8" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="313" spans="5:7" s="8" customFormat="1">
@@ -23424,7 +23344,7 @@
         <v>iam_menu-224</v>
       </c>
       <c r="G313" s="8" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="314" spans="5:7" s="8" customFormat="1">
@@ -23436,7 +23356,7 @@
         <v>iam_menu-224</v>
       </c>
       <c r="G314" s="8" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="315" spans="5:7">
@@ -23448,7 +23368,7 @@
         <v>iam_menu-224</v>
       </c>
       <c r="G315" s="8" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="316" spans="5:7">
@@ -23460,7 +23380,7 @@
         <v>iam_menu-225</v>
       </c>
       <c r="G316" s="8" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="317" spans="5:7">
@@ -23472,7 +23392,7 @@
         <v>iam_menu-226</v>
       </c>
       <c r="G317" s="8" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="318" spans="5:7">
@@ -23484,7 +23404,7 @@
         <v>iam_menu-227</v>
       </c>
       <c r="G318" s="8" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="319" spans="5:7">
@@ -23496,7 +23416,7 @@
         <v>iam_menu-227</v>
       </c>
       <c r="G319" s="8" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="320" spans="5:7">
@@ -23508,7 +23428,7 @@
         <v>iam_menu-227</v>
       </c>
       <c r="G320" s="8" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="321" spans="5:7">
@@ -23520,7 +23440,7 @@
         <v>iam_menu-227</v>
       </c>
       <c r="G321" s="8" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="322" spans="5:7">
@@ -23532,7 +23452,7 @@
         <v>iam_menu-228</v>
       </c>
       <c r="G322" s="8" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="323" spans="5:7">
@@ -23544,7 +23464,7 @@
         <v>iam_menu-229</v>
       </c>
       <c r="G323" s="8" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="324" spans="5:7">
@@ -23556,7 +23476,7 @@
         <v>iam_menu-230</v>
       </c>
       <c r="G324" s="8" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="325" spans="5:7">
@@ -23644,10 +23564,16 @@
       </c>
     </row>
     <row r="332" spans="5:7">
-      <c r="F332" s="39" t="s">
-        <v>1773</v>
-      </c>
-      <c r="G332" s="8"/>
+      <c r="E332" s="8" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F332" s="39" t="str">
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-15</v>
+      </c>
+      <c r="G332" s="8" t="s">
+        <v>1973</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -4924,7 +4924,7 @@
     <t>iam_menu_permission-30</t>
   </si>
   <si>
-    <t>choerodon-iam.client.list</t>
+    <t>choerodon-iam.choerodon-client.list</t>
   </si>
   <si>
     <t>iam_menu_permission-31</t>
@@ -7824,8 +7824,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="46">
@@ -7948,6 +7948,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -7960,30 +7989,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8004,37 +8010,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8081,6 +8066,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -8089,10 +8089,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8172,6 +8172,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8184,7 +8214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8196,61 +8232,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8268,7 +8250,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8280,7 +8280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8292,31 +8292,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8328,13 +8334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8346,13 +8352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8461,26 +8461,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8517,18 +8509,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8556,156 +8541,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8714,7 +8714,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9185,8 +9184,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="17" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="17" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
@@ -9202,79 +9201,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="22"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="18"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -9282,56 +9281,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9341,30 +9340,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="43" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -9372,7 +9371,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -9380,25 +9379,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="45" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9423,8 +9422,8 @@
   <sheetPr/>
   <dimension ref="A1:Y225"/>
   <sheetViews>
-    <sheetView topLeftCell="C213" workbookViewId="0">
-      <selection activeCell="F228" sqref="F228"/>
+    <sheetView topLeftCell="C42" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -13696,7 +13695,7 @@
       <c r="L89" t="s">
         <v>92</v>
       </c>
-      <c r="M89" s="16">
+      <c r="M89" s="15">
         <v>50</v>
       </c>
       <c r="N89" t="s">
@@ -20300,305 +20299,300 @@
         <v>82</v>
       </c>
     </row>
-    <row r="220" s="8" customFormat="1" spans="5:24">
-      <c r="E220" s="8" t="s">
+    <row r="220" s="5" customFormat="1" spans="5:24">
+      <c r="E220" s="5" t="s">
         <v>994</v>
       </c>
-      <c r="F220" s="8" t="s">
+      <c r="F220" s="5" t="s">
         <v>995</v>
       </c>
-      <c r="G220" s="8" t="s">
+      <c r="G220" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H220" s="8" t="s">
+      <c r="H220" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="I220" s="8" t="s">
+      <c r="I220" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="J220" s="8" t="s">
+      <c r="J220" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K220" s="8" t="str">
+      <c r="K220" s="5" t="str">
         <f>菜单SAAS版!$E$119</f>
         <v>iam_menu-121</v>
       </c>
-      <c r="L220" s="8" t="s">
+      <c r="L220" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M220" s="8">
+      <c r="M220" s="5">
         <v>70</v>
       </c>
-      <c r="N220" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O220" s="8" t="s">
+      <c r="N220" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O220" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="P220" s="8" t="s">
+      <c r="P220" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="Q220" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R220" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="S220" s="8" t="s">
+      <c r="Q220" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R220" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S220" s="5" t="s">
         <v>997</v>
       </c>
-      <c r="T220" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="V220" s="8" t="s">
+      <c r="T220" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V220" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="X220" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="221" s="8" customFormat="1" spans="5:24">
-      <c r="E221" s="8" t="s">
+      <c r="X220" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="221" s="5" customFormat="1" spans="5:24">
+      <c r="E221" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="F221" s="8" t="s">
+      <c r="F221" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="G221" s="8" t="s">
+      <c r="G221" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="H221" s="8" t="s">
+      <c r="H221" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="J221" s="8" t="s">
+      <c r="J221" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K221" s="8" t="str">
+      <c r="K221" s="5" t="str">
         <f>菜单SAAS版!$E$220</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="L221" s="8" t="s">
+      <c r="L221" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M221" s="8">
+      <c r="M221" s="5">
         <v>10</v>
       </c>
-      <c r="N221" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q221" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R221" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="S221" s="8" t="s">
+      <c r="N221" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q221" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R221" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S221" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="T221" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="U221" s="8"/>
-      <c r="V221" s="8" t="s">
+      <c r="T221" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V221" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="X221" s="8" t="s">
+      <c r="X221" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="222" s="5" customFormat="1" spans="5:24">
-      <c r="E222" s="8" t="s">
+      <c r="E222" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="F222" s="8" t="s">
+      <c r="F222" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="G222" s="8" t="s">
+      <c r="G222" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H222" s="8" t="s">
+      <c r="H222" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J222" s="8" t="s">
+      <c r="J222" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K222" s="8" t="str">
+      <c r="K222" s="5" t="str">
         <f>菜单SAAS版!$E$220</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="L222" s="8" t="s">
+      <c r="L222" s="5" t="s">
         <v>100</v>
       </c>
       <c r="M222" s="5">
         <v>20</v>
       </c>
-      <c r="N222" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O222" s="5"/>
-      <c r="Q222" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R222" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="S222" s="8" t="s">
+      <c r="N222" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q222" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R222" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S222" s="5" t="s">
         <v>1003</v>
       </c>
-      <c r="T222" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="V222" s="8" t="s">
+      <c r="T222" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V222" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="X222" s="8" t="s">
+      <c r="X222" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="223" s="5" customFormat="1" spans="5:24">
-      <c r="E223" s="8" t="s">
+      <c r="E223" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="F223" s="8" t="s">
+      <c r="F223" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="G223" s="8" t="s">
+      <c r="G223" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="H223" s="8" t="s">
+      <c r="H223" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="J223" s="8" t="s">
+      <c r="J223" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K223" s="8" t="str">
+      <c r="K223" s="5" t="str">
         <f>菜单SAAS版!$E$220</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="L223" s="8" t="s">
+      <c r="L223" s="5" t="s">
         <v>100</v>
       </c>
       <c r="M223" s="5">
         <v>30</v>
       </c>
-      <c r="N223" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O223" s="5"/>
-      <c r="Q223" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R223" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="S223" s="8" t="s">
+      <c r="N223" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q223" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R223" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S223" s="5" t="s">
         <v>1006</v>
       </c>
-      <c r="T223" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="V223" s="8" t="s">
+      <c r="T223" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V223" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="X223" s="8" t="s">
+      <c r="X223" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="224" s="5" customFormat="1" spans="5:24">
-      <c r="E224" s="8" t="s">
+      <c r="E224" s="5" t="s">
         <v>1007</v>
       </c>
-      <c r="F224" s="8" t="s">
+      <c r="F224" s="5" t="s">
         <v>1008</v>
       </c>
-      <c r="G224" s="8" t="s">
+      <c r="G224" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="H224" s="8" t="s">
+      <c r="H224" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="J224" s="8" t="s">
+      <c r="J224" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K224" s="8" t="str">
+      <c r="K224" s="5" t="str">
         <f>菜单SAAS版!$E$220</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="L224" s="8" t="s">
+      <c r="L224" s="5" t="s">
         <v>100</v>
       </c>
       <c r="M224" s="5">
         <v>40</v>
       </c>
-      <c r="N224" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O224" s="5"/>
-      <c r="Q224" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R224" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="S224" s="8" t="s">
+      <c r="N224" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q224" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R224" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S224" s="5" t="s">
         <v>1009</v>
       </c>
-      <c r="T224" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="V224" s="8" t="s">
+      <c r="T224" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V224" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="X224" s="8" t="s">
+      <c r="X224" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="225" s="5" customFormat="1" spans="5:24">
-      <c r="E225" s="8" t="s">
+      <c r="E225" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="F225" s="8" t="s">
+      <c r="F225" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="G225" s="8" t="s">
+      <c r="G225" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="H225" s="8" t="s">
+      <c r="H225" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="J225" s="8" t="s">
+      <c r="J225" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K225" s="8" t="str">
+      <c r="K225" s="5" t="str">
         <f>菜单SAAS版!$E$220</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="L225" s="8" t="s">
+      <c r="L225" s="5" t="s">
         <v>100</v>
       </c>
       <c r="M225" s="5">
         <v>50</v>
       </c>
-      <c r="N225" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O225" s="5"/>
-      <c r="Q225" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="R225" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="S225" s="8" t="s">
+      <c r="N225" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q225" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R225" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S225" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="T225" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="V225" s="8" t="s">
+      <c r="T225" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="V225" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="X225" s="8" t="s">
+      <c r="X225" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -20613,8 +20607,8 @@
   <sheetPr/>
   <dimension ref="A1:H341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D329" workbookViewId="0">
-      <selection activeCell="G344" sqref="G344"/>
+    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
@@ -20721,30 +20715,30 @@
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>1025</v>
       </c>
-      <c r="F12" s="9" t="str">
+      <c r="F12" s="8" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>1026</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="5:8">
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>1027</v>
       </c>
-      <c r="F13" s="9" t="str">
+      <c r="F13" s="8" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>1028</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
@@ -24071,91 +24065,91 @@
       </c>
     </row>
     <row r="291" spans="5:7">
-      <c r="E291" s="9" t="s">
+      <c r="E291" s="8" t="s">
         <v>1524</v>
       </c>
-      <c r="F291" s="9" t="str">
+      <c r="F291" s="8" t="str">
         <f>菜单SAAS版!E79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G291" s="9" t="s">
+      <c r="G291" s="8" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="292" spans="5:7">
-      <c r="E292" s="11" t="s">
+      <c r="E292" s="10" t="s">
         <v>1525</v>
       </c>
-      <c r="F292" s="11" t="str">
+      <c r="F292" s="10" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G292" s="11" t="s">
+      <c r="G292" s="10" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="293" spans="5:7">
-      <c r="E293" s="12" t="s">
+      <c r="E293" s="11" t="s">
         <v>1527</v>
       </c>
-      <c r="F293" s="12" t="str">
+      <c r="F293" s="11" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G293" s="12" t="s">
+      <c r="G293" s="11" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="294" spans="5:7">
-      <c r="E294" s="13" t="s">
+      <c r="E294" s="12" t="s">
         <v>1529</v>
       </c>
-      <c r="F294" s="13" t="str">
+      <c r="F294" s="12" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G294" s="13" t="s">
+      <c r="G294" s="12" t="s">
         <v>1530</v>
       </c>
     </row>
     <row r="295" spans="5:7">
-      <c r="E295" s="11" t="s">
+      <c r="E295" s="10" t="s">
         <v>1531</v>
       </c>
-      <c r="F295" s="11" t="str">
+      <c r="F295" s="10" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G295" s="11" t="s">
+      <c r="G295" s="10" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="296" spans="5:7">
-      <c r="E296" s="9" t="s">
+      <c r="E296" s="8" t="s">
         <v>1533</v>
       </c>
-      <c r="F296" s="9" t="str">
+      <c r="F296" s="8" t="str">
         <f>菜单SAAS版!E72</f>
         <v>iam_menu-72</v>
       </c>
-      <c r="G296" s="9" t="s">
+      <c r="G296" s="8" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="297" spans="5:7">
-      <c r="E297" s="9" t="s">
+      <c r="E297" s="8" t="s">
         <v>1535</v>
       </c>
-      <c r="F297" s="9" t="str">
+      <c r="F297" s="8" t="str">
         <f>菜单SAAS版!E72</f>
         <v>iam_menu-72</v>
       </c>
-      <c r="G297" s="9" t="s">
+      <c r="G297" s="8" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="298" spans="5:7">
-      <c r="E298" s="9" t="s">
+      <c r="E298" s="8" t="s">
         <v>1537</v>
       </c>
       <c r="F298" t="str">
@@ -24287,398 +24281,398 @@
       </c>
     </row>
     <row r="309" spans="5:7">
-      <c r="E309" s="9" t="s">
+      <c r="E309" s="8" t="s">
         <v>1559</v>
       </c>
-      <c r="F309" s="9" t="str">
+      <c r="F309" s="8" t="str">
         <f>菜单SAAS版!E17</f>
         <v>iam_menu-17</v>
       </c>
-      <c r="G309" s="9" t="s">
+      <c r="G309" s="8" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="310" spans="5:7">
-      <c r="E310" s="9" t="s">
+      <c r="E310" s="8" t="s">
         <v>1561</v>
       </c>
-      <c r="F310" s="9" t="str">
+      <c r="F310" s="8" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-18</v>
       </c>
-      <c r="G310" s="9" t="s">
+      <c r="G310" s="8" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="311" spans="5:7">
-      <c r="E311" s="14" t="s">
+      <c r="E311" s="13" t="s">
         <v>1562</v>
       </c>
-      <c r="F311" s="14" t="str">
+      <c r="F311" s="13" t="str">
         <f>菜单SAAS版!E52</f>
         <v>iam_menu-52</v>
       </c>
-      <c r="G311" s="14" t="s">
+      <c r="G311" s="13" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="312" s="10" customFormat="1" spans="5:7">
-      <c r="E312" s="10" t="s">
+    <row r="312" s="9" customFormat="1" spans="5:7">
+      <c r="E312" s="9" t="s">
         <v>1564</v>
       </c>
-      <c r="F312" s="10" t="str">
+      <c r="F312" s="9" t="str">
         <f>菜单SAAS版!E209</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G312" s="10" t="s">
+      <c r="G312" s="9" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="313" s="10" customFormat="1" spans="5:7">
-      <c r="E313" s="10" t="s">
+    <row r="313" s="9" customFormat="1" spans="5:7">
+      <c r="E313" s="9" t="s">
         <v>1566</v>
       </c>
-      <c r="F313" s="10" t="str">
+      <c r="F313" s="9" t="str">
         <f>菜单SAAS版!E209</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G313" s="10" t="s">
+      <c r="G313" s="9" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="314" s="10" customFormat="1" spans="5:7">
-      <c r="E314" s="10" t="s">
+    <row r="314" s="9" customFormat="1" spans="5:7">
+      <c r="E314" s="9" t="s">
         <v>1567</v>
       </c>
-      <c r="F314" s="10" t="str">
+      <c r="F314" s="9" t="str">
         <f>菜单SAAS版!E209</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G314" s="10" t="s">
+      <c r="G314" s="9" t="s">
         <v>1435</v>
       </c>
     </row>
     <row r="315" spans="5:7">
-      <c r="E315" s="10" t="s">
+      <c r="E315" s="9" t="s">
         <v>1568</v>
       </c>
-      <c r="F315" s="10" t="str">
+      <c r="F315" s="9" t="str">
         <f>菜单SAAS版!E209</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G315" s="10" t="s">
+      <c r="G315" s="9" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="316" spans="5:7">
-      <c r="E316" s="10" t="s">
+      <c r="E316" s="9" t="s">
         <v>1569</v>
       </c>
-      <c r="F316" s="10" t="str">
+      <c r="F316" s="9" t="str">
         <f>菜单SAAS版!E210</f>
         <v>iam_menu-225</v>
       </c>
-      <c r="G316" s="10" t="s">
+      <c r="G316" s="9" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="317" spans="5:7">
-      <c r="E317" s="10" t="s">
+      <c r="E317" s="9" t="s">
         <v>1570</v>
       </c>
-      <c r="F317" s="10" t="str">
+      <c r="F317" s="9" t="str">
         <f>菜单SAAS版!E211</f>
         <v>iam_menu-226</v>
       </c>
-      <c r="G317" s="10" t="s">
+      <c r="G317" s="9" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="318" spans="5:7">
-      <c r="E318" s="10" t="s">
+      <c r="E318" s="9" t="s">
         <v>1571</v>
       </c>
-      <c r="F318" s="10" t="str">
+      <c r="F318" s="9" t="str">
         <f>菜单SAAS版!E212</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G318" s="10" t="s">
+      <c r="G318" s="9" t="s">
         <v>1459</v>
       </c>
     </row>
     <row r="319" spans="5:7">
-      <c r="E319" s="10" t="s">
+      <c r="E319" s="9" t="s">
         <v>1572</v>
       </c>
-      <c r="F319" s="10" t="str">
+      <c r="F319" s="9" t="str">
         <f>菜单SAAS版!E212</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G319" s="10" t="s">
+      <c r="G319" s="9" t="s">
         <v>1463</v>
       </c>
     </row>
     <row r="320" spans="5:7">
-      <c r="E320" s="10" t="s">
+      <c r="E320" s="9" t="s">
         <v>1573</v>
       </c>
-      <c r="F320" s="10" t="str">
+      <c r="F320" s="9" t="str">
         <f>菜单SAAS版!E212</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G320" s="10" t="s">
+      <c r="G320" s="9" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="321" spans="5:7">
-      <c r="E321" s="10" t="s">
+      <c r="E321" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="F321" s="10" t="str">
+      <c r="F321" s="9" t="str">
         <f>菜单SAAS版!E212</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G321" s="10" t="s">
+      <c r="G321" s="9" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="322" spans="5:7">
-      <c r="E322" s="10" t="s">
+      <c r="E322" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="F322" s="10" t="str">
+      <c r="F322" s="9" t="str">
         <f>菜单SAAS版!E213</f>
         <v>iam_menu-228</v>
       </c>
-      <c r="G322" s="10" t="s">
+      <c r="G322" s="9" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="323" spans="5:7">
-      <c r="E323" s="10" t="s">
+      <c r="E323" s="9" t="s">
         <v>1576</v>
       </c>
-      <c r="F323" s="10" t="str">
+      <c r="F323" s="9" t="str">
         <f>菜单SAAS版!E214</f>
         <v>iam_menu-229</v>
       </c>
-      <c r="G323" s="10" t="s">
+      <c r="G323" s="9" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="324" spans="5:7">
-      <c r="E324" s="10" t="s">
+      <c r="E324" s="9" t="s">
         <v>1577</v>
       </c>
-      <c r="F324" s="10" t="str">
+      <c r="F324" s="9" t="str">
         <f>菜单SAAS版!E215</f>
         <v>iam_menu-230</v>
       </c>
-      <c r="G324" s="10" t="s">
+      <c r="G324" s="9" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="325" spans="5:7">
-      <c r="E325" s="10" t="s">
+      <c r="E325" s="9" t="s">
         <v>1578</v>
       </c>
-      <c r="F325" s="10" t="str">
+      <c r="F325" s="9" t="str">
         <f>菜单SAAS版!E216</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="G325" s="10" t="s">
+      <c r="G325" s="9" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="326" spans="5:7">
-      <c r="E326" s="10" t="s">
+      <c r="E326" s="9" t="s">
         <v>1580</v>
       </c>
-      <c r="F326" s="10" t="str">
+      <c r="F326" s="9" t="str">
         <f>菜单SAAS版!E217</f>
         <v>iam_menu-232</v>
       </c>
-      <c r="G326" s="10" t="s">
+      <c r="G326" s="9" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="327" spans="5:7">
-      <c r="E327" s="10" t="s">
+      <c r="E327" s="9" t="s">
         <v>1582</v>
       </c>
-      <c r="F327" s="10" t="str">
+      <c r="F327" s="9" t="str">
         <f>菜单SAAS版!E218</f>
         <v>iam_menu-233</v>
       </c>
-      <c r="G327" s="10" t="s">
+      <c r="G327" s="9" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="328" spans="5:7">
-      <c r="E328" s="10" t="s">
+      <c r="E328" s="9" t="s">
         <v>1584</v>
       </c>
-      <c r="F328" s="10" t="str">
+      <c r="F328" s="9" t="str">
         <f>菜单SAAS版!E218</f>
         <v>iam_menu-233</v>
       </c>
-      <c r="G328" s="10" t="s">
+      <c r="G328" s="9" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="329" spans="5:7">
-      <c r="E329" s="10" t="s">
+      <c r="E329" s="9" t="s">
         <v>1586</v>
       </c>
-      <c r="F329" s="10" t="str">
+      <c r="F329" s="9" t="str">
         <f>菜单SAAS版!E219</f>
         <v>iam_menu-234</v>
       </c>
-      <c r="G329" s="10" t="s">
+      <c r="G329" s="9" t="s">
         <v>1587</v>
       </c>
     </row>
     <row r="330" spans="5:7">
-      <c r="E330" s="10" t="s">
+      <c r="E330" s="9" t="s">
         <v>1588</v>
       </c>
-      <c r="F330" s="10" t="str">
+      <c r="F330" s="9" t="str">
         <f>菜单SAAS版!E216</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="G330" s="10" t="s">
+      <c r="G330" s="9" t="s">
         <v>1589</v>
       </c>
     </row>
     <row r="331" spans="5:7">
-      <c r="E331" s="10" t="s">
+      <c r="E331" s="9" t="s">
         <v>1590</v>
       </c>
-      <c r="F331" s="10" t="str">
+      <c r="F331" s="9" t="str">
         <f>菜单SAAS版!E216</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="G331" s="10" t="s">
+      <c r="G331" s="9" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="332" spans="5:7">
-      <c r="E332" s="10" t="s">
+      <c r="E332" s="9" t="s">
         <v>1592</v>
       </c>
       <c r="F332" s="6" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G332" s="10" t="s">
+      <c r="G332" s="9" t="s">
         <v>1593</v>
       </c>
     </row>
     <row r="333" s="5" customFormat="1" spans="5:7">
-      <c r="E333" s="8" t="s">
+      <c r="E333" s="5" t="s">
         <v>1594</v>
       </c>
-      <c r="F333" s="8" t="str">
+      <c r="F333" s="5" t="str">
         <f>菜单SAAS版!E221</f>
         <v>iam_menu-236</v>
       </c>
-      <c r="G333" s="8" t="s">
+      <c r="G333" s="5" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="334" s="5" customFormat="1" spans="5:7">
-      <c r="E334" s="8" t="s">
+      <c r="E334" s="5" t="s">
         <v>1595</v>
       </c>
-      <c r="F334" s="8" t="str">
+      <c r="F334" s="5" t="str">
         <f>菜单SAAS版!E221</f>
         <v>iam_menu-236</v>
       </c>
-      <c r="G334" s="8" t="s">
+      <c r="G334" s="5" t="s">
         <v>1596</v>
       </c>
     </row>
     <row r="335" s="5" customFormat="1" spans="5:7">
-      <c r="E335" s="8" t="s">
+      <c r="E335" s="5" t="s">
         <v>1597</v>
       </c>
-      <c r="F335" s="8" t="str">
+      <c r="F335" s="5" t="str">
         <f>菜单SAAS版!E222</f>
         <v>iam_menu-237</v>
       </c>
-      <c r="G335" s="8" t="s">
+      <c r="G335" s="5" t="s">
         <v>1598</v>
       </c>
     </row>
     <row r="336" s="5" customFormat="1" spans="5:7">
-      <c r="E336" s="8" t="s">
+      <c r="E336" s="5" t="s">
         <v>1599</v>
       </c>
-      <c r="F336" s="8" t="str">
+      <c r="F336" s="5" t="str">
         <f>菜单SAAS版!E223</f>
         <v>iam_menu-238</v>
       </c>
-      <c r="G336" s="8" t="s">
+      <c r="G336" s="5" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="337" s="5" customFormat="1" spans="5:7">
-      <c r="E337" s="8" t="s">
+      <c r="E337" s="5" t="s">
         <v>1601</v>
       </c>
-      <c r="F337" s="8" t="str">
+      <c r="F337" s="5" t="str">
         <f>菜单SAAS版!E223</f>
         <v>iam_menu-238</v>
       </c>
-      <c r="G337" s="8" t="s">
+      <c r="G337" s="5" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="338" spans="5:7">
-      <c r="E338" s="8" t="s">
+      <c r="E338" s="5" t="s">
         <v>1603</v>
       </c>
-      <c r="F338" s="8" t="str">
+      <c r="F338" s="5" t="str">
         <f>菜单SAAS版!E224</f>
         <v>iam_menu-239</v>
       </c>
-      <c r="G338" s="15" t="s">
+      <c r="G338" s="14" t="s">
         <v>1604</v>
       </c>
     </row>
     <row r="339" spans="5:7">
-      <c r="E339" s="8" t="s">
+      <c r="E339" s="5" t="s">
         <v>1605</v>
       </c>
-      <c r="F339" s="8" t="str">
+      <c r="F339" s="5" t="str">
         <f>菜单SAAS版!E224</f>
         <v>iam_menu-239</v>
       </c>
-      <c r="G339" s="15" t="s">
+      <c r="G339" s="14" t="s">
         <v>1606</v>
       </c>
     </row>
     <row r="340" spans="5:7">
-      <c r="E340" s="8" t="s">
+      <c r="E340" s="5" t="s">
         <v>1607</v>
       </c>
-      <c r="F340" s="8" t="str">
+      <c r="F340" s="5" t="str">
         <f>菜单SAAS版!E225</f>
         <v>iam_menu-240</v>
       </c>
-      <c r="G340" s="15" t="s">
+      <c r="G340" s="14" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="341" spans="5:7">
-      <c r="E341" s="8" t="s">
+      <c r="E341" s="5" t="s">
         <v>1609</v>
       </c>
-      <c r="F341" s="8" t="str">
+      <c r="F341" s="5" t="str">
         <f>菜单SAAS版!E225</f>
         <v>iam_menu-240</v>
       </c>
-      <c r="G341" s="15" t="s">
+      <c r="G341" s="14" t="s">
         <v>1610</v>
       </c>
     </row>
@@ -26341,21 +26335,21 @@
       </c>
     </row>
     <row r="80" spans="5:9">
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="8" t="s">
         <v>1686</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="8" t="s">
         <v>1625</v>
       </c>
-      <c r="G80" s="9" t="str">
+      <c r="G80" s="8" t="str">
         <f>菜单SAAS版!$E$117</f>
         <v>iam_menu-119</v>
       </c>
-      <c r="H80" s="9" t="str">
+      <c r="H80" s="8" t="str">
         <f>菜单标签数据!$E$13</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I80" s="8" t="s">
         <v>1687</v>
       </c>
     </row>
@@ -36055,222 +36049,222 @@
       </c>
     </row>
     <row r="236" s="5" customFormat="1" spans="5:10">
-      <c r="E236" s="8" t="s">
+      <c r="E236" s="5" t="s">
         <v>1980</v>
       </c>
-      <c r="F236" s="8" t="str">
+      <c r="F236" s="5" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G236" s="8" t="str">
+      <c r="G236" s="5" t="str">
         <f>菜单SAAS版!$E$221</f>
         <v>iam_menu-236</v>
       </c>
-      <c r="H236" s="8" t="s">
+      <c r="H236" s="5" t="s">
         <v>1758</v>
       </c>
-      <c r="I236" s="8" t="s">
+      <c r="I236" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="J236" s="8" t="s">
+      <c r="J236" s="5" t="s">
         <v>1760</v>
       </c>
     </row>
     <row r="237" s="5" customFormat="1" spans="5:10">
-      <c r="E237" s="8" t="s">
+      <c r="E237" s="5" t="s">
         <v>1981</v>
       </c>
-      <c r="F237" s="8" t="str">
+      <c r="F237" s="5" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G237" s="8" t="str">
+      <c r="G237" s="5" t="str">
         <f>菜单SAAS版!$E$221</f>
         <v>iam_menu-236</v>
       </c>
-      <c r="H237" s="8" t="s">
+      <c r="H237" s="5" t="s">
         <v>1758</v>
       </c>
-      <c r="I237" s="8" t="s">
+      <c r="I237" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="J237" s="8" t="s">
+      <c r="J237" s="5" t="s">
         <v>1760</v>
       </c>
     </row>
     <row r="238" s="5" customFormat="1" spans="5:10">
-      <c r="E238" s="8" t="s">
+      <c r="E238" s="5" t="s">
         <v>1982</v>
       </c>
-      <c r="F238" s="8" t="str">
+      <c r="F238" s="5" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G238" s="8" t="str">
+      <c r="G238" s="5" t="str">
         <f>菜单SAAS版!$E$222</f>
         <v>iam_menu-237</v>
       </c>
-      <c r="H238" s="8" t="s">
+      <c r="H238" s="5" t="s">
         <v>1758</v>
       </c>
-      <c r="I238" s="8" t="s">
+      <c r="I238" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="J238" s="8" t="s">
+      <c r="J238" s="5" t="s">
         <v>1760</v>
       </c>
     </row>
     <row r="239" s="5" customFormat="1" spans="5:10">
-      <c r="E239" s="8" t="s">
+      <c r="E239" s="5" t="s">
         <v>1983</v>
       </c>
-      <c r="F239" s="8" t="str">
+      <c r="F239" s="5" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G239" s="8" t="str">
+      <c r="G239" s="5" t="str">
         <f>菜单SAAS版!$E$222</f>
         <v>iam_menu-237</v>
       </c>
-      <c r="H239" s="8" t="s">
+      <c r="H239" s="5" t="s">
         <v>1758</v>
       </c>
-      <c r="I239" s="8" t="s">
+      <c r="I239" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="J239" s="8" t="s">
+      <c r="J239" s="5" t="s">
         <v>1760</v>
       </c>
     </row>
     <row r="240" s="5" customFormat="1" spans="5:10">
-      <c r="E240" s="8" t="s">
+      <c r="E240" s="5" t="s">
         <v>1984</v>
       </c>
-      <c r="F240" s="8" t="str">
+      <c r="F240" s="5" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G240" s="8" t="str">
+      <c r="G240" s="5" t="str">
         <f>菜单SAAS版!$E$223</f>
         <v>iam_menu-238</v>
       </c>
-      <c r="H240" s="8" t="s">
+      <c r="H240" s="5" t="s">
         <v>1758</v>
       </c>
-      <c r="I240" s="8" t="s">
+      <c r="I240" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="J240" s="8" t="s">
+      <c r="J240" s="5" t="s">
         <v>1760</v>
       </c>
     </row>
     <row r="241" s="5" customFormat="1" spans="5:10">
-      <c r="E241" s="8" t="s">
+      <c r="E241" s="5" t="s">
         <v>1985</v>
       </c>
-      <c r="F241" s="8" t="str">
+      <c r="F241" s="5" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G241" s="8" t="str">
+      <c r="G241" s="5" t="str">
         <f>菜单SAAS版!$E$223</f>
         <v>iam_menu-238</v>
       </c>
-      <c r="H241" s="8" t="s">
+      <c r="H241" s="5" t="s">
         <v>1758</v>
       </c>
-      <c r="I241" s="8" t="s">
+      <c r="I241" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="J241" s="8" t="s">
+      <c r="J241" s="5" t="s">
         <v>1760</v>
       </c>
     </row>
     <row r="242" s="5" customFormat="1" spans="5:10">
-      <c r="E242" s="8" t="s">
+      <c r="E242" s="5" t="s">
         <v>1986</v>
       </c>
-      <c r="F242" s="8" t="str">
+      <c r="F242" s="5" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G242" s="8" t="str">
+      <c r="G242" s="5" t="str">
         <f>菜单SAAS版!$E$224</f>
         <v>iam_menu-239</v>
       </c>
-      <c r="H242" s="8" t="s">
+      <c r="H242" s="5" t="s">
         <v>1758</v>
       </c>
-      <c r="I242" s="8" t="s">
+      <c r="I242" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="J242" s="8" t="s">
+      <c r="J242" s="5" t="s">
         <v>1760</v>
       </c>
     </row>
     <row r="243" s="5" customFormat="1" spans="5:10">
-      <c r="E243" s="8" t="s">
+      <c r="E243" s="5" t="s">
         <v>1987</v>
       </c>
-      <c r="F243" s="8" t="str">
+      <c r="F243" s="5" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G243" s="8" t="str">
+      <c r="G243" s="5" t="str">
         <f>菜单SAAS版!$E$224</f>
         <v>iam_menu-239</v>
       </c>
-      <c r="H243" s="8" t="s">
+      <c r="H243" s="5" t="s">
         <v>1758</v>
       </c>
-      <c r="I243" s="8" t="s">
+      <c r="I243" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="J243" s="8" t="s">
+      <c r="J243" s="5" t="s">
         <v>1760</v>
       </c>
     </row>
     <row r="244" s="5" customFormat="1" spans="5:10">
-      <c r="E244" s="8" t="s">
+      <c r="E244" s="5" t="s">
         <v>1988</v>
       </c>
-      <c r="F244" s="8" t="str">
+      <c r="F244" s="5" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G244" s="8" t="str">
+      <c r="G244" s="5" t="str">
         <f>菜单SAAS版!$E$225</f>
         <v>iam_menu-240</v>
       </c>
-      <c r="H244" s="8" t="s">
+      <c r="H244" s="5" t="s">
         <v>1758</v>
       </c>
-      <c r="I244" s="8" t="s">
+      <c r="I244" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="J244" s="8" t="s">
+      <c r="J244" s="5" t="s">
         <v>1760</v>
       </c>
     </row>
     <row r="245" s="5" customFormat="1" spans="5:10">
-      <c r="E245" s="8" t="s">
+      <c r="E245" s="5" t="s">
         <v>1989</v>
       </c>
-      <c r="F245" s="8" t="str">
+      <c r="F245" s="5" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G245" s="8" t="str">
+      <c r="G245" s="5" t="str">
         <f>菜单SAAS版!$E$225</f>
         <v>iam_menu-240</v>
       </c>
-      <c r="H245" s="8" t="s">
+      <c r="H245" s="5" t="s">
         <v>1758</v>
       </c>
-      <c r="I245" s="8" t="s">
+      <c r="I245" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="J245" s="8" t="s">
+      <c r="J245" s="5" t="s">
         <v>1760</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -7826,9 +7826,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="47">
@@ -7954,6 +7954,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -7968,62 +8037,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8045,18 +8060,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8067,32 +8082,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8181,7 +8181,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8193,25 +8199,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8223,13 +8223,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8241,13 +8241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8265,13 +8265,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8283,49 +8289,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8343,19 +8325,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8469,16 +8469,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8500,35 +8518,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8550,166 +8557,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8723,9 +8723,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9433,8 +9433,8 @@
   <sheetPr/>
   <dimension ref="A1:Y225"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A133" sqref="$A133:$XFD133"/>
+    <sheetView topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -20618,7 +20618,7 @@
   <sheetPr/>
   <dimension ref="A1:H342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C327" workbookViewId="0">
+    <sheetView topLeftCell="C327" workbookViewId="0">
       <selection activeCell="F240" sqref="F240"/>
     </sheetView>
   </sheetViews>
@@ -20726,30 +20726,30 @@
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>1025</v>
       </c>
-      <c r="F12" s="8" t="str">
+      <c r="F12" s="9" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>1026</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="5:8">
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="F13" s="8" t="str">
+      <c r="F13" s="9" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
@@ -24076,14 +24076,14 @@
       </c>
     </row>
     <row r="291" spans="5:7">
-      <c r="E291" s="8" t="s">
+      <c r="E291" s="9" t="s">
         <v>1524</v>
       </c>
-      <c r="F291" s="8" t="str">
+      <c r="F291" s="9" t="str">
         <f>菜单SAAS版!E79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G291" s="8" t="s">
+      <c r="G291" s="9" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -24136,31 +24136,31 @@
       </c>
     </row>
     <row r="296" spans="5:7">
-      <c r="E296" s="8" t="s">
+      <c r="E296" s="9" t="s">
         <v>1533</v>
       </c>
-      <c r="F296" s="8" t="str">
+      <c r="F296" s="9" t="str">
         <f>菜单SAAS版!E72</f>
         <v>iam_menu-72</v>
       </c>
-      <c r="G296" s="8" t="s">
+      <c r="G296" s="9" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="297" spans="5:7">
-      <c r="E297" s="8" t="s">
+      <c r="E297" s="9" t="s">
         <v>1535</v>
       </c>
-      <c r="F297" s="8" t="str">
+      <c r="F297" s="9" t="str">
         <f>菜单SAAS版!E72</f>
         <v>iam_menu-72</v>
       </c>
-      <c r="G297" s="8" t="s">
+      <c r="G297" s="9" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="298" spans="5:7">
-      <c r="E298" s="8" t="s">
+      <c r="E298" s="9" t="s">
         <v>1537</v>
       </c>
       <c r="F298" t="str">
@@ -24292,26 +24292,26 @@
       </c>
     </row>
     <row r="309" spans="5:7">
-      <c r="E309" s="8" t="s">
+      <c r="E309" s="9" t="s">
         <v>1559</v>
       </c>
-      <c r="F309" s="8" t="str">
+      <c r="F309" s="9" t="str">
         <f>菜单SAAS版!E17</f>
         <v>iam_menu-17</v>
       </c>
-      <c r="G309" s="8" t="s">
+      <c r="G309" s="9" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="310" spans="5:7">
-      <c r="E310" s="8" t="s">
+      <c r="E310" s="9" t="s">
         <v>1561</v>
       </c>
-      <c r="F310" s="8" t="str">
+      <c r="F310" s="9" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-18</v>
       </c>
-      <c r="G310" s="8" t="s">
+      <c r="G310" s="9" t="s">
         <v>1560</v>
       </c>
     </row>
@@ -24327,255 +24327,255 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="312" s="9" customFormat="1" spans="5:7">
-      <c r="E312" s="9" t="s">
+    <row r="312" s="10" customFormat="1" spans="5:7">
+      <c r="E312" s="10" t="s">
         <v>1564</v>
       </c>
-      <c r="F312" s="9" t="str">
+      <c r="F312" s="10" t="str">
         <f>菜单SAAS版!E209</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G312" s="9" t="s">
+      <c r="G312" s="10" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="313" s="9" customFormat="1" spans="5:7">
-      <c r="E313" s="9" t="s">
+    <row r="313" s="10" customFormat="1" spans="5:7">
+      <c r="E313" s="10" t="s">
         <v>1566</v>
       </c>
-      <c r="F313" s="9" t="str">
+      <c r="F313" s="10" t="str">
         <f>菜单SAAS版!E209</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G313" s="9" t="s">
+      <c r="G313" s="10" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="314" s="9" customFormat="1" spans="5:7">
-      <c r="E314" s="9" t="s">
+    <row r="314" s="10" customFormat="1" spans="5:7">
+      <c r="E314" s="10" t="s">
         <v>1567</v>
       </c>
-      <c r="F314" s="9" t="str">
+      <c r="F314" s="10" t="str">
         <f>菜单SAAS版!E209</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G314" s="9" t="s">
+      <c r="G314" s="10" t="s">
         <v>1435</v>
       </c>
     </row>
     <row r="315" spans="5:7">
-      <c r="E315" s="9" t="s">
+      <c r="E315" s="10" t="s">
         <v>1568</v>
       </c>
-      <c r="F315" s="9" t="str">
+      <c r="F315" s="10" t="str">
         <f>菜单SAAS版!E209</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G315" s="9" t="s">
+      <c r="G315" s="10" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="316" spans="5:7">
-      <c r="E316" s="9" t="s">
+      <c r="E316" s="10" t="s">
         <v>1569</v>
       </c>
-      <c r="F316" s="9" t="str">
+      <c r="F316" s="10" t="str">
         <f>菜单SAAS版!E210</f>
         <v>iam_menu-225</v>
       </c>
-      <c r="G316" s="9" t="s">
+      <c r="G316" s="10" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="317" spans="5:7">
-      <c r="E317" s="9" t="s">
+      <c r="E317" s="10" t="s">
         <v>1570</v>
       </c>
-      <c r="F317" s="9" t="str">
+      <c r="F317" s="10" t="str">
         <f>菜单SAAS版!E211</f>
         <v>iam_menu-226</v>
       </c>
-      <c r="G317" s="9" t="s">
+      <c r="G317" s="10" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="318" spans="5:7">
-      <c r="E318" s="9" t="s">
+      <c r="E318" s="10" t="s">
         <v>1571</v>
       </c>
-      <c r="F318" s="9" t="str">
+      <c r="F318" s="10" t="str">
         <f>菜单SAAS版!E212</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G318" s="9" t="s">
+      <c r="G318" s="10" t="s">
         <v>1459</v>
       </c>
     </row>
     <row r="319" spans="5:7">
-      <c r="E319" s="9" t="s">
+      <c r="E319" s="10" t="s">
         <v>1572</v>
       </c>
-      <c r="F319" s="9" t="str">
+      <c r="F319" s="10" t="str">
         <f>菜单SAAS版!E212</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G319" s="9" t="s">
+      <c r="G319" s="10" t="s">
         <v>1463</v>
       </c>
     </row>
     <row r="320" spans="5:7">
-      <c r="E320" s="9" t="s">
+      <c r="E320" s="10" t="s">
         <v>1573</v>
       </c>
-      <c r="F320" s="9" t="str">
+      <c r="F320" s="10" t="str">
         <f>菜单SAAS版!E212</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G320" s="9" t="s">
+      <c r="G320" s="10" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="321" spans="5:7">
-      <c r="E321" s="9" t="s">
+      <c r="E321" s="10" t="s">
         <v>1574</v>
       </c>
-      <c r="F321" s="9" t="str">
+      <c r="F321" s="10" t="str">
         <f>菜单SAAS版!E212</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G321" s="9" t="s">
+      <c r="G321" s="10" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="322" spans="5:7">
-      <c r="E322" s="9" t="s">
+      <c r="E322" s="10" t="s">
         <v>1575</v>
       </c>
-      <c r="F322" s="9" t="str">
+      <c r="F322" s="10" t="str">
         <f>菜单SAAS版!E213</f>
         <v>iam_menu-228</v>
       </c>
-      <c r="G322" s="9" t="s">
+      <c r="G322" s="10" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="323" spans="5:7">
-      <c r="E323" s="9" t="s">
+      <c r="E323" s="10" t="s">
         <v>1576</v>
       </c>
-      <c r="F323" s="9" t="str">
+      <c r="F323" s="10" t="str">
         <f>菜单SAAS版!E214</f>
         <v>iam_menu-229</v>
       </c>
-      <c r="G323" s="9" t="s">
+      <c r="G323" s="10" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="324" spans="5:7">
-      <c r="E324" s="9" t="s">
+      <c r="E324" s="10" t="s">
         <v>1577</v>
       </c>
-      <c r="F324" s="9" t="str">
+      <c r="F324" s="10" t="str">
         <f>菜单SAAS版!E215</f>
         <v>iam_menu-230</v>
       </c>
-      <c r="G324" s="9" t="s">
+      <c r="G324" s="10" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="325" spans="5:7">
-      <c r="E325" s="9" t="s">
+      <c r="E325" s="10" t="s">
         <v>1578</v>
       </c>
-      <c r="F325" s="9" t="str">
+      <c r="F325" s="10" t="str">
         <f>菜单SAAS版!E216</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="G325" s="9" t="s">
+      <c r="G325" s="10" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="326" spans="5:7">
-      <c r="E326" s="9" t="s">
+      <c r="E326" s="10" t="s">
         <v>1580</v>
       </c>
-      <c r="F326" s="9" t="str">
+      <c r="F326" s="10" t="str">
         <f>菜单SAAS版!E217</f>
         <v>iam_menu-232</v>
       </c>
-      <c r="G326" s="9" t="s">
+      <c r="G326" s="10" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="327" spans="5:7">
-      <c r="E327" s="9" t="s">
+      <c r="E327" s="10" t="s">
         <v>1582</v>
       </c>
-      <c r="F327" s="9" t="str">
+      <c r="F327" s="10" t="str">
         <f>菜单SAAS版!E218</f>
         <v>iam_menu-233</v>
       </c>
-      <c r="G327" s="9" t="s">
+      <c r="G327" s="10" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="328" spans="5:7">
-      <c r="E328" s="9" t="s">
+      <c r="E328" s="10" t="s">
         <v>1584</v>
       </c>
-      <c r="F328" s="9" t="str">
+      <c r="F328" s="10" t="str">
         <f>菜单SAAS版!E218</f>
         <v>iam_menu-233</v>
       </c>
-      <c r="G328" s="9" t="s">
+      <c r="G328" s="10" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="329" spans="5:7">
-      <c r="E329" s="9" t="s">
+      <c r="E329" s="10" t="s">
         <v>1586</v>
       </c>
-      <c r="F329" s="9" t="str">
+      <c r="F329" s="10" t="str">
         <f>菜单SAAS版!E219</f>
         <v>iam_menu-234</v>
       </c>
-      <c r="G329" s="9" t="s">
+      <c r="G329" s="10" t="s">
         <v>1587</v>
       </c>
     </row>
     <row r="330" spans="5:7">
-      <c r="E330" s="9" t="s">
+      <c r="E330" s="10" t="s">
         <v>1588</v>
       </c>
-      <c r="F330" s="9" t="str">
+      <c r="F330" s="10" t="str">
         <f>菜单SAAS版!E216</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="G330" s="9" t="s">
+      <c r="G330" s="10" t="s">
         <v>1589</v>
       </c>
     </row>
     <row r="331" spans="5:7">
-      <c r="E331" s="9" t="s">
+      <c r="E331" s="10" t="s">
         <v>1590</v>
       </c>
-      <c r="F331" s="9" t="str">
+      <c r="F331" s="10" t="str">
         <f>菜单SAAS版!E216</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="G331" s="9" t="s">
+      <c r="G331" s="10" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="332" spans="5:7">
-      <c r="E332" s="9" t="s">
+      <c r="E332" s="10" t="s">
         <v>1592</v>
       </c>
       <c r="F332" s="6" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G332" s="9" t="s">
+      <c r="G332" s="10" t="s">
         <v>1593</v>
       </c>
     </row>
@@ -24687,11 +24687,11 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="342" s="10" customFormat="1" spans="5:7">
-      <c r="E342" s="8" t="s">
+    <row r="342" s="9" customFormat="1" spans="5:7">
+      <c r="E342" s="9" t="s">
         <v>1611</v>
       </c>
-      <c r="F342" s="8" t="str">
+      <c r="F342" s="9" t="str">
         <f>菜单SAAS版!E74</f>
         <v>iam_menu-74</v>
       </c>
@@ -24710,8 +24710,8 @@
   <sheetPr/>
   <dimension ref="A1:O306"/>
   <sheetViews>
-    <sheetView topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="G303" sqref="G303"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -26358,21 +26358,21 @@
       </c>
     </row>
     <row r="80" spans="5:9">
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="9" t="s">
         <v>1687</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="9" t="s">
         <v>1626</v>
       </c>
-      <c r="G80" s="8" t="str">
+      <c r="G80" s="9" t="str">
         <f>菜单SAAS版!$E$117</f>
         <v>iam_menu-119</v>
       </c>
-      <c r="H80" s="8" t="str">
+      <c r="H80" s="9" t="str">
         <f>菜单标签数据!$E$13</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I80" s="8" t="s">
+      <c r="I80" s="9" t="s">
         <v>1688</v>
       </c>
     </row>
@@ -30594,22 +30594,22 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="303" spans="5:9">
-      <c r="E303" t="s">
+    <row r="303" s="8" customFormat="1" spans="5:9">
+      <c r="E303" s="7" t="s">
         <v>1687</v>
       </c>
-      <c r="F303" t="s">
+      <c r="F303" s="6" t="s">
         <v>1626</v>
       </c>
-      <c r="G303" t="str">
+      <c r="G303" s="6" t="str">
         <f>菜单SAAS版!$E$220</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="H303" t="str">
+      <c r="H303" s="6" t="str">
         <f>菜单标签数据!$E$13</f>
         <v>iam_label-13</v>
       </c>
-      <c r="I303" t="s">
+      <c r="I303" s="6" t="s">
         <v>1689</v>
       </c>
     </row>
@@ -30632,22 +30632,22 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="305" spans="5:9">
-      <c r="E305" t="s">
+    <row r="305" s="8" customFormat="1" spans="5:9">
+      <c r="E305" s="7" t="s">
         <v>1687</v>
       </c>
-      <c r="F305" t="s">
+      <c r="F305" s="6" t="s">
         <v>1626</v>
       </c>
-      <c r="G305" t="str">
+      <c r="G305" s="6" t="str">
         <f>菜单SAAS版!$E$220</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="H305" t="str">
+      <c r="H305" s="6" t="str">
         <f>菜单标签数据!$E$15</f>
         <v>iam_label-15</v>
       </c>
-      <c r="I305" t="s">
+      <c r="I305" s="6" t="s">
         <v>1689</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\choerodon\iam\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DA4127-1959-4FF7-A3AB-06714E710998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -32,6 +38,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -41,7 +48,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -50,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +69,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -71,7 +79,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -80,6 +87,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -89,7 +97,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -98,6 +105,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -107,7 +115,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -116,6 +123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +155,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -156,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -165,6 +173,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -174,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -183,6 +191,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -192,7 +201,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -204,6 +212,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -214,7 +223,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -224,6 +232,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -234,7 +243,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -244,6 +252,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -255,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -264,6 +272,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -275,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -284,6 +292,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +304,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -304,7 +314,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -313,6 +322,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -333,7 +344,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -342,6 +352,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -351,7 +362,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -360,6 +370,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -369,7 +380,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -378,6 +388,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -387,7 +398,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -396,6 +406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -405,7 +416,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -434,7 +444,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -443,6 +452,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -452,7 +462,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -461,6 +470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -470,7 +480,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -479,6 +488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -488,7 +498,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -497,6 +506,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +518,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -517,7 +528,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -526,6 +536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -535,7 +546,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -544,6 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -553,7 +564,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -563,6 +573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -572,7 +583,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -581,6 +591,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -590,7 +601,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -600,6 +610,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -609,7 +620,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -618,6 +628,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +640,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -638,7 +650,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -647,6 +658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -656,7 +668,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -665,6 +676,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -679,7 +691,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -688,6 +699,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -697,7 +709,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -706,6 +717,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -715,7 +727,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -724,6 +735,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -733,7 +745,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -742,6 +753,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -751,7 +763,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -760,6 +771,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -780,7 +793,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -789,6 +801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +812,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -809,7 +823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -819,6 +832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +843,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -838,7 +853,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -847,6 +861,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -856,7 +871,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -865,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -879,7 +894,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -888,6 +902,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -897,7 +912,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -906,6 +920,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -915,7 +930,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -925,6 +939,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -934,7 +949,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -944,6 +958,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -953,7 +968,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -963,6 +977,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -972,7 +987,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -983,6 +997,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -992,7 +1007,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1002,6 +1016,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1011,7 +1026,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1027,7 +1041,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1036,6 +1049,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1047,7 +1061,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1056,6 +1069,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1081,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1076,7 +1091,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1085,6 +1099,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1094,7 +1109,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1105,6 +1119,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1114,7 +1129,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1123,6 +1137,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1150,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1144,7 +1160,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1153,6 +1168,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1162,7 +1178,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1171,6 +1186,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1180,7 +1196,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1189,6 +1204,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1212,7 +1229,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1221,6 +1237,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1230,7 +1247,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1239,6 +1255,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1248,7 +1265,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1257,6 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1266,7 +1283,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1275,6 +1291,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1307,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1317,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1308,7 +1327,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1317,6 +1335,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1351,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1350,7 +1371,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1359,6 +1379,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1382,7 +1404,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1391,6 +1412,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1400,7 +1422,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1409,6 +1430,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1418,7 +1440,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1428,6 +1449,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1437,7 +1459,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1451,6 +1472,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1460,7 +1482,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1469,6 +1490,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1478,7 +1500,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1487,6 +1508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1496,7 +1518,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1506,6 +1527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1515,7 +1537,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1526,6 +1547,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1568,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1580,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1565,7 +1590,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1574,6 +1598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1583,7 +1608,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1592,6 +1616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1601,7 +1626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1610,6 +1634,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1620,7 +1645,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1629,6 +1653,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1638,7 +1663,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1647,6 +1671,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1656,7 +1681,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1665,6 +1689,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1674,7 +1699,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1684,6 +1708,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1693,7 +1718,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1702,6 +1726,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1711,7 +1736,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1720,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1729,7 +1754,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1738,6 +1762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1747,7 +1772,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1757,6 +1781,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1793,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1804,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1814,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1826,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1807,7 +1836,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1816,6 +1844,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1836,7 +1866,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1845,6 +1874,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1854,7 +1884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1864,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6303,6 +6333,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>iam_menu_permission-30</t>
@@ -6312,6 +6343,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -7824,14 +7856,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="47">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7842,30 +7868,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="4" tint="-0.5"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7873,242 +7900,96 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8127,28 +8008,41 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8179,194 +8073,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -8467,252 +8175,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8742,20 +8208,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8789,9 +8243,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8799,59 +8250,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -8924,6 +8343,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9181,275 +8603,272 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="18" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="19" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="24" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="26" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="20"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="30" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="33" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="36" t="s">
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="39" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="33" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="33" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="41" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="45" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="45" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="45" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="40" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="45" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="40" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="46" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="34" t="s">
+      <c r="E25" s="44"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="47" t="s">
+      <c r="E26" s="44"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="42" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="28" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y225"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="E220" sqref="E220"/>
+    <sheetView tabSelected="1" topLeftCell="C81" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="21.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="58.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="26.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="27.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="25.2222222222222" customWidth="1"/>
-    <col min="16" max="16" width="28.4444444444444" customWidth="1"/>
-    <col min="19" max="19" width="135.222222222222" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="58.77734375" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.21875" customWidth="1"/>
+    <col min="16" max="16" width="28.44140625" customWidth="1"/>
+    <col min="19" max="19" width="135.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9463,7 +8882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -9551,7 +8970,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -9598,7 +9017,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -9648,7 +9067,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>88</v>
       </c>
@@ -9705,7 +9124,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -9756,7 +9175,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>104</v>
       </c>
@@ -9804,7 +9223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>108</v>
       </c>
@@ -9855,7 +9274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>112</v>
       </c>
@@ -9912,7 +9331,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>119</v>
       </c>
@@ -9960,7 +9379,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>123</v>
       </c>
@@ -13700,8 +13119,8 @@
         <v>79</v>
       </c>
       <c r="K89" t="str">
-        <f>菜单SAAS版!$E$88</f>
-        <v>iam_menu-90</v>
+        <f>E119</f>
+        <v>iam_menu-121</v>
       </c>
       <c r="L89" t="s">
         <v>92</v>
@@ -20310,7 +19729,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="220" s="5" customFormat="1" spans="5:24">
+    <row r="220" spans="5:24" s="5" customFormat="1">
       <c r="E220" s="5" t="s">
         <v>994</v>
       </c>
@@ -20367,7 +19786,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="221" s="5" customFormat="1" spans="5:24">
+    <row r="221" spans="5:24" s="5" customFormat="1">
       <c r="E221" s="5" t="s">
         <v>998</v>
       </c>
@@ -20415,7 +19834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="222" s="5" customFormat="1" spans="5:24">
+    <row r="222" spans="5:24" s="5" customFormat="1">
       <c r="E222" s="5" t="s">
         <v>1001</v>
       </c>
@@ -20463,7 +19882,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="223" s="5" customFormat="1" spans="5:24">
+    <row r="223" spans="5:24" s="5" customFormat="1">
       <c r="E223" s="5" t="s">
         <v>1004</v>
       </c>
@@ -20511,7 +19930,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="224" s="5" customFormat="1" spans="5:24">
+    <row r="224" spans="5:24" s="5" customFormat="1">
       <c r="E224" s="5" t="s">
         <v>1007</v>
       </c>
@@ -20559,7 +19978,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="225" s="5" customFormat="1" spans="5:24">
+    <row r="225" spans="5:24" s="5" customFormat="1">
       <c r="E225" s="5" t="s">
         <v>1010</v>
       </c>
@@ -20608,28 +20027,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H342"/>
   <sheetViews>
     <sheetView topLeftCell="C327" workbookViewId="0">
       <selection activeCell="F240" sqref="F240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="35.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="17.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="64.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="64.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -20643,7 +20061,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -20654,7 +20072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -20677,7 +20095,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:8">
       <c r="E8" t="s">
         <v>1017</v>
       </c>
@@ -20689,7 +20107,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:8">
       <c r="E9" t="s">
         <v>1019</v>
       </c>
@@ -20701,7 +20119,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:8">
       <c r="E10" t="s">
         <v>1021</v>
       </c>
@@ -20713,7 +20131,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:8">
       <c r="E11" t="s">
         <v>1023</v>
       </c>
@@ -20725,7 +20143,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" spans="1:8">
       <c r="E12" s="9" t="s">
         <v>1025</v>
       </c>
@@ -20738,7 +20156,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" spans="1:8">
       <c r="E13" s="9" t="s">
         <v>1027</v>
       </c>
@@ -20751,7 +20169,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:8">
       <c r="E14" t="s">
         <v>1029</v>
       </c>
@@ -20763,7 +20181,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:8">
       <c r="E15" t="s">
         <v>1031</v>
       </c>
@@ -20775,7 +20193,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:8">
       <c r="E16" t="s">
         <v>1033</v>
       </c>
@@ -24327,7 +23745,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="312" s="10" customFormat="1" spans="5:7">
+    <row r="312" spans="5:7" s="10" customFormat="1">
       <c r="E312" s="10" t="s">
         <v>1564</v>
       </c>
@@ -24339,7 +23757,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="313" s="10" customFormat="1" spans="5:7">
+    <row r="313" spans="5:7" s="10" customFormat="1">
       <c r="E313" s="10" t="s">
         <v>1566</v>
       </c>
@@ -24351,7 +23769,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="314" s="10" customFormat="1" spans="5:7">
+    <row r="314" spans="5:7" s="10" customFormat="1">
       <c r="E314" s="10" t="s">
         <v>1567</v>
       </c>
@@ -24579,7 +23997,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="333" s="5" customFormat="1" spans="5:7">
+    <row r="333" spans="5:7" s="5" customFormat="1">
       <c r="E333" s="5" t="s">
         <v>1594</v>
       </c>
@@ -24591,7 +24009,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="334" s="5" customFormat="1" spans="5:7">
+    <row r="334" spans="5:7" s="5" customFormat="1">
       <c r="E334" s="5" t="s">
         <v>1595</v>
       </c>
@@ -24603,7 +24021,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="335" s="5" customFormat="1" spans="5:7">
+    <row r="335" spans="5:7" s="5" customFormat="1">
       <c r="E335" s="5" t="s">
         <v>1597</v>
       </c>
@@ -24615,7 +24033,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="336" s="5" customFormat="1" spans="5:7">
+    <row r="336" spans="5:7" s="5" customFormat="1">
       <c r="E336" s="5" t="s">
         <v>1599</v>
       </c>
@@ -24627,7 +24045,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="337" s="5" customFormat="1" spans="5:7">
+    <row r="337" spans="5:7" s="5" customFormat="1">
       <c r="E337" s="5" t="s">
         <v>1601</v>
       </c>
@@ -24687,7 +24105,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="342" s="9" customFormat="1" spans="5:7">
+    <row r="342" spans="5:7" s="9" customFormat="1">
       <c r="E342" s="9" t="s">
         <v>1611</v>
       </c>
@@ -24700,28 +24118,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="19.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="14.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="14.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -24735,7 +24152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -24793,7 +24210,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1624</v>
       </c>
@@ -24825,7 +24242,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1629</v>
       </c>
@@ -24857,7 +24274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1632</v>
       </c>
@@ -24883,7 +24300,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1635</v>
       </c>
@@ -24909,7 +24326,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1637</v>
       </c>
@@ -24941,7 +24358,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1640</v>
       </c>
@@ -24970,7 +24387,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1643</v>
       </c>
@@ -24999,7 +24416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1646</v>
       </c>
@@ -25028,7 +24445,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1649</v>
       </c>
@@ -25057,7 +24474,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1652</v>
       </c>
@@ -25089,7 +24506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1655</v>
       </c>
@@ -25121,7 +24538,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1658</v>
       </c>
@@ -25153,7 +24570,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>1661</v>
       </c>
@@ -25179,7 +24596,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>1663</v>
       </c>
@@ -25211,7 +24628,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1666</v>
       </c>
@@ -25243,7 +24660,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1669</v>
       </c>
@@ -25275,7 +24692,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1672</v>
       </c>
@@ -25301,7 +24718,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1674</v>
       </c>
@@ -25330,7 +24747,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1677</v>
       </c>
@@ -25359,7 +24776,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -25388,7 +24805,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1687</v>
       </c>
@@ -25407,7 +24824,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1687</v>
       </c>
@@ -25426,7 +24843,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1687</v>
       </c>
@@ -25445,7 +24862,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1687</v>
       </c>
@@ -30594,7 +30011,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="303" s="8" customFormat="1" spans="5:9">
+    <row r="303" spans="5:9" s="8" customFormat="1">
       <c r="E303" s="7" t="s">
         <v>1687</v>
       </c>
@@ -30632,7 +30049,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="305" s="8" customFormat="1" spans="5:9">
+    <row r="305" spans="5:9" s="8" customFormat="1">
       <c r="E305" s="7" t="s">
         <v>1687</v>
       </c>
@@ -30671,14 +30088,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y245"/>
   <sheetViews>
     <sheetView topLeftCell="A230" workbookViewId="0">
@@ -30687,12 +30103,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="24.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="21.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="19.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -30706,7 +30122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -30794,7 +30210,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1706</v>
       </c>
@@ -30853,7 +30269,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1711</v>
       </c>
@@ -30912,7 +30328,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1716</v>
       </c>
@@ -30975,7 +30391,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1723</v>
       </c>
@@ -31038,7 +30454,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1731</v>
       </c>
@@ -31101,7 +30517,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1739</v>
       </c>
@@ -31164,7 +30580,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" s="6" t="s">
         <v>1747</v>
       </c>
@@ -31221,7 +30637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -36071,7 +35487,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="236" s="5" customFormat="1" spans="5:10">
+    <row r="236" spans="5:10" s="5" customFormat="1">
       <c r="E236" s="5" t="s">
         <v>1981</v>
       </c>
@@ -36093,7 +35509,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="237" s="5" customFormat="1" spans="5:10">
+    <row r="237" spans="5:10" s="5" customFormat="1">
       <c r="E237" s="5" t="s">
         <v>1982</v>
       </c>
@@ -36115,7 +35531,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="238" s="5" customFormat="1" spans="5:10">
+    <row r="238" spans="5:10" s="5" customFormat="1">
       <c r="E238" s="5" t="s">
         <v>1983</v>
       </c>
@@ -36137,7 +35553,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="239" s="5" customFormat="1" spans="5:10">
+    <row r="239" spans="5:10" s="5" customFormat="1">
       <c r="E239" s="5" t="s">
         <v>1984</v>
       </c>
@@ -36159,7 +35575,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="240" s="5" customFormat="1" spans="5:10">
+    <row r="240" spans="5:10" s="5" customFormat="1">
       <c r="E240" s="5" t="s">
         <v>1985</v>
       </c>
@@ -36181,7 +35597,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="241" s="5" customFormat="1" spans="5:10">
+    <row r="241" spans="5:10" s="5" customFormat="1">
       <c r="E241" s="5" t="s">
         <v>1986</v>
       </c>
@@ -36203,7 +35619,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="242" s="5" customFormat="1" spans="5:10">
+    <row r="242" spans="5:10" s="5" customFormat="1">
       <c r="E242" s="5" t="s">
         <v>1987</v>
       </c>
@@ -36225,7 +35641,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="243" s="5" customFormat="1" spans="5:10">
+    <row r="243" spans="5:10" s="5" customFormat="1">
       <c r="E243" s="5" t="s">
         <v>1988</v>
       </c>
@@ -36247,7 +35663,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="244" s="5" customFormat="1" spans="5:10">
+    <row r="244" spans="5:10" s="5" customFormat="1">
       <c r="E244" s="5" t="s">
         <v>1989</v>
       </c>
@@ -36269,7 +35685,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="245" s="5" customFormat="1" spans="5:10">
+    <row r="245" spans="5:10" s="5" customFormat="1">
       <c r="E245" s="5" t="s">
         <v>1990</v>
       </c>
@@ -36292,23 +35708,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -36322,7 +35735,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -36380,7 +35793,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1624</v>
       </c>
@@ -36412,7 +35825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1629</v>
       </c>
@@ -36441,7 +35854,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1632</v>
       </c>
@@ -36473,7 +35886,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1635</v>
       </c>
@@ -36505,7 +35918,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1637</v>
       </c>
@@ -36537,7 +35950,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1640</v>
       </c>
@@ -36569,7 +35982,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1643</v>
       </c>
@@ -36601,7 +36014,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1646</v>
       </c>
@@ -36633,7 +36046,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1649</v>
       </c>
@@ -36665,7 +36078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1652</v>
       </c>
@@ -36697,7 +36110,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1655</v>
       </c>
@@ -36729,7 +36142,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1658</v>
       </c>
@@ -36761,7 +36174,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -36790,7 +36203,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1687</v>
       </c>
@@ -36809,7 +36222,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1687</v>
       </c>
@@ -36828,7 +36241,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1687</v>
       </c>
@@ -36847,7 +36260,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1687</v>
       </c>
@@ -36866,7 +36279,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1687</v>
       </c>
@@ -36885,7 +36298,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1687</v>
       </c>
@@ -36904,7 +36317,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1687</v>
       </c>
@@ -36923,7 +36336,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1687</v>
       </c>
@@ -36942,7 +36355,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1687</v>
       </c>
@@ -36961,7 +36374,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1687</v>
       </c>
@@ -36980,7 +36393,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1687</v>
       </c>
@@ -37057,8 +36470,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5761" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5758" uniqueCount="1982">
   <si>
     <r>
       <rPr>
@@ -8235,11 +8235,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8618,11 +8618,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="26"/>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
@@ -8631,10 +8631,10 @@
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="51" t="s">
         <v>2</v>
       </c>
@@ -8798,19 +8798,19 @@
       <c r="C25" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="50"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="50"/>
+      <c r="E26" s="49"/>
     </row>
     <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="48" t="s">
@@ -8837,7 +8837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -24010,10 +24010,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O161"/>
+  <dimension ref="A1:O160"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -24571,16 +24571,16 @@
       <c r="F31" t="s">
         <v>1620</v>
       </c>
-      <c r="G31" t="e">
-        <f>菜单SAAS版!#REF!</f>
-        <v>#REF!</v>
+      <c r="G31" t="str">
+        <f>菜单SAAS版!$E$179</f>
+        <v>iam_menu-196</v>
       </c>
       <c r="H31" t="str">
         <f>菜单标签数据!$E$10</f>
         <v>iam_label-12</v>
       </c>
       <c r="I31" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="32" spans="5:9">
@@ -24591,15 +24591,15 @@
         <v>1620</v>
       </c>
       <c r="G32" t="str">
-        <f>菜单SAAS版!$E$179</f>
-        <v>iam_menu-196</v>
+        <f>菜单SAAS版!$E$135</f>
+        <v>iam_menu-138</v>
       </c>
       <c r="H32" t="str">
         <f>菜单标签数据!$E$10</f>
         <v>iam_label-12</v>
       </c>
       <c r="I32" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="33" spans="5:9">
@@ -24610,15 +24610,15 @@
         <v>1620</v>
       </c>
       <c r="G33" t="str">
-        <f>菜单SAAS版!$E$135</f>
-        <v>iam_menu-138</v>
+        <f>菜单SAAS版!$E$149</f>
+        <v>iam_menu-152</v>
       </c>
       <c r="H33" t="str">
         <f>菜单标签数据!$E$10</f>
         <v>iam_label-12</v>
       </c>
       <c r="I33" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="34" spans="5:9">
@@ -24629,8 +24629,8 @@
         <v>1620</v>
       </c>
       <c r="G34" t="str">
-        <f>菜单SAAS版!$E$149</f>
-        <v>iam_menu-152</v>
+        <f>菜单SAAS版!$E$146</f>
+        <v>iam_menu-149</v>
       </c>
       <c r="H34" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -24648,8 +24648,8 @@
         <v>1620</v>
       </c>
       <c r="G35" t="str">
-        <f>菜单SAAS版!$E$146</f>
-        <v>iam_menu-149</v>
+        <f>菜单SAAS版!$E$144</f>
+        <v>iam_menu-147</v>
       </c>
       <c r="H35" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -24667,8 +24667,8 @@
         <v>1620</v>
       </c>
       <c r="G36" t="str">
-        <f>菜单SAAS版!$E$144</f>
-        <v>iam_menu-147</v>
+        <f>菜单SAAS版!$E$142</f>
+        <v>iam_menu-145</v>
       </c>
       <c r="H36" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -24686,12 +24686,12 @@
         <v>1620</v>
       </c>
       <c r="G37" t="str">
-        <f>菜单SAAS版!$E$142</f>
-        <v>iam_menu-145</v>
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H37" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I37" t="s">
         <v>1640</v>
@@ -24705,8 +24705,8 @@
         <v>1620</v>
       </c>
       <c r="G38" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="H38" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -24724,8 +24724,8 @@
         <v>1620</v>
       </c>
       <c r="G39" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
+        <f>菜单SAAS版!$E$24</f>
+        <v>iam_menu-24</v>
       </c>
       <c r="H39" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -24743,8 +24743,8 @@
         <v>1620</v>
       </c>
       <c r="G40" t="str">
-        <f>菜单SAAS版!$E$24</f>
-        <v>iam_menu-24</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-27</v>
       </c>
       <c r="H40" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -24762,8 +24762,8 @@
         <v>1620</v>
       </c>
       <c r="G41" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-27</v>
+        <f>菜单SAAS版!$E$37</f>
+        <v>iam_menu-37</v>
       </c>
       <c r="H41" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -24781,8 +24781,8 @@
         <v>1620</v>
       </c>
       <c r="G42" t="str">
-        <f>菜单SAAS版!$E$37</f>
-        <v>iam_menu-37</v>
+        <f>菜单SAAS版!$E$50</f>
+        <v>iam_menu-50</v>
       </c>
       <c r="H42" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -24800,8 +24800,8 @@
         <v>1620</v>
       </c>
       <c r="G43" t="str">
-        <f>菜单SAAS版!$E$50</f>
-        <v>iam_menu-50</v>
+        <f>菜单SAAS版!$E$55</f>
+        <v>iam_menu-55</v>
       </c>
       <c r="H43" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -24819,8 +24819,8 @@
         <v>1620</v>
       </c>
       <c r="G44" t="str">
-        <f>菜单SAAS版!$E$55</f>
-        <v>iam_menu-55</v>
+        <f>菜单SAAS版!$E$68</f>
+        <v>iam_menu-68</v>
       </c>
       <c r="H44" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -24838,8 +24838,8 @@
         <v>1620</v>
       </c>
       <c r="G45" t="str">
-        <f>菜单SAAS版!$E$68</f>
-        <v>iam_menu-68</v>
+        <f>菜单SAAS版!$E$73</f>
+        <v>iam_menu-73</v>
       </c>
       <c r="H45" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -24857,12 +24857,12 @@
         <v>1620</v>
       </c>
       <c r="G46" t="str">
-        <f>菜单SAAS版!$E$73</f>
-        <v>iam_menu-73</v>
+        <f>菜单SAAS版!$E$143</f>
+        <v>iam_menu-146</v>
       </c>
       <c r="H46" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I46" t="s">
         <v>1640</v>
@@ -24876,8 +24876,8 @@
         <v>1620</v>
       </c>
       <c r="G47" t="str">
-        <f>菜单SAAS版!$E$143</f>
-        <v>iam_menu-146</v>
+        <f>菜单SAAS版!$E$145</f>
+        <v>iam_menu-148</v>
       </c>
       <c r="H47" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -24895,8 +24895,8 @@
         <v>1620</v>
       </c>
       <c r="G48" t="str">
-        <f>菜单SAAS版!$E$145</f>
-        <v>iam_menu-148</v>
+        <f>菜单SAAS版!$E$147</f>
+        <v>iam_menu-150</v>
       </c>
       <c r="H48" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -24914,8 +24914,8 @@
         <v>1620</v>
       </c>
       <c r="G49" t="str">
-        <f>菜单SAAS版!$E$147</f>
-        <v>iam_menu-150</v>
+        <f>菜单SAAS版!$E$151</f>
+        <v>iam_menu-154</v>
       </c>
       <c r="H49" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -24933,8 +24933,8 @@
         <v>1620</v>
       </c>
       <c r="G50" t="str">
-        <f>菜单SAAS版!$E$151</f>
-        <v>iam_menu-154</v>
+        <f>菜单SAAS版!$E$160</f>
+        <v>iam_menu-176</v>
       </c>
       <c r="H50" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -24952,8 +24952,8 @@
         <v>1620</v>
       </c>
       <c r="G51" t="str">
-        <f>菜单SAAS版!$E$160</f>
-        <v>iam_menu-176</v>
+        <f>菜单SAAS版!$E$180</f>
+        <v>iam_menu-197</v>
       </c>
       <c r="H51" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -24971,8 +24971,8 @@
         <v>1620</v>
       </c>
       <c r="G52" t="str">
-        <f>菜单SAAS版!$E$180</f>
-        <v>iam_menu-197</v>
+        <f>菜单SAAS版!$E$184</f>
+        <v>iam_menu-201</v>
       </c>
       <c r="H52" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -24990,8 +24990,8 @@
         <v>1620</v>
       </c>
       <c r="G53" t="str">
-        <f>菜单SAAS版!$E$184</f>
-        <v>iam_menu-201</v>
+        <f>菜单SAAS版!$E$197</f>
+        <v>iam_menu-214</v>
       </c>
       <c r="H53" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25009,15 +25009,15 @@
         <v>1620</v>
       </c>
       <c r="G54" t="str">
-        <f>菜单SAAS版!$E$197</f>
-        <v>iam_menu-214</v>
+        <f>菜单SAAS版!$E$81</f>
+        <v>iam_menu-81</v>
       </c>
       <c r="H54" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I54" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="55" spans="5:9">
@@ -25028,8 +25028,8 @@
         <v>1620</v>
       </c>
       <c r="G55" t="str">
-        <f>菜单SAAS版!$E$81</f>
-        <v>iam_menu-81</v>
+        <f>菜单SAAS版!$E$87</f>
+        <v>iam_menu-89</v>
       </c>
       <c r="H55" t="str">
         <f>菜单标签数据!$E$9</f>
@@ -25047,8 +25047,8 @@
         <v>1620</v>
       </c>
       <c r="G56" t="str">
-        <f>菜单SAAS版!$E$87</f>
-        <v>iam_menu-89</v>
+        <f>菜单SAAS版!$E$82</f>
+        <v>iam_menu-82</v>
       </c>
       <c r="H56" t="str">
         <f>菜单标签数据!$E$9</f>
@@ -25066,8 +25066,8 @@
         <v>1620</v>
       </c>
       <c r="G57" t="str">
-        <f>菜单SAAS版!$E$82</f>
-        <v>iam_menu-82</v>
+        <f>菜单SAAS版!$E$84</f>
+        <v>iam_menu-86</v>
       </c>
       <c r="H57" t="str">
         <f>菜单标签数据!$E$9</f>
@@ -25085,15 +25085,15 @@
         <v>1620</v>
       </c>
       <c r="G58" t="str">
-        <f>菜单SAAS版!$E$84</f>
-        <v>iam_menu-86</v>
+        <f>菜单SAAS版!$E$161</f>
+        <v>iam_menu-177</v>
       </c>
       <c r="H58" t="str">
-        <f>菜单标签数据!$E$9</f>
-        <v>iam_label-11</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I58" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="59" spans="5:9">
@@ -25104,8 +25104,8 @@
         <v>1620</v>
       </c>
       <c r="G59" t="str">
-        <f>菜单SAAS版!$E$161</f>
-        <v>iam_menu-177</v>
+        <f>菜单SAAS版!$E$164</f>
+        <v>iam_menu-180</v>
       </c>
       <c r="H59" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25123,8 +25123,8 @@
         <v>1620</v>
       </c>
       <c r="G60" t="str">
-        <f>菜单SAAS版!$E$164</f>
-        <v>iam_menu-180</v>
+        <f>菜单SAAS版!$E$171</f>
+        <v>iam_menu-187</v>
       </c>
       <c r="H60" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25142,8 +25142,8 @@
         <v>1620</v>
       </c>
       <c r="G61" t="str">
-        <f>菜单SAAS版!$E$171</f>
-        <v>iam_menu-187</v>
+        <f>菜单SAAS版!$E$173</f>
+        <v>iam_menu-189</v>
       </c>
       <c r="H61" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25161,8 +25161,8 @@
         <v>1620</v>
       </c>
       <c r="G62" t="str">
-        <f>菜单SAAS版!$E$173</f>
-        <v>iam_menu-189</v>
+        <f>菜单SAAS版!$E$166</f>
+        <v>iam_menu-182</v>
       </c>
       <c r="H62" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25180,8 +25180,8 @@
         <v>1620</v>
       </c>
       <c r="G63" t="str">
-        <f>菜单SAAS版!$E$166</f>
-        <v>iam_menu-182</v>
+        <f>菜单SAAS版!$E$167</f>
+        <v>iam_menu-183</v>
       </c>
       <c r="H63" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25199,8 +25199,8 @@
         <v>1620</v>
       </c>
       <c r="G64" t="str">
-        <f>菜单SAAS版!$E$167</f>
-        <v>iam_menu-183</v>
+        <f>菜单SAAS版!$E$170</f>
+        <v>iam_menu-186</v>
       </c>
       <c r="H64" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25218,8 +25218,8 @@
         <v>1620</v>
       </c>
       <c r="G65" t="str">
-        <f>菜单SAAS版!$E$170</f>
-        <v>iam_menu-186</v>
+        <f>菜单SAAS版!$E$168</f>
+        <v>iam_menu-184</v>
       </c>
       <c r="H65" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25237,8 +25237,8 @@
         <v>1620</v>
       </c>
       <c r="G66" t="str">
-        <f>菜单SAAS版!$E$168</f>
-        <v>iam_menu-184</v>
+        <f>菜单SAAS版!$E$169</f>
+        <v>iam_menu-185</v>
       </c>
       <c r="H66" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25256,8 +25256,8 @@
         <v>1620</v>
       </c>
       <c r="G67" t="str">
-        <f>菜单SAAS版!$E$169</f>
-        <v>iam_menu-185</v>
+        <f>菜单SAAS版!$E$154</f>
+        <v>iam_menu-157</v>
       </c>
       <c r="H67" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25275,8 +25275,8 @@
         <v>1620</v>
       </c>
       <c r="G68" t="str">
-        <f>菜单SAAS版!$E$154</f>
-        <v>iam_menu-157</v>
+        <f>菜单SAAS版!$E$155</f>
+        <v>iam_menu-158</v>
       </c>
       <c r="H68" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25294,8 +25294,8 @@
         <v>1620</v>
       </c>
       <c r="G69" t="str">
-        <f>菜单SAAS版!$E$155</f>
-        <v>iam_menu-158</v>
+        <f>菜单SAAS版!$E$156</f>
+        <v>iam_menu-159</v>
       </c>
       <c r="H69" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25313,8 +25313,8 @@
         <v>1620</v>
       </c>
       <c r="G70" t="str">
-        <f>菜单SAAS版!$E$156</f>
-        <v>iam_menu-159</v>
+        <f>菜单SAAS版!$E$158</f>
+        <v>iam_menu-161</v>
       </c>
       <c r="H70" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25332,8 +25332,8 @@
         <v>1620</v>
       </c>
       <c r="G71" t="str">
-        <f>菜单SAAS版!$E$158</f>
-        <v>iam_menu-161</v>
+        <f>菜单SAAS版!$E$202</f>
+        <v>iam_menu-219</v>
       </c>
       <c r="H71" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25351,8 +25351,8 @@
         <v>1620</v>
       </c>
       <c r="G72" t="str">
-        <f>菜单SAAS版!$E$202</f>
-        <v>iam_menu-219</v>
+        <f>菜单SAAS版!$E$203</f>
+        <v>iam_menu-220</v>
       </c>
       <c r="H72" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25370,8 +25370,8 @@
         <v>1620</v>
       </c>
       <c r="G73" t="str">
-        <f>菜单SAAS版!$E$203</f>
-        <v>iam_menu-220</v>
+        <f>菜单SAAS版!$E$204</f>
+        <v>iam_menu-221</v>
       </c>
       <c r="H73" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25389,8 +25389,8 @@
         <v>1620</v>
       </c>
       <c r="G74" t="str">
-        <f>菜单SAAS版!$E$204</f>
-        <v>iam_menu-221</v>
+        <f>菜单SAAS版!$E$189</f>
+        <v>iam_menu-206</v>
       </c>
       <c r="H74" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25408,8 +25408,8 @@
         <v>1620</v>
       </c>
       <c r="G75" t="str">
-        <f>菜单SAAS版!$E$189</f>
-        <v>iam_menu-206</v>
+        <f>菜单SAAS版!$E$191</f>
+        <v>iam_menu-208</v>
       </c>
       <c r="H75" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25427,8 +25427,8 @@
         <v>1620</v>
       </c>
       <c r="G76" t="str">
-        <f>菜单SAAS版!$E$191</f>
-        <v>iam_menu-208</v>
+        <f>菜单SAAS版!$E$194</f>
+        <v>iam_menu-211</v>
       </c>
       <c r="H76" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25446,8 +25446,8 @@
         <v>1620</v>
       </c>
       <c r="G77" t="str">
-        <f>菜单SAAS版!$E$194</f>
-        <v>iam_menu-211</v>
+        <f>菜单SAAS版!$E$195</f>
+        <v>iam_menu-212</v>
       </c>
       <c r="H77" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25465,12 +25465,12 @@
         <v>1620</v>
       </c>
       <c r="G78" t="str">
-        <f>菜单SAAS版!$E$195</f>
-        <v>iam_menu-212</v>
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H78" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I78" t="s">
         <v>1640</v>
@@ -25484,8 +25484,8 @@
         <v>1620</v>
       </c>
       <c r="G79" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
+        <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="H79" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -25503,8 +25503,8 @@
         <v>1620</v>
       </c>
       <c r="G80" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
+        <f>菜单SAAS版!$E$56</f>
+        <v>iam_menu-56</v>
       </c>
       <c r="H80" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -25522,8 +25522,8 @@
         <v>1620</v>
       </c>
       <c r="G81" t="str">
-        <f>菜单SAAS版!$E$56</f>
-        <v>iam_menu-56</v>
+        <f>菜单SAAS版!$E$57</f>
+        <v>iam_menu-57</v>
       </c>
       <c r="H81" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -25541,8 +25541,8 @@
         <v>1620</v>
       </c>
       <c r="G82" t="str">
-        <f>菜单SAAS版!$E$57</f>
-        <v>iam_menu-57</v>
+        <f>菜单SAAS版!$E$66</f>
+        <v>iam_menu-66</v>
       </c>
       <c r="H82" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -25560,8 +25560,8 @@
         <v>1620</v>
       </c>
       <c r="G83" t="str">
-        <f>菜单SAAS版!$E$66</f>
-        <v>iam_menu-66</v>
+        <f>菜单SAAS版!$E$69</f>
+        <v>iam_menu-69</v>
       </c>
       <c r="H83" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -25579,12 +25579,12 @@
         <v>1620</v>
       </c>
       <c r="G84" t="str">
-        <f>菜单SAAS版!$E$69</f>
-        <v>iam_menu-69</v>
+        <f>菜单SAAS版!$E$140</f>
+        <v>iam_menu-143</v>
       </c>
       <c r="H84" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I84" t="s">
         <v>1640</v>
@@ -25598,8 +25598,8 @@
         <v>1620</v>
       </c>
       <c r="G85" t="str">
-        <f>菜单SAAS版!$E$140</f>
-        <v>iam_menu-143</v>
+        <f>菜单SAAS版!$E$141</f>
+        <v>iam_menu-144</v>
       </c>
       <c r="H85" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25617,8 +25617,8 @@
         <v>1620</v>
       </c>
       <c r="G86" t="str">
-        <f>菜单SAAS版!$E$141</f>
-        <v>iam_menu-144</v>
+        <f>菜单SAAS版!$E$136</f>
+        <v>iam_menu-139</v>
       </c>
       <c r="H86" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25636,8 +25636,8 @@
         <v>1620</v>
       </c>
       <c r="G87" t="str">
-        <f>菜单SAAS版!$E$136</f>
-        <v>iam_menu-139</v>
+        <f>菜单SAAS版!$E$139</f>
+        <v>iam_menu-142</v>
       </c>
       <c r="H87" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25655,8 +25655,8 @@
         <v>1620</v>
       </c>
       <c r="G88" t="str">
-        <f>菜单SAAS版!$E$139</f>
-        <v>iam_menu-142</v>
+        <f>菜单SAAS版!$E$137</f>
+        <v>iam_menu-140</v>
       </c>
       <c r="H88" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25674,8 +25674,8 @@
         <v>1620</v>
       </c>
       <c r="G89" t="str">
-        <f>菜单SAAS版!$E$137</f>
-        <v>iam_menu-140</v>
+        <f>菜单SAAS版!$E$138</f>
+        <v>iam_menu-141</v>
       </c>
       <c r="H89" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25693,15 +25693,15 @@
         <v>1620</v>
       </c>
       <c r="G90" t="str">
-        <f>菜单SAAS版!$E$138</f>
-        <v>iam_menu-141</v>
+        <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="H90" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$11</f>
+        <v>iam_label-20</v>
       </c>
       <c r="I90" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="91" spans="5:9">
@@ -25712,15 +25712,15 @@
         <v>1620</v>
       </c>
       <c r="G91" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
+        <f>菜单SAAS版!$E$163</f>
+        <v>iam_menu-179</v>
       </c>
       <c r="H91" t="str">
-        <f>菜单标签数据!$E$11</f>
-        <v>iam_label-20</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I91" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="92" spans="5:9">
@@ -25731,8 +25731,8 @@
         <v>1620</v>
       </c>
       <c r="G92" t="str">
-        <f>菜单SAAS版!$E$163</f>
-        <v>iam_menu-179</v>
+        <f>菜单SAAS版!$E$162</f>
+        <v>iam_menu-178</v>
       </c>
       <c r="H92" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25750,8 +25750,8 @@
         <v>1620</v>
       </c>
       <c r="G93" t="str">
-        <f>菜单SAAS版!$E$162</f>
-        <v>iam_menu-178</v>
+        <f>菜单SAAS版!$E$153</f>
+        <v>iam_menu-156</v>
       </c>
       <c r="H93" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25769,8 +25769,8 @@
         <v>1620</v>
       </c>
       <c r="G94" t="str">
-        <f>菜单SAAS版!$E$153</f>
-        <v>iam_menu-156</v>
+        <f>菜单SAAS版!$E$152</f>
+        <v>iam_menu-155</v>
       </c>
       <c r="H94" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25788,12 +25788,12 @@
         <v>1620</v>
       </c>
       <c r="G95" t="str">
-        <f>菜单SAAS版!$E$152</f>
-        <v>iam_menu-155</v>
+        <f>菜单SAAS版!$E$77</f>
+        <v>iam_menu-77</v>
       </c>
       <c r="H95" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$11</f>
+        <v>iam_label-20</v>
       </c>
       <c r="I95" t="s">
         <v>1640</v>
@@ -25807,8 +25807,8 @@
         <v>1620</v>
       </c>
       <c r="G96" t="str">
-        <f>菜单SAAS版!$E$77</f>
-        <v>iam_menu-77</v>
+        <f>菜单SAAS版!$E$78</f>
+        <v>iam_menu-78</v>
       </c>
       <c r="H96" t="str">
         <f>菜单标签数据!$E$11</f>
@@ -25826,12 +25826,12 @@
         <v>1620</v>
       </c>
       <c r="G97" t="str">
-        <f>菜单SAAS版!$E$78</f>
-        <v>iam_menu-78</v>
+        <f>菜单SAAS版!$E$165</f>
+        <v>iam_menu-181</v>
       </c>
       <c r="H97" t="str">
-        <f>菜单标签数据!$E$11</f>
-        <v>iam_label-20</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I97" t="s">
         <v>1640</v>
@@ -25845,12 +25845,12 @@
         <v>1620</v>
       </c>
       <c r="G98" t="str">
-        <f>菜单SAAS版!$E$165</f>
-        <v>iam_menu-181</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H98" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I98" t="s">
         <v>1640</v>
@@ -25864,8 +25864,8 @@
         <v>1620</v>
       </c>
       <c r="G99" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H99" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -25883,8 +25883,8 @@
         <v>1620</v>
       </c>
       <c r="G100" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="H100" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -25902,8 +25902,8 @@
         <v>1620</v>
       </c>
       <c r="G101" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="H101" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -25921,8 +25921,8 @@
         <v>1620</v>
       </c>
       <c r="G102" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
+        <f>菜单SAAS版!$E$49</f>
+        <v>iam_menu-49</v>
       </c>
       <c r="H102" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -25940,8 +25940,8 @@
         <v>1620</v>
       </c>
       <c r="G103" t="str">
-        <f>菜单SAAS版!$E$49</f>
-        <v>iam_menu-49</v>
+        <f>菜单SAAS版!$E$53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="H103" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -25959,12 +25959,12 @@
         <v>1620</v>
       </c>
       <c r="G104" t="str">
-        <f>菜单SAAS版!$E$53</f>
-        <v>iam_menu-53</v>
+        <f>菜单SAAS版!$E$172</f>
+        <v>iam_menu-188</v>
       </c>
       <c r="H104" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I104" t="s">
         <v>1640</v>
@@ -25978,8 +25978,8 @@
         <v>1620</v>
       </c>
       <c r="G105" t="str">
-        <f>菜单SAAS版!$E$172</f>
-        <v>iam_menu-188</v>
+        <f>菜单SAAS版!$E$177</f>
+        <v>iam_menu-193</v>
       </c>
       <c r="H105" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -25997,8 +25997,8 @@
         <v>1620</v>
       </c>
       <c r="G106" t="str">
-        <f>菜单SAAS版!$E$177</f>
-        <v>iam_menu-193</v>
+        <f>菜单SAAS版!$E$178</f>
+        <v>iam_menu-194</v>
       </c>
       <c r="H106" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -26016,8 +26016,8 @@
         <v>1620</v>
       </c>
       <c r="G107" t="str">
-        <f>菜单SAAS版!$E$178</f>
-        <v>iam_menu-194</v>
+        <f>菜单SAAS版!$E$175</f>
+        <v>iam_menu-191</v>
       </c>
       <c r="H107" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -26035,8 +26035,8 @@
         <v>1620</v>
       </c>
       <c r="G108" t="str">
-        <f>菜单SAAS版!$E$175</f>
-        <v>iam_menu-191</v>
+        <f>菜单SAAS版!$E$174</f>
+        <v>iam_menu-190</v>
       </c>
       <c r="H108" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -26054,8 +26054,8 @@
         <v>1620</v>
       </c>
       <c r="G109" t="str">
-        <f>菜单SAAS版!$E$174</f>
-        <v>iam_menu-190</v>
+        <f>菜单SAAS版!$E$176</f>
+        <v>iam_menu-192</v>
       </c>
       <c r="H109" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -26073,12 +26073,12 @@
         <v>1620</v>
       </c>
       <c r="G110" t="str">
-        <f>菜单SAAS版!$E$176</f>
-        <v>iam_menu-192</v>
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-26</v>
       </c>
       <c r="H110" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I110" t="s">
         <v>1640</v>
@@ -26092,8 +26092,8 @@
         <v>1620</v>
       </c>
       <c r="G111" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-26</v>
+        <f>菜单SAAS版!$E$31</f>
+        <v>iam_menu-31</v>
       </c>
       <c r="H111" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26111,8 +26111,8 @@
         <v>1620</v>
       </c>
       <c r="G112" t="str">
-        <f>菜单SAAS版!$E$31</f>
-        <v>iam_menu-31</v>
+        <f>菜单SAAS版!$E$30</f>
+        <v>iam_menu-30</v>
       </c>
       <c r="H112" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26130,8 +26130,8 @@
         <v>1620</v>
       </c>
       <c r="G113" t="str">
-        <f>菜单SAAS版!$E$30</f>
-        <v>iam_menu-30</v>
+        <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-28</v>
       </c>
       <c r="H113" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26149,8 +26149,8 @@
         <v>1620</v>
       </c>
       <c r="G114" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-28</v>
+        <f>菜单SAAS版!$E$29</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="H114" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26168,8 +26168,8 @@
         <v>1620</v>
       </c>
       <c r="G115" t="str">
-        <f>菜单SAAS版!$E$29</f>
-        <v>iam_menu-29</v>
+        <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="H115" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26187,8 +26187,8 @@
         <v>1620</v>
       </c>
       <c r="G116" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-32</v>
+        <f>菜单SAAS版!$E$36</f>
+        <v>iam_menu-36</v>
       </c>
       <c r="H116" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26206,8 +26206,8 @@
         <v>1620</v>
       </c>
       <c r="G117" t="str">
-        <f>菜单SAAS版!$E$36</f>
-        <v>iam_menu-36</v>
+        <f>菜单SAAS版!$E$41</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="H117" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26225,8 +26225,8 @@
         <v>1620</v>
       </c>
       <c r="G118" t="str">
-        <f>菜单SAAS版!$E$41</f>
-        <v>iam_menu-41</v>
+        <f>菜单SAAS版!$E$34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="H118" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26244,8 +26244,8 @@
         <v>1620</v>
       </c>
       <c r="G119" t="str">
-        <f>菜单SAAS版!$E$34</f>
-        <v>iam_menu-34</v>
+        <f>菜单SAAS版!$E$42</f>
+        <v>iam_menu-42</v>
       </c>
       <c r="H119" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26263,8 +26263,8 @@
         <v>1620</v>
       </c>
       <c r="G120" t="str">
-        <f>菜单SAAS版!$E$42</f>
-        <v>iam_menu-42</v>
+        <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="H120" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26282,8 +26282,8 @@
         <v>1620</v>
       </c>
       <c r="G121" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-35</v>
+        <f>菜单SAAS版!$E$43</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="H121" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26301,8 +26301,8 @@
         <v>1620</v>
       </c>
       <c r="G122" t="str">
-        <f>菜单SAAS版!$E$43</f>
-        <v>iam_menu-43</v>
+        <f>菜单SAAS版!$E$44</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="H122" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26320,8 +26320,8 @@
         <v>1620</v>
       </c>
       <c r="G123" t="str">
-        <f>菜单SAAS版!$E$44</f>
-        <v>iam_menu-44</v>
+        <f>菜单SAAS版!$E$39</f>
+        <v>iam_menu-39</v>
       </c>
       <c r="H123" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26339,8 +26339,8 @@
         <v>1620</v>
       </c>
       <c r="G124" t="str">
-        <f>菜单SAAS版!$E$39</f>
-        <v>iam_menu-39</v>
+        <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="H124" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26358,8 +26358,8 @@
         <v>1620</v>
       </c>
       <c r="G125" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-40</v>
+        <f>菜单SAAS版!$E$22</f>
+        <v>iam_menu-22</v>
       </c>
       <c r="H125" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26377,8 +26377,8 @@
         <v>1620</v>
       </c>
       <c r="G126" t="str">
-        <f>菜单SAAS版!$E$22</f>
-        <v>iam_menu-22</v>
+        <f>菜单SAAS版!$E$20</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="H126" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26396,8 +26396,8 @@
         <v>1620</v>
       </c>
       <c r="G127" t="str">
-        <f>菜单SAAS版!$E$20</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!$E$21</f>
+        <v>iam_menu-21</v>
       </c>
       <c r="H127" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26415,8 +26415,8 @@
         <v>1620</v>
       </c>
       <c r="G128" t="str">
-        <f>菜单SAAS版!$E$21</f>
-        <v>iam_menu-21</v>
+        <f>菜单SAAS版!$E$63</f>
+        <v>iam_menu-63</v>
       </c>
       <c r="H128" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26434,8 +26434,8 @@
         <v>1620</v>
       </c>
       <c r="G129" t="str">
-        <f>菜单SAAS版!$E$63</f>
-        <v>iam_menu-63</v>
+        <f>菜单SAAS版!$E$64</f>
+        <v>iam_menu-64</v>
       </c>
       <c r="H129" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26453,8 +26453,8 @@
         <v>1620</v>
       </c>
       <c r="G130" t="str">
-        <f>菜单SAAS版!$E$64</f>
-        <v>iam_menu-64</v>
+        <f>菜单SAAS版!$E$58</f>
+        <v>iam_menu-58</v>
       </c>
       <c r="H130" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26472,8 +26472,8 @@
         <v>1620</v>
       </c>
       <c r="G131" t="str">
-        <f>菜单SAAS版!$E$58</f>
-        <v>iam_menu-58</v>
+        <f>菜单SAAS版!$E$59</f>
+        <v>iam_menu-59</v>
       </c>
       <c r="H131" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26491,8 +26491,8 @@
         <v>1620</v>
       </c>
       <c r="G132" t="str">
-        <f>菜单SAAS版!$E$59</f>
-        <v>iam_menu-59</v>
+        <f>菜单SAAS版!$E$62</f>
+        <v>iam_menu-62</v>
       </c>
       <c r="H132" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26510,8 +26510,8 @@
         <v>1620</v>
       </c>
       <c r="G133" t="str">
-        <f>菜单SAAS版!$E$62</f>
-        <v>iam_menu-62</v>
+        <f>菜单SAAS版!$E$61</f>
+        <v>iam_menu-61</v>
       </c>
       <c r="H133" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26529,8 +26529,8 @@
         <v>1620</v>
       </c>
       <c r="G134" t="str">
-        <f>菜单SAAS版!$E$61</f>
-        <v>iam_menu-61</v>
+        <f>菜单SAAS版!$E$60</f>
+        <v>iam_menu-60</v>
       </c>
       <c r="H134" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26548,8 +26548,8 @@
         <v>1620</v>
       </c>
       <c r="G135" t="str">
-        <f>菜单SAAS版!$E$60</f>
-        <v>iam_menu-60</v>
+        <f>菜单SAAS版!$E$65</f>
+        <v>iam_menu-65</v>
       </c>
       <c r="H135" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26567,12 +26567,12 @@
         <v>1620</v>
       </c>
       <c r="G136" t="str">
-        <f>菜单SAAS版!$E$65</f>
-        <v>iam_menu-65</v>
+        <f>菜单SAAS版!$E$150</f>
+        <v>iam_menu-153</v>
       </c>
       <c r="H136" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I136" t="s">
         <v>1640</v>
@@ -26586,12 +26586,12 @@
         <v>1620</v>
       </c>
       <c r="G137" t="str">
-        <f>菜单SAAS版!$E$150</f>
-        <v>iam_menu-153</v>
+        <f>菜单SAAS版!$E$70</f>
+        <v>iam_menu-70</v>
       </c>
       <c r="H137" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I137" t="s">
         <v>1640</v>
@@ -26605,12 +26605,12 @@
         <v>1620</v>
       </c>
       <c r="G138" t="str">
-        <f>菜单SAAS版!$E$70</f>
-        <v>iam_menu-70</v>
+        <f>菜单SAAS版!$E$190</f>
+        <v>iam_menu-207</v>
       </c>
       <c r="H138" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I138" t="s">
         <v>1640</v>
@@ -26624,12 +26624,12 @@
         <v>1620</v>
       </c>
       <c r="G139" t="str">
-        <f>菜单SAAS版!$E$190</f>
-        <v>iam_menu-207</v>
+        <f>菜单SAAS版!$E$51</f>
+        <v>iam_menu-51</v>
       </c>
       <c r="H139" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I139" t="s">
         <v>1640</v>
@@ -26643,12 +26643,12 @@
         <v>1620</v>
       </c>
       <c r="G140" t="str">
-        <f>菜单SAAS版!$E$51</f>
-        <v>iam_menu-51</v>
+        <f>菜单SAAS版!$E$192</f>
+        <v>iam_menu-209</v>
       </c>
       <c r="H140" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I140" t="s">
         <v>1640</v>
@@ -26662,8 +26662,8 @@
         <v>1620</v>
       </c>
       <c r="G141" t="str">
-        <f>菜单SAAS版!$E$192</f>
-        <v>iam_menu-209</v>
+        <f>菜单SAAS版!$E$193</f>
+        <v>iam_menu-210</v>
       </c>
       <c r="H141" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -26681,12 +26681,12 @@
         <v>1620</v>
       </c>
       <c r="G142" t="str">
-        <f>菜单SAAS版!$E$193</f>
-        <v>iam_menu-210</v>
+        <f>菜单SAAS版!$E$52</f>
+        <v>iam_menu-52</v>
       </c>
       <c r="H142" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I142" t="s">
         <v>1640</v>
@@ -26700,12 +26700,12 @@
         <v>1620</v>
       </c>
       <c r="G143" t="str">
-        <f>菜单SAAS版!$E$52</f>
-        <v>iam_menu-52</v>
+        <f>菜单SAAS版!$E$198</f>
+        <v>iam_menu-215</v>
       </c>
       <c r="H143" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I143" t="s">
         <v>1640</v>
@@ -26719,12 +26719,12 @@
         <v>1620</v>
       </c>
       <c r="G144" t="str">
-        <f>菜单SAAS版!$E$198</f>
-        <v>iam_menu-215</v>
+        <f>菜单SAAS版!$E$72</f>
+        <v>iam_menu-72</v>
       </c>
       <c r="H144" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I144" t="s">
         <v>1640</v>
@@ -26738,8 +26738,8 @@
         <v>1620</v>
       </c>
       <c r="G145" t="str">
-        <f>菜单SAAS版!$E$72</f>
-        <v>iam_menu-72</v>
+        <f>菜单SAAS版!$E$74</f>
+        <v>iam_menu-74</v>
       </c>
       <c r="H145" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26757,12 +26757,12 @@
         <v>1620</v>
       </c>
       <c r="G146" t="str">
-        <f>菜单SAAS版!$E$74</f>
-        <v>iam_menu-74</v>
+        <f>菜单SAAS版!$E$186</f>
+        <v>iam_menu-203</v>
       </c>
       <c r="H146" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I146" t="s">
         <v>1640</v>
@@ -26776,8 +26776,8 @@
         <v>1620</v>
       </c>
       <c r="G147" t="str">
-        <f>菜单SAAS版!$E$186</f>
-        <v>iam_menu-203</v>
+        <f>菜单SAAS版!$E$187</f>
+        <v>iam_menu-204</v>
       </c>
       <c r="H147" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -26795,8 +26795,8 @@
         <v>1620</v>
       </c>
       <c r="G148" t="str">
-        <f>菜单SAAS版!$E$187</f>
-        <v>iam_menu-204</v>
+        <f>菜单SAAS版!$E$185</f>
+        <v>iam_menu-202</v>
       </c>
       <c r="H148" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -26814,8 +26814,8 @@
         <v>1620</v>
       </c>
       <c r="G149" t="str">
-        <f>菜单SAAS版!$E$185</f>
-        <v>iam_menu-202</v>
+        <f>菜单SAAS版!$E$205</f>
+        <v>iam_menu-222</v>
       </c>
       <c r="H149" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -26833,12 +26833,12 @@
         <v>1620</v>
       </c>
       <c r="G150" t="str">
-        <f>菜单SAAS版!$E$205</f>
-        <v>iam_menu-222</v>
+        <f>菜单SAAS版!$E$46</f>
+        <v>iam_menu-46</v>
       </c>
       <c r="H150" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I150" t="s">
         <v>1640</v>
@@ -26852,8 +26852,8 @@
         <v>1620</v>
       </c>
       <c r="G151" t="str">
-        <f>菜单SAAS版!$E$46</f>
-        <v>iam_menu-46</v>
+        <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-38</v>
       </c>
       <c r="H151" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26871,8 +26871,8 @@
         <v>1620</v>
       </c>
       <c r="G152" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-38</v>
+        <f>菜单SAAS版!$E$45</f>
+        <v>iam_menu-45</v>
       </c>
       <c r="H152" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -26890,12 +26890,12 @@
         <v>1620</v>
       </c>
       <c r="G153" t="str">
-        <f>菜单SAAS版!$E$45</f>
-        <v>iam_menu-45</v>
+        <f>菜单SAAS版!$E$181</f>
+        <v>iam_menu-198</v>
       </c>
       <c r="H153" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I153" t="s">
         <v>1640</v>
@@ -26909,8 +26909,8 @@
         <v>1620</v>
       </c>
       <c r="G154" t="str">
-        <f>菜单SAAS版!$E$181</f>
-        <v>iam_menu-198</v>
+        <f>菜单SAAS版!$E$157</f>
+        <v>iam_menu-160</v>
       </c>
       <c r="H154" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -26928,8 +26928,8 @@
         <v>1620</v>
       </c>
       <c r="G155" t="str">
-        <f>菜单SAAS版!$E$157</f>
-        <v>iam_menu-160</v>
+        <f>菜单SAAS版!$E$201</f>
+        <v>iam_menu-218</v>
       </c>
       <c r="H155" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -26947,8 +26947,8 @@
         <v>1620</v>
       </c>
       <c r="G156" t="str">
-        <f>菜单SAAS版!$E$201</f>
-        <v>iam_menu-218</v>
+        <f>菜单SAAS版!$E$199</f>
+        <v>iam_menu-216</v>
       </c>
       <c r="H156" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -26966,8 +26966,8 @@
         <v>1620</v>
       </c>
       <c r="G157" t="str">
-        <f>菜单SAAS版!$E$199</f>
-        <v>iam_menu-216</v>
+        <f>菜单SAAS版!$E$200</f>
+        <v>iam_menu-217</v>
       </c>
       <c r="H157" t="str">
         <f>菜单标签数据!$E$10</f>
@@ -26985,12 +26985,12 @@
         <v>1620</v>
       </c>
       <c r="G158" t="str">
-        <f>菜单SAAS版!$E$200</f>
-        <v>iam_menu-217</v>
+        <f>菜单SAAS版!$E$75</f>
+        <v>iam_menu-75</v>
       </c>
       <c r="H158" t="str">
-        <f>菜单标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I158" t="s">
         <v>1640</v>
@@ -27004,8 +27004,8 @@
         <v>1620</v>
       </c>
       <c r="G159" t="str">
-        <f>菜单SAAS版!$E$75</f>
-        <v>iam_menu-75</v>
+        <f>菜单SAAS版!$E$76</f>
+        <v>iam_menu-76</v>
       </c>
       <c r="H159" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -27023,33 +27023,14 @@
         <v>1620</v>
       </c>
       <c r="G160" t="str">
-        <f>菜单SAAS版!$E$76</f>
-        <v>iam_menu-76</v>
-      </c>
-      <c r="H160" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I160" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="161" spans="5:9">
-      <c r="E161" t="s">
-        <v>1638</v>
-      </c>
-      <c r="F161" t="s">
-        <v>1620</v>
-      </c>
-      <c r="G161" t="str">
         <f>菜单SAAS版!$E$80</f>
         <v>iam_menu-80</v>
       </c>
-      <c r="H161" t="str">
+      <c r="H160" t="str">
         <f>菜单标签数据!$E$11</f>
         <v>iam_label-20</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I160" t="s">
         <v>1640</v>
       </c>
     </row>
@@ -33438,6 +33419,6 @@
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5757" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5755" uniqueCount="1981">
   <si>
     <r>
       <rPr>
@@ -8834,8 +8834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G135" sqref="A135:XFD135"/>
+    <sheetView tabSelected="1" topLeftCell="G136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M148" sqref="M148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -15410,7 +15410,7 @@
         <v>81</v>
       </c>
       <c r="M135">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N135" t="s">
         <v>82</v>
@@ -16098,8 +16098,8 @@
       <c r="L148" t="s">
         <v>81</v>
       </c>
-      <c r="M148" t="s">
-        <v>80</v>
+      <c r="M148">
+        <v>10</v>
       </c>
       <c r="N148" t="s">
         <v>82</v>
@@ -17834,8 +17834,8 @@
       <c r="L182" t="s">
         <v>81</v>
       </c>
-      <c r="M182" t="s">
-        <v>82</v>
+      <c r="M182">
+        <v>20</v>
       </c>
       <c r="N182" t="s">
         <v>82</v>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19812" windowHeight="7860" tabRatio="597" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +25,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772" uniqueCount="1989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5750" uniqueCount="1983">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +69,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +88,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +107,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +126,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +158,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +177,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +196,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +218,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +260,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +281,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +302,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +314,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +333,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +383,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +402,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +421,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +538,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +557,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +576,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +596,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +635,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +654,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +685,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +728,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +747,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +766,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +785,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +804,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +816,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +846,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +867,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +897,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +940,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +959,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +979,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +999,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1019,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1040,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1060,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1095,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1116,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1128,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1147,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1168,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1187,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1200,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1238,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1272,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1291,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1329,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1348,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1374,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1393,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1409,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1419,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1438,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1453,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1472,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1491,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1511,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1614,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1625,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1635,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1647,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1685,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1743,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1820,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1839,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1859,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1871,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1882,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1892,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1904,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1923,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1935,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1954,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1974,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6294,6 +6405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>iam_menu_permission-30</t>
@@ -6303,6 +6415,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -7602,25 +7715,7 @@
     <t>iam_role_permission-249</t>
   </si>
   <si>
-    <t>TENANT_MGR</t>
-  </si>
-  <si>
     <t>ROLE</t>
-  </si>
-  <si>
-    <t>租户管理员标签</t>
-  </si>
-  <si>
-    <t>Tenant Manager Label</t>
-  </si>
-  <si>
-    <t>iam_label-9</t>
-  </si>
-  <si>
-    <t>SITE_MGR</t>
-  </si>
-  <si>
-    <t>平台管理员标签</t>
   </si>
   <si>
     <t>iam_label-10</t>
@@ -7725,14 +7820,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="51">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7743,25 +7832,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7789,7 +7878,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1" tint="0.05"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -7821,25 +7910,25 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1" tint="0.05"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7879,157 +7968,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -8058,12 +7996,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8072,8 +8012,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8104,194 +8079,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -8392,251 +8181,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
@@ -8688,20 +8235,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8735,9 +8270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8745,59 +8277,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -8870,6 +8370,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9127,275 +8630,272 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="27" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="28" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="33" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="35" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="29"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="39" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="42" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="45" t="s">
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" ht="52.2">
+      <c r="C9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="43" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="48" t="s">
+    <row r="10" spans="1:8" ht="52.2">
+      <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="42" t="s">
+    <row r="11" spans="1:8" ht="69.599999999999994">
+      <c r="C11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="42" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="50" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="C15" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="54" t="s">
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="54" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="54" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="54" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="49" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="55" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="43" t="s">
+      <c r="E25" s="52"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="56" t="s">
+      <c r="E26" s="52"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
+      <c r="C27" s="51" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="35" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A214" workbookViewId="0">
+    <sheetView topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="21.7481481481481" style="19" customWidth="1"/>
-    <col min="6" max="6" width="58.7481481481481" customWidth="1"/>
-    <col min="7" max="7" width="28.0814814814815" customWidth="1"/>
-    <col min="10" max="10" width="26.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="27.4148148148148" customWidth="1"/>
-    <col min="15" max="15" width="25.2518518518519" customWidth="1"/>
-    <col min="16" max="16" width="28.4148148148148" customWidth="1"/>
-    <col min="19" max="19" width="135.251851851852" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="19" customWidth="1"/>
+    <col min="6" max="6" width="58.75" customWidth="1"/>
+    <col min="7" max="7" width="28.08203125" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.4140625" customWidth="1"/>
+    <col min="15" max="15" width="25.25" customWidth="1"/>
+    <col min="16" max="16" width="28.4140625" customWidth="1"/>
+    <col min="19" max="19" width="135.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9409,7 +8909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="20" t="s">
         <v>47</v>
       </c>
@@ -9497,7 +8997,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" s="21" t="s">
         <v>75</v>
       </c>
@@ -9544,7 +9044,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" s="21" t="s">
         <v>84</v>
       </c>
@@ -9594,7 +9094,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" s="22" t="s">
         <v>88</v>
       </c>
@@ -9651,7 +9151,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" s="19" t="s">
         <v>97</v>
       </c>
@@ -9702,7 +9202,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" s="19" t="s">
         <v>104</v>
       </c>
@@ -9750,7 +9250,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" s="19" t="s">
         <v>108</v>
       </c>
@@ -9801,7 +9301,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" s="22" t="s">
         <v>112</v>
       </c>
@@ -9858,7 +9358,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" s="19" t="s">
         <v>119</v>
       </c>
@@ -9906,7 +9406,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" s="19" t="s">
         <v>123</v>
       </c>
@@ -20156,7 +19656,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="218" s="5" customFormat="1" spans="5:24">
+    <row r="218" spans="5:24" s="5" customFormat="1">
       <c r="E218" s="26" t="s">
         <v>986</v>
       </c>
@@ -20213,7 +19713,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="219" s="5" customFormat="1" spans="5:24">
+    <row r="219" spans="5:24" s="5" customFormat="1">
       <c r="E219" s="26" t="s">
         <v>991</v>
       </c>
@@ -20261,7 +19761,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="220" s="5" customFormat="1" spans="5:24">
+    <row r="220" spans="5:24" s="5" customFormat="1">
       <c r="E220" s="26" t="s">
         <v>994</v>
       </c>
@@ -20309,7 +19809,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="221" s="5" customFormat="1" spans="5:24">
+    <row r="221" spans="5:24" s="5" customFormat="1">
       <c r="E221" s="26" t="s">
         <v>997</v>
       </c>
@@ -20357,7 +19857,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="222" s="5" customFormat="1" spans="5:24">
+    <row r="222" spans="5:24" s="5" customFormat="1">
       <c r="E222" s="26" t="s">
         <v>1000</v>
       </c>
@@ -20405,7 +19905,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="223" s="5" customFormat="1" spans="5:24">
+    <row r="223" spans="5:24" s="5" customFormat="1">
       <c r="E223" s="26" t="s">
         <v>1003</v>
       </c>
@@ -20502,28 +20002,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H344"/>
   <sheetViews>
     <sheetView topLeftCell="C328" workbookViewId="0">
       <selection activeCell="G345" sqref="G345"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="35.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="17.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="64.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="35.75" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="64.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -20537,7 +20036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -20548,7 +20047,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -20571,7 +20070,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:8">
       <c r="E8" t="s">
         <v>1014</v>
       </c>
@@ -20583,7 +20082,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:8">
       <c r="E9" t="s">
         <v>1016</v>
       </c>
@@ -20595,7 +20094,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:8">
       <c r="E10" t="s">
         <v>1018</v>
       </c>
@@ -20607,7 +20106,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:8">
       <c r="E11" t="s">
         <v>1020</v>
       </c>
@@ -20619,7 +20118,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" spans="1:8">
       <c r="E12" s="9" t="s">
         <v>1022</v>
       </c>
@@ -20632,7 +20131,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" spans="1:8">
       <c r="E13" s="9" t="s">
         <v>1024</v>
       </c>
@@ -20645,7 +20144,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:8">
       <c r="E14" t="s">
         <v>1026</v>
       </c>
@@ -20657,7 +20156,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:8">
       <c r="E15" t="s">
         <v>1028</v>
       </c>
@@ -20669,7 +20168,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:8">
       <c r="E16" t="s">
         <v>1030</v>
       </c>
@@ -24221,7 +23720,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="312" s="8" customFormat="1" spans="5:7">
+    <row r="312" spans="5:7" s="8" customFormat="1">
       <c r="E312" s="8" t="s">
         <v>1561</v>
       </c>
@@ -24233,7 +23732,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="313" s="8" customFormat="1" spans="5:7">
+    <row r="313" spans="5:7" s="8" customFormat="1">
       <c r="E313" s="8" t="s">
         <v>1563</v>
       </c>
@@ -24245,7 +23744,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="314" s="8" customFormat="1" spans="5:7">
+    <row r="314" spans="5:7" s="8" customFormat="1">
       <c r="E314" s="8" t="s">
         <v>1564</v>
       </c>
@@ -24473,7 +23972,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="333" s="5" customFormat="1" spans="5:7">
+    <row r="333" spans="5:7" s="5" customFormat="1">
       <c r="E333" s="5" t="s">
         <v>1591</v>
       </c>
@@ -24485,7 +23984,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="334" s="5" customFormat="1" spans="5:7">
+    <row r="334" spans="5:7" s="5" customFormat="1">
       <c r="E334" s="5" t="s">
         <v>1592</v>
       </c>
@@ -24497,7 +23996,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="335" s="5" customFormat="1" spans="5:7">
+    <row r="335" spans="5:7" s="5" customFormat="1">
       <c r="E335" s="5" t="s">
         <v>1594</v>
       </c>
@@ -24509,7 +24008,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="336" s="5" customFormat="1" spans="5:7">
+    <row r="336" spans="5:7" s="5" customFormat="1">
       <c r="E336" s="5" t="s">
         <v>1596</v>
       </c>
@@ -24521,7 +24020,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="337" s="5" customFormat="1" spans="5:7">
+    <row r="337" spans="5:7" s="5" customFormat="1">
       <c r="E337" s="5" t="s">
         <v>1598</v>
       </c>
@@ -24581,7 +24080,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="342" s="9" customFormat="1" spans="5:7">
+    <row r="342" spans="5:7" s="9" customFormat="1">
       <c r="E342" s="9" t="s">
         <v>1608</v>
       </c>
@@ -24593,7 +24092,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="343" s="10" customFormat="1" spans="5:7">
+    <row r="343" spans="5:7" s="10" customFormat="1">
       <c r="E343" s="10" t="s">
         <v>1609</v>
       </c>
@@ -24618,29 +24117,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O160"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="$A31:$XFD31"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="19.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="28.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.2518518518519" customWidth="1"/>
-    <col min="8" max="8" width="14.0814814814815" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="14.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -24654,7 +24152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -24712,7 +24210,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1625</v>
       </c>
@@ -24744,7 +24242,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1630</v>
       </c>
@@ -24770,7 +24268,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1632</v>
       </c>
@@ -24802,7 +24300,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1636</v>
       </c>
@@ -24828,7 +24326,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -24857,7 +24355,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="14" spans="5:9">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1645</v>
       </c>
@@ -24876,7 +24374,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="15" spans="5:9">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1645</v>
       </c>
@@ -24895,7 +24393,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="16" spans="5:9">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1645</v>
       </c>
@@ -27651,28 +27149,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y246"/>
   <sheetViews>
-    <sheetView topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="A246" sqref="$A246:$XFD246"/>
+    <sheetView topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246:XFD246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="24.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="21.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="19.7481481481481" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -27686,7 +27183,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -27774,7 +27271,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1664</v>
       </c>
@@ -27833,7 +27330,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1669</v>
       </c>
@@ -27892,7 +27389,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1674</v>
       </c>
@@ -27955,7 +27452,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1681</v>
       </c>
@@ -28018,7 +27515,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1689</v>
       </c>
@@ -28081,7 +27578,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1697</v>
       </c>
@@ -28144,7 +27641,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" s="6" t="s">
         <v>1705</v>
       </c>
@@ -28201,7 +27698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -33051,7 +32548,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="236" s="5" customFormat="1" spans="5:10">
+    <row r="236" spans="5:10" s="5" customFormat="1">
       <c r="E236" s="5" t="s">
         <v>1939</v>
       </c>
@@ -33073,7 +32570,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="237" s="5" customFormat="1" spans="5:10">
+    <row r="237" spans="5:10" s="5" customFormat="1">
       <c r="E237" s="5" t="s">
         <v>1940</v>
       </c>
@@ -33095,7 +32592,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="238" s="5" customFormat="1" spans="5:10">
+    <row r="238" spans="5:10" s="5" customFormat="1">
       <c r="E238" s="5" t="s">
         <v>1941</v>
       </c>
@@ -33117,7 +32614,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="239" s="5" customFormat="1" spans="5:10">
+    <row r="239" spans="5:10" s="5" customFormat="1">
       <c r="E239" s="5" t="s">
         <v>1942</v>
       </c>
@@ -33139,7 +32636,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="240" s="5" customFormat="1" spans="5:10">
+    <row r="240" spans="5:10" s="5" customFormat="1">
       <c r="E240" s="5" t="s">
         <v>1943</v>
       </c>
@@ -33161,7 +32658,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="241" s="5" customFormat="1" spans="5:10">
+    <row r="241" spans="5:10" s="5" customFormat="1">
       <c r="E241" s="5" t="s">
         <v>1944</v>
       </c>
@@ -33183,7 +32680,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="242" s="5" customFormat="1" spans="5:10">
+    <row r="242" spans="5:10" s="5" customFormat="1">
       <c r="E242" s="5" t="s">
         <v>1945</v>
       </c>
@@ -33205,7 +32702,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="243" s="5" customFormat="1" spans="5:10">
+    <row r="243" spans="5:10" s="5" customFormat="1">
       <c r="E243" s="5" t="s">
         <v>1946</v>
       </c>
@@ -33227,7 +32724,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="244" s="5" customFormat="1" spans="5:10">
+    <row r="244" spans="5:10" s="5" customFormat="1">
       <c r="E244" s="5" t="s">
         <v>1947</v>
       </c>
@@ -33249,7 +32746,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="245" s="5" customFormat="1" spans="5:10">
+    <row r="245" spans="5:10" s="5" customFormat="1">
       <c r="E245" s="5" t="s">
         <v>1948</v>
       </c>
@@ -33271,25 +32768,27 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="246" s="5" customFormat="1"/>
+    <row r="246" spans="5:10" s="5" customFormat="1"/>
   </sheetData>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -33303,7 +32802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -33361,15 +32860,15 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>1625</v>
+        <v>1950</v>
       </c>
       <c r="F8" t="s">
+        <v>1951</v>
+      </c>
+      <c r="G8" t="s">
         <v>1949</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1950</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -33378,7 +32877,7 @@
         <v>1628</v>
       </c>
       <c r="J8" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="K8" t="s">
         <v>1952</v>
@@ -33390,26 +32889,29 @@
         <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="5:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F9" t="s">
         <v>1953</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1628</v>
+      </c>
+      <c r="J9" t="s">
         <v>1954</v>
       </c>
-      <c r="G9" t="s">
-        <v>1950</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1634</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>1955</v>
       </c>
       <c r="M9" t="s">
@@ -33418,19 +32920,19 @@
       <c r="N9" t="s">
         <v>82</v>
       </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F10" t="s">
         <v>1956</v>
       </c>
-      <c r="F10" t="s">
-        <v>1957</v>
-      </c>
       <c r="G10" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -33439,30 +32941,30 @@
         <v>1628</v>
       </c>
       <c r="J10" t="s">
+        <v>1957</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1957</v>
+      </c>
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
         <v>1958</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1958</v>
-      </c>
-      <c r="M10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15">
-      <c r="E11" t="s">
-        <v>1630</v>
       </c>
       <c r="F11" t="s">
         <v>1959</v>
       </c>
       <c r="G11" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -33482,19 +32984,19 @@
       <c r="N11" t="s">
         <v>82</v>
       </c>
-      <c r="O11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>1632</v>
+        <v>1962</v>
       </c>
       <c r="F12" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="G12" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -33503,10 +33005,10 @@
         <v>1628</v>
       </c>
       <c r="J12" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="K12" t="s">
-        <v>1963</v>
+        <v>1696</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -33518,15 +33020,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="F13" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="G13" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -33535,10 +33037,10 @@
         <v>1628</v>
       </c>
       <c r="J13" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="K13" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -33550,15 +33052,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="F14" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="G14" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
@@ -33567,10 +33069,10 @@
         <v>1628</v>
       </c>
       <c r="J14" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="K14" t="s">
-        <v>1696</v>
+        <v>1972</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -33582,15 +33084,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="F15" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="G15" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -33599,10 +33101,10 @@
         <v>1628</v>
       </c>
       <c r="J15" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="K15" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -33610,19 +33112,19 @@
       <c r="N15" t="s">
         <v>82</v>
       </c>
-      <c r="O15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="5:15">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="F16" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="G16" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
@@ -33631,7 +33133,7 @@
         <v>1628</v>
       </c>
       <c r="J16" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="K16" t="s">
         <v>1978</v>
@@ -33643,18 +33145,18 @@
         <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="5:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="F17" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="G17" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -33663,11 +33165,11 @@
         <v>1628</v>
       </c>
       <c r="J17" t="s">
+        <v>1982</v>
+      </c>
+      <c r="K17" t="s">
         <v>1981</v>
       </c>
-      <c r="K17" t="s">
-        <v>1982</v>
-      </c>
       <c r="M17" t="s">
         <v>80</v>
       </c>
@@ -33678,105 +33180,79 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
-      <c r="E18" t="s">
-        <v>1983</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1984</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1950</v>
-      </c>
-      <c r="H18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1628</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1985</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1984</v>
-      </c>
-      <c r="M18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" t="s">
-        <v>82</v>
-      </c>
-      <c r="O18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="5:15">
-      <c r="E19" t="s">
-        <v>1986</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1987</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1950</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>1643</v>
       </c>
       <c r="I19" t="s">
-        <v>1628</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1988</v>
-      </c>
-      <c r="K19" t="s">
-        <v>1987</v>
-      </c>
-      <c r="M19" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>1640</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>1641</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>1642</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>1643</v>
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="E20" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1949</v>
+      </c>
+      <c r="G20" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="H20" t="str">
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="E21" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1949</v>
+      </c>
+      <c r="G21" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="H21" t="str">
+        <f>角色标签数据!$E$9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I21" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1645</v>
       </c>
       <c r="F22" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -33784,197 +33260,197 @@
       </c>
       <c r="H22" t="str">
         <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <v>iam_label-12</v>
       </c>
       <c r="I22" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1645</v>
       </c>
       <c r="F23" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G23" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
       </c>
       <c r="H23" t="str">
-        <f>角色标签数据!$E$11</f>
-        <v>iam_label-11</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I23" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1645</v>
       </c>
       <c r="F24" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G24" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
       </c>
       <c r="H24" t="str">
-        <f>角色标签数据!$E$12</f>
-        <v>iam_label-12</v>
+        <f>角色标签数据!$E$9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I24" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1645</v>
       </c>
       <c r="F25" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
         <v>iam_role-11</v>
       </c>
       <c r="H25" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$13</f>
+        <v>iam_label-15</v>
       </c>
       <c r="I25" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1645</v>
       </c>
       <c r="F26" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G26" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="H26" t="str">
-        <f>角色标签数据!$E$11</f>
-        <v>iam_label-11</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I26" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1645</v>
       </c>
       <c r="F27" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G27" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="H27" t="str">
-        <f>角色标签数据!$E$15</f>
-        <v>iam_label-15</v>
+        <f>角色标签数据!$E$11</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I27" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1645</v>
       </c>
       <c r="F28" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="H28" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$12</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I28" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1645</v>
       </c>
       <c r="F29" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="H29" t="str">
-        <f>角色标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>角色标签数据!$E$16</f>
+        <v>iam_label-18</v>
       </c>
       <c r="I29" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1645</v>
       </c>
       <c r="F30" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G30" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="H30" t="str">
-        <f>角色标签数据!$E$14</f>
-        <v>iam_label-14</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I30" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1645</v>
       </c>
       <c r="F31" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G31" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="H31" t="str">
-        <f>角色标签数据!$E$18</f>
-        <v>iam_label-18</v>
+        <f>角色标签数据!$E$11</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I31" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1645</v>
       </c>
       <c r="F32" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="H32" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$14</f>
+        <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
         <v>1647</v>
@@ -33985,61 +33461,23 @@
         <v>1645</v>
       </c>
       <c r="F33" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="H33" t="str">
-        <f>角色标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>角色标签数据!$E$17</f>
+        <v>iam_label-19</v>
       </c>
       <c r="I33" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="34" spans="5:9">
-      <c r="E34" t="s">
-        <v>1645</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1950</v>
-      </c>
-      <c r="G34" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H34" t="str">
-        <f>角色标签数据!$E$16</f>
-        <v>iam_label-16</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
-      <c r="E35" t="s">
-        <v>1645</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1950</v>
-      </c>
-      <c r="G35" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H35" t="str">
-        <f>角色标签数据!$E$19</f>
-        <v>iam_label-19</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1647</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5750" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5769" uniqueCount="1990">
   <si>
     <r>
       <rPr>
@@ -7816,12 +7816,36 @@
   <si>
     <t>标识gitlab_developer</t>
   </si>
+  <si>
+    <t>TENANT_MGR</t>
+  </si>
+  <si>
+    <t>租户管理员标签</t>
+  </si>
+  <si>
+    <t>Tenant Manager Label</t>
+  </si>
+  <si>
+    <t>SITE_MGR</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台管理员标签</t>
+  </si>
+  <si>
+    <t>iam_label-8</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_label-9</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7856,6 +7880,7 @@
       <sz val="12"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7863,47 +7888,55 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7934,6 +7967,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7941,6 +7975,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7959,6 +7994,7 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8010,35 +8046,6 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8869,7 +8876,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -20002,7 +20009,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24117,7 +24124,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27149,7 +27156,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -32770,21 +32777,22 @@
     </row>
     <row r="246" spans="5:10" s="5" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
     <col min="6" max="6" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33180,71 +33188,97 @@
         <v>82</v>
       </c>
     </row>
+    <row r="18" spans="1:15">
+      <c r="E18" s="7" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1628</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1984</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1985</v>
+      </c>
+      <c r="M18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="19" spans="1:15">
-      <c r="A19" t="s">
+      <c r="E19" s="7" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>1986</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1634</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1987</v>
+      </c>
+      <c r="M19" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>1638</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>1641</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>1642</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>1643</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I21" t="s">
         <v>1644</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="E20" t="s">
-        <v>1645</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1949</v>
-      </c>
-      <c r="G20" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="H20" t="str">
-        <f>角色标签数据!$E$8</f>
-        <v>iam_label-10</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="E21" t="s">
-        <v>1645</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1949</v>
-      </c>
-      <c r="G21" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="H21" t="str">
-        <f>角色标签数据!$E$9</f>
-        <v>iam_label-11</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -33259,8 +33293,8 @@
         <v>iam_role-10</v>
       </c>
       <c r="H22" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-12</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
         <v>1647</v>
@@ -33274,12 +33308,12 @@
         <v>1949</v>
       </c>
       <c r="G23" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
       </c>
       <c r="H23" t="str">
-        <f>角色标签数据!$E$8</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
         <v>1647</v>
@@ -33293,12 +33327,12 @@
         <v>1949</v>
       </c>
       <c r="G24" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
       </c>
       <c r="H24" t="str">
-        <f>角色标签数据!$E$9</f>
-        <v>iam_label-11</v>
+        <f>角色标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
         <v>1647</v>
@@ -33316,8 +33350,8 @@
         <v>iam_role-11</v>
       </c>
       <c r="H25" t="str">
-        <f>角色标签数据!$E$13</f>
-        <v>iam_label-15</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
         <v>1647</v>
@@ -33331,12 +33365,12 @@
         <v>1949</v>
       </c>
       <c r="G26" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
       </c>
       <c r="H26" t="str">
-        <f>角色标签数据!$E$8</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
         <v>1647</v>
@@ -33350,12 +33384,12 @@
         <v>1949</v>
       </c>
       <c r="G27" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
       </c>
       <c r="H27" t="str">
-        <f>角色标签数据!$E$11</f>
-        <v>iam_label-13</v>
+        <f>角色标签数据!$E$13</f>
+        <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
         <v>1647</v>
@@ -33373,8 +33407,8 @@
         <v>iam_role-12</v>
       </c>
       <c r="H28" t="str">
-        <f>角色标签数据!$E$12</f>
-        <v>iam_label-14</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
         <v>1647</v>
@@ -33392,8 +33426,8 @@
         <v>iam_role-12</v>
       </c>
       <c r="H29" t="str">
-        <f>角色标签数据!$E$16</f>
-        <v>iam_label-18</v>
+        <f>角色标签数据!$E$11</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
         <v>1647</v>
@@ -33407,12 +33441,12 @@
         <v>1949</v>
       </c>
       <c r="G30" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="H30" t="str">
-        <f>角色标签数据!$E$8</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$12</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
         <v>1647</v>
@@ -33426,12 +33460,12 @@
         <v>1949</v>
       </c>
       <c r="G31" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="H31" t="str">
-        <f>角色标签数据!$E$11</f>
-        <v>iam_label-13</v>
+        <f>角色标签数据!$E$16</f>
+        <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
         <v>1647</v>
@@ -33449,8 +33483,8 @@
         <v>iam_role-13</v>
       </c>
       <c r="H32" t="str">
-        <f>角色标签数据!$E$14</f>
-        <v>iam_label-16</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
         <v>1647</v>
@@ -33468,15 +33502,53 @@
         <v>iam_role-13</v>
       </c>
       <c r="H33" t="str">
+        <f>角色标签数据!$E$11</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9">
+      <c r="E34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1949</v>
+      </c>
+      <c r="G34" t="str">
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
+      </c>
+      <c r="H34" t="str">
+        <f>角色标签数据!$E$14</f>
+        <v>iam_label-16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9">
+      <c r="E35" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1949</v>
+      </c>
+      <c r="G35" t="str">
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
+      </c>
+      <c r="H35" t="str">
         <f>角色标签数据!$E$17</f>
         <v>iam_label-19</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I35" t="s">
         <v>1647</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19812" windowHeight="7860" tabRatio="597" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +25,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6329" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6326" uniqueCount="2022">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +69,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +88,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +107,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +126,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +158,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +177,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +196,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +218,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +260,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +281,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +302,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +314,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +333,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +383,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +402,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +421,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +538,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +557,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +576,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +596,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +635,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +654,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +685,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +728,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +747,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +766,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +785,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +804,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +816,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +846,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +867,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +897,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +940,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +959,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +979,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +999,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1019,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1040,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1060,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1095,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1116,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1128,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1147,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1168,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1187,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1200,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1238,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1272,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1291,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1329,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1348,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1374,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1393,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1409,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1419,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1438,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1453,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1472,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1491,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1511,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1614,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1625,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1635,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1647,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1685,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1743,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1820,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1839,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1859,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1871,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1882,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1892,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1904,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1923,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1935,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1954,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1974,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6303,6 +6414,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>iam_menu_permission-30</t>
@@ -6312,6 +6424,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -7824,14 +7937,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="47">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7842,29 +7949,29 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="4" tint="-0.5"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -7914,13 +8021,13 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -7954,157 +8061,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -8133,12 +8089,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8147,8 +8105,51 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8179,194 +8180,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -8467,254 +8282,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8742,20 +8315,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8789,9 +8350,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8799,59 +8357,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -8924,6 +8451,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9181,275 +8711,272 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="18" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="19" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="24" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="26" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="20"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="30" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="33" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="36" t="s">
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" ht="52.2">
+      <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="39" t="s">
+    <row r="10" spans="1:8" ht="52.2">
+      <c r="C10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="33" t="s">
+    <row r="11" spans="1:8" ht="69.599999999999994">
+      <c r="C11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="33" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="41" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="C15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="45" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="45" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="45" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="40" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="45" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="40" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="46" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="34" t="s">
+      <c r="E25" s="44"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="47" t="s">
+      <c r="E26" s="44"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
+      <c r="C27" s="42" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="32" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y225"/>
   <sheetViews>
     <sheetView topLeftCell="A212" workbookViewId="0">
       <selection activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="21.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="58.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="26.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="27.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="25.2222222222222" customWidth="1"/>
-    <col min="16" max="16" width="28.4444444444444" customWidth="1"/>
-    <col min="19" max="19" width="135.222222222222" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="58.75" customWidth="1"/>
+    <col min="7" max="7" width="28.08203125" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.4140625" customWidth="1"/>
+    <col min="15" max="15" width="25.25" customWidth="1"/>
+    <col min="16" max="16" width="28.4140625" customWidth="1"/>
+    <col min="19" max="19" width="135.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9463,7 +8990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -9551,7 +9078,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -9598,7 +9125,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -9648,7 +9175,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>88</v>
       </c>
@@ -9705,7 +9232,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -9756,7 +9283,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>104</v>
       </c>
@@ -9804,7 +9331,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>108</v>
       </c>
@@ -9855,7 +9382,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>112</v>
       </c>
@@ -9912,7 +9439,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>119</v>
       </c>
@@ -9960,7 +9487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>123</v>
       </c>
@@ -20310,7 +19837,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="220" s="5" customFormat="1" spans="5:24">
+    <row r="220" spans="5:24" s="5" customFormat="1">
       <c r="E220" s="5" t="s">
         <v>994</v>
       </c>
@@ -20367,7 +19894,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="221" s="5" customFormat="1" spans="5:24">
+    <row r="221" spans="5:24" s="5" customFormat="1">
       <c r="E221" s="5" t="s">
         <v>998</v>
       </c>
@@ -20415,7 +19942,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="222" s="5" customFormat="1" spans="5:24">
+    <row r="222" spans="5:24" s="5" customFormat="1">
       <c r="E222" s="5" t="s">
         <v>1001</v>
       </c>
@@ -20463,7 +19990,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="223" s="5" customFormat="1" spans="5:24">
+    <row r="223" spans="5:24" s="5" customFormat="1">
       <c r="E223" s="5" t="s">
         <v>1004</v>
       </c>
@@ -20511,7 +20038,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="224" s="5" customFormat="1" spans="5:24">
+    <row r="224" spans="5:24" s="5" customFormat="1">
       <c r="E224" s="5" t="s">
         <v>1007</v>
       </c>
@@ -20559,7 +20086,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="225" s="5" customFormat="1" spans="5:24">
+    <row r="225" spans="5:24" s="5" customFormat="1">
       <c r="E225" s="5" t="s">
         <v>1010</v>
       </c>
@@ -20608,28 +20135,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H342"/>
   <sheetViews>
     <sheetView topLeftCell="C327" workbookViewId="0">
       <selection activeCell="F240" sqref="F240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="35.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="17.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="64.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="35.75" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="64.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -20643,7 +20169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -20654,7 +20180,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -20677,7 +20203,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:8">
       <c r="E8" t="s">
         <v>1017</v>
       </c>
@@ -20689,7 +20215,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:8">
       <c r="E9" t="s">
         <v>1019</v>
       </c>
@@ -20701,7 +20227,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:8">
       <c r="E10" t="s">
         <v>1021</v>
       </c>
@@ -20713,7 +20239,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:8">
       <c r="E11" t="s">
         <v>1023</v>
       </c>
@@ -20725,7 +20251,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" spans="1:8">
       <c r="E12" s="9" t="s">
         <v>1025</v>
       </c>
@@ -20738,7 +20264,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" spans="1:8">
       <c r="E13" s="9" t="s">
         <v>1027</v>
       </c>
@@ -20751,7 +20277,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:8">
       <c r="E14" t="s">
         <v>1029</v>
       </c>
@@ -20763,7 +20289,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:8">
       <c r="E15" t="s">
         <v>1031</v>
       </c>
@@ -20775,7 +20301,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:8">
       <c r="E16" t="s">
         <v>1033</v>
       </c>
@@ -24327,7 +23853,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="312" s="10" customFormat="1" spans="5:7">
+    <row r="312" spans="5:7" s="10" customFormat="1">
       <c r="E312" s="10" t="s">
         <v>1564</v>
       </c>
@@ -24339,7 +23865,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="313" s="10" customFormat="1" spans="5:7">
+    <row r="313" spans="5:7" s="10" customFormat="1">
       <c r="E313" s="10" t="s">
         <v>1566</v>
       </c>
@@ -24351,7 +23877,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="314" s="10" customFormat="1" spans="5:7">
+    <row r="314" spans="5:7" s="10" customFormat="1">
       <c r="E314" s="10" t="s">
         <v>1567</v>
       </c>
@@ -24579,7 +24105,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="333" s="5" customFormat="1" spans="5:7">
+    <row r="333" spans="5:7" s="5" customFormat="1">
       <c r="E333" s="5" t="s">
         <v>1594</v>
       </c>
@@ -24591,7 +24117,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="334" s="5" customFormat="1" spans="5:7">
+    <row r="334" spans="5:7" s="5" customFormat="1">
       <c r="E334" s="5" t="s">
         <v>1595</v>
       </c>
@@ -24603,7 +24129,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="335" s="5" customFormat="1" spans="5:7">
+    <row r="335" spans="5:7" s="5" customFormat="1">
       <c r="E335" s="5" t="s">
         <v>1597</v>
       </c>
@@ -24615,7 +24141,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="336" s="5" customFormat="1" spans="5:7">
+    <row r="336" spans="5:7" s="5" customFormat="1">
       <c r="E336" s="5" t="s">
         <v>1599</v>
       </c>
@@ -24627,7 +24153,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="337" s="5" customFormat="1" spans="5:7">
+    <row r="337" spans="5:7" s="5" customFormat="1">
       <c r="E337" s="5" t="s">
         <v>1601</v>
       </c>
@@ -24687,7 +24213,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="342" s="9" customFormat="1" spans="5:7">
+    <row r="342" spans="5:7" s="9" customFormat="1">
       <c r="E342" s="9" t="s">
         <v>1611</v>
       </c>
@@ -24700,28 +24226,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="19.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="14.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="14.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="14.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -24735,7 +24260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -24793,7 +24318,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1624</v>
       </c>
@@ -24825,7 +24350,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1629</v>
       </c>
@@ -24857,7 +24382,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1632</v>
       </c>
@@ -24883,7 +24408,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1635</v>
       </c>
@@ -24909,7 +24434,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1637</v>
       </c>
@@ -24941,7 +24466,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1640</v>
       </c>
@@ -24970,7 +24495,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1643</v>
       </c>
@@ -24999,7 +24524,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1646</v>
       </c>
@@ -25028,7 +24553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1649</v>
       </c>
@@ -25057,7 +24582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1652</v>
       </c>
@@ -25089,7 +24614,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1655</v>
       </c>
@@ -25121,7 +24646,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1658</v>
       </c>
@@ -25153,7 +24678,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>1661</v>
       </c>
@@ -25179,7 +24704,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>1663</v>
       </c>
@@ -25211,7 +24736,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1666</v>
       </c>
@@ -25243,7 +24768,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1669</v>
       </c>
@@ -25275,7 +24800,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1672</v>
       </c>
@@ -25301,7 +24826,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1674</v>
       </c>
@@ -25330,7 +24855,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1677</v>
       </c>
@@ -25359,7 +24884,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -25388,7 +24913,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1687</v>
       </c>
@@ -25407,7 +24932,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1687</v>
       </c>
@@ -25426,7 +24951,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1687</v>
       </c>
@@ -25445,7 +24970,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1687</v>
       </c>
@@ -30594,7 +30119,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="303" s="8" customFormat="1" spans="5:9">
+    <row r="303" spans="5:9" s="8" customFormat="1">
       <c r="E303" s="7" t="s">
         <v>1687</v>
       </c>
@@ -30632,7 +30157,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="305" s="8" customFormat="1" spans="5:9">
+    <row r="305" spans="5:9" s="8" customFormat="1">
       <c r="E305" s="7" t="s">
         <v>1687</v>
       </c>
@@ -30671,28 +30196,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y245"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E238" sqref="E238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="24.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="21.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="19.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -30706,7 +30230,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -30794,7 +30318,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1706</v>
       </c>
@@ -30853,7 +30377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1711</v>
       </c>
@@ -30912,7 +30436,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1716</v>
       </c>
@@ -30975,7 +30499,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1723</v>
       </c>
@@ -31038,7 +30562,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1731</v>
       </c>
@@ -31101,7 +30625,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1739</v>
       </c>
@@ -31164,7 +30688,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" s="6" t="s">
         <v>1747</v>
       </c>
@@ -31221,7 +30745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -36071,7 +35595,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="236" s="5" customFormat="1" spans="5:10">
+    <row r="236" spans="5:10" s="5" customFormat="1">
       <c r="E236" s="5" t="s">
         <v>1981</v>
       </c>
@@ -36093,7 +35617,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="237" s="5" customFormat="1" spans="5:10">
+    <row r="237" spans="5:10" s="5" customFormat="1">
       <c r="E237" s="5" t="s">
         <v>1982</v>
       </c>
@@ -36115,7 +35639,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="238" s="5" customFormat="1" spans="5:10">
+    <row r="238" spans="5:10" s="5" customFormat="1">
       <c r="E238" s="5" t="s">
         <v>1983</v>
       </c>
@@ -36137,7 +35661,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="239" s="5" customFormat="1" spans="5:10">
+    <row r="239" spans="5:10" s="5" customFormat="1">
       <c r="E239" s="5" t="s">
         <v>1984</v>
       </c>
@@ -36159,7 +35683,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="240" s="5" customFormat="1" spans="5:10">
+    <row r="240" spans="5:10" s="5" customFormat="1">
       <c r="E240" s="5" t="s">
         <v>1985</v>
       </c>
@@ -36181,7 +35705,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="241" s="5" customFormat="1" spans="5:10">
+    <row r="241" spans="5:10" s="5" customFormat="1">
       <c r="E241" s="5" t="s">
         <v>1986</v>
       </c>
@@ -36203,7 +35727,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="242" s="5" customFormat="1" spans="5:10">
+    <row r="242" spans="5:10" s="5" customFormat="1">
       <c r="E242" s="5" t="s">
         <v>1987</v>
       </c>
@@ -36225,7 +35749,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="243" s="5" customFormat="1" spans="5:10">
+    <row r="243" spans="5:10" s="5" customFormat="1">
       <c r="E243" s="5" t="s">
         <v>1988</v>
       </c>
@@ -36247,7 +35771,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="244" s="5" customFormat="1" spans="5:10">
+    <row r="244" spans="5:10" s="5" customFormat="1">
       <c r="E244" s="5" t="s">
         <v>1989</v>
       </c>
@@ -36269,7 +35793,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="245" s="5" customFormat="1" spans="5:10">
+    <row r="245" spans="5:10" s="5" customFormat="1">
       <c r="E245" s="5" t="s">
         <v>1990</v>
       </c>
@@ -36292,23 +35816,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -36322,7 +35848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -36380,8 +35906,8 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
-      <c r="E8" t="s">
+    <row r="8" spans="1:15">
+      <c r="E8" s="48" t="s">
         <v>1624</v>
       </c>
       <c r="F8" t="s">
@@ -36412,8 +35938,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
-      <c r="E9" t="s">
+    <row r="9" spans="1:15">
+      <c r="E9" s="48" t="s">
         <v>1629</v>
       </c>
       <c r="F9" t="s">
@@ -36441,7 +35967,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1632</v>
       </c>
@@ -36473,7 +35999,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1635</v>
       </c>
@@ -36501,11 +36027,11 @@
       <c r="N11" t="s">
         <v>82</v>
       </c>
-      <c r="O11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1637</v>
       </c>
@@ -36537,7 +36063,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1640</v>
       </c>
@@ -36565,11 +36091,11 @@
       <c r="N13" t="s">
         <v>82</v>
       </c>
-      <c r="O13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="5:15">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1643</v>
       </c>
@@ -36601,7 +36127,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1646</v>
       </c>
@@ -36633,7 +36159,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1649</v>
       </c>
@@ -36665,7 +36191,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1652</v>
       </c>
@@ -36693,11 +36219,11 @@
       <c r="N17" t="s">
         <v>82</v>
       </c>
-      <c r="O17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="5:15">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1655</v>
       </c>
@@ -36729,7 +36255,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1658</v>
       </c>
@@ -36761,7 +36287,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -36790,7 +36316,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1687</v>
       </c>
@@ -36809,7 +36335,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1687</v>
       </c>
@@ -36828,7 +36354,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1687</v>
       </c>
@@ -36847,7 +36373,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1687</v>
       </c>
@@ -36866,7 +36392,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1687</v>
       </c>
@@ -36885,7 +36411,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1687</v>
       </c>
@@ -36904,7 +36430,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1687</v>
       </c>
@@ -36923,7 +36449,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1687</v>
       </c>
@@ -36942,7 +36468,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1687</v>
       </c>
@@ -36961,7 +36487,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1687</v>
       </c>
@@ -36980,7 +36506,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1687</v>
       </c>
@@ -37057,8 +36583,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenghaotian/Documents/RandD/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F0997F-B734-F44C-8359-37510A75E1B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19812" windowHeight="7860" tabRatio="597" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="597" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,12 +26,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5769" uniqueCount="1990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5769" uniqueCount="1991">
   <si>
     <r>
       <rPr>
@@ -47,6 +48,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>merge</t>
@@ -79,6 +81,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
@@ -98,6 +101,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -117,6 +121,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
@@ -168,6 +173,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -187,6 +193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -206,6 +213,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -229,6 +237,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -250,6 +259,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -272,6 +282,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -293,6 +304,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -324,6 +336,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>=</t>
@@ -355,6 +368,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -374,6 +388,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
@@ -393,6 +408,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -412,6 +428,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -431,6 +448,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>!</t>
@@ -460,6 +478,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -479,6 +498,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -498,6 +518,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -517,6 +538,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -548,6 +570,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -567,6 +590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -586,6 +610,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -606,6 +631,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -625,6 +651,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
@@ -645,6 +672,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -676,6 +704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
@@ -695,6 +724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -719,6 +749,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -738,6 +769,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -757,6 +789,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -776,6 +809,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -795,6 +829,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -826,6 +861,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -857,6 +893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -888,6 +925,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>#</t>
@@ -907,6 +945,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -931,6 +970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
@@ -950,6 +990,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -969,6 +1010,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -989,6 +1031,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1009,6 +1052,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
@@ -1029,6 +1073,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
@@ -1050,6 +1095,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -1070,6 +1116,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:
@@ -1086,6 +1133,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
@@ -1107,6 +1155,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
@@ -1138,6 +1187,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1157,6 +1207,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1178,6 +1229,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1210,6 +1262,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1229,6 +1282,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1248,6 +1302,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1282,6 +1337,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1301,6 +1357,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
@@ -1320,6 +1377,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1339,6 +1397,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1384,6 +1443,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1429,6 +1489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
@@ -1463,6 +1524,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1482,6 +1544,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1501,6 +1564,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1521,6 +1585,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1545,6 +1610,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
@@ -1564,6 +1630,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
@@ -1583,6 +1650,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>(</t>
@@ -1603,6 +1671,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1657,6 +1726,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -1676,6 +1746,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1695,6 +1766,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
@@ -1715,6 +1787,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1734,6 +1807,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
@@ -1753,6 +1827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
@@ -1772,6 +1847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
@@ -1792,6 +1868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
@@ -1811,6 +1888,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
@@ -1830,6 +1908,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
@@ -1849,6 +1928,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
@@ -1914,6 +1994,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1945,6 +2026,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1964,6 +2046,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
@@ -7840,11 +7923,15 @@
     <t>iam_label-9</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="32">
     <font>
       <sz val="12"/>
@@ -7982,12 +8069,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8001,12 +8090,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8026,6 +8117,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8046,6 +8138,7 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8302,7 +8395,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -8642,27 +8735,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
@@ -8731,7 +8824,7 @@
       </c>
       <c r="E8" s="40"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="54">
       <c r="C9" s="41" t="s">
         <v>13</v>
       </c>
@@ -8745,7 +8838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="54">
       <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
@@ -8756,7 +8849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="72">
       <c r="C11" s="38" t="s">
         <v>20</v>
       </c>
@@ -8788,7 +8881,7 @@
       <c r="D14" s="39"/>
       <c r="E14" s="40"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="36">
       <c r="C15" s="46" t="s">
         <v>26</v>
       </c>
@@ -8861,7 +8954,7 @@
       </c>
       <c r="E26" s="52"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
+    <row r="27" spans="3:5" ht="54">
       <c r="C27" s="51" t="s">
         <v>43</v>
       </c>
@@ -8883,23 +8976,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F234" sqref="F234"/>
+    <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="21.75" style="19" customWidth="1"/>
-    <col min="6" max="6" width="58.75" customWidth="1"/>
-    <col min="7" max="7" width="28.08203125" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.4140625" customWidth="1"/>
-    <col min="15" max="15" width="25.25" customWidth="1"/>
-    <col min="16" max="16" width="28.4140625" customWidth="1"/>
-    <col min="19" max="19" width="135.25" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" customWidth="1"/>
+    <col min="19" max="19" width="135.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -12731,11 +12824,11 @@
       <c r="F81" t="s">
         <v>420</v>
       </c>
-      <c r="G81" t="s">
-        <v>421</v>
-      </c>
-      <c r="H81" t="s">
-        <v>421</v>
+      <c r="G81" s="23" t="s">
+        <v>1990</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>1990</v>
       </c>
       <c r="J81" t="s">
         <v>79</v>
@@ -20015,18 +20108,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H344"/>
   <sheetViews>
-    <sheetView topLeftCell="C328" workbookViewId="0">
+    <sheetView topLeftCell="B201" workbookViewId="0">
       <selection activeCell="G345" sqref="G345"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="35.75" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="64.25" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="64.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -24130,19 +24223,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O160"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -27162,18 +27255,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y246"/>
   <sheetViews>
-    <sheetView topLeftCell="A207" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="A246" sqref="A246:XFD246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -32783,17 +32876,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenghaotian/Documents/RandD/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F64EED-1AC7-0645-AC1E-E5C42A08F152}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="33600" windowHeight="20496" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,12 +25,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5793" uniqueCount="2007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5799" uniqueCount="2012">
   <si>
     <r>
       <rPr>
@@ -7972,11 +7971,31 @@
     <t>HZERO</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
+  <si>
+    <t>choerodon.code.organization.infra</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_menu-242</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="31">
     <font>
       <sz val="12"/>
@@ -8323,7 +8342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8412,11 +8431,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8427,11 +8447,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -8771,36 +8793,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="26" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="27"/>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
@@ -8813,17 +8835,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="51"/>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="30" t="s">
         <v>4</v>
       </c>
@@ -8860,7 +8882,7 @@
       </c>
       <c r="E8" s="38"/>
     </row>
-    <row r="9" spans="1:8" ht="54">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="39" t="s">
         <v>13</v>
       </c>
@@ -8874,7 +8896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="54">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="42" t="s">
         <v>17</v>
       </c>
@@ -8885,7 +8907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="72">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="36" t="s">
         <v>20</v>
       </c>
@@ -8917,7 +8939,7 @@
       <c r="D14" s="37"/>
       <c r="E14" s="38"/>
     </row>
-    <row r="15" spans="1:8" ht="36">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="44" t="s">
         <v>26</v>
       </c>
@@ -8934,11 +8956,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="47" t="s">
@@ -8990,7 +9012,7 @@
       </c>
       <c r="E26" s="51"/>
     </row>
-    <row r="27" spans="3:5" ht="54">
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="49" t="s">
         <v>43</v>
       </c>
@@ -9012,23 +9034,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y224"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S138" sqref="S138"/>
+    <sheetView tabSelected="1" topLeftCell="T200" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R225" sqref="R225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="21.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="58.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" customWidth="1"/>
-    <col min="16" max="16" width="28.42578125" customWidth="1"/>
-    <col min="19" max="19" width="135.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="18" customWidth="1"/>
+    <col min="6" max="6" width="58.75" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" customWidth="1"/>
+    <col min="10" max="10" width="26.75" customWidth="1"/>
+    <col min="11" max="11" width="27.4140625" customWidth="1"/>
+    <col min="15" max="15" width="25.25" customWidth="1"/>
+    <col min="16" max="16" width="28.4140625" customWidth="1"/>
+    <col min="19" max="19" width="135.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -15572,13 +15594,13 @@
       <c r="F135" t="s">
         <v>644</v>
       </c>
-      <c r="G135" s="55" t="s">
+      <c r="G135" s="50" t="s">
         <v>2006</v>
       </c>
-      <c r="H135" s="55" t="s">
+      <c r="H135" s="50" t="s">
         <v>2006</v>
       </c>
-      <c r="I135" s="55" t="s">
+      <c r="I135" s="50" t="s">
         <v>2006</v>
       </c>
       <c r="J135" t="s">
@@ -20055,7 +20077,7 @@
         <v>281</v>
       </c>
       <c r="J223" s="7" t="s">
-        <v>79</v>
+        <v>2010</v>
       </c>
       <c r="K223" s="7" t="str">
         <f>菜单SAAS版!$E$218</f>
@@ -20135,6 +20157,41 @@
       </c>
       <c r="X224" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="225" spans="5:18">
+      <c r="E225" s="56" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>2008</v>
+      </c>
+      <c r="H225" s="7" t="s">
+        <v>2008</v>
+      </c>
+      <c r="J225" s="7" t="s">
+        <v>2010</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225" s="7" t="s">
+        <v>2011</v>
+      </c>
+      <c r="M225" s="7">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>1</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -20144,18 +20201,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H356"/>
   <sheetViews>
     <sheetView topLeftCell="C343" workbookViewId="0">
       <selection activeCell="G358" sqref="G358:G359"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="64.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.75" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="64.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -24403,19 +24460,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O160"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -27435,18 +27492,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y246"/>
   <sheetViews>
     <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="A246" sqref="A246:XFD246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -33056,17 +33113,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="D24" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.4140625" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -33823,6 +33880,6 @@
   </sheetData>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenghaotian/Documents/RandD/choerodon-iam/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8FDBFD-FEAF-DF47-9D52-A88B298E5C21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="33600" windowHeight="20500" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,12 +26,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5799" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5855" uniqueCount="2038">
   <si>
     <r>
       <rPr>
@@ -7784,18 +7790,129 @@
   <si>
     <t>平台管理员标签</t>
   </si>
+  <si>
+    <t>iam_menu-243</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager.application-template</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用模板</t>
+    <rPh sb="0" eb="2">
+      <t>ying'yong'mu'ba</t>
+    </rPh>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashboard-o</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>/iam/application-template</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager|choerodon.code.organization.manager.application-template</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_menu-244</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager.application-template.ps.default</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用模板默认权限集</t>
+  </si>
+  <si>
+    <t>应用模板默认权限集</t>
+    <rPh sb="0" eb="2">
+      <t>ying'yon</t>
+    </rPh>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager|choerodon.code.organization.manager.application-template|choerodon.code.organization.manager.application-template.ps.default</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_role_permission-250</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_menu-245</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.application-template</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager|choerodon.code.site.manager.application-template</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_menu-246</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.application-template.ps.default</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager|choerodon.code.site.manager.application-template.ps.default</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_role_permission-251</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="50">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7806,25 +7923,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
@@ -7852,7 +7969,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1" tint="0.0499893185216834"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -7884,19 +8001,17 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1" tint="0.0499893185216834"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7934,157 +8049,6 @@
       <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8129,8 +8093,35 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8161,194 +8152,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -8449,254 +8254,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8747,20 +8310,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8794,9 +8345,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8804,59 +8352,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -8929,6 +8451,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9186,275 +8711,274 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="27" customWidth="1"/>
-    <col min="2" max="2" width="10.2518518518519" style="28" customWidth="1"/>
-    <col min="3" max="3" width="28.162962962963" customWidth="1"/>
-    <col min="4" max="4" width="35.2518518518519" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.162962962963" customWidth="1"/>
-    <col min="14" max="1025" width="10.2518518518519" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="33" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="35" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="29"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="39" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="42" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="45" t="s">
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" ht="54">
+      <c r="C9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="43" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="48" t="s">
+    <row r="10" spans="1:8" ht="54">
+      <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="42" t="s">
+    <row r="11" spans="1:8" ht="72">
+      <c r="C11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="42" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="50" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" ht="36">
+      <c r="C15" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="54" t="s">
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="54" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="54" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="54" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="49" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="55" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="43" t="s">
+      <c r="E25" s="53"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="56" t="s">
+      <c r="E26" s="53"/>
+    </row>
+    <row r="27" spans="3:5" ht="54">
+      <c r="C27" s="51" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Y225"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G82" workbookViewId="0">
-      <selection activeCell="F96" sqref="$A96:$XFD96"/>
+    <sheetView topLeftCell="A205" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB230" sqref="AB230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="21.7481481481481" style="18" customWidth="1"/>
-    <col min="6" max="6" width="58.7481481481481" customWidth="1"/>
-    <col min="7" max="7" width="28.162962962963" customWidth="1"/>
-    <col min="10" max="10" width="26.7481481481481" customWidth="1"/>
-    <col min="11" max="11" width="27.4148148148148" customWidth="1"/>
-    <col min="15" max="15" width="25.2518518518519" customWidth="1"/>
-    <col min="16" max="16" width="28.4148148148148" customWidth="1"/>
-    <col min="19" max="19" width="135.251851851852" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" customWidth="1"/>
+    <col min="19" max="19" width="115.140625" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9468,7 +8992,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="19" t="s">
         <v>47</v>
       </c>
@@ -9556,7 +9080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" s="20" t="s">
         <v>75</v>
       </c>
@@ -9603,7 +9127,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" s="20" t="s">
         <v>84</v>
       </c>
@@ -9653,7 +9177,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" s="21" t="s">
         <v>88</v>
       </c>
@@ -9710,7 +9234,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" s="18" t="s">
         <v>97</v>
       </c>
@@ -9761,7 +9285,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" s="18" t="s">
         <v>104</v>
       </c>
@@ -9809,7 +9333,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" s="18" t="s">
         <v>108</v>
       </c>
@@ -9860,7 +9384,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" s="21" t="s">
         <v>112</v>
       </c>
@@ -9917,7 +9441,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" s="18" t="s">
         <v>119</v>
       </c>
@@ -9965,7 +9489,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" s="18" t="s">
         <v>123</v>
       </c>
@@ -20215,7 +19739,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="218" s="7" customFormat="1" spans="5:24">
+    <row r="218" spans="5:24" s="7" customFormat="1">
       <c r="E218" s="25" t="s">
         <v>985</v>
       </c>
@@ -20272,7 +19796,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="219" s="7" customFormat="1" spans="5:24">
+    <row r="219" spans="5:24" s="7" customFormat="1">
       <c r="E219" s="25" t="s">
         <v>990</v>
       </c>
@@ -20320,7 +19844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="220" s="7" customFormat="1" spans="5:24">
+    <row r="220" spans="5:24" s="7" customFormat="1">
       <c r="E220" s="25" t="s">
         <v>993</v>
       </c>
@@ -20368,7 +19892,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="221" s="7" customFormat="1" spans="5:24">
+    <row r="221" spans="5:24" s="7" customFormat="1">
       <c r="E221" s="25" t="s">
         <v>996</v>
       </c>
@@ -20416,7 +19940,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="222" s="7" customFormat="1" spans="5:24">
+    <row r="222" spans="5:24" s="7" customFormat="1">
       <c r="E222" s="25" t="s">
         <v>999</v>
       </c>
@@ -20464,7 +19988,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="223" s="7" customFormat="1" spans="5:24">
+    <row r="223" spans="5:24" s="7" customFormat="1">
       <c r="E223" s="25" t="s">
         <v>1002</v>
       </c>
@@ -20560,7 +20084,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="225" spans="5:18">
+    <row r="225" spans="5:24">
       <c r="E225" s="26" t="s">
         <v>1009</v>
       </c>
@@ -20595,29 +20119,232 @@
         <v>0</v>
       </c>
     </row>
+    <row r="226" spans="5:24" ht="20">
+      <c r="E226" s="57" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F226" s="58" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G226" s="59" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H226" s="59" t="s">
+        <v>2012</v>
+      </c>
+      <c r="J226" s="59" t="s">
+        <v>2013</v>
+      </c>
+      <c r="K226" t="str">
+        <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
+      </c>
+      <c r="L226" t="s">
+        <v>92</v>
+      </c>
+      <c r="M226" s="59">
+        <v>11</v>
+      </c>
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="O226" s="60" t="s">
+        <v>2014</v>
+      </c>
+      <c r="P226" s="58" t="s">
+        <v>2015</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226" s="58" t="s">
+        <v>2016</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="V226" s="59" t="s">
+        <v>2017</v>
+      </c>
+      <c r="X226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="5:24">
+      <c r="E227" s="57" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F227" s="58" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G227" s="59" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H227" t="s">
+        <v>2020</v>
+      </c>
+      <c r="J227" s="59" t="s">
+        <v>2013</v>
+      </c>
+      <c r="K227" t="str">
+        <f>菜单SAAS版!$E$226</f>
+        <v>iam_menu-243</v>
+      </c>
+      <c r="L227" s="59" t="s">
+        <v>2022</v>
+      </c>
+      <c r="M227" s="59">
+        <v>10</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227" s="58" t="s">
+        <v>2023</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="V227" s="59" t="s">
+        <v>2017</v>
+      </c>
+      <c r="X227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="5:24" ht="20">
+      <c r="E228" s="57" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F228" s="58" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G228" s="59" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H228" s="59" t="s">
+        <v>2012</v>
+      </c>
+      <c r="J228" s="59" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K228" t="str">
+        <f>菜单SAAS版!$E$148</f>
+        <v>iam_menu-151</v>
+      </c>
+      <c r="L228" s="59" t="s">
+        <v>2032</v>
+      </c>
+      <c r="M228" s="59">
+        <v>11</v>
+      </c>
+      <c r="N228">
+        <v>1</v>
+      </c>
+      <c r="O228" s="60" t="s">
+        <v>2014</v>
+      </c>
+      <c r="P228" s="58" t="s">
+        <v>2015</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228" s="58" t="s">
+        <v>2033</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="V228" s="59" t="s">
+        <v>2017</v>
+      </c>
+      <c r="X228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="5:24">
+      <c r="E229" s="57" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F229" s="58" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G229" s="59" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H229" s="59" t="s">
+        <v>2021</v>
+      </c>
+      <c r="J229" s="59" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K229" t="str">
+        <f>菜单SAAS版!$E$228</f>
+        <v>iam_menu-245</v>
+      </c>
+      <c r="L229" s="59" t="s">
+        <v>2022</v>
+      </c>
+      <c r="M229" s="59">
+        <v>10</v>
+      </c>
+      <c r="N229">
+        <v>1</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229" s="58" t="s">
+        <v>2036</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="V229" s="59" t="s">
+        <v>2017</v>
+      </c>
+      <c r="X229">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H356"/>
   <sheetViews>
-    <sheetView topLeftCell="C343" workbookViewId="0">
-      <selection activeCell="G358" sqref="G358:G359"/>
+    <sheetView topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="35.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="17.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="64.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="64.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -20631,7 +20358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -20642,7 +20369,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -20665,7 +20392,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:8">
       <c r="E8" t="s">
         <v>1016</v>
       </c>
@@ -20677,7 +20404,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:8">
       <c r="E9" t="s">
         <v>1018</v>
       </c>
@@ -20689,7 +20416,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:8">
       <c r="E10" t="s">
         <v>1020</v>
       </c>
@@ -20701,7 +20428,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:8">
       <c r="E11" t="s">
         <v>1022</v>
       </c>
@@ -20713,7 +20440,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" spans="1:8">
       <c r="E12" s="9" t="s">
         <v>1024</v>
       </c>
@@ -20726,7 +20453,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" spans="1:8">
       <c r="E13" s="9" t="s">
         <v>1026</v>
       </c>
@@ -20739,7 +20466,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:8">
       <c r="E14" t="s">
         <v>1028</v>
       </c>
@@ -20751,7 +20478,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:8">
       <c r="E15" t="s">
         <v>1030</v>
       </c>
@@ -20763,7 +20490,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:8">
       <c r="E16" t="s">
         <v>1032</v>
       </c>
@@ -24315,7 +24042,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="312" s="8" customFormat="1" spans="5:7">
+    <row r="312" spans="5:7" s="8" customFormat="1">
       <c r="E312" s="8" t="s">
         <v>1563</v>
       </c>
@@ -24327,7 +24054,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="313" s="8" customFormat="1" spans="5:7">
+    <row r="313" spans="5:7" s="8" customFormat="1">
       <c r="E313" s="8" t="s">
         <v>1565</v>
       </c>
@@ -24339,7 +24066,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="314" s="8" customFormat="1" spans="5:7">
+    <row r="314" spans="5:7" s="8" customFormat="1">
       <c r="E314" s="8" t="s">
         <v>1566</v>
       </c>
@@ -24567,7 +24294,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="333" s="7" customFormat="1" spans="5:7">
+    <row r="333" spans="5:7" s="7" customFormat="1">
       <c r="E333" s="7" t="s">
         <v>1593</v>
       </c>
@@ -24579,7 +24306,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="334" s="7" customFormat="1" spans="5:7">
+    <row r="334" spans="5:7" s="7" customFormat="1">
       <c r="E334" s="7" t="s">
         <v>1594</v>
       </c>
@@ -24591,7 +24318,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="335" s="7" customFormat="1" spans="5:7">
+    <row r="335" spans="5:7" s="7" customFormat="1">
       <c r="E335" s="7" t="s">
         <v>1596</v>
       </c>
@@ -24603,7 +24330,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="336" s="7" customFormat="1" spans="5:7">
+    <row r="336" spans="5:7" s="7" customFormat="1">
       <c r="E336" s="7" t="s">
         <v>1598</v>
       </c>
@@ -24615,7 +24342,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="337" s="7" customFormat="1" spans="5:7">
+    <row r="337" spans="5:7" s="7" customFormat="1">
       <c r="E337" s="7" t="s">
         <v>1600</v>
       </c>
@@ -24675,7 +24402,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="342" s="9" customFormat="1" spans="5:7">
+    <row r="342" spans="5:7" s="9" customFormat="1">
       <c r="E342" s="9" t="s">
         <v>1610</v>
       </c>
@@ -24687,7 +24414,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="343" s="10" customFormat="1" spans="5:7">
+    <row r="343" spans="5:7" s="10" customFormat="1">
       <c r="E343" s="10" t="s">
         <v>1611</v>
       </c>
@@ -24711,7 +24438,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="345" s="9" customFormat="1" spans="5:7">
+    <row r="345" spans="5:7" s="9" customFormat="1">
       <c r="E345" s="9" t="s">
         <v>1615</v>
       </c>
@@ -24723,7 +24450,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="346" s="9" customFormat="1" spans="5:7">
+    <row r="346" spans="5:7" s="9" customFormat="1">
       <c r="E346" s="9" t="s">
         <v>1617</v>
       </c>
@@ -24735,7 +24462,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="347" s="9" customFormat="1" spans="5:7">
+    <row r="347" spans="5:7" s="9" customFormat="1">
       <c r="E347" s="9" t="s">
         <v>1619</v>
       </c>
@@ -24747,7 +24474,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="348" s="9" customFormat="1" spans="5:7">
+    <row r="348" spans="5:7" s="9" customFormat="1">
       <c r="E348" s="9" t="s">
         <v>1621</v>
       </c>
@@ -24856,29 +24583,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O164"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A31" sqref="$A31:$XFD31"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="K164" sqref="K164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="19.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="28.7481481481481" customWidth="1"/>
-    <col min="7" max="7" width="14.2518518518519" customWidth="1"/>
-    <col min="8" max="8" width="14.162962962963" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -24892,7 +24618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -24950,7 +24676,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1646</v>
       </c>
@@ -24982,7 +24708,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1651</v>
       </c>
@@ -25008,7 +24734,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1653</v>
       </c>
@@ -25040,7 +24766,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1657</v>
       </c>
@@ -25066,7 +24792,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -25095,7 +24821,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="14" spans="5:9">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1666</v>
       </c>
@@ -25114,7 +24840,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="15" spans="5:9">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1666</v>
       </c>
@@ -25133,7 +24859,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="16" spans="5:9">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1666</v>
       </c>
@@ -27888,29 +27614,104 @@
         <v>1668</v>
       </c>
     </row>
+    <row r="161" spans="5:9">
+      <c r="E161" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G161" t="str">
+        <f>菜单SAAS版!$E$226</f>
+        <v>iam_menu-243</v>
+      </c>
+      <c r="H161" t="str">
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I161" s="58" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="162" spans="5:9">
+      <c r="E162" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G162" t="str">
+        <f>菜单SAAS版!$E$227</f>
+        <v>iam_menu-244</v>
+      </c>
+      <c r="H162" t="str">
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I162" s="58" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="163" spans="5:9">
+      <c r="E163" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G163" t="str">
+        <f>菜单SAAS版!$E$228</f>
+        <v>iam_menu-245</v>
+      </c>
+      <c r="H163" t="str">
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
+      </c>
+      <c r="I163" s="58" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="164" spans="5:9">
+      <c r="E164" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G164" t="str">
+        <f>菜单SAAS版!$E$229</f>
+        <v>iam_menu-246</v>
+      </c>
+      <c r="H164" t="str">
+        <f>菜单标签数据!$E$10</f>
+        <v>iam_label-12</v>
+      </c>
+      <c r="I164" s="58" t="s">
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Y246"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Y247"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A246" sqref="$A246:$XFD246"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="F253" sqref="F253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="24.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="21.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="19.7481481481481" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -27924,7 +27725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -28012,7 +27813,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1685</v>
       </c>
@@ -28071,7 +27872,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1690</v>
       </c>
@@ -28130,7 +27931,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1695</v>
       </c>
@@ -28193,7 +27994,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1702</v>
       </c>
@@ -28256,7 +28057,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1710</v>
       </c>
@@ -28319,7 +28120,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1718</v>
       </c>
@@ -28382,7 +28183,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" s="6" t="s">
         <v>1726</v>
       </c>
@@ -28439,7 +28240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -33289,7 +33090,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="236" s="7" customFormat="1" spans="5:10">
+    <row r="236" spans="5:10" s="7" customFormat="1">
       <c r="E236" s="7" t="s">
         <v>1960</v>
       </c>
@@ -33311,7 +33112,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="237" s="7" customFormat="1" spans="5:10">
+    <row r="237" spans="5:10" s="7" customFormat="1">
       <c r="E237" s="7" t="s">
         <v>1961</v>
       </c>
@@ -33333,7 +33134,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="238" s="7" customFormat="1" spans="5:10">
+    <row r="238" spans="5:10" s="7" customFormat="1">
       <c r="E238" s="7" t="s">
         <v>1962</v>
       </c>
@@ -33355,7 +33156,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="239" s="7" customFormat="1" spans="5:10">
+    <row r="239" spans="5:10" s="7" customFormat="1">
       <c r="E239" s="7" t="s">
         <v>1963</v>
       </c>
@@ -33377,7 +33178,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="240" s="7" customFormat="1" spans="5:10">
+    <row r="240" spans="5:10" s="7" customFormat="1">
       <c r="E240" s="7" t="s">
         <v>1964</v>
       </c>
@@ -33399,7 +33200,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="241" s="7" customFormat="1" spans="5:10">
+    <row r="241" spans="5:10" s="7" customFormat="1">
       <c r="E241" s="7" t="s">
         <v>1965</v>
       </c>
@@ -33421,7 +33222,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="242" s="7" customFormat="1" spans="5:10">
+    <row r="242" spans="5:10" s="7" customFormat="1">
       <c r="E242" s="7" t="s">
         <v>1966</v>
       </c>
@@ -33443,7 +33244,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="243" s="7" customFormat="1" spans="5:10">
+    <row r="243" spans="5:10" s="7" customFormat="1">
       <c r="E243" s="7" t="s">
         <v>1967</v>
       </c>
@@ -33465,7 +33266,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="244" s="7" customFormat="1" spans="5:10">
+    <row r="244" spans="5:10" s="7" customFormat="1">
       <c r="E244" s="7" t="s">
         <v>1968</v>
       </c>
@@ -33487,7 +33288,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="245" s="7" customFormat="1" spans="5:10">
+    <row r="245" spans="5:10" s="7" customFormat="1">
       <c r="E245" s="7" t="s">
         <v>1969</v>
       </c>
@@ -33509,29 +33310,72 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="246" s="7" customFormat="1"/>
+    <row r="246" spans="5:10" s="7" customFormat="1">
+      <c r="E246" s="59" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F246" s="7" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G246" s="7" t="str">
+        <f>菜单SAAS版!$E$227</f>
+        <v>iam_menu-244</v>
+      </c>
+      <c r="H246" s="59" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I246" s="59" t="s">
+        <v>2026</v>
+      </c>
+      <c r="J246" s="59" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="247" spans="5:10">
+      <c r="E247" s="59" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F247" s="7" t="str">
+        <f>E14</f>
+        <v>iam_role-14</v>
+      </c>
+      <c r="G247" s="7" t="str">
+        <f>菜单SAAS版!$E$229</f>
+        <v>iam_menu-246</v>
+      </c>
+      <c r="H247" s="59" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I247" s="59" t="s">
+        <v>2026</v>
+      </c>
+      <c r="J247" s="59" t="s">
+        <v>2027</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="D24" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="23.4148148148148" customWidth="1"/>
-    <col min="6" max="6" width="30.162962962963" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -33545,7 +33389,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -33603,7 +33447,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1970</v>
       </c>
@@ -33635,7 +33479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1651</v>
       </c>
@@ -33667,7 +33511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1653</v>
       </c>
@@ -33699,7 +33543,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1979</v>
       </c>
@@ -33731,7 +33575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1983</v>
       </c>
@@ -33763,7 +33607,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1986</v>
       </c>
@@ -33795,7 +33639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1990</v>
       </c>
@@ -33827,7 +33671,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1994</v>
       </c>
@@ -33859,7 +33703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1998</v>
       </c>
@@ -33891,7 +33735,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>2001</v>
       </c>
@@ -33923,7 +33767,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" s="5" t="s">
         <v>1646</v>
       </c>
@@ -33955,7 +33799,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" s="5" t="s">
         <v>2007</v>
       </c>
@@ -33984,10 +33828,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="1:15">
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -34016,7 +33860,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1666</v>
       </c>
@@ -34035,7 +33879,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1666</v>
       </c>
@@ -34054,7 +33898,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1666</v>
       </c>
@@ -34073,7 +33917,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1666</v>
       </c>
@@ -34092,7 +33936,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1666</v>
       </c>
@@ -34111,7 +33955,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1666</v>
       </c>
@@ -34130,7 +33974,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1666</v>
       </c>
@@ -34149,7 +33993,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1666</v>
       </c>
@@ -34168,7 +34012,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1666</v>
       </c>
@@ -34187,7 +34031,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1666</v>
       </c>
@@ -34206,7 +34050,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1666</v>
       </c>
@@ -34283,8 +34127,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19812" windowHeight="7860" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +25,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5799" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5805" uniqueCount="2012">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +69,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +88,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +107,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +126,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +158,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +177,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +196,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +218,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +260,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +281,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +302,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +314,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +333,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +383,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +402,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +421,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +538,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +557,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +576,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +596,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +635,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +654,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +685,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +728,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +747,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +766,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +785,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +804,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +816,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +846,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +867,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +897,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +940,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +959,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +979,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +999,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1019,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1040,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1060,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1095,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1116,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1128,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1147,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1168,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1187,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1200,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1238,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1272,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1291,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1329,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1348,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1374,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1393,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1409,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1419,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1438,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1453,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1472,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1491,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1511,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1614,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1625,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1635,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1647,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1685,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1743,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1820,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1839,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1859,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1871,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1882,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1892,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1904,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1923,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1935,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1954,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1974,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6300,6 +6411,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>iam_menu_permission-30</t>
@@ -6309,6 +6421,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -7784,18 +7897,33 @@
   <si>
     <t>平台管理员标签</t>
   </si>
+  <si>
+    <t>choerodon.code.project.infra</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>iam_menu-24</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="50">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7806,25 +7934,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
@@ -7852,7 +7980,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1" tint="0.0499893185216834"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -7884,19 +8012,19 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1" tint="0.0499893185216834"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7936,157 +8064,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -8115,12 +8092,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8129,8 +8108,58 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8161,194 +8190,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -8449,254 +8292,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8747,20 +8348,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8794,9 +8383,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8804,59 +8390,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -8929,6 +8487,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9186,275 +8747,272 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="27" customWidth="1"/>
-    <col min="2" max="2" width="10.2518518518519" style="28" customWidth="1"/>
-    <col min="3" max="3" width="28.162962962963" customWidth="1"/>
-    <col min="4" max="4" width="35.2518518518519" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="28" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.162962962963" customWidth="1"/>
-    <col min="14" max="1025" width="10.2518518518519" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="33" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="35" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="29"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="39" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="42" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="45" t="s">
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" ht="52.2">
+      <c r="C9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="43" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="48" t="s">
+    <row r="10" spans="1:8" ht="52.2">
+      <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="42" t="s">
+    <row r="11" spans="1:8" ht="69.599999999999994">
+      <c r="C11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="42" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="50" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="C15" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="54" t="s">
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="54" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="54" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="54" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="49" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="55" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="43" t="s">
+      <c r="E25" s="53"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="56" t="s">
+      <c r="E26" s="53"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
+      <c r="C27" s="51" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="34" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Y225"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G82" workbookViewId="0">
-      <selection activeCell="F96" sqref="$A96:$XFD96"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="21.7481481481481" style="18" customWidth="1"/>
-    <col min="6" max="6" width="58.7481481481481" customWidth="1"/>
-    <col min="7" max="7" width="28.162962962963" customWidth="1"/>
-    <col min="10" max="10" width="26.7481481481481" customWidth="1"/>
-    <col min="11" max="11" width="27.4148148148148" customWidth="1"/>
-    <col min="15" max="15" width="25.2518518518519" customWidth="1"/>
-    <col min="16" max="16" width="28.4148148148148" customWidth="1"/>
-    <col min="19" max="19" width="135.251851851852" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="18" customWidth="1"/>
+    <col min="6" max="6" width="58.75" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" customWidth="1"/>
+    <col min="10" max="10" width="26.75" customWidth="1"/>
+    <col min="11" max="11" width="27.4140625" customWidth="1"/>
+    <col min="15" max="15" width="25.25" customWidth="1"/>
+    <col min="16" max="16" width="28.4140625" customWidth="1"/>
+    <col min="19" max="19" width="135.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9468,7 +9026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="19" t="s">
         <v>47</v>
       </c>
@@ -9556,7 +9114,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" s="20" t="s">
         <v>75</v>
       </c>
@@ -9603,7 +9161,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" s="20" t="s">
         <v>84</v>
       </c>
@@ -9653,7 +9211,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" s="21" t="s">
         <v>88</v>
       </c>
@@ -9710,7 +9268,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" s="18" t="s">
         <v>97</v>
       </c>
@@ -9761,7 +9319,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" s="18" t="s">
         <v>104</v>
       </c>
@@ -9809,7 +9367,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" s="18" t="s">
         <v>108</v>
       </c>
@@ -9860,7 +9418,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" s="21" t="s">
         <v>112</v>
       </c>
@@ -9917,7 +9475,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" s="18" t="s">
         <v>119</v>
       </c>
@@ -9965,7 +9523,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" s="18" t="s">
         <v>123</v>
       </c>
@@ -20215,7 +19773,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="218" s="7" customFormat="1" spans="5:24">
+    <row r="218" spans="5:24" s="7" customFormat="1">
       <c r="E218" s="25" t="s">
         <v>985</v>
       </c>
@@ -20272,7 +19830,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="219" s="7" customFormat="1" spans="5:24">
+    <row r="219" spans="5:24" s="7" customFormat="1">
       <c r="E219" s="25" t="s">
         <v>990</v>
       </c>
@@ -20320,7 +19878,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="220" s="7" customFormat="1" spans="5:24">
+    <row r="220" spans="5:24" s="7" customFormat="1">
       <c r="E220" s="25" t="s">
         <v>993</v>
       </c>
@@ -20368,7 +19926,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="221" s="7" customFormat="1" spans="5:24">
+    <row r="221" spans="5:24" s="7" customFormat="1">
       <c r="E221" s="25" t="s">
         <v>996</v>
       </c>
@@ -20416,7 +19974,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="222" s="7" customFormat="1" spans="5:24">
+    <row r="222" spans="5:24" s="7" customFormat="1">
       <c r="E222" s="25" t="s">
         <v>999</v>
       </c>
@@ -20464,7 +20022,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="223" s="7" customFormat="1" spans="5:24">
+    <row r="223" spans="5:24" s="7" customFormat="1">
       <c r="E223" s="25" t="s">
         <v>1002</v>
       </c>
@@ -20595,29 +20153,63 @@
         <v>0</v>
       </c>
     </row>
+    <row r="226" spans="5:18">
+      <c r="E226" s="58" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F226" s="57" t="s">
+        <v>2010</v>
+      </c>
+      <c r="G226" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H226" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J226" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M226" s="7">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H356"/>
   <sheetViews>
     <sheetView topLeftCell="C343" workbookViewId="0">
       <selection activeCell="G358" sqref="G358:G359"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="35.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="17.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="64.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="35.75" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="64.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -20631,7 +20223,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -20642,7 +20234,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -20665,7 +20257,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:8">
       <c r="E8" t="s">
         <v>1016</v>
       </c>
@@ -20677,7 +20269,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:8">
       <c r="E9" t="s">
         <v>1018</v>
       </c>
@@ -20689,7 +20281,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:8">
       <c r="E10" t="s">
         <v>1020</v>
       </c>
@@ -20701,7 +20293,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:8">
       <c r="E11" t="s">
         <v>1022</v>
       </c>
@@ -20713,7 +20305,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" spans="1:8">
       <c r="E12" s="9" t="s">
         <v>1024</v>
       </c>
@@ -20726,7 +20318,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" spans="1:8">
       <c r="E13" s="9" t="s">
         <v>1026</v>
       </c>
@@ -20739,7 +20331,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:8">
       <c r="E14" t="s">
         <v>1028</v>
       </c>
@@ -20751,7 +20343,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:8">
       <c r="E15" t="s">
         <v>1030</v>
       </c>
@@ -20763,7 +20355,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:8">
       <c r="E16" t="s">
         <v>1032</v>
       </c>
@@ -24315,7 +23907,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="312" s="8" customFormat="1" spans="5:7">
+    <row r="312" spans="5:7" s="8" customFormat="1">
       <c r="E312" s="8" t="s">
         <v>1563</v>
       </c>
@@ -24327,7 +23919,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="313" s="8" customFormat="1" spans="5:7">
+    <row r="313" spans="5:7" s="8" customFormat="1">
       <c r="E313" s="8" t="s">
         <v>1565</v>
       </c>
@@ -24339,7 +23931,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="314" s="8" customFormat="1" spans="5:7">
+    <row r="314" spans="5:7" s="8" customFormat="1">
       <c r="E314" s="8" t="s">
         <v>1566</v>
       </c>
@@ -24567,7 +24159,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="333" s="7" customFormat="1" spans="5:7">
+    <row r="333" spans="5:7" s="7" customFormat="1">
       <c r="E333" s="7" t="s">
         <v>1593</v>
       </c>
@@ -24579,7 +24171,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="334" s="7" customFormat="1" spans="5:7">
+    <row r="334" spans="5:7" s="7" customFormat="1">
       <c r="E334" s="7" t="s">
         <v>1594</v>
       </c>
@@ -24591,7 +24183,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="335" s="7" customFormat="1" spans="5:7">
+    <row r="335" spans="5:7" s="7" customFormat="1">
       <c r="E335" s="7" t="s">
         <v>1596</v>
       </c>
@@ -24603,7 +24195,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="336" s="7" customFormat="1" spans="5:7">
+    <row r="336" spans="5:7" s="7" customFormat="1">
       <c r="E336" s="7" t="s">
         <v>1598</v>
       </c>
@@ -24615,7 +24207,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="337" s="7" customFormat="1" spans="5:7">
+    <row r="337" spans="5:7" s="7" customFormat="1">
       <c r="E337" s="7" t="s">
         <v>1600</v>
       </c>
@@ -24675,7 +24267,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="342" s="9" customFormat="1" spans="5:7">
+    <row r="342" spans="5:7" s="9" customFormat="1">
       <c r="E342" s="9" t="s">
         <v>1610</v>
       </c>
@@ -24687,7 +24279,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="343" s="10" customFormat="1" spans="5:7">
+    <row r="343" spans="5:7" s="10" customFormat="1">
       <c r="E343" s="10" t="s">
         <v>1611</v>
       </c>
@@ -24711,7 +24303,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="345" s="9" customFormat="1" spans="5:7">
+    <row r="345" spans="5:7" s="9" customFormat="1">
       <c r="E345" s="9" t="s">
         <v>1615</v>
       </c>
@@ -24723,7 +24315,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="346" s="9" customFormat="1" spans="5:7">
+    <row r="346" spans="5:7" s="9" customFormat="1">
       <c r="E346" s="9" t="s">
         <v>1617</v>
       </c>
@@ -24735,7 +24327,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="347" s="9" customFormat="1" spans="5:7">
+    <row r="347" spans="5:7" s="9" customFormat="1">
       <c r="E347" s="9" t="s">
         <v>1619</v>
       </c>
@@ -24747,7 +24339,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="348" s="9" customFormat="1" spans="5:7">
+    <row r="348" spans="5:7" s="9" customFormat="1">
       <c r="E348" s="9" t="s">
         <v>1621</v>
       </c>
@@ -24856,29 +24448,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O160"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A31" sqref="$A31:$XFD31"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="19.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="28.7481481481481" customWidth="1"/>
-    <col min="7" max="7" width="14.2518518518519" customWidth="1"/>
-    <col min="8" max="8" width="14.162962962963" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -24892,7 +24483,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -24950,7 +24541,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1646</v>
       </c>
@@ -24982,7 +24573,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1651</v>
       </c>
@@ -25008,7 +24599,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1653</v>
       </c>
@@ -25040,7 +24631,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1657</v>
       </c>
@@ -25066,7 +24657,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -25095,7 +24686,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="14" spans="5:9">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1666</v>
       </c>
@@ -25114,7 +24705,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="15" spans="5:9">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1666</v>
       </c>
@@ -25133,7 +24724,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="16" spans="5:9">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1666</v>
       </c>
@@ -27889,28 +27480,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y246"/>
   <sheetViews>
     <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A246" sqref="$A246:$XFD246"/>
+      <selection activeCell="A246" sqref="A246:XFD246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="24.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="21.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="19.7481481481481" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -27924,7 +27514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -28012,7 +27602,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1685</v>
       </c>
@@ -28071,7 +27661,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1690</v>
       </c>
@@ -28130,7 +27720,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1695</v>
       </c>
@@ -28193,7 +27783,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1702</v>
       </c>
@@ -28256,7 +27846,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1710</v>
       </c>
@@ -28319,7 +27909,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1718</v>
       </c>
@@ -28382,7 +27972,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" s="6" t="s">
         <v>1726</v>
       </c>
@@ -28439,7 +28029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -33289,7 +32879,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="236" s="7" customFormat="1" spans="5:10">
+    <row r="236" spans="5:10" s="7" customFormat="1">
       <c r="E236" s="7" t="s">
         <v>1960</v>
       </c>
@@ -33311,7 +32901,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="237" s="7" customFormat="1" spans="5:10">
+    <row r="237" spans="5:10" s="7" customFormat="1">
       <c r="E237" s="7" t="s">
         <v>1961</v>
       </c>
@@ -33333,7 +32923,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="238" s="7" customFormat="1" spans="5:10">
+    <row r="238" spans="5:10" s="7" customFormat="1">
       <c r="E238" s="7" t="s">
         <v>1962</v>
       </c>
@@ -33355,7 +32945,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="239" s="7" customFormat="1" spans="5:10">
+    <row r="239" spans="5:10" s="7" customFormat="1">
       <c r="E239" s="7" t="s">
         <v>1963</v>
       </c>
@@ -33377,7 +32967,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="240" s="7" customFormat="1" spans="5:10">
+    <row r="240" spans="5:10" s="7" customFormat="1">
       <c r="E240" s="7" t="s">
         <v>1964</v>
       </c>
@@ -33399,7 +32989,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="241" s="7" customFormat="1" spans="5:10">
+    <row r="241" spans="5:10" s="7" customFormat="1">
       <c r="E241" s="7" t="s">
         <v>1965</v>
       </c>
@@ -33421,7 +33011,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="242" s="7" customFormat="1" spans="5:10">
+    <row r="242" spans="5:10" s="7" customFormat="1">
       <c r="E242" s="7" t="s">
         <v>1966</v>
       </c>
@@ -33443,7 +33033,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="243" s="7" customFormat="1" spans="5:10">
+    <row r="243" spans="5:10" s="7" customFormat="1">
       <c r="E243" s="7" t="s">
         <v>1967</v>
       </c>
@@ -33465,7 +33055,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="244" s="7" customFormat="1" spans="5:10">
+    <row r="244" spans="5:10" s="7" customFormat="1">
       <c r="E244" s="7" t="s">
         <v>1968</v>
       </c>
@@ -33487,7 +33077,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="245" s="7" customFormat="1" spans="5:10">
+    <row r="245" spans="5:10" s="7" customFormat="1">
       <c r="E245" s="7" t="s">
         <v>1969</v>
       </c>
@@ -33509,29 +33099,28 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="246" s="7" customFormat="1"/>
+    <row r="246" spans="5:10" s="7" customFormat="1"/>
   </sheetData>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="D24" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="23.4148148148148" customWidth="1"/>
-    <col min="6" max="6" width="30.162962962963" customWidth="1"/>
+    <col min="5" max="5" width="23.4140625" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -33545,7 +33134,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -33603,7 +33192,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1970</v>
       </c>
@@ -33635,7 +33224,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1651</v>
       </c>
@@ -33667,7 +33256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1653</v>
       </c>
@@ -33699,7 +33288,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1979</v>
       </c>
@@ -33731,7 +33320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1983</v>
       </c>
@@ -33763,7 +33352,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1986</v>
       </c>
@@ -33795,7 +33384,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1990</v>
       </c>
@@ -33827,7 +33416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1994</v>
       </c>
@@ -33859,7 +33448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1998</v>
       </c>
@@ -33891,7 +33480,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>2001</v>
       </c>
@@ -33923,7 +33512,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" s="5" t="s">
         <v>1646</v>
       </c>
@@ -33955,7 +33544,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" s="5" t="s">
         <v>2007</v>
       </c>
@@ -33984,10 +33573,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="1:15">
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -34016,7 +33605,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1666</v>
       </c>
@@ -34035,7 +33624,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1666</v>
       </c>
@@ -34054,7 +33643,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1666</v>
       </c>
@@ -34073,7 +33662,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1666</v>
       </c>
@@ -34092,7 +33681,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1666</v>
       </c>
@@ -34111,7 +33700,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1666</v>
       </c>
@@ -34130,7 +33719,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1666</v>
       </c>
@@ -34149,7 +33738,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1666</v>
       </c>
@@ -34168,7 +33757,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1666</v>
       </c>
@@ -34187,7 +33776,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1666</v>
       </c>
@@ -34206,7 +33795,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1666</v>
       </c>
@@ -34283,8 +33872,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5799" uniqueCount="2010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5805" uniqueCount="2012">
   <si>
     <r>
       <rPr>
@@ -47,6 +47,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -78,6 +79,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -96,6 +98,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -114,6 +117,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -164,6 +168,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -182,6 +187,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -200,6 +206,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -222,6 +229,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -242,6 +250,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -263,6 +272,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -283,6 +293,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -313,6 +324,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -343,6 +355,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -361,6 +374,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -379,6 +393,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -397,6 +412,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -415,6 +431,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -443,6 +460,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -461,6 +479,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -479,6 +498,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -497,6 +517,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -527,6 +548,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -545,6 +567,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -563,6 +586,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -582,6 +606,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -600,6 +625,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -619,6 +645,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -649,6 +676,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -667,6 +695,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -690,6 +719,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -708,6 +738,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -726,6 +757,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -744,6 +776,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -762,6 +795,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -792,6 +826,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -822,6 +857,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -852,6 +888,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -870,6 +907,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -893,6 +931,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -911,6 +950,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -929,6 +969,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -948,6 +989,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -967,6 +1009,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -986,6 +1029,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1006,6 +1050,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1025,6 +1070,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1040,6 +1086,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1060,6 +1107,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1090,6 +1138,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1108,6 +1157,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1128,6 +1178,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1159,6 +1210,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1177,6 +1229,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1195,6 +1248,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1228,6 +1282,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1246,6 +1301,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1264,6 +1320,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1282,6 +1339,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1326,6 +1384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1370,6 +1429,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1403,6 +1463,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1421,6 +1482,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1439,6 +1501,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1458,6 +1521,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1481,6 +1545,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1499,6 +1564,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1517,6 +1583,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1536,6 +1603,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1589,6 +1657,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1607,6 +1676,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1625,6 +1695,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1644,6 +1715,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1662,6 +1734,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1680,6 +1753,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1698,6 +1772,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1717,6 +1792,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1735,6 +1811,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1753,6 +1830,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1771,6 +1849,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1835,6 +1914,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1865,6 +1945,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1883,6 +1964,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -7815,12 +7897,19 @@
   <si>
     <t>平台管理员标签</t>
   </si>
+  <si>
+    <t>choerodon.code.project.infra</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_menu-243</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7941,6 +8030,7 @@
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7953,11 +8043,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7976,6 +8068,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7995,6 +8088,7 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8014,9 +8108,17 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -8160,7 +8262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8252,11 +8354,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8267,6 +8369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8635,11 +8738,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="28"/>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -8648,10 +8751,10 @@
       <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="53" t="s">
         <v>2</v>
       </c>
@@ -8815,19 +8918,19 @@
       <c r="C25" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="52"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="52"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="50" t="s">
@@ -8852,10 +8955,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y225"/>
+  <dimension ref="A1:Y226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F239" sqref="F239"/>
+      <selection activeCell="I235" sqref="I235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -20010,6 +20113,41 @@
         <v>0</v>
       </c>
       <c r="R225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="5:18">
+      <c r="E226" s="25" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F226" s="56" t="s">
+        <v>2010</v>
+      </c>
+      <c r="G226" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H226" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J226" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M226" s="7">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5820" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5852" uniqueCount="2026">
   <si>
     <r>
       <rPr>
@@ -7689,6 +7689,30 @@
     <t>iam_role_permission-250</t>
   </si>
   <si>
+    <t>iam_role_permission-251</t>
+  </si>
+  <si>
+    <t>iam_role_permission-252</t>
+  </si>
+  <si>
+    <t>iam_role_permission-253</t>
+  </si>
+  <si>
+    <t>iam_role_permission-254</t>
+  </si>
+  <si>
+    <t>iam_role_permission-255</t>
+  </si>
+  <si>
+    <t>iam_role_permission-256</t>
+  </si>
+  <si>
+    <t>iam_role_permission-257</t>
+  </si>
+  <si>
+    <t>iam_role_permission-258</t>
+  </si>
+  <si>
     <t>iam_label-10</t>
   </si>
   <si>
@@ -7814,12 +7838,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="49">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7923,18 +7947,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7967,9 +7979,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7980,15 +7992,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8002,8 +8023,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8012,6 +8049,27 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8027,16 +8085,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8047,49 +8106,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8104,29 +8123,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8150,12 +8150,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -8211,7 +8205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8229,7 +8229,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8241,7 +8265,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8253,19 +8325,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8277,49 +8361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8337,55 +8379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8498,17 +8492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8539,11 +8527,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8551,17 +8560,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8581,170 +8581,164 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8753,7 +8747,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8764,7 +8757,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -8789,7 +8781,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8801,40 +8792,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8847,7 +8838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9248,155 +9239,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="29" customWidth="1"/>
-    <col min="2" max="2" width="10.2518518518519" style="30" customWidth="1"/>
-    <col min="3" max="3" width="28.162962962963" customWidth="1"/>
-    <col min="4" max="4" width="35.2518518518519" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="15.5857142857143" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="27" customWidth="1"/>
+    <col min="3" max="3" width="28.1642857142857" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.5857142857143" customWidth="1"/>
+    <col min="6" max="6" width="23.4142857142857" customWidth="1"/>
+    <col min="7" max="7" width="21.5857142857143" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5857142857143" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.162962962963" customWidth="1"/>
-    <col min="14" max="1025" width="10.2518518518519" customWidth="1"/>
+    <col min="11" max="11" width="19.1642857142857" customWidth="1"/>
+    <col min="12" max="12" width="18.5857142857143" customWidth="1"/>
+    <col min="13" max="13" width="13.1642857142857" customWidth="1"/>
+    <col min="14" max="1025" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="31"/>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="34"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="31"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="37" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="28"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="41" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="46"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="47" t="s">
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" ht="49.5" spans="3:6">
+      <c r="C9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="50" t="s">
+    <row r="10" ht="49.5" spans="3:5">
+      <c r="C10" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="44" t="s">
+    <row r="11" ht="66" spans="3:5">
+      <c r="C11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="46" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="48" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="52" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" ht="33" spans="3:5">
+      <c r="C15" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="51" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9406,38 +9397,38 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="56" t="s">
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="56" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="56" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="53" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="56" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="53" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -9445,25 +9436,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="58" t="s">
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" ht="49.5" spans="3:3">
+      <c r="C27" s="55" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9488,22 +9479,22 @@
   <sheetPr/>
   <dimension ref="A1:Y227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="F234" sqref="F234"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="21.7481481481481" style="20" customWidth="1"/>
-    <col min="6" max="6" width="58.7481481481481" customWidth="1"/>
-    <col min="7" max="7" width="28.162962962963" customWidth="1"/>
-    <col min="9" max="9" width="16.162962962963" customWidth="1"/>
-    <col min="10" max="10" width="26.7481481481481" customWidth="1"/>
-    <col min="11" max="11" width="27.4148148148148" customWidth="1"/>
-    <col min="15" max="15" width="25.2518518518519" customWidth="1"/>
-    <col min="16" max="16" width="28.4148148148148" customWidth="1"/>
-    <col min="19" max="19" width="115.162962962963" customWidth="1"/>
-    <col min="20" max="20" width="24.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="18" customWidth="1"/>
+    <col min="6" max="6" width="58.75" customWidth="1"/>
+    <col min="7" max="7" width="28.1642857142857" customWidth="1"/>
+    <col min="9" max="9" width="16.1642857142857" customWidth="1"/>
+    <col min="10" max="10" width="26.75" customWidth="1"/>
+    <col min="11" max="11" width="27.4142857142857" customWidth="1"/>
+    <col min="15" max="15" width="25.25" customWidth="1"/>
+    <col min="16" max="16" width="28.4142857142857" customWidth="1"/>
+    <col min="19" max="19" width="115.164285714286" customWidth="1"/>
+    <col min="20" max="20" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9521,7 +9512,7 @@
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -9544,7 +9535,7 @@
       <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -9609,7 +9600,7 @@
       </c>
     </row>
     <row r="8" spans="5:24">
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>75</v>
       </c>
       <c r="F8" t="s">
@@ -9656,7 +9647,7 @@
       </c>
     </row>
     <row r="9" spans="5:24">
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="20" t="s">
         <v>84</v>
       </c>
       <c r="F9" t="s">
@@ -9706,7 +9697,7 @@
       </c>
     </row>
     <row r="10" spans="5:24">
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="21" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
@@ -9763,7 +9754,7 @@
       </c>
     </row>
     <row r="11" spans="5:24">
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="18" t="s">
         <v>97</v>
       </c>
       <c r="F11" t="s">
@@ -9814,7 +9805,7 @@
       </c>
     </row>
     <row r="12" spans="5:24">
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F12" t="s">
@@ -9862,7 +9853,7 @@
       </c>
     </row>
     <row r="13" spans="5:24">
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>108</v>
       </c>
       <c r="F13" t="s">
@@ -9913,7 +9904,7 @@
       </c>
     </row>
     <row r="14" spans="5:24">
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="21" t="s">
         <v>112</v>
       </c>
       <c r="F14" t="s">
@@ -9970,7 +9961,7 @@
       </c>
     </row>
     <row r="15" spans="5:24">
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>119</v>
       </c>
       <c r="F15" t="s">
@@ -10018,7 +10009,7 @@
       </c>
     </row>
     <row r="16" spans="5:24">
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F16" t="s">
@@ -10075,7 +10066,7 @@
       </c>
     </row>
     <row r="17" spans="5:24">
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>131</v>
       </c>
       <c r="F17" t="s">
@@ -10126,7 +10117,7 @@
       </c>
     </row>
     <row r="18" spans="5:24">
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="18" t="s">
         <v>135</v>
       </c>
       <c r="F18" t="s">
@@ -10177,7 +10168,7 @@
       </c>
     </row>
     <row r="19" spans="5:24">
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="18" t="s">
         <v>140</v>
       </c>
       <c r="F19" t="s">
@@ -10228,7 +10219,7 @@
       </c>
     </row>
     <row r="20" spans="5:24">
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="18" t="s">
         <v>145</v>
       </c>
       <c r="F20" t="s">
@@ -10279,7 +10270,7 @@
       </c>
     </row>
     <row r="21" spans="5:24">
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>150</v>
       </c>
       <c r="F21" t="s">
@@ -10330,7 +10321,7 @@
       </c>
     </row>
     <row r="22" spans="5:24">
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="18" t="s">
         <v>155</v>
       </c>
       <c r="F22" t="s">
@@ -10381,7 +10372,7 @@
       </c>
     </row>
     <row r="23" spans="5:24">
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="21" t="s">
         <v>159</v>
       </c>
       <c r="F23" t="s">
@@ -10438,7 +10429,7 @@
       </c>
     </row>
     <row r="24" spans="5:24">
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="18" t="s">
         <v>166</v>
       </c>
       <c r="F24" t="s">
@@ -10486,7 +10477,7 @@
       </c>
     </row>
     <row r="25" spans="5:24">
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="21" t="s">
         <v>170</v>
       </c>
       <c r="F25" t="s">
@@ -10543,7 +10534,7 @@
       </c>
     </row>
     <row r="26" spans="5:24">
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="18" t="s">
         <v>177</v>
       </c>
       <c r="F26" t="s">
@@ -10591,7 +10582,7 @@
       </c>
     </row>
     <row r="27" spans="5:24">
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="18" t="s">
         <v>181</v>
       </c>
       <c r="F27" t="s">
@@ -10639,7 +10630,7 @@
       </c>
     </row>
     <row r="28" spans="5:24">
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="18" t="s">
         <v>185</v>
       </c>
       <c r="F28" t="s">
@@ -10687,7 +10678,7 @@
       </c>
     </row>
     <row r="29" spans="5:24">
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="18" t="s">
         <v>189</v>
       </c>
       <c r="F29" t="s">
@@ -10735,7 +10726,7 @@
       </c>
     </row>
     <row r="30" spans="5:24">
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F30" t="s">
@@ -10783,7 +10774,7 @@
       </c>
     </row>
     <row r="31" spans="5:24">
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="18" t="s">
         <v>197</v>
       </c>
       <c r="F31" t="s">
@@ -10831,7 +10822,7 @@
       </c>
     </row>
     <row r="32" spans="5:24">
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="18" t="s">
         <v>201</v>
       </c>
       <c r="F32" t="s">
@@ -10879,7 +10870,7 @@
       </c>
     </row>
     <row r="33" spans="5:24">
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="21" t="s">
         <v>205</v>
       </c>
       <c r="F33" t="s">
@@ -10936,7 +10927,7 @@
       </c>
     </row>
     <row r="34" spans="5:24">
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="18" t="s">
         <v>212</v>
       </c>
       <c r="F34" t="s">
@@ -10987,7 +10978,7 @@
       </c>
     </row>
     <row r="35" spans="5:24">
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="18" t="s">
         <v>216</v>
       </c>
       <c r="F35" t="s">
@@ -11038,7 +11029,7 @@
       </c>
     </row>
     <row r="36" spans="5:24">
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="18" t="s">
         <v>219</v>
       </c>
       <c r="F36" t="s">
@@ -11089,7 +11080,7 @@
       </c>
     </row>
     <row r="37" spans="5:24">
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="18" t="s">
         <v>223</v>
       </c>
       <c r="F37" t="s">
@@ -11137,7 +11128,7 @@
       </c>
     </row>
     <row r="38" spans="5:24">
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="18" t="s">
         <v>227</v>
       </c>
       <c r="F38" t="s">
@@ -11188,7 +11179,7 @@
       </c>
     </row>
     <row r="39" spans="5:24">
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="18" t="s">
         <v>232</v>
       </c>
       <c r="F39" t="s">
@@ -11239,7 +11230,7 @@
       </c>
     </row>
     <row r="40" spans="5:24">
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="18" t="s">
         <v>237</v>
       </c>
       <c r="F40" t="s">
@@ -11290,7 +11281,7 @@
       </c>
     </row>
     <row r="41" spans="5:24">
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="18" t="s">
         <v>242</v>
       </c>
       <c r="F41" t="s">
@@ -11341,7 +11332,7 @@
       </c>
     </row>
     <row r="42" spans="5:24">
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="18" t="s">
         <v>246</v>
       </c>
       <c r="F42" t="s">
@@ -11392,7 +11383,7 @@
       </c>
     </row>
     <row r="43" spans="5:24">
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="18" t="s">
         <v>250</v>
       </c>
       <c r="F43" t="s">
@@ -11443,7 +11434,7 @@
       </c>
     </row>
     <row r="44" spans="5:24">
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="18" t="s">
         <v>254</v>
       </c>
       <c r="F44" t="s">
@@ -11494,7 +11485,7 @@
       </c>
     </row>
     <row r="45" spans="5:24">
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="18" t="s">
         <v>258</v>
       </c>
       <c r="F45" t="s">
@@ -11545,7 +11536,7 @@
       </c>
     </row>
     <row r="46" spans="5:24">
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="18" t="s">
         <v>263</v>
       </c>
       <c r="F46" t="s">
@@ -11596,7 +11587,7 @@
       </c>
     </row>
     <row r="47" spans="5:24">
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="20" t="s">
         <v>268</v>
       </c>
       <c r="F47" t="s">
@@ -11646,7 +11637,7 @@
       </c>
     </row>
     <row r="48" spans="5:24">
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="21" t="s">
         <v>272</v>
       </c>
       <c r="F48" t="s">
@@ -11703,7 +11694,7 @@
       </c>
     </row>
     <row r="49" spans="5:24">
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="18" t="s">
         <v>279</v>
       </c>
       <c r="F49" t="s">
@@ -11754,7 +11745,7 @@
       </c>
     </row>
     <row r="50" spans="5:24">
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="18" t="s">
         <v>283</v>
       </c>
       <c r="F50" t="s">
@@ -11802,7 +11793,7 @@
       </c>
     </row>
     <row r="51" spans="5:24">
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="18" t="s">
         <v>287</v>
       </c>
       <c r="F51" t="s">
@@ -11853,7 +11844,7 @@
       </c>
     </row>
     <row r="52" spans="5:24">
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="18" t="s">
         <v>291</v>
       </c>
       <c r="F52" t="s">
@@ -11904,7 +11895,7 @@
       </c>
     </row>
     <row r="53" spans="5:24">
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="18" t="s">
         <v>295</v>
       </c>
       <c r="F53" t="s">
@@ -11955,7 +11946,7 @@
       </c>
     </row>
     <row r="54" spans="5:24">
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="21" t="s">
         <v>299</v>
       </c>
       <c r="F54" t="s">
@@ -12012,7 +12003,7 @@
       </c>
     </row>
     <row r="55" spans="5:24">
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="18" t="s">
         <v>306</v>
       </c>
       <c r="F55" t="s">
@@ -12060,7 +12051,7 @@
       </c>
     </row>
     <row r="56" spans="5:24">
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="18" t="s">
         <v>310</v>
       </c>
       <c r="F56" t="s">
@@ -12111,7 +12102,7 @@
       </c>
     </row>
     <row r="57" spans="5:24">
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="18" t="s">
         <v>315</v>
       </c>
       <c r="F57" t="s">
@@ -12162,7 +12153,7 @@
       </c>
     </row>
     <row r="58" spans="5:24">
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="18" t="s">
         <v>319</v>
       </c>
       <c r="F58" t="s">
@@ -12213,7 +12204,7 @@
       </c>
     </row>
     <row r="59" spans="5:24">
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="18" t="s">
         <v>323</v>
       </c>
       <c r="F59" t="s">
@@ -12264,7 +12255,7 @@
       </c>
     </row>
     <row r="60" spans="5:24">
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="18" t="s">
         <v>327</v>
       </c>
       <c r="F60" t="s">
@@ -12315,7 +12306,7 @@
       </c>
     </row>
     <row r="61" spans="5:24">
-      <c r="E61" s="20" t="s">
+      <c r="E61" s="18" t="s">
         <v>331</v>
       </c>
       <c r="F61" t="s">
@@ -12366,7 +12357,7 @@
       </c>
     </row>
     <row r="62" spans="5:24">
-      <c r="E62" s="20" t="s">
+      <c r="E62" s="18" t="s">
         <v>335</v>
       </c>
       <c r="F62" t="s">
@@ -12417,7 +12408,7 @@
       </c>
     </row>
     <row r="63" spans="5:24">
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="18" t="s">
         <v>339</v>
       </c>
       <c r="F63" t="s">
@@ -12468,7 +12459,7 @@
       </c>
     </row>
     <row r="64" spans="5:24">
-      <c r="E64" s="20" t="s">
+      <c r="E64" s="18" t="s">
         <v>343</v>
       </c>
       <c r="F64" t="s">
@@ -12519,7 +12510,7 @@
       </c>
     </row>
     <row r="65" spans="5:24">
-      <c r="E65" s="20" t="s">
+      <c r="E65" s="18" t="s">
         <v>347</v>
       </c>
       <c r="F65" t="s">
@@ -12570,7 +12561,7 @@
       </c>
     </row>
     <row r="66" spans="5:24">
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="18" t="s">
         <v>351</v>
       </c>
       <c r="F66" t="s">
@@ -12621,7 +12612,7 @@
       </c>
     </row>
     <row r="67" spans="5:24">
-      <c r="E67" s="23" t="s">
+      <c r="E67" s="21" t="s">
         <v>355</v>
       </c>
       <c r="F67" t="s">
@@ -12678,7 +12669,7 @@
       </c>
     </row>
     <row r="68" spans="5:24">
-      <c r="E68" s="20" t="s">
+      <c r="E68" s="18" t="s">
         <v>362</v>
       </c>
       <c r="F68" t="s">
@@ -12726,7 +12717,7 @@
       </c>
     </row>
     <row r="69" spans="5:24">
-      <c r="E69" s="20" t="s">
+      <c r="E69" s="18" t="s">
         <v>366</v>
       </c>
       <c r="F69" t="s">
@@ -12777,7 +12768,7 @@
       </c>
     </row>
     <row r="70" spans="5:24">
-      <c r="E70" s="20" t="s">
+      <c r="E70" s="18" t="s">
         <v>370</v>
       </c>
       <c r="F70" t="s">
@@ -12828,7 +12819,7 @@
       </c>
     </row>
     <row r="71" spans="5:24">
-      <c r="E71" s="23" t="s">
+      <c r="E71" s="21" t="s">
         <v>374</v>
       </c>
       <c r="F71" t="s">
@@ -12885,7 +12876,7 @@
       </c>
     </row>
     <row r="72" spans="5:24">
-      <c r="E72" s="20" t="s">
+      <c r="E72" s="18" t="s">
         <v>381</v>
       </c>
       <c r="F72" t="s">
@@ -12933,7 +12924,7 @@
       </c>
     </row>
     <row r="73" spans="5:24">
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="18" t="s">
         <v>385</v>
       </c>
       <c r="F73" t="s">
@@ -12981,7 +12972,7 @@
       </c>
     </row>
     <row r="74" spans="5:24">
-      <c r="E74" s="20" t="s">
+      <c r="E74" s="18" t="s">
         <v>389</v>
       </c>
       <c r="F74" t="s">
@@ -13029,7 +13020,7 @@
       </c>
     </row>
     <row r="75" spans="5:24">
-      <c r="E75" s="20" t="s">
+      <c r="E75" s="18" t="s">
         <v>393</v>
       </c>
       <c r="F75" t="s">
@@ -13077,7 +13068,7 @@
       </c>
     </row>
     <row r="76" spans="5:24">
-      <c r="E76" s="20" t="s">
+      <c r="E76" s="18" t="s">
         <v>397</v>
       </c>
       <c r="F76" t="s">
@@ -13125,7 +13116,7 @@
       </c>
     </row>
     <row r="77" spans="5:24">
-      <c r="E77" s="23" t="s">
+      <c r="E77" s="21" t="s">
         <v>401</v>
       </c>
       <c r="F77" t="s">
@@ -13179,7 +13170,7 @@
       </c>
     </row>
     <row r="78" spans="5:24">
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="18" t="s">
         <v>407</v>
       </c>
       <c r="F78" t="s">
@@ -13230,7 +13221,7 @@
       </c>
     </row>
     <row r="79" spans="5:24">
-      <c r="E79" s="20" t="s">
+      <c r="E79" s="18" t="s">
         <v>411</v>
       </c>
       <c r="F79" t="s">
@@ -13281,7 +13272,7 @@
       </c>
     </row>
     <row r="80" spans="5:24">
-      <c r="E80" s="20" t="s">
+      <c r="E80" s="18" t="s">
         <v>414</v>
       </c>
       <c r="F80" t="s">
@@ -13329,7 +13320,7 @@
       </c>
     </row>
     <row r="81" spans="5:24">
-      <c r="E81" s="22" t="s">
+      <c r="E81" s="20" t="s">
         <v>419</v>
       </c>
       <c r="F81" t="s">
@@ -13376,7 +13367,7 @@
       </c>
     </row>
     <row r="82" spans="5:24">
-      <c r="E82" s="23" t="s">
+      <c r="E82" s="21" t="s">
         <v>422</v>
       </c>
       <c r="F82" t="s">
@@ -13430,7 +13421,7 @@
       </c>
     </row>
     <row r="83" spans="5:24">
-      <c r="E83" s="20" t="s">
+      <c r="E83" s="18" t="s">
         <v>428</v>
       </c>
       <c r="F83" t="s">
@@ -13481,7 +13472,7 @@
       </c>
     </row>
     <row r="84" spans="5:24">
-      <c r="E84" s="23" t="s">
+      <c r="E84" s="21" t="s">
         <v>431</v>
       </c>
       <c r="F84" t="s">
@@ -13535,7 +13526,7 @@
       </c>
     </row>
     <row r="85" spans="5:24">
-      <c r="E85" s="20" t="s">
+      <c r="E85" s="18" t="s">
         <v>437</v>
       </c>
       <c r="F85" t="s">
@@ -13586,7 +13577,7 @@
       </c>
     </row>
     <row r="86" spans="5:24">
-      <c r="E86" s="20" t="s">
+      <c r="E86" s="18" t="s">
         <v>440</v>
       </c>
       <c r="F86" t="s">
@@ -13634,7 +13625,7 @@
       </c>
     </row>
     <row r="87" spans="5:24">
-      <c r="E87" s="23" t="s">
+      <c r="E87" s="21" t="s">
         <v>444</v>
       </c>
       <c r="F87" t="s">
@@ -13688,7 +13679,7 @@
       </c>
     </row>
     <row r="88" spans="5:24">
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="20" t="s">
         <v>450</v>
       </c>
       <c r="F88" t="s">
@@ -13738,7 +13729,7 @@
       </c>
     </row>
     <row r="89" spans="5:24">
-      <c r="E89" s="23" t="s">
+      <c r="E89" s="21" t="s">
         <v>454</v>
       </c>
       <c r="F89" t="s">
@@ -13763,7 +13754,7 @@
       <c r="L89" t="s">
         <v>92</v>
       </c>
-      <c r="M89" s="24">
+      <c r="M89" s="22">
         <v>20</v>
       </c>
       <c r="N89" t="s">
@@ -13795,7 +13786,7 @@
       </c>
     </row>
     <row r="90" spans="5:24">
-      <c r="E90" s="20" t="s">
+      <c r="E90" s="18" t="s">
         <v>461</v>
       </c>
       <c r="F90" t="s">
@@ -13846,7 +13837,7 @@
       </c>
     </row>
     <row r="91" spans="5:24">
-      <c r="E91" s="20" t="s">
+      <c r="E91" s="18" t="s">
         <v>466</v>
       </c>
       <c r="F91" t="s">
@@ -13894,7 +13885,7 @@
       </c>
     </row>
     <row r="92" spans="5:24">
-      <c r="E92" s="20" t="s">
+      <c r="E92" s="18" t="s">
         <v>470</v>
       </c>
       <c r="F92" t="s">
@@ -13945,7 +13936,7 @@
       </c>
     </row>
     <row r="93" spans="5:24">
-      <c r="E93" s="20" t="s">
+      <c r="E93" s="18" t="s">
         <v>474</v>
       </c>
       <c r="F93" t="s">
@@ -13996,7 +13987,7 @@
       </c>
     </row>
     <row r="94" spans="5:24">
-      <c r="E94" s="20" t="s">
+      <c r="E94" s="18" t="s">
         <v>478</v>
       </c>
       <c r="F94" t="s">
@@ -14047,7 +14038,7 @@
       </c>
     </row>
     <row r="95" spans="5:24">
-      <c r="E95" s="20" t="s">
+      <c r="E95" s="18" t="s">
         <v>482</v>
       </c>
       <c r="F95" t="s">
@@ -14098,7 +14089,7 @@
       </c>
     </row>
     <row r="96" spans="5:24">
-      <c r="E96" s="23" t="s">
+      <c r="E96" s="21" t="s">
         <v>486</v>
       </c>
       <c r="F96" t="s">
@@ -14155,7 +14146,7 @@
       </c>
     </row>
     <row r="97" spans="5:24">
-      <c r="E97" s="20" t="s">
+      <c r="E97" s="18" t="s">
         <v>493</v>
       </c>
       <c r="F97" t="s">
@@ -14203,7 +14194,7 @@
       </c>
     </row>
     <row r="98" spans="5:24">
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="18" t="s">
         <v>497</v>
       </c>
       <c r="F98" t="s">
@@ -14251,7 +14242,7 @@
       </c>
     </row>
     <row r="99" spans="5:24">
-      <c r="E99" s="20" t="s">
+      <c r="E99" s="18" t="s">
         <v>501</v>
       </c>
       <c r="F99" t="s">
@@ -14299,7 +14290,7 @@
       </c>
     </row>
     <row r="100" spans="5:24">
-      <c r="E100" s="20" t="s">
+      <c r="E100" s="18" t="s">
         <v>505</v>
       </c>
       <c r="F100" t="s">
@@ -14347,7 +14338,7 @@
       </c>
     </row>
     <row r="101" spans="5:24">
-      <c r="E101" s="20" t="s">
+      <c r="E101" s="18" t="s">
         <v>509</v>
       </c>
       <c r="F101" t="s">
@@ -14395,7 +14386,7 @@
       </c>
     </row>
     <row r="102" spans="5:24">
-      <c r="E102" s="20" t="s">
+      <c r="E102" s="18" t="s">
         <v>513</v>
       </c>
       <c r="F102" t="s">
@@ -14443,7 +14434,7 @@
       </c>
     </row>
     <row r="103" spans="5:24">
-      <c r="E103" s="20" t="s">
+      <c r="E103" s="18" t="s">
         <v>517</v>
       </c>
       <c r="F103" t="s">
@@ -14491,7 +14482,7 @@
       </c>
     </row>
     <row r="104" spans="5:24">
-      <c r="E104" s="20" t="s">
+      <c r="E104" s="18" t="s">
         <v>521</v>
       </c>
       <c r="F104" t="s">
@@ -14539,7 +14530,7 @@
       </c>
     </row>
     <row r="105" spans="5:24">
-      <c r="E105" s="20" t="s">
+      <c r="E105" s="18" t="s">
         <v>525</v>
       </c>
       <c r="F105" t="s">
@@ -14587,7 +14578,7 @@
       </c>
     </row>
     <row r="106" spans="5:24">
-      <c r="E106" s="20" t="s">
+      <c r="E106" s="18" t="s">
         <v>529</v>
       </c>
       <c r="F106" t="s">
@@ -14635,7 +14626,7 @@
       </c>
     </row>
     <row r="107" spans="5:24">
-      <c r="E107" s="20" t="s">
+      <c r="E107" s="18" t="s">
         <v>533</v>
       </c>
       <c r="F107" t="s">
@@ -14683,7 +14674,7 @@
       </c>
     </row>
     <row r="108" spans="5:24">
-      <c r="E108" s="20" t="s">
+      <c r="E108" s="18" t="s">
         <v>537</v>
       </c>
       <c r="F108" t="s">
@@ -14731,7 +14722,7 @@
       </c>
     </row>
     <row r="109" spans="5:24">
-      <c r="E109" s="20" t="s">
+      <c r="E109" s="18" t="s">
         <v>541</v>
       </c>
       <c r="F109" t="s">
@@ -14779,7 +14770,7 @@
       </c>
     </row>
     <row r="110" spans="5:24">
-      <c r="E110" s="20" t="s">
+      <c r="E110" s="18" t="s">
         <v>546</v>
       </c>
       <c r="F110" t="s">
@@ -14827,7 +14818,7 @@
       </c>
     </row>
     <row r="111" spans="5:24">
-      <c r="E111" s="20" t="s">
+      <c r="E111" s="18" t="s">
         <v>549</v>
       </c>
       <c r="F111" t="s">
@@ -14875,7 +14866,7 @@
       </c>
     </row>
     <row r="112" spans="5:24">
-      <c r="E112" s="20" t="s">
+      <c r="E112" s="18" t="s">
         <v>553</v>
       </c>
       <c r="F112" t="s">
@@ -14923,7 +14914,7 @@
       </c>
     </row>
     <row r="113" spans="5:24">
-      <c r="E113" s="20" t="s">
+      <c r="E113" s="18" t="s">
         <v>557</v>
       </c>
       <c r="F113" t="s">
@@ -14971,7 +14962,7 @@
       </c>
     </row>
     <row r="114" spans="5:24">
-      <c r="E114" s="20" t="s">
+      <c r="E114" s="18" t="s">
         <v>561</v>
       </c>
       <c r="F114" t="s">
@@ -15019,7 +15010,7 @@
       </c>
     </row>
     <row r="115" spans="5:24">
-      <c r="E115" s="20" t="s">
+      <c r="E115" s="18" t="s">
         <v>565</v>
       </c>
       <c r="F115" t="s">
@@ -15067,7 +15058,7 @@
       </c>
     </row>
     <row r="116" spans="5:24">
-      <c r="E116" s="23" t="s">
+      <c r="E116" s="21" t="s">
         <v>569</v>
       </c>
       <c r="F116" t="s">
@@ -15124,7 +15115,7 @@
       </c>
     </row>
     <row r="117" spans="5:24">
-      <c r="E117" s="20" t="s">
+      <c r="E117" s="18" t="s">
         <v>573</v>
       </c>
       <c r="F117" t="s">
@@ -15172,7 +15163,7 @@
       </c>
     </row>
     <row r="118" spans="5:24">
-      <c r="E118" s="20" t="s">
+      <c r="E118" s="18" t="s">
         <v>576</v>
       </c>
       <c r="F118" t="s">
@@ -15222,7 +15213,7 @@
       </c>
     </row>
     <row r="119" spans="5:24">
-      <c r="E119" s="23" t="s">
+      <c r="E119" s="21" t="s">
         <v>578</v>
       </c>
       <c r="F119" t="s">
@@ -15279,7 +15270,7 @@
       </c>
     </row>
     <row r="120" spans="5:24">
-      <c r="E120" s="20" t="s">
+      <c r="E120" s="18" t="s">
         <v>582</v>
       </c>
       <c r="F120" t="s">
@@ -15330,7 +15321,7 @@
       </c>
     </row>
     <row r="121" spans="5:24">
-      <c r="E121" s="20" t="s">
+      <c r="E121" s="18" t="s">
         <v>585</v>
       </c>
       <c r="F121" t="s">
@@ -15381,7 +15372,7 @@
       </c>
     </row>
     <row r="122" spans="5:24">
-      <c r="E122" s="20" t="s">
+      <c r="E122" s="18" t="s">
         <v>589</v>
       </c>
       <c r="F122" t="s">
@@ -15432,7 +15423,7 @@
       </c>
     </row>
     <row r="123" spans="5:24">
-      <c r="E123" s="20" t="s">
+      <c r="E123" s="18" t="s">
         <v>593</v>
       </c>
       <c r="F123" t="s">
@@ -15483,7 +15474,7 @@
       </c>
     </row>
     <row r="124" spans="5:24">
-      <c r="E124" s="23" t="s">
+      <c r="E124" s="21" t="s">
         <v>597</v>
       </c>
       <c r="F124" t="s">
@@ -15540,7 +15531,7 @@
       </c>
     </row>
     <row r="125" spans="5:24">
-      <c r="E125" s="20" t="s">
+      <c r="E125" s="18" t="s">
         <v>604</v>
       </c>
       <c r="F125" t="s">
@@ -15591,7 +15582,7 @@
       </c>
     </row>
     <row r="126" spans="5:24">
-      <c r="E126" s="20" t="s">
+      <c r="E126" s="18" t="s">
         <v>608</v>
       </c>
       <c r="F126" t="s">
@@ -15639,7 +15630,7 @@
       </c>
     </row>
     <row r="127" spans="5:24">
-      <c r="E127" s="20" t="s">
+      <c r="E127" s="18" t="s">
         <v>612</v>
       </c>
       <c r="F127" t="s">
@@ -15690,7 +15681,7 @@
       </c>
     </row>
     <row r="128" spans="5:24">
-      <c r="E128" s="20" t="s">
+      <c r="E128" s="18" t="s">
         <v>615</v>
       </c>
       <c r="F128" t="s">
@@ -15741,7 +15732,7 @@
       </c>
     </row>
     <row r="129" spans="5:24">
-      <c r="E129" s="20" t="s">
+      <c r="E129" s="18" t="s">
         <v>619</v>
       </c>
       <c r="F129" t="s">
@@ -15789,7 +15780,7 @@
       </c>
     </row>
     <row r="130" spans="5:24">
-      <c r="E130" s="20" t="s">
+      <c r="E130" s="18" t="s">
         <v>623</v>
       </c>
       <c r="F130" t="s">
@@ -15837,7 +15828,7 @@
       </c>
     </row>
     <row r="131" spans="5:24">
-      <c r="E131" s="20" t="s">
+      <c r="E131" s="18" t="s">
         <v>627</v>
       </c>
       <c r="F131" t="s">
@@ -15888,7 +15879,7 @@
       </c>
     </row>
     <row r="132" spans="5:24">
-      <c r="E132" s="25" t="s">
+      <c r="E132" s="23" t="s">
         <v>631</v>
       </c>
       <c r="F132" t="s">
@@ -15939,7 +15930,7 @@
       </c>
     </row>
     <row r="133" spans="5:24">
-      <c r="E133" s="25" t="s">
+      <c r="E133" s="23" t="s">
         <v>635</v>
       </c>
       <c r="F133" t="s">
@@ -15990,7 +15981,7 @@
       </c>
     </row>
     <row r="134" spans="5:24">
-      <c r="E134" s="20" t="s">
+      <c r="E134" s="18" t="s">
         <v>639</v>
       </c>
       <c r="F134" t="s">
@@ -16041,7 +16032,7 @@
       </c>
     </row>
     <row r="135" spans="5:24">
-      <c r="E135" s="22" t="s">
+      <c r="E135" s="20" t="s">
         <v>643</v>
       </c>
       <c r="F135" t="s">
@@ -16091,7 +16082,7 @@
       </c>
     </row>
     <row r="136" spans="5:24">
-      <c r="E136" s="20" t="s">
+      <c r="E136" s="18" t="s">
         <v>647</v>
       </c>
       <c r="F136" t="s">
@@ -16148,7 +16139,7 @@
       </c>
     </row>
     <row r="137" spans="5:24">
-      <c r="E137" s="20" t="s">
+      <c r="E137" s="18" t="s">
         <v>654</v>
       </c>
       <c r="F137" t="s">
@@ -16205,7 +16196,7 @@
       </c>
     </row>
     <row r="138" spans="5:24">
-      <c r="E138" s="20" t="s">
+      <c r="E138" s="18" t="s">
         <v>661</v>
       </c>
       <c r="F138" t="s">
@@ -16256,7 +16247,7 @@
       </c>
     </row>
     <row r="139" spans="5:24">
-      <c r="E139" s="20" t="s">
+      <c r="E139" s="18" t="s">
         <v>664</v>
       </c>
       <c r="F139" t="s">
@@ -16307,7 +16298,7 @@
       </c>
     </row>
     <row r="140" spans="5:24">
-      <c r="E140" s="20" t="s">
+      <c r="E140" s="18" t="s">
         <v>667</v>
       </c>
       <c r="F140" t="s">
@@ -16364,7 +16355,7 @@
       </c>
     </row>
     <row r="141" spans="5:24">
-      <c r="E141" s="20" t="s">
+      <c r="E141" s="18" t="s">
         <v>674</v>
       </c>
       <c r="F141" t="s">
@@ -16415,7 +16406,7 @@
       </c>
     </row>
     <row r="142" spans="5:24">
-      <c r="E142" s="20" t="s">
+      <c r="E142" s="18" t="s">
         <v>677</v>
       </c>
       <c r="F142" t="s">
@@ -16472,7 +16463,7 @@
       </c>
     </row>
     <row r="143" spans="5:24">
-      <c r="E143" s="20" t="s">
+      <c r="E143" s="18" t="s">
         <v>683</v>
       </c>
       <c r="F143" t="s">
@@ -16520,7 +16511,7 @@
       </c>
     </row>
     <row r="144" spans="5:24">
-      <c r="E144" s="20" t="s">
+      <c r="E144" s="18" t="s">
         <v>687</v>
       </c>
       <c r="F144" t="s">
@@ -16577,7 +16568,7 @@
       </c>
     </row>
     <row r="145" spans="5:24">
-      <c r="E145" s="20" t="s">
+      <c r="E145" s="18" t="s">
         <v>691</v>
       </c>
       <c r="F145" t="s">
@@ -16625,7 +16616,7 @@
       </c>
     </row>
     <row r="146" spans="5:24">
-      <c r="E146" s="20" t="s">
+      <c r="E146" s="18" t="s">
         <v>695</v>
       </c>
       <c r="F146" t="s">
@@ -16682,7 +16673,7 @@
       </c>
     </row>
     <row r="147" spans="5:24">
-      <c r="E147" s="20" t="s">
+      <c r="E147" s="18" t="s">
         <v>699</v>
       </c>
       <c r="F147" t="s">
@@ -16730,7 +16721,7 @@
       </c>
     </row>
     <row r="148" spans="5:24">
-      <c r="E148" s="20" t="s">
+      <c r="E148" s="18" t="s">
         <v>702</v>
       </c>
       <c r="F148" t="s">
@@ -16780,7 +16771,7 @@
       </c>
     </row>
     <row r="149" spans="5:24">
-      <c r="E149" s="20" t="s">
+      <c r="E149" s="18" t="s">
         <v>704</v>
       </c>
       <c r="F149" t="s">
@@ -16837,7 +16828,7 @@
       </c>
     </row>
     <row r="150" spans="5:24">
-      <c r="E150" s="20" t="s">
+      <c r="E150" s="18" t="s">
         <v>711</v>
       </c>
       <c r="F150" t="s">
@@ -16885,7 +16876,7 @@
       </c>
     </row>
     <row r="151" spans="5:24">
-      <c r="E151" s="20" t="s">
+      <c r="E151" s="18" t="s">
         <v>715</v>
       </c>
       <c r="F151" t="s">
@@ -16933,7 +16924,7 @@
       </c>
     </row>
     <row r="152" spans="5:24">
-      <c r="E152" s="20" t="s">
+      <c r="E152" s="18" t="s">
         <v>719</v>
       </c>
       <c r="F152" t="s">
@@ -16981,7 +16972,7 @@
       </c>
     </row>
     <row r="153" spans="5:24">
-      <c r="E153" s="20" t="s">
+      <c r="E153" s="18" t="s">
         <v>723</v>
       </c>
       <c r="F153" t="s">
@@ -17029,7 +17020,7 @@
       </c>
     </row>
     <row r="154" spans="5:24">
-      <c r="E154" s="20" t="s">
+      <c r="E154" s="18" t="s">
         <v>727</v>
       </c>
       <c r="F154" t="s">
@@ -17086,7 +17077,7 @@
       </c>
     </row>
     <row r="155" spans="5:24">
-      <c r="E155" s="20" t="s">
+      <c r="E155" s="18" t="s">
         <v>734</v>
       </c>
       <c r="F155" t="s">
@@ -17137,7 +17128,7 @@
       </c>
     </row>
     <row r="156" spans="5:24">
-      <c r="E156" s="20" t="s">
+      <c r="E156" s="18" t="s">
         <v>737</v>
       </c>
       <c r="F156" t="s">
@@ -17188,7 +17179,7 @@
       </c>
     </row>
     <row r="157" spans="5:24">
-      <c r="E157" s="20" t="s">
+      <c r="E157" s="18" t="s">
         <v>741</v>
       </c>
       <c r="F157" t="s">
@@ -17236,7 +17227,7 @@
       </c>
     </row>
     <row r="158" spans="5:24">
-      <c r="E158" s="20" t="s">
+      <c r="E158" s="18" t="s">
         <v>745</v>
       </c>
       <c r="F158" t="s">
@@ -17287,7 +17278,7 @@
       </c>
     </row>
     <row r="159" spans="5:24">
-      <c r="E159" s="20" t="s">
+      <c r="E159" s="18" t="s">
         <v>749</v>
       </c>
       <c r="F159" t="s">
@@ -17344,7 +17335,7 @@
       </c>
     </row>
     <row r="160" spans="5:24">
-      <c r="E160" s="20" t="s">
+      <c r="E160" s="18" t="s">
         <v>755</v>
       </c>
       <c r="F160" t="s">
@@ -17392,7 +17383,7 @@
       </c>
     </row>
     <row r="161" spans="5:24">
-      <c r="E161" s="20" t="s">
+      <c r="E161" s="18" t="s">
         <v>759</v>
       </c>
       <c r="F161" t="s">
@@ -17449,7 +17440,7 @@
       </c>
     </row>
     <row r="162" spans="5:24">
-      <c r="E162" s="20" t="s">
+      <c r="E162" s="18" t="s">
         <v>765</v>
       </c>
       <c r="F162" t="s">
@@ -17497,7 +17488,7 @@
       </c>
     </row>
     <row r="163" spans="5:24">
-      <c r="E163" s="20" t="s">
+      <c r="E163" s="18" t="s">
         <v>769</v>
       </c>
       <c r="F163" t="s">
@@ -17545,7 +17536,7 @@
       </c>
     </row>
     <row r="164" spans="5:24">
-      <c r="E164" s="20" t="s">
+      <c r="E164" s="18" t="s">
         <v>772</v>
       </c>
       <c r="F164" t="s">
@@ -17596,7 +17587,7 @@
       </c>
     </row>
     <row r="165" spans="5:24">
-      <c r="E165" s="20" t="s">
+      <c r="E165" s="18" t="s">
         <v>775</v>
       </c>
       <c r="F165" t="s">
@@ -17647,7 +17638,7 @@
       </c>
     </row>
     <row r="166" spans="5:24">
-      <c r="E166" s="20" t="s">
+      <c r="E166" s="18" t="s">
         <v>779</v>
       </c>
       <c r="F166" t="s">
@@ -17701,7 +17692,7 @@
       </c>
     </row>
     <row r="167" spans="5:24">
-      <c r="E167" s="20" t="s">
+      <c r="E167" s="18" t="s">
         <v>783</v>
       </c>
       <c r="F167" t="s">
@@ -17758,7 +17749,7 @@
       </c>
     </row>
     <row r="168" spans="5:24">
-      <c r="E168" s="20" t="s">
+      <c r="E168" s="18" t="s">
         <v>790</v>
       </c>
       <c r="F168" t="s">
@@ -17815,7 +17806,7 @@
       </c>
     </row>
     <row r="169" spans="5:24">
-      <c r="E169" s="20" t="s">
+      <c r="E169" s="18" t="s">
         <v>797</v>
       </c>
       <c r="F169" t="s">
@@ -17866,7 +17857,7 @@
       </c>
     </row>
     <row r="170" spans="5:24">
-      <c r="E170" s="20" t="s">
+      <c r="E170" s="18" t="s">
         <v>800</v>
       </c>
       <c r="F170" t="s">
@@ -17917,7 +17908,7 @@
       </c>
     </row>
     <row r="171" spans="5:24">
-      <c r="E171" s="20" t="s">
+      <c r="E171" s="18" t="s">
         <v>803</v>
       </c>
       <c r="F171" t="s">
@@ -17974,7 +17965,7 @@
       </c>
     </row>
     <row r="172" spans="5:24">
-      <c r="E172" s="20" t="s">
+      <c r="E172" s="18" t="s">
         <v>806</v>
       </c>
       <c r="F172" t="s">
@@ -18022,7 +18013,7 @@
       </c>
     </row>
     <row r="173" spans="5:24">
-      <c r="E173" s="20" t="s">
+      <c r="E173" s="18" t="s">
         <v>809</v>
       </c>
       <c r="F173" t="s">
@@ -18073,7 +18064,7 @@
       </c>
     </row>
     <row r="174" spans="5:24">
-      <c r="E174" s="20" t="s">
+      <c r="E174" s="18" t="s">
         <v>812</v>
       </c>
       <c r="F174" t="s">
@@ -18121,7 +18112,7 @@
       </c>
     </row>
     <row r="175" spans="5:24">
-      <c r="E175" s="20" t="s">
+      <c r="E175" s="18" t="s">
         <v>815</v>
       </c>
       <c r="F175" t="s">
@@ -18169,7 +18160,7 @@
       </c>
     </row>
     <row r="176" spans="5:24">
-      <c r="E176" s="20" t="s">
+      <c r="E176" s="18" t="s">
         <v>818</v>
       </c>
       <c r="F176" t="s">
@@ -18217,7 +18208,7 @@
       </c>
     </row>
     <row r="177" spans="5:24">
-      <c r="E177" s="20" t="s">
+      <c r="E177" s="18" t="s">
         <v>821</v>
       </c>
       <c r="F177" t="s">
@@ -18265,7 +18256,7 @@
       </c>
     </row>
     <row r="178" spans="5:24">
-      <c r="E178" s="20" t="s">
+      <c r="E178" s="18" t="s">
         <v>824</v>
       </c>
       <c r="F178" t="s">
@@ -18313,7 +18304,7 @@
       </c>
     </row>
     <row r="179" spans="5:24">
-      <c r="E179" s="20" t="s">
+      <c r="E179" s="18" t="s">
         <v>827</v>
       </c>
       <c r="F179" t="s">
@@ -18370,7 +18361,7 @@
       </c>
     </row>
     <row r="180" spans="5:24">
-      <c r="E180" s="20" t="s">
+      <c r="E180" s="18" t="s">
         <v>834</v>
       </c>
       <c r="F180" t="s">
@@ -18418,7 +18409,7 @@
       </c>
     </row>
     <row r="181" spans="5:24">
-      <c r="E181" s="20" t="s">
+      <c r="E181" s="18" t="s">
         <v>838</v>
       </c>
       <c r="F181" t="s">
@@ -18466,7 +18457,7 @@
       </c>
     </row>
     <row r="182" spans="5:24">
-      <c r="E182" s="20" t="s">
+      <c r="E182" s="18" t="s">
         <v>842</v>
       </c>
       <c r="F182" t="s">
@@ -18516,7 +18507,7 @@
       </c>
     </row>
     <row r="183" spans="5:24">
-      <c r="E183" s="20" t="s">
+      <c r="E183" s="18" t="s">
         <v>844</v>
       </c>
       <c r="F183" t="s">
@@ -18573,7 +18564,7 @@
       </c>
     </row>
     <row r="184" spans="5:24">
-      <c r="E184" s="20" t="s">
+      <c r="E184" s="18" t="s">
         <v>848</v>
       </c>
       <c r="F184" t="s">
@@ -18621,7 +18612,7 @@
       </c>
     </row>
     <row r="185" spans="5:24">
-      <c r="E185" s="20" t="s">
+      <c r="E185" s="18" t="s">
         <v>851</v>
       </c>
       <c r="F185" t="s">
@@ -18672,7 +18663,7 @@
       </c>
     </row>
     <row r="186" spans="5:24">
-      <c r="E186" s="20" t="s">
+      <c r="E186" s="18" t="s">
         <v>855</v>
       </c>
       <c r="F186" t="s">
@@ -18723,7 +18714,7 @@
       </c>
     </row>
     <row r="187" spans="5:24">
-      <c r="E187" s="20" t="s">
+      <c r="E187" s="18" t="s">
         <v>859</v>
       </c>
       <c r="F187" t="s">
@@ -18774,7 +18765,7 @@
       </c>
     </row>
     <row r="188" spans="5:24">
-      <c r="E188" s="20" t="s">
+      <c r="E188" s="18" t="s">
         <v>863</v>
       </c>
       <c r="F188" t="s">
@@ -18828,7 +18819,7 @@
       </c>
     </row>
     <row r="189" spans="5:24">
-      <c r="E189" s="20" t="s">
+      <c r="E189" s="18" t="s">
         <v>866</v>
       </c>
       <c r="F189" t="s">
@@ -18885,7 +18876,7 @@
       </c>
     </row>
     <row r="190" spans="5:24">
-      <c r="E190" s="20" t="s">
+      <c r="E190" s="18" t="s">
         <v>873</v>
       </c>
       <c r="F190" t="s">
@@ -18933,7 +18924,7 @@
       </c>
     </row>
     <row r="191" spans="5:24">
-      <c r="E191" s="20" t="s">
+      <c r="E191" s="18" t="s">
         <v>877</v>
       </c>
       <c r="F191" t="s">
@@ -18984,7 +18975,7 @@
       </c>
     </row>
     <row r="192" spans="5:24">
-      <c r="E192" s="20" t="s">
+      <c r="E192" s="18" t="s">
         <v>880</v>
       </c>
       <c r="F192" t="s">
@@ -19032,7 +19023,7 @@
       </c>
     </row>
     <row r="193" spans="5:24">
-      <c r="E193" s="20" t="s">
+      <c r="E193" s="18" t="s">
         <v>884</v>
       </c>
       <c r="F193" t="s">
@@ -19080,7 +19071,7 @@
       </c>
     </row>
     <row r="194" spans="5:24">
-      <c r="E194" s="20" t="s">
+      <c r="E194" s="18" t="s">
         <v>888</v>
       </c>
       <c r="F194" t="s">
@@ -19131,7 +19122,7 @@
       </c>
     </row>
     <row r="195" spans="5:24">
-      <c r="E195" s="20" t="s">
+      <c r="E195" s="18" t="s">
         <v>892</v>
       </c>
       <c r="F195" t="s">
@@ -19182,7 +19173,7 @@
       </c>
     </row>
     <row r="196" spans="5:24">
-      <c r="E196" s="20" t="s">
+      <c r="E196" s="18" t="s">
         <v>896</v>
       </c>
       <c r="F196" t="s">
@@ -19239,7 +19230,7 @@
       </c>
     </row>
     <row r="197" spans="5:24">
-      <c r="E197" s="20" t="s">
+      <c r="E197" s="18" t="s">
         <v>903</v>
       </c>
       <c r="F197" t="s">
@@ -19287,7 +19278,7 @@
       </c>
     </row>
     <row r="198" spans="5:24">
-      <c r="E198" s="20" t="s">
+      <c r="E198" s="18" t="s">
         <v>907</v>
       </c>
       <c r="F198" t="s">
@@ -19335,7 +19326,7 @@
       </c>
     </row>
     <row r="199" spans="5:24">
-      <c r="E199" s="20" t="s">
+      <c r="E199" s="18" t="s">
         <v>911</v>
       </c>
       <c r="F199" t="s">
@@ -19383,7 +19374,7 @@
       </c>
     </row>
     <row r="200" spans="5:24">
-      <c r="E200" s="20" t="s">
+      <c r="E200" s="18" t="s">
         <v>915</v>
       </c>
       <c r="F200" t="s">
@@ -19431,7 +19422,7 @@
       </c>
     </row>
     <row r="201" spans="5:24">
-      <c r="E201" s="20" t="s">
+      <c r="E201" s="18" t="s">
         <v>919</v>
       </c>
       <c r="F201" t="s">
@@ -19479,7 +19470,7 @@
       </c>
     </row>
     <row r="202" spans="5:24">
-      <c r="E202" s="20" t="s">
+      <c r="E202" s="18" t="s">
         <v>923</v>
       </c>
       <c r="F202" t="s">
@@ -19536,7 +19527,7 @@
       </c>
     </row>
     <row r="203" spans="5:24">
-      <c r="E203" s="20" t="s">
+      <c r="E203" s="18" t="s">
         <v>927</v>
       </c>
       <c r="F203" t="s">
@@ -19587,7 +19578,7 @@
       </c>
     </row>
     <row r="204" spans="5:24">
-      <c r="E204" s="20" t="s">
+      <c r="E204" s="18" t="s">
         <v>930</v>
       </c>
       <c r="F204" t="s">
@@ -19635,7 +19626,7 @@
       </c>
     </row>
     <row r="205" spans="5:24">
-      <c r="E205" s="20" t="s">
+      <c r="E205" s="18" t="s">
         <v>933</v>
       </c>
       <c r="F205" t="s">
@@ -19686,7 +19677,7 @@
       </c>
     </row>
     <row r="206" spans="5:24">
-      <c r="E206" s="20" t="s">
+      <c r="E206" s="18" t="s">
         <v>937</v>
       </c>
       <c r="F206" t="s">
@@ -19737,7 +19728,7 @@
       </c>
     </row>
     <row r="207" spans="5:24">
-      <c r="E207" s="20" t="s">
+      <c r="E207" s="18" t="s">
         <v>941</v>
       </c>
       <c r="F207" t="s">
@@ -19785,7 +19776,7 @@
       </c>
     </row>
     <row r="208" spans="5:24">
-      <c r="E208" s="20" t="s">
+      <c r="E208" s="18" t="s">
         <v>945</v>
       </c>
       <c r="F208" t="s">
@@ -19833,7 +19824,7 @@
       </c>
     </row>
     <row r="209" spans="5:24">
-      <c r="E209" s="20" t="s">
+      <c r="E209" s="18" t="s">
         <v>949</v>
       </c>
       <c r="F209" t="s">
@@ -19881,7 +19872,7 @@
       </c>
     </row>
     <row r="210" spans="5:24">
-      <c r="E210" s="20" t="s">
+      <c r="E210" s="18" t="s">
         <v>953</v>
       </c>
       <c r="F210" t="s">
@@ -19929,7 +19920,7 @@
       </c>
     </row>
     <row r="211" spans="5:24">
-      <c r="E211" s="20" t="s">
+      <c r="E211" s="18" t="s">
         <v>957</v>
       </c>
       <c r="F211" t="s">
@@ -19977,7 +19968,7 @@
       </c>
     </row>
     <row r="212" spans="5:24">
-      <c r="E212" s="20" t="s">
+      <c r="E212" s="18" t="s">
         <v>961</v>
       </c>
       <c r="F212" t="s">
@@ -20025,7 +20016,7 @@
       </c>
     </row>
     <row r="213" spans="5:24">
-      <c r="E213" s="20" t="s">
+      <c r="E213" s="18" t="s">
         <v>965</v>
       </c>
       <c r="F213" t="s">
@@ -20073,7 +20064,7 @@
       </c>
     </row>
     <row r="214" spans="5:24">
-      <c r="E214" s="25" t="s">
+      <c r="E214" s="23" t="s">
         <v>969</v>
       </c>
       <c r="F214" s="6" t="s">
@@ -20124,7 +20115,7 @@
       </c>
     </row>
     <row r="215" spans="5:24">
-      <c r="E215" s="25" t="s">
+      <c r="E215" s="23" t="s">
         <v>973</v>
       </c>
       <c r="F215" s="6" t="s">
@@ -20172,7 +20163,7 @@
       </c>
     </row>
     <row r="216" spans="5:24">
-      <c r="E216" s="25" t="s">
+      <c r="E216" s="23" t="s">
         <v>977</v>
       </c>
       <c r="F216" s="6" t="s">
@@ -20220,7 +20211,7 @@
       </c>
     </row>
     <row r="217" spans="5:24">
-      <c r="E217" s="25" t="s">
+      <c r="E217" s="23" t="s">
         <v>981</v>
       </c>
       <c r="F217" s="6" t="s">
@@ -20268,7 +20259,7 @@
       </c>
     </row>
     <row r="218" s="7" customFormat="1" spans="5:24">
-      <c r="E218" s="26" t="s">
+      <c r="E218" s="24" t="s">
         <v>985</v>
       </c>
       <c r="F218" s="7" t="s">
@@ -20325,7 +20316,7 @@
       </c>
     </row>
     <row r="219" s="7" customFormat="1" spans="5:24">
-      <c r="E219" s="26" t="s">
+      <c r="E219" s="24" t="s">
         <v>990</v>
       </c>
       <c r="F219" s="7" t="s">
@@ -20373,7 +20364,7 @@
       </c>
     </row>
     <row r="220" s="7" customFormat="1" spans="5:24">
-      <c r="E220" s="26" t="s">
+      <c r="E220" s="24" t="s">
         <v>993</v>
       </c>
       <c r="F220" s="7" t="s">
@@ -20421,7 +20412,7 @@
       </c>
     </row>
     <row r="221" s="7" customFormat="1" spans="5:24">
-      <c r="E221" s="26" t="s">
+      <c r="E221" s="24" t="s">
         <v>996</v>
       </c>
       <c r="F221" s="7" t="s">
@@ -20469,7 +20460,7 @@
       </c>
     </row>
     <row r="222" s="7" customFormat="1" spans="5:24">
-      <c r="E222" s="26" t="s">
+      <c r="E222" s="24" t="s">
         <v>999</v>
       </c>
       <c r="F222" s="7" t="s">
@@ -20517,7 +20508,7 @@
       </c>
     </row>
     <row r="223" s="7" customFormat="1" spans="5:24">
-      <c r="E223" s="26" t="s">
+      <c r="E223" s="24" t="s">
         <v>1002</v>
       </c>
       <c r="F223" s="7" t="s">
@@ -20565,7 +20556,7 @@
       </c>
     </row>
     <row r="224" spans="5:24">
-      <c r="E224" s="20" t="s">
+      <c r="E224" s="18" t="s">
         <v>1005</v>
       </c>
       <c r="F224" t="s">
@@ -20613,7 +20604,7 @@
       </c>
     </row>
     <row r="225" spans="5:18">
-      <c r="E225" s="27" t="s">
+      <c r="E225" s="25" t="s">
         <v>1009</v>
       </c>
       <c r="F225" s="7" t="s">
@@ -20648,10 +20639,10 @@
       </c>
     </row>
     <row r="226" spans="5:18">
-      <c r="E226" s="27" t="s">
+      <c r="E226" s="25" t="s">
         <v>1012</v>
       </c>
-      <c r="F226" s="28" t="s">
+      <c r="F226" s="7" t="s">
         <v>1013</v>
       </c>
       <c r="G226" s="7" t="s">
@@ -20683,7 +20674,7 @@
       </c>
     </row>
     <row r="227" spans="5:24">
-      <c r="E227" s="20" t="s">
+      <c r="E227" s="18" t="s">
         <v>1014</v>
       </c>
       <c r="F227" t="s">
@@ -20745,11 +20736,11 @@
       <selection activeCell="G360" sqref="G360"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="5" width="35.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="17.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="64.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="35.75" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="64.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20849,30 +20840,30 @@
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="F12" s="10" t="str">
+      <c r="F12" s="9" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="5:8">
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="F13" s="10" t="str">
+      <c r="F13" s="9" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
@@ -24199,91 +24190,91 @@
       </c>
     </row>
     <row r="291" spans="5:7">
-      <c r="E291" s="10" t="s">
+      <c r="E291" s="9" t="s">
         <v>1529</v>
       </c>
-      <c r="F291" s="10" t="str">
+      <c r="F291" s="9" t="str">
         <f>菜单SAAS版!E79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G291" s="10" t="s">
+      <c r="G291" s="9" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="292" spans="5:7">
-      <c r="E292" s="12" t="s">
+      <c r="E292" s="11" t="s">
         <v>1530</v>
       </c>
-      <c r="F292" s="12" t="str">
+      <c r="F292" s="11" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G292" s="12" t="s">
+      <c r="G292" s="11" t="s">
         <v>1531</v>
       </c>
     </row>
     <row r="293" spans="5:7">
-      <c r="E293" s="13" t="s">
+      <c r="E293" s="12" t="s">
         <v>1532</v>
       </c>
-      <c r="F293" s="13" t="str">
+      <c r="F293" s="12" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G293" s="13" t="s">
+      <c r="G293" s="12" t="s">
         <v>1533</v>
       </c>
     </row>
     <row r="294" spans="5:7">
-      <c r="E294" s="14" t="s">
+      <c r="E294" s="13" t="s">
         <v>1534</v>
       </c>
-      <c r="F294" s="14" t="str">
+      <c r="F294" s="13" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G294" s="14" t="s">
+      <c r="G294" s="13" t="s">
         <v>1535</v>
       </c>
     </row>
     <row r="295" spans="5:7">
-      <c r="E295" s="12" t="s">
+      <c r="E295" s="11" t="s">
         <v>1536</v>
       </c>
-      <c r="F295" s="12" t="str">
+      <c r="F295" s="11" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G295" s="12" t="s">
+      <c r="G295" s="11" t="s">
         <v>1537</v>
       </c>
     </row>
     <row r="296" spans="5:7">
-      <c r="E296" s="10" t="s">
+      <c r="E296" s="9" t="s">
         <v>1538</v>
       </c>
-      <c r="F296" s="10" t="str">
+      <c r="F296" s="9" t="str">
         <f>菜单SAAS版!E72</f>
         <v>iam_menu-72</v>
       </c>
-      <c r="G296" s="10" t="s">
+      <c r="G296" s="9" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="297" spans="5:7">
-      <c r="E297" s="10" t="s">
+      <c r="E297" s="9" t="s">
         <v>1540</v>
       </c>
-      <c r="F297" s="10" t="str">
+      <c r="F297" s="9" t="str">
         <f>菜单SAAS版!E72</f>
         <v>iam_menu-72</v>
       </c>
-      <c r="G297" s="10" t="s">
+      <c r="G297" s="9" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="298" spans="5:7">
-      <c r="E298" s="10" t="s">
+      <c r="E298" s="9" t="s">
         <v>1542</v>
       </c>
       <c r="F298" t="str">
@@ -24415,290 +24406,290 @@
       </c>
     </row>
     <row r="309" spans="5:7">
-      <c r="E309" s="10" t="s">
+      <c r="E309" s="9" t="s">
         <v>1564</v>
       </c>
-      <c r="F309" s="10" t="str">
+      <c r="F309" s="9" t="str">
         <f>菜单SAAS版!E17</f>
         <v>iam_menu-17</v>
       </c>
-      <c r="G309" s="10" t="s">
+      <c r="G309" s="9" t="s">
         <v>1565</v>
       </c>
     </row>
     <row r="310" spans="5:7">
-      <c r="E310" s="10" t="s">
+      <c r="E310" s="9" t="s">
         <v>1566</v>
       </c>
-      <c r="F310" s="10" t="str">
+      <c r="F310" s="9" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-18</v>
       </c>
-      <c r="G310" s="10" t="s">
+      <c r="G310" s="9" t="s">
         <v>1565</v>
       </c>
     </row>
     <row r="311" spans="5:7">
-      <c r="E311" s="15" t="s">
+      <c r="E311" s="14" t="s">
         <v>1567</v>
       </c>
-      <c r="F311" s="15" t="str">
+      <c r="F311" s="14" t="str">
         <f>菜单SAAS版!E52</f>
         <v>iam_menu-52</v>
       </c>
-      <c r="G311" s="15" t="s">
+      <c r="G311" s="14" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="312" s="9" customFormat="1" spans="5:7">
-      <c r="E312" s="9" t="s">
+    <row r="312" s="8" customFormat="1" spans="5:7">
+      <c r="E312" s="8" t="s">
         <v>1569</v>
       </c>
-      <c r="F312" s="9" t="str">
+      <c r="F312" s="8" t="str">
         <f>菜单SAAS版!E207</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G312" s="9" t="s">
+      <c r="G312" s="8" t="s">
         <v>1570</v>
       </c>
     </row>
-    <row r="313" s="9" customFormat="1" spans="5:7">
-      <c r="E313" s="9" t="s">
+    <row r="313" s="8" customFormat="1" spans="5:7">
+      <c r="E313" s="8" t="s">
         <v>1571</v>
       </c>
-      <c r="F313" s="9" t="str">
+      <c r="F313" s="8" t="str">
         <f>菜单SAAS版!E207</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G313" s="9" t="s">
+      <c r="G313" s="8" t="s">
         <v>1539</v>
       </c>
     </row>
-    <row r="314" s="9" customFormat="1" spans="5:7">
-      <c r="E314" s="9" t="s">
+    <row r="314" s="8" customFormat="1" spans="5:7">
+      <c r="E314" s="8" t="s">
         <v>1572</v>
       </c>
-      <c r="F314" s="9" t="str">
+      <c r="F314" s="8" t="str">
         <f>菜单SAAS版!E207</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G314" s="9" t="s">
+      <c r="G314" s="8" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="315" spans="5:7">
-      <c r="E315" s="9" t="s">
+      <c r="E315" s="8" t="s">
         <v>1573</v>
       </c>
-      <c r="F315" s="9" t="str">
+      <c r="F315" s="8" t="str">
         <f>菜单SAAS版!E207</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G315" s="9" t="s">
+      <c r="G315" s="8" t="s">
         <v>1557</v>
       </c>
     </row>
     <row r="316" spans="5:7">
-      <c r="E316" s="9" t="s">
+      <c r="E316" s="8" t="s">
         <v>1574</v>
       </c>
-      <c r="F316" s="9" t="str">
+      <c r="F316" s="8" t="str">
         <f>菜单SAAS版!E208</f>
         <v>iam_menu-225</v>
       </c>
-      <c r="G316" s="9" t="s">
+      <c r="G316" s="8" t="s">
         <v>1561</v>
       </c>
     </row>
     <row r="317" spans="5:7">
-      <c r="E317" s="9" t="s">
+      <c r="E317" s="8" t="s">
         <v>1575</v>
       </c>
-      <c r="F317" s="9" t="str">
+      <c r="F317" s="8" t="str">
         <f>菜单SAAS版!E209</f>
         <v>iam_menu-226</v>
       </c>
-      <c r="G317" s="9" t="s">
+      <c r="G317" s="8" t="s">
         <v>1559</v>
       </c>
     </row>
     <row r="318" spans="5:7">
-      <c r="E318" s="9" t="s">
+      <c r="E318" s="8" t="s">
         <v>1576</v>
       </c>
-      <c r="F318" s="9" t="str">
+      <c r="F318" s="8" t="str">
         <f>菜单SAAS版!E210</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G318" s="9" t="s">
+      <c r="G318" s="8" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="319" spans="5:7">
-      <c r="E319" s="9" t="s">
+      <c r="E319" s="8" t="s">
         <v>1577</v>
       </c>
-      <c r="F319" s="9" t="str">
+      <c r="F319" s="8" t="str">
         <f>菜单SAAS版!E210</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G319" s="9" t="s">
+      <c r="G319" s="8" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="320" spans="5:7">
-      <c r="E320" s="9" t="s">
+      <c r="E320" s="8" t="s">
         <v>1578</v>
       </c>
-      <c r="F320" s="9" t="str">
+      <c r="F320" s="8" t="str">
         <f>菜单SAAS版!E210</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G320" s="9" t="s">
+      <c r="G320" s="8" t="s">
         <v>1549</v>
       </c>
     </row>
     <row r="321" spans="5:7">
-      <c r="E321" s="9" t="s">
+      <c r="E321" s="8" t="s">
         <v>1579</v>
       </c>
-      <c r="F321" s="9" t="str">
+      <c r="F321" s="8" t="str">
         <f>菜单SAAS版!E210</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G321" s="9" t="s">
+      <c r="G321" s="8" t="s">
         <v>1543</v>
       </c>
     </row>
     <row r="322" spans="5:7">
-      <c r="E322" s="9" t="s">
+      <c r="E322" s="8" t="s">
         <v>1580</v>
       </c>
-      <c r="F322" s="9" t="str">
+      <c r="F322" s="8" t="str">
         <f>菜单SAAS版!E211</f>
         <v>iam_menu-228</v>
       </c>
-      <c r="G322" s="9" t="s">
+      <c r="G322" s="8" t="s">
         <v>1547</v>
       </c>
     </row>
     <row r="323" spans="5:7">
-      <c r="E323" s="9" t="s">
+      <c r="E323" s="8" t="s">
         <v>1581</v>
       </c>
-      <c r="F323" s="9" t="str">
+      <c r="F323" s="8" t="str">
         <f>菜单SAAS版!E212</f>
         <v>iam_menu-229</v>
       </c>
-      <c r="G323" s="9" t="s">
+      <c r="G323" s="8" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="324" spans="5:7">
-      <c r="E324" s="9" t="s">
+      <c r="E324" s="8" t="s">
         <v>1582</v>
       </c>
-      <c r="F324" s="9" t="str">
+      <c r="F324" s="8" t="str">
         <f>菜单SAAS版!E213</f>
         <v>iam_menu-230</v>
       </c>
-      <c r="G324" s="9" t="s">
+      <c r="G324" s="8" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="325" spans="5:7">
-      <c r="E325" s="9" t="s">
+      <c r="E325" s="8" t="s">
         <v>1583</v>
       </c>
-      <c r="F325" s="9" t="str">
+      <c r="F325" s="8" t="str">
         <f>菜单SAAS版!E214</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="G325" s="9" t="s">
+      <c r="G325" s="8" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="326" spans="5:7">
-      <c r="E326" s="9" t="s">
+      <c r="E326" s="8" t="s">
         <v>1585</v>
       </c>
-      <c r="F326" s="9" t="str">
+      <c r="F326" s="8" t="str">
         <f>菜单SAAS版!E215</f>
         <v>iam_menu-232</v>
       </c>
-      <c r="G326" s="9" t="s">
+      <c r="G326" s="8" t="s">
         <v>1586</v>
       </c>
     </row>
     <row r="327" spans="5:7">
-      <c r="E327" s="9" t="s">
+      <c r="E327" s="8" t="s">
         <v>1587</v>
       </c>
-      <c r="F327" s="9" t="str">
+      <c r="F327" s="8" t="str">
         <f>菜单SAAS版!E216</f>
         <v>iam_menu-233</v>
       </c>
-      <c r="G327" s="9" t="s">
+      <c r="G327" s="8" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="328" spans="5:7">
-      <c r="E328" s="9" t="s">
+      <c r="E328" s="8" t="s">
         <v>1589</v>
       </c>
-      <c r="F328" s="9" t="str">
+      <c r="F328" s="8" t="str">
         <f>菜单SAAS版!E216</f>
         <v>iam_menu-233</v>
       </c>
-      <c r="G328" s="9" t="s">
+      <c r="G328" s="8" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="329" spans="5:7">
-      <c r="E329" s="9" t="s">
+      <c r="E329" s="8" t="s">
         <v>1591</v>
       </c>
-      <c r="F329" s="9" t="str">
+      <c r="F329" s="8" t="str">
         <f>菜单SAAS版!E217</f>
         <v>iam_menu-234</v>
       </c>
-      <c r="G329" s="9" t="s">
+      <c r="G329" s="8" t="s">
         <v>1592</v>
       </c>
     </row>
     <row r="330" spans="5:7">
-      <c r="E330" s="9" t="s">
+      <c r="E330" s="8" t="s">
         <v>1593</v>
       </c>
-      <c r="F330" s="9" t="str">
+      <c r="F330" s="8" t="str">
         <f>菜单SAAS版!E214</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="G330" s="9" t="s">
+      <c r="G330" s="8" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="331" spans="5:7">
-      <c r="E331" s="9" t="s">
+      <c r="E331" s="8" t="s">
         <v>1595</v>
       </c>
-      <c r="F331" s="9" t="str">
+      <c r="F331" s="8" t="str">
         <f>菜单SAAS版!E214</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="G331" s="9" t="s">
+      <c r="G331" s="8" t="s">
         <v>1596</v>
       </c>
     </row>
     <row r="332" spans="5:7">
-      <c r="E332" s="9" t="s">
+      <c r="E332" s="8" t="s">
         <v>1597</v>
       </c>
       <c r="F332" s="6" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G332" s="9" t="s">
+      <c r="G332" s="8" t="s">
         <v>1598</v>
       </c>
     </row>
@@ -24770,7 +24761,7 @@
         <f>菜单SAAS版!E222</f>
         <v>iam_menu-239</v>
       </c>
-      <c r="G338" s="16" t="s">
+      <c r="G338" s="15" t="s">
         <v>1609</v>
       </c>
     </row>
@@ -24782,7 +24773,7 @@
         <f>菜单SAAS版!E222</f>
         <v>iam_menu-239</v>
       </c>
-      <c r="G339" s="16" t="s">
+      <c r="G339" s="15" t="s">
         <v>1611</v>
       </c>
     </row>
@@ -24794,7 +24785,7 @@
         <f>菜单SAAS版!E223</f>
         <v>iam_menu-240</v>
       </c>
-      <c r="G340" s="16" t="s">
+      <c r="G340" s="15" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -24806,199 +24797,199 @@
         <f>菜单SAAS版!E223</f>
         <v>iam_menu-240</v>
       </c>
-      <c r="G341" s="16" t="s">
+      <c r="G341" s="15" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="342" s="10" customFormat="1" spans="5:7">
-      <c r="E342" s="10" t="s">
+    <row r="342" s="9" customFormat="1" spans="5:7">
+      <c r="E342" s="9" t="s">
         <v>1616</v>
       </c>
-      <c r="F342" s="10" t="str">
+      <c r="F342" s="9" t="str">
         <f>菜单SAAS版!E74</f>
         <v>iam_menu-74</v>
       </c>
-      <c r="G342" s="17" t="s">
+      <c r="G342" s="16" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="343" s="11" customFormat="1" spans="5:7">
-      <c r="E343" s="11" t="s">
+    <row r="343" s="10" customFormat="1" spans="5:7">
+      <c r="E343" s="10" t="s">
         <v>1617</v>
       </c>
-      <c r="F343" s="11" t="str">
+      <c r="F343" s="10" t="str">
         <f>菜单SAAS版!E224</f>
         <v>iam_menu-241</v>
       </c>
-      <c r="G343" s="18" t="s">
+      <c r="G343" s="17" t="s">
         <v>1618</v>
       </c>
     </row>
     <row r="344" spans="5:7">
-      <c r="E344" s="11" t="s">
+      <c r="E344" s="10" t="s">
         <v>1619</v>
       </c>
-      <c r="F344" s="11" t="str">
+      <c r="F344" s="10" t="str">
         <f>菜单SAAS版!E224</f>
         <v>iam_menu-241</v>
       </c>
-      <c r="G344" s="16" t="s">
+      <c r="G344" s="15" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="345" s="10" customFormat="1" spans="5:7">
-      <c r="E345" s="10" t="s">
+    <row r="345" s="9" customFormat="1" spans="5:7">
+      <c r="E345" s="9" t="s">
         <v>1621</v>
       </c>
-      <c r="F345" s="10" t="str">
+      <c r="F345" s="9" t="str">
         <f>菜单SAAS版!$E$79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G345" s="17" t="s">
+      <c r="G345" s="16" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="346" s="10" customFormat="1" spans="5:7">
-      <c r="E346" s="10" t="s">
+    <row r="346" s="9" customFormat="1" spans="5:7">
+      <c r="E346" s="9" t="s">
         <v>1623</v>
       </c>
-      <c r="F346" s="10" t="str">
+      <c r="F346" s="9" t="str">
         <f>菜单SAAS版!$E$79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G346" s="17" t="s">
+      <c r="G346" s="16" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="347" s="10" customFormat="1" spans="5:7">
-      <c r="E347" s="10" t="s">
+    <row r="347" s="9" customFormat="1" spans="5:7">
+      <c r="E347" s="9" t="s">
         <v>1625</v>
       </c>
-      <c r="F347" s="10" t="str">
+      <c r="F347" s="9" t="str">
         <f>菜单SAAS版!$E$79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G347" s="17" t="s">
+      <c r="G347" s="16" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="348" s="10" customFormat="1" spans="5:7">
-      <c r="E348" s="10" t="s">
+    <row r="348" s="9" customFormat="1" spans="5:7">
+      <c r="E348" s="9" t="s">
         <v>1627</v>
       </c>
-      <c r="F348" s="10" t="str">
+      <c r="F348" s="9" t="str">
         <f>菜单SAAS版!$E$79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G348" s="17" t="s">
+      <c r="G348" s="16" t="s">
         <v>1628</v>
       </c>
     </row>
     <row r="349" spans="5:7">
-      <c r="E349" s="10" t="s">
+      <c r="E349" s="9" t="s">
         <v>1629</v>
       </c>
-      <c r="F349" s="10" t="str">
+      <c r="F349" s="9" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G349" s="17" t="s">
+      <c r="G349" s="16" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="350" spans="5:7">
-      <c r="E350" s="10" t="s">
+      <c r="E350" s="9" t="s">
         <v>1630</v>
       </c>
-      <c r="F350" s="10" t="str">
+      <c r="F350" s="9" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G350" s="17" t="s">
+      <c r="G350" s="16" t="s">
         <v>1622</v>
       </c>
     </row>
     <row r="351" spans="5:7">
-      <c r="E351" s="10" t="s">
+      <c r="E351" s="9" t="s">
         <v>1631</v>
       </c>
-      <c r="F351" s="10" t="str">
+      <c r="F351" s="9" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G351" s="17" t="s">
+      <c r="G351" s="16" t="s">
         <v>1624</v>
       </c>
     </row>
     <row r="352" spans="5:7">
-      <c r="E352" s="10" t="s">
+      <c r="E352" s="9" t="s">
         <v>1632</v>
       </c>
-      <c r="F352" s="10" t="str">
+      <c r="F352" s="9" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G352" s="17" t="s">
+      <c r="G352" s="16" t="s">
         <v>1626</v>
       </c>
     </row>
     <row r="353" spans="5:7">
-      <c r="E353" s="10" t="s">
+      <c r="E353" s="9" t="s">
         <v>1633</v>
       </c>
-      <c r="F353" s="10" t="str">
+      <c r="F353" s="9" t="str">
         <f>菜单SAAS版!$E$120</f>
         <v>iam_menu-123</v>
       </c>
-      <c r="G353" s="17" t="s">
+      <c r="G353" s="16" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="354" spans="5:7">
-      <c r="E354" s="10" t="s">
+      <c r="E354" s="9" t="s">
         <v>1634</v>
       </c>
-      <c r="F354" s="10" t="str">
+      <c r="F354" s="9" t="str">
         <f>菜单SAAS版!$E$120</f>
         <v>iam_menu-123</v>
       </c>
-      <c r="G354" s="17" t="s">
+      <c r="G354" s="16" t="s">
         <v>1635</v>
       </c>
     </row>
     <row r="355" spans="5:7">
-      <c r="E355" s="10" t="s">
+      <c r="E355" s="9" t="s">
         <v>1636</v>
       </c>
-      <c r="F355" s="10" t="str">
+      <c r="F355" s="9" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G355" s="17" t="s">
+      <c r="G355" s="16" t="s">
         <v>1637</v>
       </c>
     </row>
     <row r="356" spans="5:7">
-      <c r="E356" s="10" t="s">
+      <c r="E356" s="9" t="s">
         <v>1638</v>
       </c>
-      <c r="F356" s="10" t="str">
+      <c r="F356" s="9" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G356" s="17" t="s">
+      <c r="G356" s="16" t="s">
         <v>1639</v>
       </c>
     </row>
     <row r="357" s="8" customFormat="1" spans="5:7">
-      <c r="E357" s="9" t="s">
+      <c r="E357" s="8" t="s">
         <v>1640</v>
       </c>
-      <c r="F357" s="9" t="str">
+      <c r="F357" s="8" t="str">
         <f>菜单SAAS版!$E$227</f>
         <v>iam_menu-244</v>
       </c>
-      <c r="G357" s="19" t="s">
+      <c r="G357" s="15" t="s">
         <v>1396</v>
       </c>
     </row>
@@ -25017,12 +25008,12 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="19.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="28.7481481481481" customWidth="1"/>
-    <col min="7" max="7" width="14.2518518518519" customWidth="1"/>
-    <col min="8" max="8" width="14.162962962963" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="14.1642857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -28044,17 +28035,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y246"/>
+  <dimension ref="A1:Y254"/>
   <sheetViews>
-    <sheetView topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="G252" sqref="G252"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="G256" sqref="G256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="24.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="21.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="19.7481481481481" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -33657,24 +33648,200 @@
       </c>
     </row>
     <row r="246" s="8" customFormat="1" spans="5:10">
-      <c r="E246" s="9" t="s">
+      <c r="E246" s="8" t="s">
         <v>1977</v>
       </c>
-      <c r="F246" s="9" t="str">
+      <c r="F246" s="8" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G246" s="9" t="str">
+      <c r="G246" s="8" t="str">
         <f>菜单SAAS版!$E$227</f>
         <v>iam_menu-244</v>
       </c>
-      <c r="H246" s="9" t="s">
+      <c r="H246" s="8" t="s">
         <v>1745</v>
       </c>
-      <c r="I246" s="9" t="s">
+      <c r="I246" s="8" t="s">
         <v>1746</v>
       </c>
-      <c r="J246" s="9" t="s">
+      <c r="J246" s="8" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="247" spans="5:10">
+      <c r="E247" s="8" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F247" s="7" t="str">
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
+      </c>
+      <c r="G247" t="str">
+        <f>菜单SAAS版!$E$214</f>
+        <v>iam_menu-231</v>
+      </c>
+      <c r="H247" s="8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I247" s="8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J247" s="8" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="248" spans="5:10">
+      <c r="E248" s="8" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F248" s="8" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G248" t="str">
+        <f>菜单SAAS版!$E$214</f>
+        <v>iam_menu-231</v>
+      </c>
+      <c r="H248" s="8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I248" s="8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J248" s="8" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="249" spans="5:10">
+      <c r="E249" s="8" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F249" s="7" t="str">
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
+      </c>
+      <c r="G249" t="str">
+        <f>菜单SAAS版!$E$215</f>
+        <v>iam_menu-232</v>
+      </c>
+      <c r="H249" s="8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I249" s="8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J249" s="8" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="250" spans="5:10">
+      <c r="E250" s="8" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F250" s="8" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G250" t="str">
+        <f>菜单SAAS版!$E$215</f>
+        <v>iam_menu-232</v>
+      </c>
+      <c r="H250" s="8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I250" s="8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J250" s="8" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="251" spans="5:10">
+      <c r="E251" s="8" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F251" s="7" t="str">
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
+      </c>
+      <c r="G251" t="str">
+        <f>菜单SAAS版!$E$216</f>
+        <v>iam_menu-233</v>
+      </c>
+      <c r="H251" s="8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I251" s="8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J251" s="8" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="252" spans="5:10">
+      <c r="E252" s="8" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F252" s="8" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G252" t="str">
+        <f>菜单SAAS版!$E$216</f>
+        <v>iam_menu-233</v>
+      </c>
+      <c r="H252" s="8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I252" s="8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J252" s="8" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="253" spans="5:10">
+      <c r="E253" s="8" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F253" s="7" t="str">
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
+      </c>
+      <c r="G253" t="str">
+        <f>菜单SAAS版!$E$217</f>
+        <v>iam_menu-234</v>
+      </c>
+      <c r="H253" s="8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I253" s="8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J253" s="8" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="254" spans="5:10">
+      <c r="E254" s="8" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F254" s="8" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G254" t="str">
+        <f>菜单SAAS版!$E$217</f>
+        <v>iam_menu-234</v>
+      </c>
+      <c r="H254" s="8" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I254" s="8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J254" s="8" t="s">
         <v>1747</v>
       </c>
     </row>
@@ -33693,11 +33860,11 @@
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="23.4148148148148" customWidth="1"/>
-    <col min="6" max="6" width="30.162962962963" customWidth="1"/>
-    <col min="8" max="8" width="26.4148148148148" customWidth="1"/>
+    <col min="5" max="5" width="23.4142857142857" customWidth="1"/>
+    <col min="6" max="6" width="30.1642857142857" customWidth="1"/>
+    <col min="8" max="8" width="26.4142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -33774,13 +33941,13 @@
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>1978</v>
+        <v>1986</v>
       </c>
       <c r="F8" t="s">
-        <v>1979</v>
+        <v>1987</v>
       </c>
       <c r="G8" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -33789,10 +33956,10 @@
         <v>1656</v>
       </c>
       <c r="J8" t="s">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="K8" t="s">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -33809,10 +33976,10 @@
         <v>1658</v>
       </c>
       <c r="F9" t="s">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="G9" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
@@ -33821,10 +33988,10 @@
         <v>1656</v>
       </c>
       <c r="J9" t="s">
-        <v>1983</v>
+        <v>1991</v>
       </c>
       <c r="K9" t="s">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -33841,10 +34008,10 @@
         <v>1660</v>
       </c>
       <c r="F10" t="s">
-        <v>1985</v>
+        <v>1993</v>
       </c>
       <c r="G10" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -33853,10 +34020,10 @@
         <v>1656</v>
       </c>
       <c r="J10" t="s">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="K10" t="s">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -33870,13 +34037,13 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>1987</v>
+        <v>1995</v>
       </c>
       <c r="F11" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G11" t="s">
         <v>1988</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1980</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -33885,10 +34052,10 @@
         <v>1656</v>
       </c>
       <c r="J11" t="s">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="K11" t="s">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -33902,13 +34069,13 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="F12" t="s">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="G12" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -33917,7 +34084,7 @@
         <v>1656</v>
       </c>
       <c r="J12" t="s">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="K12" t="s">
         <v>1724</v>
@@ -33934,13 +34101,13 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="F13" t="s">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="G13" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -33949,10 +34116,10 @@
         <v>1656</v>
       </c>
       <c r="J13" t="s">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="K13" t="s">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -33966,13 +34133,13 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="F14" t="s">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="G14" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
@@ -33981,10 +34148,10 @@
         <v>1656</v>
       </c>
       <c r="J14" t="s">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="K14" t="s">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -33998,13 +34165,13 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="F15" t="s">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="G15" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -34013,10 +34180,10 @@
         <v>1656</v>
       </c>
       <c r="J15" t="s">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="K15" t="s">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -34030,13 +34197,13 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="F16" t="s">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="G16" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
@@ -34045,10 +34212,10 @@
         <v>1656</v>
       </c>
       <c r="J16" t="s">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="K16" t="s">
-        <v>2007</v>
+        <v>2015</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -34062,13 +34229,13 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="F17" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="G17" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -34077,10 +34244,10 @@
         <v>1656</v>
       </c>
       <c r="J17" t="s">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="K17" t="s">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -34097,10 +34264,10 @@
         <v>1653</v>
       </c>
       <c r="F18" t="s">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="G18" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
@@ -34109,10 +34276,10 @@
         <v>1656</v>
       </c>
       <c r="J18" t="s">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="K18" t="s">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -34126,13 +34293,13 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" s="5" t="s">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="G19" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
@@ -34141,7 +34308,7 @@
         <v>1662</v>
       </c>
       <c r="J19" t="s">
-        <v>2017</v>
+        <v>2025</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -34190,7 +34357,7 @@
         <v>1673</v>
       </c>
       <c r="F22" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -34209,7 +34376,7 @@
         <v>1673</v>
       </c>
       <c r="F23" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -34228,7 +34395,7 @@
         <v>1673</v>
       </c>
       <c r="F24" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -34247,7 +34414,7 @@
         <v>1673</v>
       </c>
       <c r="F25" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -34266,7 +34433,7 @@
         <v>1673</v>
       </c>
       <c r="F26" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -34285,7 +34452,7 @@
         <v>1673</v>
       </c>
       <c r="F27" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -34304,7 +34471,7 @@
         <v>1673</v>
       </c>
       <c r="F28" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -34323,7 +34490,7 @@
         <v>1673</v>
       </c>
       <c r="F29" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -34342,7 +34509,7 @@
         <v>1673</v>
       </c>
       <c r="F30" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -34361,7 +34528,7 @@
         <v>1673</v>
       </c>
       <c r="F31" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -34380,7 +34547,7 @@
         <v>1673</v>
       </c>
       <c r="F32" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -34399,7 +34566,7 @@
         <v>1673</v>
       </c>
       <c r="F33" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -34418,7 +34585,7 @@
         <v>1673</v>
       </c>
       <c r="F34" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -34437,7 +34604,7 @@
         <v>1673</v>
       </c>
       <c r="F35" t="s">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -7844,8 +7844,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -7991,6 +7991,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -8013,45 +8028,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8081,6 +8060,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -8104,32 +8128,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8211,7 +8211,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8223,43 +8265,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8277,13 +8301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8295,13 +8313,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8313,85 +8379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8500,39 +8500,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8541,32 +8513,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -8590,6 +8536,60 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -8598,148 +8598,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -20739,7 +20739,7 @@
   <dimension ref="A1:H358"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="G362" sqref="G362"/>
+      <selection activeCell="F359" sqref="F359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
@@ -25004,8 +25004,8 @@
         <v>1641</v>
       </c>
       <c r="F358" t="str">
-        <f>菜单SAAS版!E119</f>
-        <v>iam_menu-122</v>
+        <f>菜单SAAS版!E123</f>
+        <v>iam_menu-126</v>
       </c>
       <c r="G358" t="s">
         <v>1642</v>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\choerodon-iam\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DEBA22-91DD-40B5-B82F-A614B6F59A5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +26,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5930" uniqueCount="2065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5932" uniqueCount="2067">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +57,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +70,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +159,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +178,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +282,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +303,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +315,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +346,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +403,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +422,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +539,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +655,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +729,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +748,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +786,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +898,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +917,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +941,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +960,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1000,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1020,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1041,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1061,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1096,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1117,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1148,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1311,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1349,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1410,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1439,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1454,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1473,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1492,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1594,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1802,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1821,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1860,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1872,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1883,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1905,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1924,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6342,6 +6454,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>iam_menu_permission-30</t>
@@ -6351,6 +6464,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -7949,18 +8063,20 @@
   <si>
     <t>平台管理员标签</t>
   </si>
+  <si>
+    <t>iam_menu_permission-386</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.organization-config.checkConfigured</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="50">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7971,25 +8087,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
@@ -8011,7 +8127,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="5" tint="-0.25"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -8023,7 +8139,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1" tint="0.0499893185216834"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -8055,19 +8171,19 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1" tint="0.0499893185216834"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -8101,157 +8217,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -8280,12 +8245,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8294,8 +8261,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8326,194 +8328,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -8614,254 +8430,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8916,20 +8490,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8963,9 +8525,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8973,59 +8532,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -9098,6 +8626,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9355,277 +8886,274 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.5777777777778" style="29" customWidth="1"/>
-    <col min="2" max="2" width="10.2518518518519" style="30" customWidth="1"/>
-    <col min="3" max="3" width="28.162962962963" customWidth="1"/>
-    <col min="4" max="4" width="35.2518518518519" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5777777777778" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5777777777778" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="10.2109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.2109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5777777777778" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.162962962963" customWidth="1"/>
-    <col min="12" max="12" width="18.5777777777778" customWidth="1"/>
-    <col min="13" max="13" width="13.162962962963" customWidth="1"/>
-    <col min="14" max="1025" width="10.2518518518519" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.2109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="31"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="35" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="37" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="31"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="41" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="44" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="46"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="47" t="s">
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" spans="1:8" ht="49.5">
+      <c r="C9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="45" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="50" t="s">
+    <row r="10" spans="1:8" ht="49.5">
+      <c r="C10" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="44" t="s">
+    <row r="11" spans="1:8" ht="66">
+      <c r="C11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="44" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="52" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:8" ht="33">
+      <c r="C15" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="50" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="56" t="s">
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="56" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="56" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="51" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="56" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="51" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="57" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="35"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="45" t="s">
+      <c r="E25" s="55"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="58" t="s">
+      <c r="E26" s="55"/>
+    </row>
+    <row r="27" spans="3:5" ht="49.5">
+      <c r="C27" s="53" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="34" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y229"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView topLeftCell="E62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="21.7481481481481" style="20" customWidth="1"/>
-    <col min="6" max="6" width="58.7481481481481" customWidth="1"/>
-    <col min="7" max="7" width="28.162962962963" customWidth="1"/>
-    <col min="9" max="9" width="16.162962962963" customWidth="1"/>
-    <col min="10" max="10" width="26.7481481481481" customWidth="1"/>
-    <col min="11" max="11" width="27.4148148148148" customWidth="1"/>
-    <col min="15" max="15" width="25.2518518518519" customWidth="1"/>
-    <col min="16" max="16" width="28.4148148148148" customWidth="1"/>
-    <col min="19" max="19" width="115.162962962963" customWidth="1"/>
-    <col min="20" max="20" width="24.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.2109375" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" customWidth="1"/>
+    <col min="19" max="19" width="115.140625" customWidth="1"/>
+    <col min="20" max="20" width="24.2109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9639,7 +9167,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="21" t="s">
         <v>47</v>
       </c>
@@ -9727,7 +9255,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" s="22" t="s">
         <v>75</v>
       </c>
@@ -9774,7 +9302,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" s="22" t="s">
         <v>84</v>
       </c>
@@ -9824,7 +9352,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" s="23" t="s">
         <v>88</v>
       </c>
@@ -9881,7 +9409,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" s="20" t="s">
         <v>97</v>
       </c>
@@ -9932,7 +9460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" s="20" t="s">
         <v>104</v>
       </c>
@@ -9980,7 +9508,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" s="20" t="s">
         <v>108</v>
       </c>
@@ -10031,7 +9559,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" s="23" t="s">
         <v>112</v>
       </c>
@@ -10088,7 +9616,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" s="20" t="s">
         <v>119</v>
       </c>
@@ -10136,7 +9664,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" s="20" t="s">
         <v>123</v>
       </c>
@@ -20386,7 +19914,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="218" s="7" customFormat="1" spans="5:24">
+    <row r="218" spans="5:24" s="7" customFormat="1">
       <c r="E218" s="26" t="s">
         <v>985</v>
       </c>
@@ -20443,7 +19971,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="219" s="7" customFormat="1" spans="5:24">
+    <row r="219" spans="5:24" s="7" customFormat="1">
       <c r="E219" s="26" t="s">
         <v>990</v>
       </c>
@@ -20491,7 +20019,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="220" s="7" customFormat="1" spans="5:24">
+    <row r="220" spans="5:24" s="7" customFormat="1">
       <c r="E220" s="26" t="s">
         <v>993</v>
       </c>
@@ -20539,7 +20067,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="221" s="7" customFormat="1" spans="5:24">
+    <row r="221" spans="5:24" s="7" customFormat="1">
       <c r="E221" s="26" t="s">
         <v>996</v>
       </c>
@@ -20587,7 +20115,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="222" s="7" customFormat="1" spans="5:24">
+    <row r="222" spans="5:24" s="7" customFormat="1">
       <c r="E222" s="26" t="s">
         <v>999</v>
       </c>
@@ -20635,7 +20163,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="223" s="7" customFormat="1" spans="5:24">
+    <row r="223" spans="5:24" s="7" customFormat="1">
       <c r="E223" s="26" t="s">
         <v>1002</v>
       </c>
@@ -20731,7 +20259,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="225" spans="5:18">
+    <row r="225" spans="5:24">
       <c r="E225" s="27" t="s">
         <v>1009</v>
       </c>
@@ -20766,7 +20294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="5:18">
+    <row r="226" spans="5:24">
       <c r="E226" s="27" t="s">
         <v>1012</v>
       </c>
@@ -20849,7 +20377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" s="9" customFormat="1" spans="5:24">
+    <row r="228" spans="5:24" s="9" customFormat="1">
       <c r="E228" s="28" t="s">
         <v>1018</v>
       </c>
@@ -20897,7 +20425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="229" s="9" customFormat="1" spans="5:24">
+    <row r="229" spans="5:24" s="9" customFormat="1">
       <c r="E229" s="28" t="s">
         <v>1022</v>
       </c>
@@ -20946,28 +20474,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H370"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C355" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C358" workbookViewId="0">
       <selection activeCell="G371" sqref="G371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="35.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="17.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="64.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.2109375" customWidth="1"/>
+    <col min="7" max="7" width="64.2109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -20981,7 +20508,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -20992,7 +20519,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -21015,7 +20542,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:8">
       <c r="E8" t="s">
         <v>1030</v>
       </c>
@@ -21027,7 +20554,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:8">
       <c r="E9" t="s">
         <v>1032</v>
       </c>
@@ -21039,7 +20566,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:8">
       <c r="E10" t="s">
         <v>1034</v>
       </c>
@@ -21051,7 +20578,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:8">
       <c r="E11" t="s">
         <v>1036</v>
       </c>
@@ -21063,7 +20590,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="12" spans="5:8">
+    <row r="12" spans="1:8">
       <c r="E12" s="11" t="s">
         <v>1038</v>
       </c>
@@ -21076,7 +20603,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="5:8">
+    <row r="13" spans="1:8">
       <c r="E13" s="11" t="s">
         <v>1040</v>
       </c>
@@ -21089,7 +20616,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:8">
       <c r="E14" t="s">
         <v>1042</v>
       </c>
@@ -21101,7 +20628,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:8">
       <c r="E15" t="s">
         <v>1044</v>
       </c>
@@ -21113,7 +20640,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:8">
       <c r="E16" t="s">
         <v>1046</v>
       </c>
@@ -24665,7 +24192,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="312" s="8" customFormat="1" spans="5:7">
+    <row r="312" spans="5:7" s="8" customFormat="1">
       <c r="E312" s="8" t="s">
         <v>1577</v>
       </c>
@@ -24677,7 +24204,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="313" s="8" customFormat="1" spans="5:7">
+    <row r="313" spans="5:7" s="8" customFormat="1">
       <c r="E313" s="8" t="s">
         <v>1579</v>
       </c>
@@ -24689,7 +24216,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="314" s="8" customFormat="1" spans="5:7">
+    <row r="314" spans="5:7" s="8" customFormat="1">
       <c r="E314" s="8" t="s">
         <v>1580</v>
       </c>
@@ -24917,7 +24444,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="333" s="7" customFormat="1" spans="5:7">
+    <row r="333" spans="5:7" s="7" customFormat="1">
       <c r="E333" s="7" t="s">
         <v>1607</v>
       </c>
@@ -24929,7 +24456,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="334" s="7" customFormat="1" spans="5:7">
+    <row r="334" spans="5:7" s="7" customFormat="1">
       <c r="E334" s="7" t="s">
         <v>1608</v>
       </c>
@@ -24941,7 +24468,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="335" s="7" customFormat="1" spans="5:7">
+    <row r="335" spans="5:7" s="7" customFormat="1">
       <c r="E335" s="7" t="s">
         <v>1610</v>
       </c>
@@ -24953,7 +24480,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="336" s="7" customFormat="1" spans="5:7">
+    <row r="336" spans="5:7" s="7" customFormat="1">
       <c r="E336" s="7" t="s">
         <v>1612</v>
       </c>
@@ -24965,7 +24492,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="337" s="7" customFormat="1" spans="5:7">
+    <row r="337" spans="5:7" s="7" customFormat="1">
       <c r="E337" s="7" t="s">
         <v>1614</v>
       </c>
@@ -25025,7 +24552,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="342" s="11" customFormat="1" spans="5:7">
+    <row r="342" spans="5:7" s="11" customFormat="1">
       <c r="E342" s="11" t="s">
         <v>1624</v>
       </c>
@@ -25037,7 +24564,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="343" s="12" customFormat="1" spans="5:7">
+    <row r="343" spans="5:7" s="12" customFormat="1">
       <c r="E343" s="12" t="s">
         <v>1625</v>
       </c>
@@ -25061,7 +24588,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="345" s="11" customFormat="1" spans="5:7">
+    <row r="345" spans="5:7" s="11" customFormat="1">
       <c r="E345" s="11" t="s">
         <v>1629</v>
       </c>
@@ -25073,7 +24600,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="346" s="11" customFormat="1" spans="5:7">
+    <row r="346" spans="5:7" s="11" customFormat="1">
       <c r="E346" s="11" t="s">
         <v>1631</v>
       </c>
@@ -25085,7 +24612,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="347" s="11" customFormat="1" spans="5:7">
+    <row r="347" spans="5:7" s="11" customFormat="1">
       <c r="E347" s="11" t="s">
         <v>1633</v>
       </c>
@@ -25097,7 +24624,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="348" s="11" customFormat="1" spans="5:7">
+    <row r="348" spans="5:7" s="11" customFormat="1">
       <c r="E348" s="11" t="s">
         <v>1635</v>
       </c>
@@ -25157,7 +24684,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="353" spans="5:7">
+    <row r="353" spans="1:7">
       <c r="E353" s="11" t="s">
         <v>1641</v>
       </c>
@@ -25169,7 +24696,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="354" spans="5:7">
+    <row r="354" spans="1:7">
       <c r="E354" s="11" t="s">
         <v>1642</v>
       </c>
@@ -25181,7 +24708,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="355" spans="5:7">
+    <row r="355" spans="1:7">
       <c r="E355" s="11" t="s">
         <v>1644</v>
       </c>
@@ -25193,7 +24720,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="356" spans="5:7">
+    <row r="356" spans="1:7">
       <c r="E356" s="11" t="s">
         <v>1646</v>
       </c>
@@ -25205,7 +24732,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="357" s="8" customFormat="1" spans="5:7">
+    <row r="357" spans="1:7" s="8" customFormat="1">
       <c r="E357" s="8" t="s">
         <v>1648</v>
       </c>
@@ -25217,7 +24744,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="358" spans="5:7">
+    <row r="358" spans="1:7">
       <c r="E358" t="s">
         <v>1649</v>
       </c>
@@ -25229,7 +24756,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="359" spans="5:7">
+    <row r="359" spans="1:7">
       <c r="E359" t="s">
         <v>1651</v>
       </c>
@@ -25241,7 +24768,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="360" spans="5:7">
+    <row r="360" spans="1:7">
       <c r="E360" t="s">
         <v>1653</v>
       </c>
@@ -25253,7 +24780,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="361" spans="5:7">
+    <row r="361" spans="1:7">
       <c r="E361" t="s">
         <v>1655</v>
       </c>
@@ -25265,7 +24792,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="362" spans="5:7">
+    <row r="362" spans="1:7">
       <c r="E362" t="s">
         <v>1657</v>
       </c>
@@ -25277,7 +24804,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="363" spans="5:7">
+    <row r="363" spans="1:7">
       <c r="E363" t="s">
         <v>1659</v>
       </c>
@@ -25289,7 +24816,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="364" spans="5:7">
+    <row r="364" spans="1:7">
       <c r="E364" t="s">
         <v>1661</v>
       </c>
@@ -25397,30 +24924,41 @@
         <v>1673</v>
       </c>
     </row>
+    <row r="371" spans="1:7">
+      <c r="E371" s="59" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F371" t="str">
+        <f>菜单SAAS版!$E$80</f>
+        <v>iam_menu-80</v>
+      </c>
+      <c r="G371" s="59" t="s">
+        <v>2066</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O160"/>
   <sheetViews>
     <sheetView topLeftCell="E4" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="19.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="28.7481481481481" customWidth="1"/>
-    <col min="7" max="7" width="14.2518518518519" customWidth="1"/>
-    <col min="8" max="8" width="14.162962962963" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.2109375" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -25434,7 +24972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -25492,7 +25030,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1686</v>
       </c>
@@ -25524,7 +25062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1691</v>
       </c>
@@ -25550,7 +25088,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1693</v>
       </c>
@@ -25582,7 +25120,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1697</v>
       </c>
@@ -25608,7 +25146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -25637,7 +25175,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="14" spans="5:9">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1706</v>
       </c>
@@ -25656,7 +25194,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="15" spans="5:9">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1706</v>
       </c>
@@ -25675,7 +25213,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="16" spans="5:9">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1706</v>
       </c>
@@ -28431,28 +27969,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y260"/>
   <sheetViews>
     <sheetView topLeftCell="A245" workbookViewId="0">
       <selection activeCell="G257" sqref="G257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="24.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="21.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="19.7481481481481" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.2109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -28466,7 +28003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -28554,7 +28091,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1725</v>
       </c>
@@ -28613,7 +28150,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1730</v>
       </c>
@@ -28672,7 +28209,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1735</v>
       </c>
@@ -28735,7 +28272,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1742</v>
       </c>
@@ -28798,7 +28335,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1750</v>
       </c>
@@ -28861,7 +28398,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1758</v>
       </c>
@@ -28924,7 +28461,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" s="6" t="s">
         <v>1766</v>
       </c>
@@ -28981,7 +28518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -33831,7 +33368,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="236" s="7" customFormat="1" spans="5:10">
+    <row r="236" spans="5:10" s="7" customFormat="1">
       <c r="E236" s="7" t="s">
         <v>2000</v>
       </c>
@@ -33853,7 +33390,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="237" s="7" customFormat="1" spans="5:10">
+    <row r="237" spans="5:10" s="7" customFormat="1">
       <c r="E237" s="7" t="s">
         <v>2001</v>
       </c>
@@ -33875,7 +33412,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="238" s="7" customFormat="1" spans="5:10">
+    <row r="238" spans="5:10" s="7" customFormat="1">
       <c r="E238" s="7" t="s">
         <v>2002</v>
       </c>
@@ -33897,7 +33434,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="239" s="7" customFormat="1" spans="5:10">
+    <row r="239" spans="5:10" s="7" customFormat="1">
       <c r="E239" s="7" t="s">
         <v>2003</v>
       </c>
@@ -33919,7 +33456,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="240" s="7" customFormat="1" spans="5:10">
+    <row r="240" spans="5:10" s="7" customFormat="1">
       <c r="E240" s="7" t="s">
         <v>2004</v>
       </c>
@@ -33941,7 +33478,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="241" s="7" customFormat="1" spans="5:10">
+    <row r="241" spans="5:10" s="7" customFormat="1">
       <c r="E241" s="7" t="s">
         <v>2005</v>
       </c>
@@ -33963,7 +33500,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="242" s="7" customFormat="1" spans="5:10">
+    <row r="242" spans="5:10" s="7" customFormat="1">
       <c r="E242" s="7" t="s">
         <v>2006</v>
       </c>
@@ -33985,7 +33522,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="243" s="7" customFormat="1" spans="5:10">
+    <row r="243" spans="5:10" s="7" customFormat="1">
       <c r="E243" s="7" t="s">
         <v>2007</v>
       </c>
@@ -34007,7 +33544,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="244" s="7" customFormat="1" spans="5:10">
+    <row r="244" spans="5:10" s="7" customFormat="1">
       <c r="E244" s="7" t="s">
         <v>2008</v>
       </c>
@@ -34029,7 +33566,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="245" s="7" customFormat="1" spans="5:10">
+    <row r="245" spans="5:10" s="7" customFormat="1">
       <c r="E245" s="7" t="s">
         <v>2009</v>
       </c>
@@ -34051,7 +33588,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="246" s="8" customFormat="1" spans="5:10">
+    <row r="246" spans="5:10" s="8" customFormat="1">
       <c r="E246" s="8" t="s">
         <v>2010</v>
       </c>
@@ -34249,7 +33786,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="255" s="9" customFormat="1" spans="5:10">
+    <row r="255" spans="5:10" s="9" customFormat="1">
       <c r="E255" s="10" t="s">
         <v>2019</v>
       </c>
@@ -34271,7 +33808,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="256" s="9" customFormat="1" spans="5:10">
+    <row r="256" spans="5:10" s="9" customFormat="1">
       <c r="E256" s="10" t="s">
         <v>2020</v>
       </c>
@@ -34293,7 +33830,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="257" s="9" customFormat="1" spans="5:10">
+    <row r="257" spans="5:10" s="9" customFormat="1">
       <c r="E257" s="10" t="s">
         <v>2021</v>
       </c>
@@ -34315,7 +33852,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="258" s="9" customFormat="1" spans="5:10">
+    <row r="258" spans="5:10" s="9" customFormat="1">
       <c r="E258" s="10" t="s">
         <v>2022</v>
       </c>
@@ -34337,7 +33874,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="259" s="9" customFormat="1" spans="5:10">
+    <row r="259" spans="5:10" s="9" customFormat="1">
       <c r="E259" s="10" t="s">
         <v>2023</v>
       </c>
@@ -34359,7 +33896,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="260" s="9" customFormat="1" spans="5:10">
+    <row r="260" spans="5:10" s="9" customFormat="1">
       <c r="E260" s="10" t="s">
         <v>2024</v>
       </c>
@@ -34382,28 +33919,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="23.4148148148148" customWidth="1"/>
-    <col min="6" max="6" width="30.162962962963" customWidth="1"/>
-    <col min="8" max="8" width="26.4148148148148" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -34417,7 +33953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -34475,7 +34011,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>2025</v>
       </c>
@@ -34507,7 +34043,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1691</v>
       </c>
@@ -34539,7 +34075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1693</v>
       </c>
@@ -34571,7 +34107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>2034</v>
       </c>
@@ -34603,7 +34139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>2038</v>
       </c>
@@ -34635,7 +34171,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>2041</v>
       </c>
@@ -34667,7 +34203,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>2045</v>
       </c>
@@ -34699,7 +34235,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>2049</v>
       </c>
@@ -34731,7 +34267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>2053</v>
       </c>
@@ -34763,7 +34299,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>2056</v>
       </c>
@@ -34795,7 +34331,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" s="5" t="s">
         <v>1686</v>
       </c>
@@ -34827,7 +34363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" s="5" t="s">
         <v>2062</v>
       </c>
@@ -34856,10 +34392,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="1:15">
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -34888,7 +34424,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1706</v>
       </c>
@@ -34907,7 +34443,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1706</v>
       </c>
@@ -34926,7 +34462,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1706</v>
       </c>
@@ -34945,7 +34481,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1706</v>
       </c>
@@ -34964,7 +34500,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1706</v>
       </c>
@@ -34983,7 +34519,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1706</v>
       </c>
@@ -35002,7 +34538,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1706</v>
       </c>
@@ -35021,7 +34557,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1706</v>
       </c>
@@ -35040,7 +34576,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1706</v>
       </c>
@@ -35059,7 +34595,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1706</v>
       </c>
@@ -35078,7 +34614,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1706</v>
       </c>
@@ -35155,8 +34691,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,10 @@
     <sheet name="菜单标签数据" sheetId="4" r:id="rId4"/>
     <sheet name="角色" sheetId="5" r:id="rId5"/>
     <sheet name="角色标签数据" sheetId="6" r:id="rId6"/>
+    <sheet name="用户指引" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">菜单SAAS版!$A$7:$Y$229</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5934" uniqueCount="2069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5973" uniqueCount="2091">
   <si>
     <r>
       <rPr>
@@ -7961,18 +7963,84 @@
   <si>
     <t>平台管理员标签</t>
   </si>
+  <si>
+    <t>用户指引表</t>
+  </si>
+  <si>
+    <t>fd_user_guide</t>
+  </si>
+  <si>
+    <t>#STEP_CODE</t>
+  </si>
+  <si>
+    <t>STEP_NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DOC_URL</t>
+  </si>
+  <si>
+    <t>PAGE_URL</t>
+  </si>
+  <si>
+    <t>fd_user_guide-1</t>
+  </si>
+  <si>
+    <t>ADD-ORG-ADMIN</t>
+  </si>
+  <si>
+    <t>为组织添加组织管理员</t>
+  </si>
+  <si>
+    <t>/test</t>
+  </si>
+  <si>
+    <t>/#/iam/org-admin?type=organization&amp;id=${projectId}&amp;name=${organizationName}&amp;organizationId=${organizationId}</t>
+  </si>
+  <si>
+    <t>fd_user_guide-2</t>
+  </si>
+  <si>
+    <t>DEL-ORG-ADMIN</t>
+  </si>
+  <si>
+    <t>用户指引菜单关系表</t>
+  </si>
+  <si>
+    <t>fd_user_guide_menu_rel</t>
+  </si>
+  <si>
+    <t>*ID</t>
+  </si>
+  <si>
+    <t>#MENU_ID</t>
+  </si>
+  <si>
+    <t>#STEP_ID</t>
+  </si>
+  <si>
+    <t>STEP_ORDER</t>
+  </si>
+  <si>
+    <t>fd_user_guide_menu_rel-1</t>
+  </si>
+  <si>
+    <t>fd_user_guide_menu_rel-2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="52">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8001,6 +8069,17 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF003366"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8121,30 +8200,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8156,32 +8214,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8203,14 +8237,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8225,24 +8305,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8253,14 +8340,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8340,19 +8419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8364,7 +8431,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8376,73 +8491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8460,7 +8509,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8472,55 +8593,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8627,11 +8706,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8647,6 +8732,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8675,41 +8789,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8727,161 +8806,161 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8893,6 +8972,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -8911,13 +8992,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -8927,44 +9008,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8977,7 +9058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9378,155 +9459,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="28" customWidth="1"/>
-    <col min="2" max="2" width="10.2083333333333" style="29" customWidth="1"/>
-    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.2083333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
-    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="30" customWidth="1"/>
+    <col min="2" max="2" width="10.2074074074074" style="31" customWidth="1"/>
+    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
+    <col min="4" max="4" width="35.2074074074074" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
+    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
-    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
-    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
-    <col min="14" max="1025" width="10.2083333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
+    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
+    <col min="14" max="1025" width="10.2074074074074" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="30"/>
-      <c r="C1" s="31" t="s">
+      <c r="A1" s="32"/>
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="35"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="36" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="32"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="40" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="45"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="46" t="s">
+      <c r="E8" s="47"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="50" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="49" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="43" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="52" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="51" t="s">
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="55" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9536,64 +9617,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="55" t="s">
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="55" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="55" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="55" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="34"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="57" t="s">
+      <c r="E26" s="36"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="59" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9615,25 +9696,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y230"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="E229" sqref="E229"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="21.7083333333333" style="19" customWidth="1"/>
-    <col min="6" max="6" width="58.7083333333333" customWidth="1"/>
-    <col min="7" max="7" width="28.1388888888889" customWidth="1"/>
-    <col min="9" max="9" width="16.1388888888889" customWidth="1"/>
-    <col min="10" max="10" width="26.7083333333333" customWidth="1"/>
-    <col min="11" max="11" width="27.4236111111111" customWidth="1"/>
-    <col min="15" max="15" width="25.2083333333333" customWidth="1"/>
-    <col min="16" max="16" width="28.4236111111111" customWidth="1"/>
-    <col min="19" max="19" width="115.138888888889" customWidth="1"/>
-    <col min="20" max="20" width="24.2083333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.8962962962963" customWidth="1"/>
+    <col min="5" max="5" width="21.7111111111111" style="21" customWidth="1"/>
+    <col min="6" max="6" width="58.7111111111111" customWidth="1"/>
+    <col min="7" max="7" width="28.1407407407407" customWidth="1"/>
+    <col min="9" max="9" width="16.1407407407407" customWidth="1"/>
+    <col min="10" max="10" width="26.7111111111111" customWidth="1"/>
+    <col min="11" max="11" width="27.4222222222222" customWidth="1"/>
+    <col min="15" max="15" width="25.2074074074074" customWidth="1"/>
+    <col min="16" max="16" width="28.4222222222222" customWidth="1"/>
+    <col min="19" max="19" width="115.140740740741" customWidth="1"/>
+    <col min="20" max="20" width="24.2074074074074" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9651,7 +9733,7 @@
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="22" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -9674,7 +9756,7 @@
       <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -9738,8 +9820,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
-      <c r="E8" s="21" t="s">
+    <row r="8" hidden="1" spans="5:24">
+      <c r="E8" s="23" t="s">
         <v>75</v>
       </c>
       <c r="F8" t="s">
@@ -9785,8 +9867,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
-      <c r="E9" s="21" t="s">
+    <row r="9" hidden="1" spans="5:24">
+      <c r="E9" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F9" t="s">
@@ -9836,7 +9918,7 @@
       </c>
     </row>
     <row r="10" spans="5:24">
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="24" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
@@ -9892,8 +9974,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
-      <c r="E11" s="19" t="s">
+    <row r="11" hidden="1" spans="5:24">
+      <c r="E11" s="21" t="s">
         <v>97</v>
       </c>
       <c r="F11" t="s">
@@ -9943,8 +10025,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
-      <c r="E12" s="19" t="s">
+    <row r="12" hidden="1" spans="5:24">
+      <c r="E12" s="21" t="s">
         <v>104</v>
       </c>
       <c r="F12" t="s">
@@ -9991,8 +10073,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
-      <c r="E13" s="19" t="s">
+    <row r="13" hidden="1" spans="5:24">
+      <c r="E13" s="21" t="s">
         <v>108</v>
       </c>
       <c r="F13" t="s">
@@ -10043,7 +10125,7 @@
       </c>
     </row>
     <row r="14" spans="5:24">
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="24" t="s">
         <v>112</v>
       </c>
       <c r="F14" t="s">
@@ -10099,8 +10181,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
-      <c r="E15" s="19" t="s">
+    <row r="15" hidden="1" spans="5:24">
+      <c r="E15" s="21" t="s">
         <v>119</v>
       </c>
       <c r="F15" t="s">
@@ -10148,7 +10230,7 @@
       </c>
     </row>
     <row r="16" spans="5:24">
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="21" t="s">
         <v>123</v>
       </c>
       <c r="F16" t="s">
@@ -10204,8 +10286,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:24">
-      <c r="E17" s="19" t="s">
+    <row r="17" hidden="1" spans="5:24">
+      <c r="E17" s="21" t="s">
         <v>131</v>
       </c>
       <c r="F17" t="s">
@@ -10255,8 +10337,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:24">
-      <c r="E18" s="19" t="s">
+    <row r="18" hidden="1" spans="5:24">
+      <c r="E18" s="21" t="s">
         <v>135</v>
       </c>
       <c r="F18" t="s">
@@ -10306,8 +10388,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:24">
-      <c r="E19" s="19" t="s">
+    <row r="19" hidden="1" spans="5:24">
+      <c r="E19" s="21" t="s">
         <v>140</v>
       </c>
       <c r="F19" t="s">
@@ -10357,8 +10439,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="5:24">
-      <c r="E20" s="19" t="s">
+    <row r="20" hidden="1" spans="5:24">
+      <c r="E20" s="21" t="s">
         <v>145</v>
       </c>
       <c r="F20" t="s">
@@ -10408,8 +10490,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="5:24">
-      <c r="E21" s="19" t="s">
+    <row r="21" hidden="1" spans="5:24">
+      <c r="E21" s="21" t="s">
         <v>150</v>
       </c>
       <c r="F21" t="s">
@@ -10459,8 +10541,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:24">
-      <c r="E22" s="19" t="s">
+    <row r="22" hidden="1" spans="5:24">
+      <c r="E22" s="21" t="s">
         <v>155</v>
       </c>
       <c r="F22" t="s">
@@ -10511,7 +10593,7 @@
       </c>
     </row>
     <row r="23" spans="5:24">
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="24" t="s">
         <v>159</v>
       </c>
       <c r="F23" t="s">
@@ -10567,8 +10649,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:24">
-      <c r="E24" s="19" t="s">
+    <row r="24" hidden="1" spans="5:24">
+      <c r="E24" s="21" t="s">
         <v>166</v>
       </c>
       <c r="F24" t="s">
@@ -10616,7 +10698,7 @@
       </c>
     </row>
     <row r="25" spans="5:24">
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="24" t="s">
         <v>170</v>
       </c>
       <c r="F25" t="s">
@@ -10672,8 +10754,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="5:24">
-      <c r="E26" s="19" t="s">
+    <row r="26" hidden="1" spans="5:24">
+      <c r="E26" s="21" t="s">
         <v>177</v>
       </c>
       <c r="F26" t="s">
@@ -10720,8 +10802,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="5:24">
-      <c r="E27" s="19" t="s">
+    <row r="27" hidden="1" spans="5:24">
+      <c r="E27" s="21" t="s">
         <v>181</v>
       </c>
       <c r="F27" t="s">
@@ -10768,8 +10850,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="5:24">
-      <c r="E28" s="19" t="s">
+    <row r="28" hidden="1" spans="5:24">
+      <c r="E28" s="21" t="s">
         <v>185</v>
       </c>
       <c r="F28" t="s">
@@ -10816,8 +10898,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="5:24">
-      <c r="E29" s="19" t="s">
+    <row r="29" hidden="1" spans="5:24">
+      <c r="E29" s="21" t="s">
         <v>189</v>
       </c>
       <c r="F29" t="s">
@@ -10864,8 +10946,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="5:24">
-      <c r="E30" s="19" t="s">
+    <row r="30" hidden="1" spans="5:24">
+      <c r="E30" s="21" t="s">
         <v>193</v>
       </c>
       <c r="F30" t="s">
@@ -10912,8 +10994,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="5:24">
-      <c r="E31" s="19" t="s">
+    <row r="31" hidden="1" spans="5:24">
+      <c r="E31" s="21" t="s">
         <v>197</v>
       </c>
       <c r="F31" t="s">
@@ -10960,8 +11042,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="5:24">
-      <c r="E32" s="19" t="s">
+    <row r="32" hidden="1" spans="5:24">
+      <c r="E32" s="21" t="s">
         <v>201</v>
       </c>
       <c r="F32" t="s">
@@ -11009,7 +11091,7 @@
       </c>
     </row>
     <row r="33" spans="5:24">
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="24" t="s">
         <v>205</v>
       </c>
       <c r="F33" t="s">
@@ -11065,8 +11147,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="5:24">
-      <c r="E34" s="19" t="s">
+    <row r="34" hidden="1" spans="5:24">
+      <c r="E34" s="21" t="s">
         <v>212</v>
       </c>
       <c r="F34" t="s">
@@ -11116,8 +11198,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="5:24">
-      <c r="E35" s="19" t="s">
+    <row r="35" hidden="1" spans="5:24">
+      <c r="E35" s="21" t="s">
         <v>216</v>
       </c>
       <c r="F35" t="s">
@@ -11167,8 +11249,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="5:24">
-      <c r="E36" s="19" t="s">
+    <row r="36" hidden="1" spans="5:24">
+      <c r="E36" s="21" t="s">
         <v>219</v>
       </c>
       <c r="F36" t="s">
@@ -11218,8 +11300,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="5:24">
-      <c r="E37" s="19" t="s">
+    <row r="37" hidden="1" spans="5:24">
+      <c r="E37" s="21" t="s">
         <v>223</v>
       </c>
       <c r="F37" t="s">
@@ -11266,8 +11348,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="5:24">
-      <c r="E38" s="19" t="s">
+    <row r="38" hidden="1" spans="5:24">
+      <c r="E38" s="21" t="s">
         <v>227</v>
       </c>
       <c r="F38" t="s">
@@ -11317,8 +11399,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="5:24">
-      <c r="E39" s="19" t="s">
+    <row r="39" hidden="1" spans="5:24">
+      <c r="E39" s="21" t="s">
         <v>232</v>
       </c>
       <c r="F39" t="s">
@@ -11368,8 +11450,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="5:24">
-      <c r="E40" s="19" t="s">
+    <row r="40" hidden="1" spans="5:24">
+      <c r="E40" s="21" t="s">
         <v>237</v>
       </c>
       <c r="F40" t="s">
@@ -11419,8 +11501,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="5:24">
-      <c r="E41" s="19" t="s">
+    <row r="41" hidden="1" spans="5:24">
+      <c r="E41" s="21" t="s">
         <v>242</v>
       </c>
       <c r="F41" t="s">
@@ -11470,8 +11552,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="5:24">
-      <c r="E42" s="19" t="s">
+    <row r="42" hidden="1" spans="5:24">
+      <c r="E42" s="21" t="s">
         <v>246</v>
       </c>
       <c r="F42" t="s">
@@ -11521,8 +11603,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="5:24">
-      <c r="E43" s="19" t="s">
+    <row r="43" hidden="1" spans="5:24">
+      <c r="E43" s="21" t="s">
         <v>250</v>
       </c>
       <c r="F43" t="s">
@@ -11572,8 +11654,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="5:24">
-      <c r="E44" s="19" t="s">
+    <row r="44" hidden="1" spans="5:24">
+      <c r="E44" s="21" t="s">
         <v>254</v>
       </c>
       <c r="F44" t="s">
@@ -11623,8 +11705,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="5:24">
-      <c r="E45" s="19" t="s">
+    <row r="45" hidden="1" spans="5:24">
+      <c r="E45" s="21" t="s">
         <v>258</v>
       </c>
       <c r="F45" t="s">
@@ -11674,8 +11756,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="5:24">
-      <c r="E46" s="19" t="s">
+    <row r="46" hidden="1" spans="5:24">
+      <c r="E46" s="21" t="s">
         <v>263</v>
       </c>
       <c r="F46" t="s">
@@ -11725,8 +11807,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="5:24">
-      <c r="E47" s="21" t="s">
+    <row r="47" hidden="1" spans="5:24">
+      <c r="E47" s="23" t="s">
         <v>268</v>
       </c>
       <c r="F47" t="s">
@@ -11776,7 +11858,7 @@
       </c>
     </row>
     <row r="48" spans="5:24">
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="24" t="s">
         <v>272</v>
       </c>
       <c r="F48" t="s">
@@ -11832,8 +11914,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="5:24">
-      <c r="E49" s="19" t="s">
+    <row r="49" hidden="1" spans="5:24">
+      <c r="E49" s="21" t="s">
         <v>279</v>
       </c>
       <c r="F49" t="s">
@@ -11883,8 +11965,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="5:24">
-      <c r="E50" s="19" t="s">
+    <row r="50" hidden="1" spans="5:24">
+      <c r="E50" s="21" t="s">
         <v>283</v>
       </c>
       <c r="F50" t="s">
@@ -11931,8 +12013,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="5:24">
-      <c r="E51" s="19" t="s">
+    <row r="51" hidden="1" spans="5:24">
+      <c r="E51" s="21" t="s">
         <v>287</v>
       </c>
       <c r="F51" t="s">
@@ -11982,8 +12064,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="5:24">
-      <c r="E52" s="19" t="s">
+    <row r="52" hidden="1" spans="5:24">
+      <c r="E52" s="21" t="s">
         <v>291</v>
       </c>
       <c r="F52" t="s">
@@ -12033,8 +12115,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="5:24">
-      <c r="E53" s="19" t="s">
+    <row r="53" hidden="1" spans="5:24">
+      <c r="E53" s="21" t="s">
         <v>295</v>
       </c>
       <c r="F53" t="s">
@@ -12085,7 +12167,7 @@
       </c>
     </row>
     <row r="54" spans="5:24">
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="24" t="s">
         <v>299</v>
       </c>
       <c r="F54" t="s">
@@ -12141,8 +12223,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="5:24">
-      <c r="E55" s="19" t="s">
+    <row r="55" hidden="1" spans="5:24">
+      <c r="E55" s="21" t="s">
         <v>306</v>
       </c>
       <c r="F55" t="s">
@@ -12189,8 +12271,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="5:24">
-      <c r="E56" s="19" t="s">
+    <row r="56" hidden="1" spans="5:24">
+      <c r="E56" s="21" t="s">
         <v>310</v>
       </c>
       <c r="F56" t="s">
@@ -12240,8 +12322,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="5:24">
-      <c r="E57" s="19" t="s">
+    <row r="57" hidden="1" spans="5:24">
+      <c r="E57" s="21" t="s">
         <v>315</v>
       </c>
       <c r="F57" t="s">
@@ -12291,8 +12373,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="5:24">
-      <c r="E58" s="19" t="s">
+    <row r="58" hidden="1" spans="5:24">
+      <c r="E58" s="21" t="s">
         <v>319</v>
       </c>
       <c r="F58" t="s">
@@ -12342,8 +12424,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="5:24">
-      <c r="E59" s="19" t="s">
+    <row r="59" hidden="1" spans="5:24">
+      <c r="E59" s="21" t="s">
         <v>323</v>
       </c>
       <c r="F59" t="s">
@@ -12393,8 +12475,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="5:24">
-      <c r="E60" s="19" t="s">
+    <row r="60" hidden="1" spans="5:24">
+      <c r="E60" s="21" t="s">
         <v>327</v>
       </c>
       <c r="F60" t="s">
@@ -12444,8 +12526,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="5:24">
-      <c r="E61" s="19" t="s">
+    <row r="61" hidden="1" spans="5:24">
+      <c r="E61" s="21" t="s">
         <v>331</v>
       </c>
       <c r="F61" t="s">
@@ -12495,8 +12577,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="5:24">
-      <c r="E62" s="19" t="s">
+    <row r="62" hidden="1" spans="5:24">
+      <c r="E62" s="21" t="s">
         <v>335</v>
       </c>
       <c r="F62" t="s">
@@ -12546,8 +12628,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="5:24">
-      <c r="E63" s="19" t="s">
+    <row r="63" hidden="1" spans="5:24">
+      <c r="E63" s="21" t="s">
         <v>339</v>
       </c>
       <c r="F63" t="s">
@@ -12597,8 +12679,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="5:24">
-      <c r="E64" s="19" t="s">
+    <row r="64" hidden="1" spans="5:24">
+      <c r="E64" s="21" t="s">
         <v>343</v>
       </c>
       <c r="F64" t="s">
@@ -12648,8 +12730,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="5:24">
-      <c r="E65" s="19" t="s">
+    <row r="65" hidden="1" spans="5:24">
+      <c r="E65" s="21" t="s">
         <v>347</v>
       </c>
       <c r="F65" t="s">
@@ -12699,8 +12781,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="5:24">
-      <c r="E66" s="19" t="s">
+    <row r="66" hidden="1" spans="5:24">
+      <c r="E66" s="21" t="s">
         <v>351</v>
       </c>
       <c r="F66" t="s">
@@ -12751,7 +12833,7 @@
       </c>
     </row>
     <row r="67" spans="5:24">
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="24" t="s">
         <v>355</v>
       </c>
       <c r="F67" t="s">
@@ -12807,8 +12889,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="5:24">
-      <c r="E68" s="19" t="s">
+    <row r="68" hidden="1" spans="5:24">
+      <c r="E68" s="21" t="s">
         <v>362</v>
       </c>
       <c r="F68" t="s">
@@ -12855,8 +12937,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="5:24">
-      <c r="E69" s="19" t="s">
+    <row r="69" hidden="1" spans="5:24">
+      <c r="E69" s="21" t="s">
         <v>366</v>
       </c>
       <c r="F69" t="s">
@@ -12906,8 +12988,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="5:24">
-      <c r="E70" s="19" t="s">
+    <row r="70" hidden="1" spans="5:24">
+      <c r="E70" s="21" t="s">
         <v>370</v>
       </c>
       <c r="F70" t="s">
@@ -12958,7 +13040,7 @@
       </c>
     </row>
     <row r="71" spans="5:24">
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="24" t="s">
         <v>374</v>
       </c>
       <c r="F71" t="s">
@@ -13014,8 +13096,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="5:24">
-      <c r="E72" s="19" t="s">
+    <row r="72" hidden="1" spans="5:24">
+      <c r="E72" s="21" t="s">
         <v>381</v>
       </c>
       <c r="F72" t="s">
@@ -13062,8 +13144,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="5:24">
-      <c r="E73" s="19" t="s">
+    <row r="73" hidden="1" spans="5:24">
+      <c r="E73" s="21" t="s">
         <v>385</v>
       </c>
       <c r="F73" t="s">
@@ -13110,8 +13192,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="5:24">
-      <c r="E74" s="19" t="s">
+    <row r="74" hidden="1" spans="5:24">
+      <c r="E74" s="21" t="s">
         <v>389</v>
       </c>
       <c r="F74" t="s">
@@ -13158,8 +13240,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="5:24">
-      <c r="E75" s="19" t="s">
+    <row r="75" hidden="1" spans="5:24">
+      <c r="E75" s="21" t="s">
         <v>393</v>
       </c>
       <c r="F75" t="s">
@@ -13206,8 +13288,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="5:24">
-      <c r="E76" s="19" t="s">
+    <row r="76" hidden="1" spans="5:24">
+      <c r="E76" s="21" t="s">
         <v>397</v>
       </c>
       <c r="F76" t="s">
@@ -13255,7 +13337,7 @@
       </c>
     </row>
     <row r="77" spans="5:24">
-      <c r="E77" s="22" t="s">
+      <c r="E77" s="24" t="s">
         <v>401</v>
       </c>
       <c r="F77" t="s">
@@ -13308,8 +13390,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="5:24">
-      <c r="E78" s="19" t="s">
+    <row r="78" hidden="1" spans="5:24">
+      <c r="E78" s="21" t="s">
         <v>407</v>
       </c>
       <c r="F78" t="s">
@@ -13359,8 +13441,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="5:24">
-      <c r="E79" s="19" t="s">
+    <row r="79" hidden="1" spans="5:24">
+      <c r="E79" s="21" t="s">
         <v>411</v>
       </c>
       <c r="F79" t="s">
@@ -13410,8 +13492,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="5:24">
-      <c r="E80" s="19" t="s">
+    <row r="80" hidden="1" spans="5:24">
+      <c r="E80" s="21" t="s">
         <v>414</v>
       </c>
       <c r="F80" t="s">
@@ -13458,17 +13540,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="5:24">
-      <c r="E81" s="21" t="s">
+    <row r="81" hidden="1" spans="5:24">
+      <c r="E81" s="23" t="s">
         <v>419</v>
       </c>
       <c r="F81" t="s">
         <v>420</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="H81" s="6" t="s">
+      <c r="H81" s="7" t="s">
         <v>421</v>
       </c>
       <c r="J81" t="s">
@@ -13506,7 +13588,7 @@
       </c>
     </row>
     <row r="82" spans="5:24">
-      <c r="E82" s="22" t="s">
+      <c r="E82" s="24" t="s">
         <v>422</v>
       </c>
       <c r="F82" t="s">
@@ -13559,8 +13641,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="5:24">
-      <c r="E83" s="19" t="s">
+    <row r="83" hidden="1" spans="5:24">
+      <c r="E83" s="21" t="s">
         <v>428</v>
       </c>
       <c r="F83" t="s">
@@ -13611,7 +13693,7 @@
       </c>
     </row>
     <row r="84" spans="5:24">
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="24" t="s">
         <v>431</v>
       </c>
       <c r="F84" t="s">
@@ -13664,8 +13746,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="5:24">
-      <c r="E85" s="19" t="s">
+    <row r="85" hidden="1" spans="5:24">
+      <c r="E85" s="21" t="s">
         <v>437</v>
       </c>
       <c r="F85" t="s">
@@ -13715,8 +13797,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="5:24">
-      <c r="E86" s="19" t="s">
+    <row r="86" hidden="1" spans="5:24">
+      <c r="E86" s="21" t="s">
         <v>440</v>
       </c>
       <c r="F86" t="s">
@@ -13764,7 +13846,7 @@
       </c>
     </row>
     <row r="87" spans="5:24">
-      <c r="E87" s="22" t="s">
+      <c r="E87" s="24" t="s">
         <v>444</v>
       </c>
       <c r="F87" t="s">
@@ -13817,17 +13899,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="5:24">
-      <c r="E88" s="21" t="s">
+    <row r="88" hidden="1" spans="5:24">
+      <c r="E88" s="23" t="s">
         <v>450</v>
       </c>
       <c r="F88" t="s">
         <v>451</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G88" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="H88" s="7" t="s">
         <v>452</v>
       </c>
       <c r="I88" t="s">
@@ -13868,7 +13950,7 @@
       </c>
     </row>
     <row r="89" spans="5:24">
-      <c r="E89" s="22" t="s">
+      <c r="E89" s="24" t="s">
         <v>454</v>
       </c>
       <c r="F89" t="s">
@@ -13893,7 +13975,7 @@
       <c r="L89" t="s">
         <v>92</v>
       </c>
-      <c r="M89" s="23">
+      <c r="M89" s="25">
         <v>20</v>
       </c>
       <c r="N89" t="s">
@@ -13924,8 +14006,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="5:24">
-      <c r="E90" s="19" t="s">
+    <row r="90" hidden="1" spans="5:24">
+      <c r="E90" s="21" t="s">
         <v>461</v>
       </c>
       <c r="F90" t="s">
@@ -13975,8 +14057,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="5:24">
-      <c r="E91" s="19" t="s">
+    <row r="91" hidden="1" spans="5:24">
+      <c r="E91" s="21" t="s">
         <v>466</v>
       </c>
       <c r="F91" t="s">
@@ -14023,8 +14105,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="5:24">
-      <c r="E92" s="19" t="s">
+    <row r="92" hidden="1" spans="5:24">
+      <c r="E92" s="21" t="s">
         <v>470</v>
       </c>
       <c r="F92" t="s">
@@ -14074,8 +14156,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="5:24">
-      <c r="E93" s="19" t="s">
+    <row r="93" hidden="1" spans="5:24">
+      <c r="E93" s="21" t="s">
         <v>474</v>
       </c>
       <c r="F93" t="s">
@@ -14125,8 +14207,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="5:24">
-      <c r="E94" s="19" t="s">
+    <row r="94" hidden="1" spans="5:24">
+      <c r="E94" s="21" t="s">
         <v>478</v>
       </c>
       <c r="F94" t="s">
@@ -14176,8 +14258,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="5:24">
-      <c r="E95" s="19" t="s">
+    <row r="95" hidden="1" spans="5:24">
+      <c r="E95" s="21" t="s">
         <v>482</v>
       </c>
       <c r="F95" t="s">
@@ -14228,7 +14310,7 @@
       </c>
     </row>
     <row r="96" spans="5:24">
-      <c r="E96" s="22" t="s">
+      <c r="E96" s="24" t="s">
         <v>486</v>
       </c>
       <c r="F96" t="s">
@@ -14284,8 +14366,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="5:24">
-      <c r="E97" s="19" t="s">
+    <row r="97" hidden="1" spans="5:24">
+      <c r="E97" s="21" t="s">
         <v>493</v>
       </c>
       <c r="F97" t="s">
@@ -14332,8 +14414,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="5:24">
-      <c r="E98" s="19" t="s">
+    <row r="98" hidden="1" spans="5:24">
+      <c r="E98" s="21" t="s">
         <v>497</v>
       </c>
       <c r="F98" t="s">
@@ -14380,8 +14462,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="5:24">
-      <c r="E99" s="19" t="s">
+    <row r="99" hidden="1" spans="5:24">
+      <c r="E99" s="21" t="s">
         <v>501</v>
       </c>
       <c r="F99" t="s">
@@ -14428,8 +14510,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="5:24">
-      <c r="E100" s="19" t="s">
+    <row r="100" hidden="1" spans="5:24">
+      <c r="E100" s="21" t="s">
         <v>505</v>
       </c>
       <c r="F100" t="s">
@@ -14476,8 +14558,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="5:24">
-      <c r="E101" s="19" t="s">
+    <row r="101" hidden="1" spans="5:24">
+      <c r="E101" s="21" t="s">
         <v>509</v>
       </c>
       <c r="F101" t="s">
@@ -14524,8 +14606,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="5:24">
-      <c r="E102" s="19" t="s">
+    <row r="102" hidden="1" spans="5:24">
+      <c r="E102" s="21" t="s">
         <v>513</v>
       </c>
       <c r="F102" t="s">
@@ -14572,8 +14654,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="5:24">
-      <c r="E103" s="19" t="s">
+    <row r="103" hidden="1" spans="5:24">
+      <c r="E103" s="21" t="s">
         <v>517</v>
       </c>
       <c r="F103" t="s">
@@ -14620,8 +14702,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="5:24">
-      <c r="E104" s="19" t="s">
+    <row r="104" hidden="1" spans="5:24">
+      <c r="E104" s="21" t="s">
         <v>521</v>
       </c>
       <c r="F104" t="s">
@@ -14668,8 +14750,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="5:24">
-      <c r="E105" s="19" t="s">
+    <row r="105" hidden="1" spans="5:24">
+      <c r="E105" s="21" t="s">
         <v>525</v>
       </c>
       <c r="F105" t="s">
@@ -14716,8 +14798,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="5:24">
-      <c r="E106" s="19" t="s">
+    <row r="106" hidden="1" spans="5:24">
+      <c r="E106" s="21" t="s">
         <v>529</v>
       </c>
       <c r="F106" t="s">
@@ -14764,8 +14846,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="107" spans="5:24">
-      <c r="E107" s="19" t="s">
+    <row r="107" hidden="1" spans="5:24">
+      <c r="E107" s="21" t="s">
         <v>533</v>
       </c>
       <c r="F107" t="s">
@@ -14812,8 +14894,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="5:24">
-      <c r="E108" s="19" t="s">
+    <row r="108" hidden="1" spans="5:24">
+      <c r="E108" s="21" t="s">
         <v>537</v>
       </c>
       <c r="F108" t="s">
@@ -14860,8 +14942,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="5:24">
-      <c r="E109" s="19" t="s">
+    <row r="109" hidden="1" spans="5:24">
+      <c r="E109" s="21" t="s">
         <v>541</v>
       </c>
       <c r="F109" t="s">
@@ -14908,8 +14990,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="5:24">
-      <c r="E110" s="19" t="s">
+    <row r="110" hidden="1" spans="5:24">
+      <c r="E110" s="21" t="s">
         <v>546</v>
       </c>
       <c r="F110" t="s">
@@ -14956,8 +15038,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="5:24">
-      <c r="E111" s="19" t="s">
+    <row r="111" hidden="1" spans="5:24">
+      <c r="E111" s="21" t="s">
         <v>549</v>
       </c>
       <c r="F111" t="s">
@@ -15004,8 +15086,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="5:24">
-      <c r="E112" s="19" t="s">
+    <row r="112" hidden="1" spans="5:24">
+      <c r="E112" s="21" t="s">
         <v>553</v>
       </c>
       <c r="F112" t="s">
@@ -15052,8 +15134,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="5:24">
-      <c r="E113" s="19" t="s">
+    <row r="113" hidden="1" spans="5:24">
+      <c r="E113" s="21" t="s">
         <v>557</v>
       </c>
       <c r="F113" t="s">
@@ -15100,8 +15182,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="5:24">
-      <c r="E114" s="19" t="s">
+    <row r="114" hidden="1" spans="5:24">
+      <c r="E114" s="21" t="s">
         <v>561</v>
       </c>
       <c r="F114" t="s">
@@ -15148,8 +15230,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="5:24">
-      <c r="E115" s="19" t="s">
+    <row r="115" hidden="1" spans="5:24">
+      <c r="E115" s="21" t="s">
         <v>565</v>
       </c>
       <c r="F115" t="s">
@@ -15197,7 +15279,7 @@
       </c>
     </row>
     <row r="116" spans="5:24">
-      <c r="E116" s="22" t="s">
+      <c r="E116" s="24" t="s">
         <v>569</v>
       </c>
       <c r="F116" t="s">
@@ -15240,7 +15322,7 @@
       <c r="R116" t="s">
         <v>80</v>
       </c>
-      <c r="S116" s="6" t="s">
+      <c r="S116" s="7" t="s">
         <v>572</v>
       </c>
       <c r="T116" t="s">
@@ -15253,8 +15335,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="5:24">
-      <c r="E117" s="19" t="s">
+    <row r="117" hidden="1" spans="5:24">
+      <c r="E117" s="21" t="s">
         <v>573</v>
       </c>
       <c r="F117" t="s">
@@ -15288,7 +15370,7 @@
       <c r="R117" t="s">
         <v>80</v>
       </c>
-      <c r="S117" s="6" t="s">
+      <c r="S117" s="7" t="s">
         <v>575</v>
       </c>
       <c r="T117" t="s">
@@ -15301,8 +15383,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="5:24">
-      <c r="E118" s="19" t="s">
+    <row r="118" hidden="1" spans="5:24">
+      <c r="E118" s="21" t="s">
         <v>576</v>
       </c>
       <c r="F118" t="s">
@@ -15338,7 +15420,7 @@
       <c r="R118" t="s">
         <v>80</v>
       </c>
-      <c r="S118" s="6" t="s">
+      <c r="S118" s="7" t="s">
         <v>577</v>
       </c>
       <c r="T118" t="s">
@@ -15352,7 +15434,7 @@
       </c>
     </row>
     <row r="119" spans="5:24">
-      <c r="E119" s="22" t="s">
+      <c r="E119" s="24" t="s">
         <v>578</v>
       </c>
       <c r="F119" t="s">
@@ -15408,8 +15490,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="5:24">
-      <c r="E120" s="19" t="s">
+    <row r="120" hidden="1" spans="5:24">
+      <c r="E120" s="21" t="s">
         <v>582</v>
       </c>
       <c r="F120" t="s">
@@ -15459,8 +15541,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="121" spans="5:24">
-      <c r="E121" s="19" t="s">
+    <row r="121" hidden="1" spans="5:24">
+      <c r="E121" s="21" t="s">
         <v>585</v>
       </c>
       <c r="F121" t="s">
@@ -15510,8 +15592,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="5:24">
-      <c r="E122" s="19" t="s">
+    <row r="122" hidden="1" spans="5:24">
+      <c r="E122" s="21" t="s">
         <v>589</v>
       </c>
       <c r="F122" t="s">
@@ -15561,8 +15643,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="5:24">
-      <c r="E123" s="19" t="s">
+    <row r="123" hidden="1" spans="5:24">
+      <c r="E123" s="21" t="s">
         <v>593</v>
       </c>
       <c r="F123" t="s">
@@ -15613,7 +15695,7 @@
       </c>
     </row>
     <row r="124" spans="5:24">
-      <c r="E124" s="22" t="s">
+      <c r="E124" s="24" t="s">
         <v>597</v>
       </c>
       <c r="F124" t="s">
@@ -15669,8 +15751,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="5:24">
-      <c r="E125" s="19" t="s">
+    <row r="125" hidden="1" spans="5:24">
+      <c r="E125" s="21" t="s">
         <v>604</v>
       </c>
       <c r="F125" t="s">
@@ -15720,8 +15802,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="5:24">
-      <c r="E126" s="19" t="s">
+    <row r="126" hidden="1" spans="5:24">
+      <c r="E126" s="21" t="s">
         <v>608</v>
       </c>
       <c r="F126" t="s">
@@ -15768,8 +15850,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="5:24">
-      <c r="E127" s="19" t="s">
+    <row r="127" hidden="1" spans="5:24">
+      <c r="E127" s="21" t="s">
         <v>612</v>
       </c>
       <c r="F127" t="s">
@@ -15819,8 +15901,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="5:24">
-      <c r="E128" s="19" t="s">
+    <row r="128" hidden="1" spans="5:24">
+      <c r="E128" s="21" t="s">
         <v>615</v>
       </c>
       <c r="F128" t="s">
@@ -15870,8 +15952,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="5:24">
-      <c r="E129" s="19" t="s">
+    <row r="129" hidden="1" spans="5:24">
+      <c r="E129" s="21" t="s">
         <v>619</v>
       </c>
       <c r="F129" t="s">
@@ -15918,8 +16000,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="130" spans="5:24">
-      <c r="E130" s="19" t="s">
+    <row r="130" hidden="1" spans="5:24">
+      <c r="E130" s="21" t="s">
         <v>623</v>
       </c>
       <c r="F130" t="s">
@@ -15966,8 +16048,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="131" spans="5:24">
-      <c r="E131" s="19" t="s">
+    <row r="131" hidden="1" spans="5:24">
+      <c r="E131" s="21" t="s">
         <v>627</v>
       </c>
       <c r="F131" t="s">
@@ -16017,8 +16099,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="5:24">
-      <c r="E132" s="24" t="s">
+    <row r="132" hidden="1" spans="5:24">
+      <c r="E132" s="26" t="s">
         <v>631</v>
       </c>
       <c r="F132" t="s">
@@ -16068,8 +16150,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="5:24">
-      <c r="E133" s="24" t="s">
+    <row r="133" hidden="1" spans="5:24">
+      <c r="E133" s="26" t="s">
         <v>635</v>
       </c>
       <c r="F133" t="s">
@@ -16119,8 +16201,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="5:24">
-      <c r="E134" s="19" t="s">
+    <row r="134" hidden="1" spans="5:24">
+      <c r="E134" s="21" t="s">
         <v>639</v>
       </c>
       <c r="F134" t="s">
@@ -16170,20 +16252,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="135" spans="5:24">
-      <c r="E135" s="21" t="s">
+    <row r="135" hidden="1" spans="5:24">
+      <c r="E135" s="23" t="s">
         <v>643</v>
       </c>
       <c r="F135" t="s">
         <v>644</v>
       </c>
-      <c r="G135" s="6" t="s">
+      <c r="G135" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="H135" s="6" t="s">
+      <c r="H135" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="I135" s="6" t="s">
+      <c r="I135" s="7" t="s">
         <v>645</v>
       </c>
       <c r="J135" t="s">
@@ -16221,7 +16303,7 @@
       </c>
     </row>
     <row r="136" spans="5:24">
-      <c r="E136" s="19" t="s">
+      <c r="E136" s="21" t="s">
         <v>647</v>
       </c>
       <c r="F136" t="s">
@@ -16278,7 +16360,7 @@
       </c>
     </row>
     <row r="137" spans="5:24">
-      <c r="E137" s="19" t="s">
+      <c r="E137" s="21" t="s">
         <v>654</v>
       </c>
       <c r="F137" t="s">
@@ -16334,8 +16416,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="138" spans="5:24">
-      <c r="E138" s="19" t="s">
+    <row r="138" hidden="1" spans="5:24">
+      <c r="E138" s="21" t="s">
         <v>661</v>
       </c>
       <c r="F138" t="s">
@@ -16385,8 +16467,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="139" spans="5:24">
-      <c r="E139" s="19" t="s">
+    <row r="139" hidden="1" spans="5:24">
+      <c r="E139" s="21" t="s">
         <v>664</v>
       </c>
       <c r="F139" t="s">
@@ -16437,7 +16519,7 @@
       </c>
     </row>
     <row r="140" spans="5:24">
-      <c r="E140" s="19" t="s">
+      <c r="E140" s="21" t="s">
         <v>667</v>
       </c>
       <c r="F140" t="s">
@@ -16493,8 +16575,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="5:24">
-      <c r="E141" s="19" t="s">
+    <row r="141" hidden="1" spans="5:24">
+      <c r="E141" s="21" t="s">
         <v>674</v>
       </c>
       <c r="F141" t="s">
@@ -16545,7 +16627,7 @@
       </c>
     </row>
     <row r="142" spans="5:24">
-      <c r="E142" s="19" t="s">
+      <c r="E142" s="21" t="s">
         <v>677</v>
       </c>
       <c r="F142" t="s">
@@ -16601,8 +16683,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="143" spans="5:24">
-      <c r="E143" s="19" t="s">
+    <row r="143" hidden="1" spans="5:24">
+      <c r="E143" s="21" t="s">
         <v>683</v>
       </c>
       <c r="F143" t="s">
@@ -16650,7 +16732,7 @@
       </c>
     </row>
     <row r="144" spans="5:24">
-      <c r="E144" s="19" t="s">
+      <c r="E144" s="21" t="s">
         <v>687</v>
       </c>
       <c r="F144" t="s">
@@ -16706,8 +16788,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="145" spans="5:24">
-      <c r="E145" s="19" t="s">
+    <row r="145" hidden="1" spans="5:24">
+      <c r="E145" s="21" t="s">
         <v>691</v>
       </c>
       <c r="F145" t="s">
@@ -16755,7 +16837,7 @@
       </c>
     </row>
     <row r="146" spans="5:24">
-      <c r="E146" s="19" t="s">
+      <c r="E146" s="21" t="s">
         <v>695</v>
       </c>
       <c r="F146" t="s">
@@ -16811,8 +16893,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="147" spans="5:24">
-      <c r="E147" s="19" t="s">
+    <row r="147" hidden="1" spans="5:24">
+      <c r="E147" s="21" t="s">
         <v>699</v>
       </c>
       <c r="F147" t="s">
@@ -16859,8 +16941,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="5:24">
-      <c r="E148" s="19" t="s">
+    <row r="148" hidden="1" spans="5:24">
+      <c r="E148" s="21" t="s">
         <v>702</v>
       </c>
       <c r="F148" t="s">
@@ -16910,7 +16992,7 @@
       </c>
     </row>
     <row r="149" spans="5:24">
-      <c r="E149" s="19" t="s">
+      <c r="E149" s="21" t="s">
         <v>704</v>
       </c>
       <c r="F149" t="s">
@@ -16966,8 +17048,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="5:24">
-      <c r="E150" s="19" t="s">
+    <row r="150" hidden="1" spans="5:24">
+      <c r="E150" s="21" t="s">
         <v>711</v>
       </c>
       <c r="F150" t="s">
@@ -17014,8 +17096,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="151" spans="5:24">
-      <c r="E151" s="19" t="s">
+    <row r="151" hidden="1" spans="5:24">
+      <c r="E151" s="21" t="s">
         <v>715</v>
       </c>
       <c r="F151" t="s">
@@ -17062,8 +17144,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="152" spans="5:24">
-      <c r="E152" s="19" t="s">
+    <row r="152" hidden="1" spans="5:24">
+      <c r="E152" s="21" t="s">
         <v>719</v>
       </c>
       <c r="F152" t="s">
@@ -17110,8 +17192,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="153" spans="5:24">
-      <c r="E153" s="19" t="s">
+    <row r="153" hidden="1" spans="5:24">
+      <c r="E153" s="21" t="s">
         <v>723</v>
       </c>
       <c r="F153" t="s">
@@ -17159,7 +17241,7 @@
       </c>
     </row>
     <row r="154" spans="5:24">
-      <c r="E154" s="19" t="s">
+      <c r="E154" s="21" t="s">
         <v>727</v>
       </c>
       <c r="F154" t="s">
@@ -17215,8 +17297,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="155" spans="5:24">
-      <c r="E155" s="19" t="s">
+    <row r="155" hidden="1" spans="5:24">
+      <c r="E155" s="21" t="s">
         <v>734</v>
       </c>
       <c r="F155" t="s">
@@ -17266,8 +17348,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="156" spans="5:24">
-      <c r="E156" s="19" t="s">
+    <row r="156" hidden="1" spans="5:24">
+      <c r="E156" s="21" t="s">
         <v>737</v>
       </c>
       <c r="F156" t="s">
@@ -17317,8 +17399,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="157" spans="5:24">
-      <c r="E157" s="19" t="s">
+    <row r="157" hidden="1" spans="5:24">
+      <c r="E157" s="21" t="s">
         <v>741</v>
       </c>
       <c r="F157" t="s">
@@ -17365,8 +17447,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="158" spans="5:24">
-      <c r="E158" s="19" t="s">
+    <row r="158" hidden="1" spans="5:24">
+      <c r="E158" s="21" t="s">
         <v>745</v>
       </c>
       <c r="F158" t="s">
@@ -17417,7 +17499,7 @@
       </c>
     </row>
     <row r="159" spans="5:24">
-      <c r="E159" s="19" t="s">
+      <c r="E159" s="21" t="s">
         <v>749</v>
       </c>
       <c r="F159" t="s">
@@ -17473,8 +17555,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="160" spans="5:24">
-      <c r="E160" s="19" t="s">
+    <row r="160" hidden="1" spans="5:24">
+      <c r="E160" s="21" t="s">
         <v>755</v>
       </c>
       <c r="F160" t="s">
@@ -17522,7 +17604,7 @@
       </c>
     </row>
     <row r="161" spans="5:24">
-      <c r="E161" s="19" t="s">
+      <c r="E161" s="21" t="s">
         <v>759</v>
       </c>
       <c r="F161" t="s">
@@ -17578,8 +17660,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="162" spans="5:24">
-      <c r="E162" s="19" t="s">
+    <row r="162" hidden="1" spans="5:24">
+      <c r="E162" s="21" t="s">
         <v>765</v>
       </c>
       <c r="F162" t="s">
@@ -17626,8 +17708,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="163" spans="5:24">
-      <c r="E163" s="19" t="s">
+    <row r="163" hidden="1" spans="5:24">
+      <c r="E163" s="21" t="s">
         <v>769</v>
       </c>
       <c r="F163" t="s">
@@ -17674,8 +17756,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="164" spans="5:24">
-      <c r="E164" s="19" t="s">
+    <row r="164" hidden="1" spans="5:24">
+      <c r="E164" s="21" t="s">
         <v>772</v>
       </c>
       <c r="F164" t="s">
@@ -17725,8 +17807,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="165" spans="5:24">
-      <c r="E165" s="19" t="s">
+    <row r="165" hidden="1" spans="5:24">
+      <c r="E165" s="21" t="s">
         <v>775</v>
       </c>
       <c r="F165" t="s">
@@ -17776,8 +17858,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="5:24">
-      <c r="E166" s="19" t="s">
+    <row r="166" hidden="1" spans="5:24">
+      <c r="E166" s="21" t="s">
         <v>779</v>
       </c>
       <c r="F166" t="s">
@@ -17831,7 +17913,7 @@
       </c>
     </row>
     <row r="167" spans="5:24">
-      <c r="E167" s="19" t="s">
+      <c r="E167" s="21" t="s">
         <v>783</v>
       </c>
       <c r="F167" t="s">
@@ -17888,7 +17970,7 @@
       </c>
     </row>
     <row r="168" spans="5:24">
-      <c r="E168" s="19" t="s">
+      <c r="E168" s="21" t="s">
         <v>790</v>
       </c>
       <c r="F168" t="s">
@@ -17944,8 +18026,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="169" spans="5:24">
-      <c r="E169" s="19" t="s">
+    <row r="169" hidden="1" spans="5:24">
+      <c r="E169" s="21" t="s">
         <v>797</v>
       </c>
       <c r="F169" t="s">
@@ -17995,8 +18077,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" spans="5:24">
-      <c r="E170" s="19" t="s">
+    <row r="170" hidden="1" spans="5:24">
+      <c r="E170" s="21" t="s">
         <v>800</v>
       </c>
       <c r="F170" t="s">
@@ -18047,7 +18129,7 @@
       </c>
     </row>
     <row r="171" spans="5:24">
-      <c r="E171" s="19" t="s">
+      <c r="E171" s="21" t="s">
         <v>803</v>
       </c>
       <c r="F171" t="s">
@@ -18103,8 +18185,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" spans="5:24">
-      <c r="E172" s="19" t="s">
+    <row r="172" hidden="1" spans="5:24">
+      <c r="E172" s="21" t="s">
         <v>806</v>
       </c>
       <c r="F172" t="s">
@@ -18151,8 +18233,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="173" spans="5:24">
-      <c r="E173" s="19" t="s">
+    <row r="173" hidden="1" spans="5:24">
+      <c r="E173" s="21" t="s">
         <v>809</v>
       </c>
       <c r="F173" t="s">
@@ -18202,8 +18284,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="174" spans="5:24">
-      <c r="E174" s="19" t="s">
+    <row r="174" hidden="1" spans="5:24">
+      <c r="E174" s="21" t="s">
         <v>812</v>
       </c>
       <c r="F174" t="s">
@@ -18250,8 +18332,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="175" spans="5:24">
-      <c r="E175" s="19" t="s">
+    <row r="175" hidden="1" spans="5:24">
+      <c r="E175" s="21" t="s">
         <v>815</v>
       </c>
       <c r="F175" t="s">
@@ -18298,8 +18380,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="176" spans="5:24">
-      <c r="E176" s="19" t="s">
+    <row r="176" hidden="1" spans="5:24">
+      <c r="E176" s="21" t="s">
         <v>818</v>
       </c>
       <c r="F176" t="s">
@@ -18346,8 +18428,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="177" spans="5:24">
-      <c r="E177" s="19" t="s">
+    <row r="177" hidden="1" spans="5:24">
+      <c r="E177" s="21" t="s">
         <v>821</v>
       </c>
       <c r="F177" t="s">
@@ -18394,8 +18476,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="178" spans="5:24">
-      <c r="E178" s="19" t="s">
+    <row r="178" hidden="1" spans="5:24">
+      <c r="E178" s="21" t="s">
         <v>824</v>
       </c>
       <c r="F178" t="s">
@@ -18443,7 +18525,7 @@
       </c>
     </row>
     <row r="179" spans="5:24">
-      <c r="E179" s="19" t="s">
+      <c r="E179" s="21" t="s">
         <v>827</v>
       </c>
       <c r="F179" t="s">
@@ -18499,8 +18581,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="180" spans="5:24">
-      <c r="E180" s="19" t="s">
+    <row r="180" hidden="1" spans="5:24">
+      <c r="E180" s="21" t="s">
         <v>834</v>
       </c>
       <c r="F180" t="s">
@@ -18547,8 +18629,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="5:24">
-      <c r="E181" s="19" t="s">
+    <row r="181" hidden="1" spans="5:24">
+      <c r="E181" s="21" t="s">
         <v>838</v>
       </c>
       <c r="F181" t="s">
@@ -18595,8 +18677,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="182" spans="5:24">
-      <c r="E182" s="19" t="s">
+    <row r="182" hidden="1" spans="5:24">
+      <c r="E182" s="21" t="s">
         <v>842</v>
       </c>
       <c r="F182" t="s">
@@ -18646,7 +18728,7 @@
       </c>
     </row>
     <row r="183" spans="5:24">
-      <c r="E183" s="19" t="s">
+      <c r="E183" s="21" t="s">
         <v>844</v>
       </c>
       <c r="F183" t="s">
@@ -18702,8 +18784,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="184" spans="5:24">
-      <c r="E184" s="19" t="s">
+    <row r="184" hidden="1" spans="5:24">
+      <c r="E184" s="21" t="s">
         <v>848</v>
       </c>
       <c r="F184" t="s">
@@ -18750,8 +18832,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="185" spans="5:24">
-      <c r="E185" s="19" t="s">
+    <row r="185" hidden="1" spans="5:24">
+      <c r="E185" s="21" t="s">
         <v>851</v>
       </c>
       <c r="F185" t="s">
@@ -18801,8 +18883,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="186" spans="5:24">
-      <c r="E186" s="19" t="s">
+    <row r="186" hidden="1" spans="5:24">
+      <c r="E186" s="21" t="s">
         <v>855</v>
       </c>
       <c r="F186" t="s">
@@ -18852,8 +18934,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="187" spans="5:24">
-      <c r="E187" s="19" t="s">
+    <row r="187" hidden="1" spans="5:24">
+      <c r="E187" s="21" t="s">
         <v>859</v>
       </c>
       <c r="F187" t="s">
@@ -18903,8 +18985,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="188" spans="5:24">
-      <c r="E188" s="19" t="s">
+    <row r="188" hidden="1" spans="5:24">
+      <c r="E188" s="21" t="s">
         <v>863</v>
       </c>
       <c r="F188" t="s">
@@ -18958,7 +19040,7 @@
       </c>
     </row>
     <row r="189" spans="5:24">
-      <c r="E189" s="19" t="s">
+      <c r="E189" s="21" t="s">
         <v>866</v>
       </c>
       <c r="F189" t="s">
@@ -19014,8 +19096,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="190" spans="5:24">
-      <c r="E190" s="19" t="s">
+    <row r="190" hidden="1" spans="5:24">
+      <c r="E190" s="21" t="s">
         <v>873</v>
       </c>
       <c r="F190" t="s">
@@ -19062,8 +19144,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="191" spans="5:24">
-      <c r="E191" s="19" t="s">
+    <row r="191" hidden="1" spans="5:24">
+      <c r="E191" s="21" t="s">
         <v>877</v>
       </c>
       <c r="F191" t="s">
@@ -19113,8 +19195,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="192" spans="5:24">
-      <c r="E192" s="19" t="s">
+    <row r="192" hidden="1" spans="5:24">
+      <c r="E192" s="21" t="s">
         <v>880</v>
       </c>
       <c r="F192" t="s">
@@ -19161,8 +19243,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="193" spans="5:24">
-      <c r="E193" s="19" t="s">
+    <row r="193" hidden="1" spans="5:24">
+      <c r="E193" s="21" t="s">
         <v>884</v>
       </c>
       <c r="F193" t="s">
@@ -19209,8 +19291,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="194" spans="5:24">
-      <c r="E194" s="19" t="s">
+    <row r="194" hidden="1" spans="5:24">
+      <c r="E194" s="21" t="s">
         <v>888</v>
       </c>
       <c r="F194" t="s">
@@ -19260,8 +19342,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="195" spans="5:24">
-      <c r="E195" s="19" t="s">
+    <row r="195" hidden="1" spans="5:24">
+      <c r="E195" s="21" t="s">
         <v>892</v>
       </c>
       <c r="F195" t="s">
@@ -19312,7 +19394,7 @@
       </c>
     </row>
     <row r="196" spans="5:24">
-      <c r="E196" s="19" t="s">
+      <c r="E196" s="21" t="s">
         <v>896</v>
       </c>
       <c r="F196" t="s">
@@ -19368,8 +19450,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="197" spans="5:24">
-      <c r="E197" s="19" t="s">
+    <row r="197" hidden="1" spans="5:24">
+      <c r="E197" s="21" t="s">
         <v>903</v>
       </c>
       <c r="F197" t="s">
@@ -19416,8 +19498,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="5:24">
-      <c r="E198" s="19" t="s">
+    <row r="198" hidden="1" spans="5:24">
+      <c r="E198" s="21" t="s">
         <v>907</v>
       </c>
       <c r="F198" t="s">
@@ -19464,8 +19546,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="199" spans="5:24">
-      <c r="E199" s="19" t="s">
+    <row r="199" hidden="1" spans="5:24">
+      <c r="E199" s="21" t="s">
         <v>911</v>
       </c>
       <c r="F199" t="s">
@@ -19512,8 +19594,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="200" spans="5:24">
-      <c r="E200" s="19" t="s">
+    <row r="200" hidden="1" spans="5:24">
+      <c r="E200" s="21" t="s">
         <v>915</v>
       </c>
       <c r="F200" t="s">
@@ -19560,8 +19642,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="201" spans="5:24">
-      <c r="E201" s="19" t="s">
+    <row r="201" hidden="1" spans="5:24">
+      <c r="E201" s="21" t="s">
         <v>919</v>
       </c>
       <c r="F201" t="s">
@@ -19609,7 +19691,7 @@
       </c>
     </row>
     <row r="202" spans="5:24">
-      <c r="E202" s="19" t="s">
+      <c r="E202" s="21" t="s">
         <v>923</v>
       </c>
       <c r="F202" t="s">
@@ -19665,8 +19747,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="203" spans="5:24">
-      <c r="E203" s="19" t="s">
+    <row r="203" hidden="1" spans="5:24">
+      <c r="E203" s="21" t="s">
         <v>927</v>
       </c>
       <c r="F203" t="s">
@@ -19716,8 +19798,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="204" spans="5:24">
-      <c r="E204" s="19" t="s">
+    <row r="204" hidden="1" spans="5:24">
+      <c r="E204" s="21" t="s">
         <v>930</v>
       </c>
       <c r="F204" t="s">
@@ -19764,8 +19846,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="205" spans="5:24">
-      <c r="E205" s="19" t="s">
+    <row r="205" hidden="1" spans="5:24">
+      <c r="E205" s="21" t="s">
         <v>933</v>
       </c>
       <c r="F205" t="s">
@@ -19815,8 +19897,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="206" spans="5:24">
-      <c r="E206" s="19" t="s">
+    <row r="206" hidden="1" spans="5:24">
+      <c r="E206" s="21" t="s">
         <v>937</v>
       </c>
       <c r="F206" t="s">
@@ -19866,8 +19948,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="207" spans="5:24">
-      <c r="E207" s="19" t="s">
+    <row r="207" hidden="1" spans="5:24">
+      <c r="E207" s="21" t="s">
         <v>941</v>
       </c>
       <c r="F207" t="s">
@@ -19914,8 +19996,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="208" spans="5:24">
-      <c r="E208" s="19" t="s">
+    <row r="208" hidden="1" spans="5:24">
+      <c r="E208" s="21" t="s">
         <v>945</v>
       </c>
       <c r="F208" t="s">
@@ -19962,8 +20044,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="209" spans="5:24">
-      <c r="E209" s="19" t="s">
+    <row r="209" hidden="1" spans="5:24">
+      <c r="E209" s="21" t="s">
         <v>949</v>
       </c>
       <c r="F209" t="s">
@@ -20010,8 +20092,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="210" spans="5:24">
-      <c r="E210" s="19" t="s">
+    <row r="210" hidden="1" spans="5:24">
+      <c r="E210" s="21" t="s">
         <v>953</v>
       </c>
       <c r="F210" t="s">
@@ -20058,8 +20140,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="211" spans="5:24">
-      <c r="E211" s="19" t="s">
+    <row r="211" hidden="1" spans="5:24">
+      <c r="E211" s="21" t="s">
         <v>957</v>
       </c>
       <c r="F211" t="s">
@@ -20106,8 +20188,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="212" spans="5:24">
-      <c r="E212" s="19" t="s">
+    <row r="212" hidden="1" spans="5:24">
+      <c r="E212" s="21" t="s">
         <v>961</v>
       </c>
       <c r="F212" t="s">
@@ -20154,8 +20236,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="213" spans="5:24">
-      <c r="E213" s="19" t="s">
+    <row r="213" hidden="1" spans="5:24">
+      <c r="E213" s="21" t="s">
         <v>965</v>
       </c>
       <c r="F213" t="s">
@@ -20202,17 +20284,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="214" spans="5:24">
-      <c r="E214" s="24" t="s">
+    <row r="214" hidden="1" spans="5:24">
+      <c r="E214" s="26" t="s">
         <v>969</v>
       </c>
-      <c r="F214" s="6" t="s">
+      <c r="F214" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="G214" s="6" t="s">
+      <c r="G214" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="H214" s="6" t="s">
+      <c r="H214" s="7" t="s">
         <v>971</v>
       </c>
       <c r="J214" t="s">
@@ -20240,7 +20322,7 @@
       <c r="R214" t="s">
         <v>80</v>
       </c>
-      <c r="S214" s="6" t="s">
+      <c r="S214" s="7" t="s">
         <v>972</v>
       </c>
       <c r="T214" t="s">
@@ -20253,17 +20335,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="215" spans="5:24">
-      <c r="E215" s="24" t="s">
+    <row r="215" hidden="1" spans="5:24">
+      <c r="E215" s="26" t="s">
         <v>973</v>
       </c>
-      <c r="F215" s="6" t="s">
+      <c r="F215" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="G215" s="6" t="s">
+      <c r="G215" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="H215" s="6" t="s">
+      <c r="H215" s="7" t="s">
         <v>975</v>
       </c>
       <c r="J215" t="s">
@@ -20288,7 +20370,7 @@
       <c r="R215" t="s">
         <v>80</v>
       </c>
-      <c r="S215" s="6" t="s">
+      <c r="S215" s="7" t="s">
         <v>976</v>
       </c>
       <c r="T215" t="s">
@@ -20301,17 +20383,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="216" spans="5:24">
-      <c r="E216" s="24" t="s">
+    <row r="216" hidden="1" spans="5:24">
+      <c r="E216" s="26" t="s">
         <v>977</v>
       </c>
-      <c r="F216" s="6" t="s">
+      <c r="F216" s="7" t="s">
         <v>978</v>
       </c>
-      <c r="G216" s="6" t="s">
+      <c r="G216" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="H216" s="6" t="s">
+      <c r="H216" s="7" t="s">
         <v>979</v>
       </c>
       <c r="J216" t="s">
@@ -20336,7 +20418,7 @@
       <c r="R216" t="s">
         <v>80</v>
       </c>
-      <c r="S216" s="6" t="s">
+      <c r="S216" s="7" t="s">
         <v>980</v>
       </c>
       <c r="T216" t="s">
@@ -20349,17 +20431,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="217" spans="5:24">
-      <c r="E217" s="24" t="s">
+    <row r="217" hidden="1" spans="5:24">
+      <c r="E217" s="26" t="s">
         <v>981</v>
       </c>
-      <c r="F217" s="6" t="s">
+      <c r="F217" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="G217" s="6" t="s">
+      <c r="G217" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="H217" s="6" t="s">
+      <c r="H217" s="7" t="s">
         <v>983</v>
       </c>
       <c r="J217" t="s">
@@ -20384,7 +20466,7 @@
       <c r="R217" t="s">
         <v>80</v>
       </c>
-      <c r="S217" s="6" t="s">
+      <c r="S217" s="7" t="s">
         <v>984</v>
       </c>
       <c r="T217" t="s">
@@ -20397,305 +20479,305 @@
         <v>82</v>
       </c>
     </row>
-    <row r="218" s="7" customFormat="1" spans="5:24">
-      <c r="E218" s="25" t="s">
+    <row r="218" s="9" customFormat="1" spans="5:24">
+      <c r="E218" s="27" t="s">
         <v>985</v>
       </c>
-      <c r="F218" s="7" t="s">
+      <c r="F218" s="9" t="s">
         <v>986</v>
       </c>
-      <c r="G218" s="7" t="s">
+      <c r="G218" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="H218" s="7" t="s">
+      <c r="H218" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="I218" s="7" t="s">
+      <c r="I218" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="J218" s="7" t="s">
+      <c r="J218" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K218" s="7" t="str">
+      <c r="K218" s="9" t="str">
         <f>菜单SAAS版!$E$118</f>
         <v>iam_menu-121</v>
       </c>
-      <c r="L218" s="7" t="s">
+      <c r="L218" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="M218" s="7">
+      <c r="M218" s="9">
         <v>90</v>
       </c>
-      <c r="N218" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O218" s="7" t="s">
+      <c r="N218" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O218" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="P218" s="7" t="s">
+      <c r="P218" s="9" t="s">
         <v>988</v>
       </c>
-      <c r="Q218" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R218" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="S218" s="7" t="s">
+      <c r="Q218" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R218" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S218" s="9" t="s">
         <v>989</v>
       </c>
-      <c r="T218" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="V218" s="7" t="s">
+      <c r="T218" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V218" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="X218" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="219" s="7" customFormat="1" spans="5:24">
-      <c r="E219" s="25" t="s">
+      <c r="X218" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="219" s="9" customFormat="1" hidden="1" spans="5:24">
+      <c r="E219" s="27" t="s">
         <v>990</v>
       </c>
-      <c r="F219" s="7" t="s">
+      <c r="F219" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="G219" s="7" t="s">
+      <c r="G219" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="H219" s="7" t="s">
+      <c r="H219" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="J219" s="7" t="s">
+      <c r="J219" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K219" s="7" t="str">
+      <c r="K219" s="9" t="str">
         <f>菜单SAAS版!$E$218</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="L219" s="7" t="s">
+      <c r="L219" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M219" s="7">
+      <c r="M219" s="9">
         <v>10</v>
       </c>
-      <c r="N219" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q219" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R219" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="S219" s="7" t="s">
+      <c r="N219" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q219" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R219" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S219" s="9" t="s">
         <v>992</v>
       </c>
-      <c r="T219" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="V219" s="7" t="s">
+      <c r="T219" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V219" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="X219" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="220" s="7" customFormat="1" spans="5:24">
-      <c r="E220" s="25" t="s">
+      <c r="X219" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="220" s="9" customFormat="1" hidden="1" spans="5:24">
+      <c r="E220" s="27" t="s">
         <v>993</v>
       </c>
-      <c r="F220" s="7" t="s">
+      <c r="F220" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="G220" s="7" t="s">
+      <c r="G220" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H220" s="7" t="s">
+      <c r="H220" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="J220" s="7" t="s">
+      <c r="J220" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K220" s="7" t="str">
+      <c r="K220" s="9" t="str">
         <f>菜单SAAS版!$E$218</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="L220" s="7" t="s">
+      <c r="L220" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M220" s="7">
+      <c r="M220" s="9">
         <v>20</v>
       </c>
-      <c r="N220" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q220" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R220" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="S220" s="7" t="s">
+      <c r="N220" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q220" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R220" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S220" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="T220" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="V220" s="7" t="s">
+      <c r="T220" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V220" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="X220" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="221" s="7" customFormat="1" spans="5:24">
-      <c r="E221" s="25" t="s">
+      <c r="X220" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="221" s="9" customFormat="1" hidden="1" spans="5:24">
+      <c r="E221" s="27" t="s">
         <v>996</v>
       </c>
-      <c r="F221" s="7" t="s">
+      <c r="F221" s="9" t="s">
         <v>997</v>
       </c>
-      <c r="G221" s="7" t="s">
+      <c r="G221" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="H221" s="7" t="s">
+      <c r="H221" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="J221" s="7" t="s">
+      <c r="J221" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K221" s="7" t="str">
+      <c r="K221" s="9" t="str">
         <f>菜单SAAS版!$E$218</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="L221" s="7" t="s">
+      <c r="L221" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M221" s="7">
+      <c r="M221" s="9">
         <v>30</v>
       </c>
-      <c r="N221" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q221" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R221" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="S221" s="7" t="s">
+      <c r="N221" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q221" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R221" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S221" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="T221" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="V221" s="7" t="s">
+      <c r="T221" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V221" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="X221" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="222" s="7" customFormat="1" spans="5:24">
-      <c r="E222" s="25" t="s">
+      <c r="X221" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="222" s="9" customFormat="1" hidden="1" spans="5:24">
+      <c r="E222" s="27" t="s">
         <v>999</v>
       </c>
-      <c r="F222" s="7" t="s">
+      <c r="F222" s="9" t="s">
         <v>1000</v>
       </c>
-      <c r="G222" s="7" t="s">
+      <c r="G222" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H222" s="7" t="s">
+      <c r="H222" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="J222" s="7" t="s">
+      <c r="J222" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K222" s="7" t="str">
+      <c r="K222" s="9" t="str">
         <f>菜单SAAS版!$E$218</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="L222" s="7" t="s">
+      <c r="L222" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M222" s="7">
+      <c r="M222" s="9">
         <v>40</v>
       </c>
-      <c r="N222" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q222" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R222" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="S222" s="7" t="s">
+      <c r="N222" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q222" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R222" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S222" s="9" t="s">
         <v>1001</v>
       </c>
-      <c r="T222" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="V222" s="7" t="s">
+      <c r="T222" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V222" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="X222" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="223" s="7" customFormat="1" spans="5:24">
-      <c r="E223" s="25" t="s">
+      <c r="X222" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="223" s="9" customFormat="1" hidden="1" spans="5:24">
+      <c r="E223" s="27" t="s">
         <v>1002</v>
       </c>
-      <c r="F223" s="7" t="s">
+      <c r="F223" s="9" t="s">
         <v>1003</v>
       </c>
-      <c r="G223" s="7" t="s">
+      <c r="G223" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="H223" s="7" t="s">
+      <c r="H223" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="J223" s="7" t="s">
+      <c r="J223" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K223" s="7" t="str">
+      <c r="K223" s="9" t="str">
         <f>菜单SAAS版!$E$218</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="L223" s="7" t="s">
+      <c r="L223" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M223" s="7">
+      <c r="M223" s="9">
         <v>50</v>
       </c>
-      <c r="N223" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q223" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R223" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="S223" s="7" t="s">
+      <c r="N223" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q223" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R223" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S223" s="9" t="s">
         <v>1004</v>
       </c>
-      <c r="T223" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="V223" s="7" t="s">
+      <c r="T223" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V223" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="X223" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="224" spans="5:24">
-      <c r="E224" s="19" t="s">
+      <c r="X223" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="224" hidden="1" spans="5:24">
+      <c r="E224" s="21" t="s">
         <v>1005</v>
       </c>
       <c r="F224" t="s">
@@ -20742,29 +20824,29 @@
         <v>82</v>
       </c>
     </row>
-    <row r="225" spans="5:18">
-      <c r="E225" s="26" t="s">
+    <row r="225" hidden="1" spans="5:18">
+      <c r="E225" s="28" t="s">
         <v>1009</v>
       </c>
-      <c r="F225" s="7" t="s">
+      <c r="F225" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="G225" s="7" t="s">
+      <c r="G225" s="9" t="s">
         <v>1011</v>
       </c>
-      <c r="H225" s="7" t="s">
+      <c r="H225" s="9" t="s">
         <v>1011</v>
       </c>
-      <c r="J225" s="7" t="s">
+      <c r="J225" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K225">
         <v>0</v>
       </c>
-      <c r="L225" s="7" t="s">
+      <c r="L225" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="M225" s="7">
+      <c r="M225" s="9">
         <v>0</v>
       </c>
       <c r="N225">
@@ -20777,29 +20859,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="5:18">
-      <c r="E226" s="26" t="s">
+    <row r="226" hidden="1" spans="5:18">
+      <c r="E226" s="28" t="s">
         <v>1012</v>
       </c>
-      <c r="F226" s="7" t="s">
+      <c r="F226" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="G226" s="7" t="s">
+      <c r="G226" s="9" t="s">
         <v>1011</v>
       </c>
-      <c r="H226" s="7" t="s">
+      <c r="H226" s="9" t="s">
         <v>1011</v>
       </c>
-      <c r="J226" s="7" t="s">
+      <c r="J226" s="9" t="s">
         <v>79</v>
       </c>
       <c r="K226">
         <v>0</v>
       </c>
-      <c r="L226" s="7" t="s">
+      <c r="L226" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="M226" s="7">
+      <c r="M226" s="9">
         <v>0</v>
       </c>
       <c r="N226">
@@ -20812,8 +20894,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="5:24">
-      <c r="E227" s="19" t="s">
+    <row r="227" hidden="1" spans="5:24">
+      <c r="E227" s="21" t="s">
         <v>1014</v>
       </c>
       <c r="F227" t="s">
@@ -20860,56 +20942,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" s="9" customFormat="1" spans="5:24">
-      <c r="E228" s="27" t="s">
+    <row r="228" s="11" customFormat="1" hidden="1" spans="5:24">
+      <c r="E228" s="29" t="s">
         <v>1018</v>
       </c>
-      <c r="F228" s="9" t="s">
+      <c r="F228" s="11" t="s">
         <v>1019</v>
       </c>
-      <c r="G228" s="9" t="s">
+      <c r="G228" s="11" t="s">
         <v>1020</v>
       </c>
-      <c r="H228" s="9" t="s">
+      <c r="H228" s="11" t="s">
         <v>1020</v>
       </c>
-      <c r="J228" s="9" t="s">
+      <c r="J228" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="K228" s="9" t="str">
+      <c r="K228" s="11" t="str">
         <f>菜单SAAS版!$E$96</f>
         <v>iam_menu-99</v>
       </c>
-      <c r="L228" s="9" t="s">
+      <c r="L228" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="N228" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O228" s="9" t="s">
+      <c r="N228" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O228" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="Q228" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="R228" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S228" s="9" t="s">
+      <c r="Q228" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R228" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S228" s="11" t="s">
         <v>1021</v>
       </c>
-      <c r="T228" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="V228" s="9" t="s">
+      <c r="T228" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="V228" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="X228" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="229" customFormat="1" spans="5:24">
-      <c r="E229" s="27" t="s">
+      <c r="X228" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="229" customFormat="1" hidden="1" spans="5:24">
+      <c r="E229" s="29" t="s">
         <v>1022</v>
       </c>
       <c r="F229" t="s">
@@ -20957,9 +21039,17 @@
       </c>
     </row>
     <row r="230" spans="5:5">
-      <c r="E230" s="27"/>
+      <c r="E230" s="29"/>
     </row>
   </sheetData>
+  <autoFilter ref="A7:Y229">
+    <filterColumn colId="11">
+      <customFilters>
+        <customFilter operator="equal" val="menu"/>
+      </customFilters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -20970,15 +21060,15 @@
   <sheetPr/>
   <dimension ref="A1:H372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C358" workbookViewId="0">
+    <sheetView topLeftCell="A276" workbookViewId="0">
       <selection activeCell="G372" sqref="G372"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="5" width="35.7083333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.2083333333333" customWidth="1"/>
-    <col min="7" max="7" width="64.2083333333333" customWidth="1"/>
+    <col min="5" max="5" width="35.7111111111111" customWidth="1"/>
+    <col min="6" max="6" width="17.2074074074074" customWidth="1"/>
+    <col min="7" max="7" width="64.2074074074074" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -21037,7 +21127,7 @@
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -21061,7 +21151,7 @@
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>1035</v>
       </c>
     </row>
@@ -21078,30 +21168,30 @@
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="12" t="s">
         <v>1038</v>
       </c>
-      <c r="F12" s="10" t="str">
+      <c r="F12" s="12" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="12" t="s">
         <v>1039</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="5:8">
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="12" t="s">
         <v>1040</v>
       </c>
-      <c r="F13" s="10" t="str">
+      <c r="F13" s="12" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="12" t="s">
         <v>1041</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
@@ -24392,7 +24482,7 @@
       </c>
     </row>
     <row r="288" spans="5:7">
-      <c r="E288" s="5" t="s">
+      <c r="E288" s="8" t="s">
         <v>1531</v>
       </c>
       <c r="F288" t="str">
@@ -24404,19 +24494,19 @@
       </c>
     </row>
     <row r="289" spans="5:7">
-      <c r="E289" s="6" t="s">
+      <c r="E289" s="7" t="s">
         <v>1533</v>
       </c>
       <c r="F289" t="str">
         <f>菜单SAAS版!E52</f>
         <v>iam_menu-52</v>
       </c>
-      <c r="G289" s="6" t="s">
+      <c r="G289" s="7" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="290" spans="5:7">
-      <c r="E290" s="6" t="s">
+      <c r="E290" s="7" t="s">
         <v>1535</v>
       </c>
       <c r="F290" t="str">
@@ -24428,91 +24518,91 @@
       </c>
     </row>
     <row r="291" spans="5:7">
-      <c r="E291" s="10" t="s">
+      <c r="E291" s="12" t="s">
         <v>1537</v>
       </c>
-      <c r="F291" s="10" t="str">
+      <c r="F291" s="12" t="str">
         <f>菜单SAAS版!E79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G291" s="10" t="s">
+      <c r="G291" s="12" t="s">
         <v>1172</v>
       </c>
     </row>
     <row r="292" spans="5:7">
-      <c r="E292" s="12" t="s">
+      <c r="E292" s="14" t="s">
         <v>1538</v>
       </c>
-      <c r="F292" s="12" t="str">
+      <c r="F292" s="14" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G292" s="12" t="s">
+      <c r="G292" s="14" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="293" spans="5:7">
-      <c r="E293" s="13" t="s">
+      <c r="E293" s="15" t="s">
         <v>1540</v>
       </c>
-      <c r="F293" s="13" t="str">
+      <c r="F293" s="15" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G293" s="13" t="s">
+      <c r="G293" s="15" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="294" spans="5:7">
-      <c r="E294" s="14" t="s">
+      <c r="E294" s="16" t="s">
         <v>1542</v>
       </c>
-      <c r="F294" s="14" t="str">
+      <c r="F294" s="16" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G294" s="14" t="s">
+      <c r="G294" s="16" t="s">
         <v>1543</v>
       </c>
     </row>
     <row r="295" spans="5:7">
-      <c r="E295" s="12" t="s">
+      <c r="E295" s="14" t="s">
         <v>1544</v>
       </c>
-      <c r="F295" s="12" t="str">
+      <c r="F295" s="14" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G295" s="12" t="s">
+      <c r="G295" s="14" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="296" spans="5:7">
-      <c r="E296" s="10" t="s">
+      <c r="E296" s="12" t="s">
         <v>1546</v>
       </c>
-      <c r="F296" s="10" t="str">
+      <c r="F296" s="12" t="str">
         <f>菜单SAAS版!E72</f>
         <v>iam_menu-72</v>
       </c>
-      <c r="G296" s="10" t="s">
+      <c r="G296" s="12" t="s">
         <v>1547</v>
       </c>
     </row>
     <row r="297" spans="5:7">
-      <c r="E297" s="10" t="s">
+      <c r="E297" s="12" t="s">
         <v>1548</v>
       </c>
-      <c r="F297" s="10" t="str">
+      <c r="F297" s="12" t="str">
         <f>菜单SAAS版!E72</f>
         <v>iam_menu-72</v>
       </c>
-      <c r="G297" s="10" t="s">
+      <c r="G297" s="12" t="s">
         <v>1549</v>
       </c>
     </row>
     <row r="298" spans="5:7">
-      <c r="E298" s="10" t="s">
+      <c r="E298" s="12" t="s">
         <v>1550</v>
       </c>
       <c r="F298" t="str">
@@ -24644,590 +24734,590 @@
       </c>
     </row>
     <row r="309" spans="5:7">
-      <c r="E309" s="10" t="s">
+      <c r="E309" s="12" t="s">
         <v>1572</v>
       </c>
-      <c r="F309" s="10" t="str">
+      <c r="F309" s="12" t="str">
         <f>菜单SAAS版!E17</f>
         <v>iam_menu-17</v>
       </c>
-      <c r="G309" s="10" t="s">
+      <c r="G309" s="12" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="310" spans="5:7">
-      <c r="E310" s="10" t="s">
+      <c r="E310" s="12" t="s">
         <v>1574</v>
       </c>
-      <c r="F310" s="10" t="str">
+      <c r="F310" s="12" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-18</v>
       </c>
-      <c r="G310" s="10" t="s">
+      <c r="G310" s="12" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="311" spans="5:7">
-      <c r="E311" s="15" t="s">
+      <c r="E311" s="17" t="s">
         <v>1575</v>
       </c>
-      <c r="F311" s="15" t="str">
+      <c r="F311" s="17" t="str">
         <f>菜单SAAS版!E52</f>
         <v>iam_menu-52</v>
       </c>
-      <c r="G311" s="15" t="s">
+      <c r="G311" s="17" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="312" s="8" customFormat="1" spans="5:7">
-      <c r="E312" s="8" t="s">
+    <row r="312" s="10" customFormat="1" spans="5:7">
+      <c r="E312" s="10" t="s">
         <v>1577</v>
       </c>
-      <c r="F312" s="8" t="str">
+      <c r="F312" s="10" t="str">
         <f>菜单SAAS版!E207</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G312" s="8" t="s">
+      <c r="G312" s="10" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="313" s="8" customFormat="1" spans="5:7">
-      <c r="E313" s="8" t="s">
+    <row r="313" s="10" customFormat="1" spans="5:7">
+      <c r="E313" s="10" t="s">
         <v>1579</v>
       </c>
-      <c r="F313" s="8" t="str">
+      <c r="F313" s="10" t="str">
         <f>菜单SAAS版!E207</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G313" s="8" t="s">
+      <c r="G313" s="10" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="314" s="8" customFormat="1" spans="5:7">
-      <c r="E314" s="8" t="s">
+    <row r="314" s="10" customFormat="1" spans="5:7">
+      <c r="E314" s="10" t="s">
         <v>1580</v>
       </c>
-      <c r="F314" s="8" t="str">
+      <c r="F314" s="10" t="str">
         <f>菜单SAAS版!E207</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G314" s="8" t="s">
+      <c r="G314" s="10" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="315" spans="5:7">
-      <c r="E315" s="8" t="s">
+      <c r="E315" s="10" t="s">
         <v>1581</v>
       </c>
-      <c r="F315" s="8" t="str">
+      <c r="F315" s="10" t="str">
         <f>菜单SAAS版!E207</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G315" s="8" t="s">
+      <c r="G315" s="10" t="s">
         <v>1565</v>
       </c>
     </row>
     <row r="316" spans="5:7">
-      <c r="E316" s="8" t="s">
+      <c r="E316" s="10" t="s">
         <v>1582</v>
       </c>
-      <c r="F316" s="8" t="str">
+      <c r="F316" s="10" t="str">
         <f>菜单SAAS版!E208</f>
         <v>iam_menu-225</v>
       </c>
-      <c r="G316" s="8" t="s">
+      <c r="G316" s="10" t="s">
         <v>1569</v>
       </c>
     </row>
     <row r="317" spans="5:7">
-      <c r="E317" s="8" t="s">
+      <c r="E317" s="10" t="s">
         <v>1583</v>
       </c>
-      <c r="F317" s="8" t="str">
+      <c r="F317" s="10" t="str">
         <f>菜单SAAS版!E209</f>
         <v>iam_menu-226</v>
       </c>
-      <c r="G317" s="8" t="s">
+      <c r="G317" s="10" t="s">
         <v>1567</v>
       </c>
     </row>
     <row r="318" spans="5:7">
-      <c r="E318" s="8" t="s">
+      <c r="E318" s="10" t="s">
         <v>1584</v>
       </c>
-      <c r="F318" s="8" t="str">
+      <c r="F318" s="10" t="str">
         <f>菜单SAAS版!E210</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G318" s="8" t="s">
+      <c r="G318" s="10" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="319" spans="5:7">
-      <c r="E319" s="8" t="s">
+      <c r="E319" s="10" t="s">
         <v>1585</v>
       </c>
-      <c r="F319" s="8" t="str">
+      <c r="F319" s="10" t="str">
         <f>菜单SAAS版!E210</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G319" s="8" t="s">
+      <c r="G319" s="10" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="320" spans="5:7">
-      <c r="E320" s="8" t="s">
+      <c r="E320" s="10" t="s">
         <v>1586</v>
       </c>
-      <c r="F320" s="8" t="str">
+      <c r="F320" s="10" t="str">
         <f>菜单SAAS版!E210</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G320" s="8" t="s">
+      <c r="G320" s="10" t="s">
         <v>1557</v>
       </c>
     </row>
     <row r="321" spans="5:7">
-      <c r="E321" s="8" t="s">
+      <c r="E321" s="10" t="s">
         <v>1587</v>
       </c>
-      <c r="F321" s="8" t="str">
+      <c r="F321" s="10" t="str">
         <f>菜单SAAS版!E210</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G321" s="8" t="s">
+      <c r="G321" s="10" t="s">
         <v>1551</v>
       </c>
     </row>
     <row r="322" spans="5:7">
-      <c r="E322" s="8" t="s">
+      <c r="E322" s="10" t="s">
         <v>1588</v>
       </c>
-      <c r="F322" s="8" t="str">
+      <c r="F322" s="10" t="str">
         <f>菜单SAAS版!E211</f>
         <v>iam_menu-228</v>
       </c>
-      <c r="G322" s="8" t="s">
+      <c r="G322" s="10" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="323" spans="5:7">
-      <c r="E323" s="8" t="s">
+      <c r="E323" s="10" t="s">
         <v>1589</v>
       </c>
-      <c r="F323" s="8" t="str">
+      <c r="F323" s="10" t="str">
         <f>菜单SAAS版!E212</f>
         <v>iam_menu-229</v>
       </c>
-      <c r="G323" s="8" t="s">
+      <c r="G323" s="10" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="324" spans="5:7">
-      <c r="E324" s="8" t="s">
+      <c r="E324" s="10" t="s">
         <v>1590</v>
       </c>
-      <c r="F324" s="8" t="str">
+      <c r="F324" s="10" t="str">
         <f>菜单SAAS版!E213</f>
         <v>iam_menu-230</v>
       </c>
-      <c r="G324" s="8" t="s">
+      <c r="G324" s="10" t="s">
         <v>1563</v>
       </c>
     </row>
     <row r="325" spans="5:7">
-      <c r="E325" s="8" t="s">
+      <c r="E325" s="10" t="s">
         <v>1591</v>
       </c>
-      <c r="F325" s="8" t="str">
+      <c r="F325" s="10" t="str">
         <f>菜单SAAS版!E214</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="G325" s="8" t="s">
+      <c r="G325" s="10" t="s">
         <v>1592</v>
       </c>
     </row>
     <row r="326" spans="5:7">
-      <c r="E326" s="8" t="s">
+      <c r="E326" s="10" t="s">
         <v>1593</v>
       </c>
-      <c r="F326" s="8" t="str">
+      <c r="F326" s="10" t="str">
         <f>菜单SAAS版!E215</f>
         <v>iam_menu-232</v>
       </c>
-      <c r="G326" s="8" t="s">
+      <c r="G326" s="10" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="327" spans="5:7">
-      <c r="E327" s="8" t="s">
+      <c r="E327" s="10" t="s">
         <v>1595</v>
       </c>
-      <c r="F327" s="8" t="str">
+      <c r="F327" s="10" t="str">
         <f>菜单SAAS版!E216</f>
         <v>iam_menu-233</v>
       </c>
-      <c r="G327" s="8" t="s">
+      <c r="G327" s="10" t="s">
         <v>1596</v>
       </c>
     </row>
     <row r="328" spans="5:7">
-      <c r="E328" s="8" t="s">
+      <c r="E328" s="10" t="s">
         <v>1597</v>
       </c>
-      <c r="F328" s="8" t="str">
+      <c r="F328" s="10" t="str">
         <f>菜单SAAS版!E216</f>
         <v>iam_menu-233</v>
       </c>
-      <c r="G328" s="8" t="s">
+      <c r="G328" s="10" t="s">
         <v>1598</v>
       </c>
     </row>
     <row r="329" spans="5:7">
-      <c r="E329" s="8" t="s">
+      <c r="E329" s="10" t="s">
         <v>1599</v>
       </c>
-      <c r="F329" s="8" t="str">
+      <c r="F329" s="10" t="str">
         <f>菜单SAAS版!E217</f>
         <v>iam_menu-234</v>
       </c>
-      <c r="G329" s="8" t="s">
+      <c r="G329" s="10" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="330" spans="5:7">
-      <c r="E330" s="8" t="s">
+      <c r="E330" s="10" t="s">
         <v>1601</v>
       </c>
-      <c r="F330" s="8" t="str">
+      <c r="F330" s="10" t="str">
         <f>菜单SAAS版!E214</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="G330" s="8" t="s">
+      <c r="G330" s="10" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="331" spans="5:7">
-      <c r="E331" s="8" t="s">
+      <c r="E331" s="10" t="s">
         <v>1603</v>
       </c>
-      <c r="F331" s="8" t="str">
+      <c r="F331" s="10" t="str">
         <f>菜单SAAS版!E214</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="G331" s="8" t="s">
+      <c r="G331" s="10" t="s">
         <v>1604</v>
       </c>
     </row>
     <row r="332" spans="5:7">
-      <c r="E332" s="8" t="s">
+      <c r="E332" s="10" t="s">
         <v>1605</v>
       </c>
-      <c r="F332" s="6" t="str">
+      <c r="F332" s="7" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G332" s="8" t="s">
+      <c r="G332" s="10" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="333" s="7" customFormat="1" spans="5:7">
-      <c r="E333" s="7" t="s">
+    <row r="333" s="9" customFormat="1" spans="5:7">
+      <c r="E333" s="9" t="s">
         <v>1607</v>
       </c>
-      <c r="F333" s="7" t="str">
+      <c r="F333" s="9" t="str">
         <f>菜单SAAS版!E219</f>
         <v>iam_menu-236</v>
       </c>
-      <c r="G333" s="7" t="s">
+      <c r="G333" s="9" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="334" s="7" customFormat="1" spans="5:7">
-      <c r="E334" s="7" t="s">
+    <row r="334" s="9" customFormat="1" spans="5:7">
+      <c r="E334" s="9" t="s">
         <v>1608</v>
       </c>
-      <c r="F334" s="7" t="str">
+      <c r="F334" s="9" t="str">
         <f>菜单SAAS版!E219</f>
         <v>iam_menu-236</v>
       </c>
-      <c r="G334" s="7" t="s">
+      <c r="G334" s="9" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="335" s="7" customFormat="1" spans="5:7">
-      <c r="E335" s="7" t="s">
+    <row r="335" s="9" customFormat="1" spans="5:7">
+      <c r="E335" s="9" t="s">
         <v>1610</v>
       </c>
-      <c r="F335" s="7" t="str">
+      <c r="F335" s="9" t="str">
         <f>菜单SAAS版!E220</f>
         <v>iam_menu-237</v>
       </c>
-      <c r="G335" s="7" t="s">
+      <c r="G335" s="9" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="336" s="7" customFormat="1" spans="5:7">
-      <c r="E336" s="7" t="s">
+    <row r="336" s="9" customFormat="1" spans="5:7">
+      <c r="E336" s="9" t="s">
         <v>1612</v>
       </c>
-      <c r="F336" s="7" t="str">
+      <c r="F336" s="9" t="str">
         <f>菜单SAAS版!E221</f>
         <v>iam_menu-238</v>
       </c>
-      <c r="G336" s="7" t="s">
+      <c r="G336" s="9" t="s">
         <v>1613</v>
       </c>
     </row>
-    <row r="337" s="7" customFormat="1" spans="5:7">
-      <c r="E337" s="7" t="s">
+    <row r="337" s="9" customFormat="1" spans="5:7">
+      <c r="E337" s="9" t="s">
         <v>1614</v>
       </c>
-      <c r="F337" s="7" t="str">
+      <c r="F337" s="9" t="str">
         <f>菜单SAAS版!E221</f>
         <v>iam_menu-238</v>
       </c>
-      <c r="G337" s="7" t="s">
+      <c r="G337" s="9" t="s">
         <v>1615</v>
       </c>
     </row>
     <row r="338" spans="5:7">
-      <c r="E338" s="7" t="s">
+      <c r="E338" s="9" t="s">
         <v>1616</v>
       </c>
-      <c r="F338" s="7" t="str">
+      <c r="F338" s="9" t="str">
         <f>菜单SAAS版!E222</f>
         <v>iam_menu-239</v>
       </c>
-      <c r="G338" s="16" t="s">
+      <c r="G338" s="18" t="s">
         <v>1617</v>
       </c>
     </row>
     <row r="339" spans="5:7">
-      <c r="E339" s="7" t="s">
+      <c r="E339" s="9" t="s">
         <v>1618</v>
       </c>
-      <c r="F339" s="7" t="str">
+      <c r="F339" s="9" t="str">
         <f>菜单SAAS版!E222</f>
         <v>iam_menu-239</v>
       </c>
-      <c r="G339" s="16" t="s">
+      <c r="G339" s="18" t="s">
         <v>1619</v>
       </c>
     </row>
     <row r="340" spans="5:7">
-      <c r="E340" s="7" t="s">
+      <c r="E340" s="9" t="s">
         <v>1620</v>
       </c>
-      <c r="F340" s="7" t="str">
+      <c r="F340" s="9" t="str">
         <f>菜单SAAS版!E223</f>
         <v>iam_menu-240</v>
       </c>
-      <c r="G340" s="16" t="s">
+      <c r="G340" s="18" t="s">
         <v>1621</v>
       </c>
     </row>
     <row r="341" spans="5:7">
-      <c r="E341" s="7" t="s">
+      <c r="E341" s="9" t="s">
         <v>1622</v>
       </c>
-      <c r="F341" s="7" t="str">
+      <c r="F341" s="9" t="str">
         <f>菜单SAAS版!E223</f>
         <v>iam_menu-240</v>
       </c>
-      <c r="G341" s="16" t="s">
+      <c r="G341" s="18" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="342" s="10" customFormat="1" spans="5:7">
-      <c r="E342" s="10" t="s">
+    <row r="342" s="12" customFormat="1" spans="5:7">
+      <c r="E342" s="12" t="s">
         <v>1624</v>
       </c>
-      <c r="F342" s="10" t="str">
+      <c r="F342" s="12" t="str">
         <f>菜单SAAS版!E74</f>
         <v>iam_menu-74</v>
       </c>
-      <c r="G342" s="17" t="s">
+      <c r="G342" s="19" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="343" s="11" customFormat="1" spans="5:7">
-      <c r="E343" s="11" t="s">
+    <row r="343" s="13" customFormat="1" spans="5:7">
+      <c r="E343" s="13" t="s">
         <v>1625</v>
       </c>
-      <c r="F343" s="11" t="str">
+      <c r="F343" s="13" t="str">
         <f>菜单SAAS版!E224</f>
         <v>iam_menu-241</v>
       </c>
-      <c r="G343" s="18" t="s">
+      <c r="G343" s="20" t="s">
         <v>1626</v>
       </c>
     </row>
     <row r="344" spans="5:7">
-      <c r="E344" s="11" t="s">
+      <c r="E344" s="13" t="s">
         <v>1627</v>
       </c>
-      <c r="F344" s="11" t="str">
+      <c r="F344" s="13" t="str">
         <f>菜单SAAS版!E224</f>
         <v>iam_menu-241</v>
       </c>
-      <c r="G344" s="16" t="s">
+      <c r="G344" s="18" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="345" s="10" customFormat="1" spans="5:7">
-      <c r="E345" s="10" t="s">
+    <row r="345" s="12" customFormat="1" spans="5:7">
+      <c r="E345" s="12" t="s">
         <v>1629</v>
       </c>
-      <c r="F345" s="10" t="str">
+      <c r="F345" s="12" t="str">
         <f>菜单SAAS版!$E$79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G345" s="17" t="s">
+      <c r="G345" s="19" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="346" s="10" customFormat="1" spans="5:7">
-      <c r="E346" s="10" t="s">
+    <row r="346" s="12" customFormat="1" spans="5:7">
+      <c r="E346" s="12" t="s">
         <v>1631</v>
       </c>
-      <c r="F346" s="10" t="str">
+      <c r="F346" s="12" t="str">
         <f>菜单SAAS版!$E$79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G346" s="17" t="s">
+      <c r="G346" s="19" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="347" s="10" customFormat="1" spans="5:7">
-      <c r="E347" s="10" t="s">
+    <row r="347" s="12" customFormat="1" spans="5:7">
+      <c r="E347" s="12" t="s">
         <v>1633</v>
       </c>
-      <c r="F347" s="10" t="str">
+      <c r="F347" s="12" t="str">
         <f>菜单SAAS版!$E$79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G347" s="17" t="s">
+      <c r="G347" s="19" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="348" s="10" customFormat="1" spans="5:7">
-      <c r="E348" s="10" t="s">
+    <row r="348" s="12" customFormat="1" spans="5:7">
+      <c r="E348" s="12" t="s">
         <v>1635</v>
       </c>
-      <c r="F348" s="10" t="str">
+      <c r="F348" s="12" t="str">
         <f>菜单SAAS版!$E$79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G348" s="17" t="s">
+      <c r="G348" s="19" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="349" spans="5:7">
-      <c r="E349" s="10" t="s">
+      <c r="E349" s="12" t="s">
         <v>1637</v>
       </c>
-      <c r="F349" s="10" t="str">
+      <c r="F349" s="12" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G349" s="17" t="s">
+      <c r="G349" s="19" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="350" spans="5:7">
-      <c r="E350" s="10" t="s">
+      <c r="E350" s="12" t="s">
         <v>1638</v>
       </c>
-      <c r="F350" s="10" t="str">
+      <c r="F350" s="12" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G350" s="17" t="s">
+      <c r="G350" s="19" t="s">
         <v>1630</v>
       </c>
     </row>
     <row r="351" spans="5:7">
-      <c r="E351" s="10" t="s">
+      <c r="E351" s="12" t="s">
         <v>1639</v>
       </c>
-      <c r="F351" s="10" t="str">
+      <c r="F351" s="12" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G351" s="17" t="s">
+      <c r="G351" s="19" t="s">
         <v>1632</v>
       </c>
     </row>
     <row r="352" spans="5:7">
-      <c r="E352" s="10" t="s">
+      <c r="E352" s="12" t="s">
         <v>1640</v>
       </c>
-      <c r="F352" s="10" t="str">
+      <c r="F352" s="12" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G352" s="17" t="s">
+      <c r="G352" s="19" t="s">
         <v>1634</v>
       </c>
     </row>
     <row r="353" spans="5:7">
-      <c r="E353" s="10" t="s">
+      <c r="E353" s="12" t="s">
         <v>1641</v>
       </c>
-      <c r="F353" s="10" t="str">
+      <c r="F353" s="12" t="str">
         <f>菜单SAAS版!$E$120</f>
         <v>iam_menu-123</v>
       </c>
-      <c r="G353" s="17" t="s">
+      <c r="G353" s="19" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="354" spans="5:7">
-      <c r="E354" s="10" t="s">
+      <c r="E354" s="12" t="s">
         <v>1642</v>
       </c>
-      <c r="F354" s="10" t="str">
+      <c r="F354" s="12" t="str">
         <f>菜单SAAS版!$E$120</f>
         <v>iam_menu-123</v>
       </c>
-      <c r="G354" s="17" t="s">
+      <c r="G354" s="19" t="s">
         <v>1643</v>
       </c>
     </row>
     <row r="355" spans="5:7">
-      <c r="E355" s="10" t="s">
+      <c r="E355" s="12" t="s">
         <v>1644</v>
       </c>
-      <c r="F355" s="10" t="str">
+      <c r="F355" s="12" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G355" s="17" t="s">
+      <c r="G355" s="19" t="s">
         <v>1645</v>
       </c>
     </row>
     <row r="356" spans="5:7">
-      <c r="E356" s="10" t="s">
+      <c r="E356" s="12" t="s">
         <v>1646</v>
       </c>
-      <c r="F356" s="10" t="str">
+      <c r="F356" s="12" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G356" s="17" t="s">
+      <c r="G356" s="19" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="357" s="8" customFormat="1" spans="5:7">
-      <c r="E357" s="8" t="s">
+    <row r="357" s="10" customFormat="1" spans="5:7">
+      <c r="E357" s="10" t="s">
         <v>1648</v>
       </c>
-      <c r="F357" s="8" t="str">
+      <c r="F357" s="10" t="str">
         <f>菜单SAAS版!$E$227</f>
         <v>iam_menu-244</v>
       </c>
-      <c r="G357" s="16" t="s">
+      <c r="G357" s="18" t="s">
         <v>1404</v>
       </c>
     </row>
@@ -25316,110 +25406,110 @@
       </c>
     </row>
     <row r="365" spans="1:7">
-      <c r="A365" s="9"/>
-      <c r="B365" s="9"/>
-      <c r="C365" s="9"/>
-      <c r="D365" s="9"/>
-      <c r="E365" s="9" t="s">
+      <c r="A365" s="11"/>
+      <c r="B365" s="11"/>
+      <c r="C365" s="11"/>
+      <c r="D365" s="11"/>
+      <c r="E365" s="11" t="s">
         <v>1663</v>
       </c>
-      <c r="F365" s="9" t="str">
+      <c r="F365" s="11" t="str">
         <f>菜单SAAS版!$E$228</f>
         <v>iam_menu-245</v>
       </c>
-      <c r="G365" s="9" t="s">
+      <c r="G365" s="11" t="s">
         <v>1664</v>
       </c>
     </row>
     <row r="366" spans="1:7">
-      <c r="A366" s="9"/>
-      <c r="B366" s="9"/>
-      <c r="C366" s="9"/>
-      <c r="D366" s="9"/>
-      <c r="E366" s="9" t="s">
+      <c r="A366" s="11"/>
+      <c r="B366" s="11"/>
+      <c r="C366" s="11"/>
+      <c r="D366" s="11"/>
+      <c r="E366" s="11" t="s">
         <v>1665</v>
       </c>
-      <c r="F366" s="9" t="str">
+      <c r="F366" s="11" t="str">
         <f>菜单SAAS版!$E$228</f>
         <v>iam_menu-245</v>
       </c>
-      <c r="G366" s="9" t="s">
+      <c r="G366" s="11" t="s">
         <v>1666</v>
       </c>
     </row>
     <row r="367" spans="1:7">
-      <c r="A367" s="9"/>
-      <c r="B367" s="9"/>
-      <c r="C367" s="9"/>
-      <c r="D367" s="9"/>
-      <c r="E367" s="9" t="s">
+      <c r="A367" s="11"/>
+      <c r="B367" s="11"/>
+      <c r="C367" s="11"/>
+      <c r="D367" s="11"/>
+      <c r="E367" s="11" t="s">
         <v>1667</v>
       </c>
-      <c r="F367" s="9" t="str">
+      <c r="F367" s="11" t="str">
         <f>菜单SAAS版!$E$228</f>
         <v>iam_menu-245</v>
       </c>
-      <c r="G367" s="9" t="s">
+      <c r="G367" s="11" t="s">
         <v>1668</v>
       </c>
     </row>
     <row r="368" spans="1:7">
-      <c r="A368" s="9"/>
-      <c r="B368" s="9"/>
-      <c r="C368" s="9"/>
-      <c r="D368" s="9"/>
-      <c r="E368" s="9" t="s">
+      <c r="A368" s="11"/>
+      <c r="B368" s="11"/>
+      <c r="C368" s="11"/>
+      <c r="D368" s="11"/>
+      <c r="E368" s="11" t="s">
         <v>1669</v>
       </c>
-      <c r="F368" s="9" t="str">
+      <c r="F368" s="11" t="str">
         <f>菜单SAAS版!$E$229</f>
         <v>iam_menu-246</v>
       </c>
-      <c r="G368" s="9" t="s">
+      <c r="G368" s="11" t="s">
         <v>1664</v>
       </c>
     </row>
     <row r="369" spans="1:7">
-      <c r="A369" s="9"/>
-      <c r="B369" s="9"/>
-      <c r="C369" s="9"/>
-      <c r="D369" s="9"/>
-      <c r="E369" s="9" t="s">
+      <c r="A369" s="11"/>
+      <c r="B369" s="11"/>
+      <c r="C369" s="11"/>
+      <c r="D369" s="11"/>
+      <c r="E369" s="11" t="s">
         <v>1670</v>
       </c>
-      <c r="F369" s="9" t="str">
+      <c r="F369" s="11" t="str">
         <f>菜单SAAS版!$E$229</f>
         <v>iam_menu-246</v>
       </c>
-      <c r="G369" s="9" t="s">
+      <c r="G369" s="11" t="s">
         <v>1671</v>
       </c>
     </row>
     <row r="370" spans="1:7">
-      <c r="A370" s="9"/>
-      <c r="B370" s="9"/>
-      <c r="C370" s="9"/>
-      <c r="D370" s="9"/>
-      <c r="E370" s="9" t="s">
+      <c r="A370" s="11"/>
+      <c r="B370" s="11"/>
+      <c r="C370" s="11"/>
+      <c r="D370" s="11"/>
+      <c r="E370" s="11" t="s">
         <v>1672</v>
       </c>
-      <c r="F370" s="9" t="str">
+      <c r="F370" s="11" t="str">
         <f>菜单SAAS版!$E$229</f>
         <v>iam_menu-246</v>
       </c>
-      <c r="G370" s="9" t="s">
+      <c r="G370" s="11" t="s">
         <v>1673</v>
       </c>
     </row>
     <row r="371" spans="5:7">
-      <c r="E371" s="6" t="s">
+      <c r="E371" s="7" t="s">
         <v>1674</v>
       </c>
       <c r="F371" t="str">
         <f>菜单SAAS版!$E$80</f>
         <v>iam_menu-80</v>
       </c>
-      <c r="G371" s="6" t="s">
+      <c r="G371" s="7" t="s">
         <v>1675</v>
       </c>
     </row>
@@ -25450,12 +25540,12 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="19.7083333333333" customWidth="1"/>
-    <col min="6" max="6" width="28.7083333333333" customWidth="1"/>
-    <col min="7" max="7" width="14.2083333333333" customWidth="1"/>
-    <col min="8" max="8" width="14.1388888888889" customWidth="1"/>
+    <col min="5" max="5" width="19.7111111111111" customWidth="1"/>
+    <col min="6" max="6" width="28.7111111111111" customWidth="1"/>
+    <col min="7" max="7" width="14.2074074074074" customWidth="1"/>
+    <col min="8" max="8" width="14.1407407407407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -28479,15 +28569,15 @@
   <sheetPr/>
   <dimension ref="A1:Y260"/>
   <sheetViews>
-    <sheetView topLeftCell="A245" workbookViewId="0">
+    <sheetView topLeftCell="A223" workbookViewId="0">
       <selection activeCell="G257" sqref="G257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="24.7083333333333" customWidth="1"/>
-    <col min="6" max="6" width="21.2083333333333" customWidth="1"/>
-    <col min="7" max="7" width="19.7083333333333" customWidth="1"/>
+    <col min="5" max="5" width="24.7111111111111" customWidth="1"/>
+    <col min="6" max="6" width="21.2074074074074" customWidth="1"/>
+    <col min="7" max="7" width="19.7111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -28963,7 +29053,7 @@
       </c>
     </row>
     <row r="14" spans="5:23">
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>1770</v>
       </c>
       <c r="F14" t="s">
@@ -31362,7 +31452,7 @@
       </c>
     </row>
     <row r="122" spans="5:10">
-      <c r="E122" s="5" t="s">
+      <c r="E122" s="8" t="s">
         <v>1889</v>
       </c>
       <c r="F122" t="str">
@@ -32484,7 +32574,7 @@
       </c>
     </row>
     <row r="173" spans="5:10">
-      <c r="E173" s="5" t="s">
+      <c r="E173" s="8" t="s">
         <v>1940</v>
       </c>
       <c r="F173" t="str">
@@ -32506,7 +32596,7 @@
       </c>
     </row>
     <row r="174" spans="5:10">
-      <c r="E174" s="5" t="s">
+      <c r="E174" s="8" t="s">
         <v>1942</v>
       </c>
       <c r="F174" t="str">
@@ -32528,7 +32618,7 @@
       </c>
     </row>
     <row r="175" spans="5:10">
-      <c r="E175" s="5" t="s">
+      <c r="E175" s="8" t="s">
         <v>1943</v>
       </c>
       <c r="F175" t="str">
@@ -32550,7 +32640,7 @@
       </c>
     </row>
     <row r="176" spans="5:10">
-      <c r="E176" s="5" t="s">
+      <c r="E176" s="8" t="s">
         <v>1944</v>
       </c>
       <c r="F176" t="str">
@@ -32572,7 +32662,7 @@
       </c>
     </row>
     <row r="177" spans="5:10">
-      <c r="E177" s="5" t="s">
+      <c r="E177" s="8" t="s">
         <v>1945</v>
       </c>
       <c r="F177" t="str">
@@ -32594,7 +32684,7 @@
       </c>
     </row>
     <row r="178" spans="5:10">
-      <c r="E178" s="5" t="s">
+      <c r="E178" s="8" t="s">
         <v>1946</v>
       </c>
       <c r="F178" t="str">
@@ -32616,7 +32706,7 @@
       </c>
     </row>
     <row r="179" spans="5:10">
-      <c r="E179" s="5" t="s">
+      <c r="E179" s="8" t="s">
         <v>1947</v>
       </c>
       <c r="F179" t="str">
@@ -32924,7 +33014,7 @@
       </c>
     </row>
     <row r="193" spans="5:10">
-      <c r="E193" s="5" t="s">
+      <c r="E193" s="8" t="s">
         <v>1961</v>
       </c>
       <c r="F193" t="str">
@@ -32946,7 +33036,7 @@
       </c>
     </row>
     <row r="194" spans="5:10">
-      <c r="E194" s="5" t="s">
+      <c r="E194" s="8" t="s">
         <v>1962</v>
       </c>
       <c r="F194" t="str">
@@ -32968,7 +33058,7 @@
       </c>
     </row>
     <row r="195" spans="5:10">
-      <c r="E195" s="5" t="s">
+      <c r="E195" s="8" t="s">
         <v>1963</v>
       </c>
       <c r="F195" t="str">
@@ -32990,7 +33080,7 @@
       </c>
     </row>
     <row r="196" spans="5:10">
-      <c r="E196" s="5" t="s">
+      <c r="E196" s="8" t="s">
         <v>1964</v>
       </c>
       <c r="F196" t="str">
@@ -33012,7 +33102,7 @@
       </c>
     </row>
     <row r="197" spans="5:10">
-      <c r="E197" s="5" t="s">
+      <c r="E197" s="8" t="s">
         <v>1965</v>
       </c>
       <c r="F197" t="str">
@@ -33056,7 +33146,7 @@
       </c>
     </row>
     <row r="199" spans="5:10">
-      <c r="E199" s="5" t="s">
+      <c r="E199" s="8" t="s">
         <v>1967</v>
       </c>
       <c r="F199" t="str">
@@ -33078,7 +33168,7 @@
       </c>
     </row>
     <row r="200" spans="5:10">
-      <c r="E200" s="5" t="s">
+      <c r="E200" s="8" t="s">
         <v>1968</v>
       </c>
       <c r="F200" t="str">
@@ -33100,7 +33190,7 @@
       </c>
     </row>
     <row r="201" spans="5:10">
-      <c r="E201" s="5" t="s">
+      <c r="E201" s="8" t="s">
         <v>1969</v>
       </c>
       <c r="F201" t="str">
@@ -33122,7 +33212,7 @@
       </c>
     </row>
     <row r="202" spans="5:10">
-      <c r="E202" s="5" t="s">
+      <c r="E202" s="8" t="s">
         <v>1970</v>
       </c>
       <c r="F202" t="str">
@@ -33144,7 +33234,7 @@
       </c>
     </row>
     <row r="203" spans="5:10">
-      <c r="E203" s="5" t="s">
+      <c r="E203" s="8" t="s">
         <v>1971</v>
       </c>
       <c r="F203" t="str">
@@ -33166,7 +33256,7 @@
       </c>
     </row>
     <row r="204" spans="5:10">
-      <c r="E204" s="5" t="s">
+      <c r="E204" s="8" t="s">
         <v>1972</v>
       </c>
       <c r="F204" t="str">
@@ -33188,7 +33278,7 @@
       </c>
     </row>
     <row r="205" spans="5:10">
-      <c r="E205" s="5" t="s">
+      <c r="E205" s="8" t="s">
         <v>1973</v>
       </c>
       <c r="F205" t="str">
@@ -33869,253 +33959,253 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="236" s="7" customFormat="1" spans="5:10">
-      <c r="E236" s="7" t="s">
+    <row r="236" s="9" customFormat="1" spans="5:10">
+      <c r="E236" s="9" t="s">
         <v>2004</v>
       </c>
-      <c r="F236" s="7" t="str">
+      <c r="F236" s="9" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G236" s="7" t="str">
+      <c r="G236" s="9" t="str">
         <f>菜单SAAS版!$E$219</f>
         <v>iam_menu-236</v>
       </c>
-      <c r="H236" s="7" t="s">
+      <c r="H236" s="9" t="s">
         <v>1782</v>
       </c>
-      <c r="I236" s="7" t="s">
+      <c r="I236" s="9" t="s">
         <v>1783</v>
       </c>
-      <c r="J236" s="7" t="s">
+      <c r="J236" s="9" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="237" s="7" customFormat="1" spans="5:10">
-      <c r="E237" s="7" t="s">
+    <row r="237" s="9" customFormat="1" spans="5:10">
+      <c r="E237" s="9" t="s">
         <v>2005</v>
       </c>
-      <c r="F237" s="7" t="str">
+      <c r="F237" s="9" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G237" s="7" t="str">
+      <c r="G237" s="9" t="str">
         <f>菜单SAAS版!$E$219</f>
         <v>iam_menu-236</v>
       </c>
-      <c r="H237" s="7" t="s">
+      <c r="H237" s="9" t="s">
         <v>1782</v>
       </c>
-      <c r="I237" s="7" t="s">
+      <c r="I237" s="9" t="s">
         <v>1783</v>
       </c>
-      <c r="J237" s="7" t="s">
+      <c r="J237" s="9" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="238" s="7" customFormat="1" spans="5:10">
-      <c r="E238" s="7" t="s">
+    <row r="238" s="9" customFormat="1" spans="5:10">
+      <c r="E238" s="9" t="s">
         <v>2006</v>
       </c>
-      <c r="F238" s="7" t="str">
+      <c r="F238" s="9" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G238" s="7" t="str">
+      <c r="G238" s="9" t="str">
         <f>菜单SAAS版!$E$220</f>
         <v>iam_menu-237</v>
       </c>
-      <c r="H238" s="7" t="s">
+      <c r="H238" s="9" t="s">
         <v>1782</v>
       </c>
-      <c r="I238" s="7" t="s">
+      <c r="I238" s="9" t="s">
         <v>1783</v>
       </c>
-      <c r="J238" s="7" t="s">
+      <c r="J238" s="9" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="239" s="7" customFormat="1" spans="5:10">
-      <c r="E239" s="7" t="s">
+    <row r="239" s="9" customFormat="1" spans="5:10">
+      <c r="E239" s="9" t="s">
         <v>2007</v>
       </c>
-      <c r="F239" s="7" t="str">
+      <c r="F239" s="9" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G239" s="7" t="str">
+      <c r="G239" s="9" t="str">
         <f>菜单SAAS版!$E$220</f>
         <v>iam_menu-237</v>
       </c>
-      <c r="H239" s="7" t="s">
+      <c r="H239" s="9" t="s">
         <v>1782</v>
       </c>
-      <c r="I239" s="7" t="s">
+      <c r="I239" s="9" t="s">
         <v>1783</v>
       </c>
-      <c r="J239" s="7" t="s">
+      <c r="J239" s="9" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="240" s="7" customFormat="1" spans="5:10">
-      <c r="E240" s="7" t="s">
+    <row r="240" s="9" customFormat="1" spans="5:10">
+      <c r="E240" s="9" t="s">
         <v>2008</v>
       </c>
-      <c r="F240" s="7" t="str">
+      <c r="F240" s="9" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G240" s="7" t="str">
+      <c r="G240" s="9" t="str">
         <f>菜单SAAS版!$E$221</f>
         <v>iam_menu-238</v>
       </c>
-      <c r="H240" s="7" t="s">
+      <c r="H240" s="9" t="s">
         <v>1782</v>
       </c>
-      <c r="I240" s="7" t="s">
+      <c r="I240" s="9" t="s">
         <v>1783</v>
       </c>
-      <c r="J240" s="7" t="s">
+      <c r="J240" s="9" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="241" s="7" customFormat="1" spans="5:10">
-      <c r="E241" s="7" t="s">
+    <row r="241" s="9" customFormat="1" spans="5:10">
+      <c r="E241" s="9" t="s">
         <v>2009</v>
       </c>
-      <c r="F241" s="7" t="str">
+      <c r="F241" s="9" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G241" s="7" t="str">
+      <c r="G241" s="9" t="str">
         <f>菜单SAAS版!$E$221</f>
         <v>iam_menu-238</v>
       </c>
-      <c r="H241" s="7" t="s">
+      <c r="H241" s="9" t="s">
         <v>1782</v>
       </c>
-      <c r="I241" s="7" t="s">
+      <c r="I241" s="9" t="s">
         <v>1783</v>
       </c>
-      <c r="J241" s="7" t="s">
+      <c r="J241" s="9" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="242" s="7" customFormat="1" spans="5:10">
-      <c r="E242" s="7" t="s">
+    <row r="242" s="9" customFormat="1" spans="5:10">
+      <c r="E242" s="9" t="s">
         <v>2010</v>
       </c>
-      <c r="F242" s="7" t="str">
+      <c r="F242" s="9" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G242" s="7" t="str">
+      <c r="G242" s="9" t="str">
         <f>菜单SAAS版!$E$222</f>
         <v>iam_menu-239</v>
       </c>
-      <c r="H242" s="7" t="s">
+      <c r="H242" s="9" t="s">
         <v>1782</v>
       </c>
-      <c r="I242" s="7" t="s">
+      <c r="I242" s="9" t="s">
         <v>1783</v>
       </c>
-      <c r="J242" s="7" t="s">
+      <c r="J242" s="9" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="243" s="7" customFormat="1" spans="5:10">
-      <c r="E243" s="7" t="s">
+    <row r="243" s="9" customFormat="1" spans="5:10">
+      <c r="E243" s="9" t="s">
         <v>2011</v>
       </c>
-      <c r="F243" s="7" t="str">
+      <c r="F243" s="9" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G243" s="7" t="str">
+      <c r="G243" s="9" t="str">
         <f>菜单SAAS版!$E$222</f>
         <v>iam_menu-239</v>
       </c>
-      <c r="H243" s="7" t="s">
+      <c r="H243" s="9" t="s">
         <v>1782</v>
       </c>
-      <c r="I243" s="7" t="s">
+      <c r="I243" s="9" t="s">
         <v>1783</v>
       </c>
-      <c r="J243" s="7" t="s">
+      <c r="J243" s="9" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="244" s="7" customFormat="1" spans="5:10">
-      <c r="E244" s="7" t="s">
+    <row r="244" s="9" customFormat="1" spans="5:10">
+      <c r="E244" s="9" t="s">
         <v>2012</v>
       </c>
-      <c r="F244" s="7" t="str">
+      <c r="F244" s="9" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G244" s="7" t="str">
+      <c r="G244" s="9" t="str">
         <f>菜单SAAS版!$E$223</f>
         <v>iam_menu-240</v>
       </c>
-      <c r="H244" s="7" t="s">
+      <c r="H244" s="9" t="s">
         <v>1782</v>
       </c>
-      <c r="I244" s="7" t="s">
+      <c r="I244" s="9" t="s">
         <v>1783</v>
       </c>
-      <c r="J244" s="7" t="s">
+      <c r="J244" s="9" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="245" s="7" customFormat="1" spans="5:10">
-      <c r="E245" s="7" t="s">
+    <row r="245" s="9" customFormat="1" spans="5:10">
+      <c r="E245" s="9" t="s">
         <v>2013</v>
       </c>
-      <c r="F245" s="7" t="str">
+      <c r="F245" s="9" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G245" s="7" t="str">
+      <c r="G245" s="9" t="str">
         <f>菜单SAAS版!$E$223</f>
         <v>iam_menu-240</v>
       </c>
-      <c r="H245" s="7" t="s">
+      <c r="H245" s="9" t="s">
         <v>1782</v>
       </c>
-      <c r="I245" s="7" t="s">
+      <c r="I245" s="9" t="s">
         <v>1783</v>
       </c>
-      <c r="J245" s="7" t="s">
+      <c r="J245" s="9" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="246" s="8" customFormat="1" spans="5:10">
-      <c r="E246" s="8" t="s">
+    <row r="246" s="10" customFormat="1" spans="5:10">
+      <c r="E246" s="10" t="s">
         <v>2014</v>
       </c>
-      <c r="F246" s="8" t="str">
+      <c r="F246" s="10" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G246" s="8" t="str">
+      <c r="G246" s="10" t="str">
         <f>菜单SAAS版!$E$227</f>
         <v>iam_menu-244</v>
       </c>
-      <c r="H246" s="8" t="s">
+      <c r="H246" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I246" s="8" t="s">
+      <c r="I246" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J246" s="8" t="s">
+      <c r="J246" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="247" spans="5:10">
-      <c r="E247" s="8" t="s">
+      <c r="E247" s="10" t="s">
         <v>2015</v>
       </c>
-      <c r="F247" s="7" t="str">
+      <c r="F247" s="9" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
@@ -34123,21 +34213,21 @@
         <f>菜单SAAS版!$E$214</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="H247" s="8" t="s">
+      <c r="H247" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I247" s="8" t="s">
+      <c r="I247" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J247" s="8" t="s">
+      <c r="J247" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="248" spans="5:10">
-      <c r="E248" s="8" t="s">
+      <c r="E248" s="10" t="s">
         <v>2016</v>
       </c>
-      <c r="F248" s="8" t="str">
+      <c r="F248" s="10" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
@@ -34145,21 +34235,21 @@
         <f>菜单SAAS版!$E$214</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="H248" s="8" t="s">
+      <c r="H248" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I248" s="8" t="s">
+      <c r="I248" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J248" s="8" t="s">
+      <c r="J248" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="249" spans="5:10">
-      <c r="E249" s="8" t="s">
+      <c r="E249" s="10" t="s">
         <v>2017</v>
       </c>
-      <c r="F249" s="7" t="str">
+      <c r="F249" s="9" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
@@ -34167,21 +34257,21 @@
         <f>菜单SAAS版!$E$215</f>
         <v>iam_menu-232</v>
       </c>
-      <c r="H249" s="8" t="s">
+      <c r="H249" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I249" s="8" t="s">
+      <c r="I249" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J249" s="8" t="s">
+      <c r="J249" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="250" spans="5:10">
-      <c r="E250" s="8" t="s">
+      <c r="E250" s="10" t="s">
         <v>2018</v>
       </c>
-      <c r="F250" s="8" t="str">
+      <c r="F250" s="10" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
@@ -34189,21 +34279,21 @@
         <f>菜单SAAS版!$E$215</f>
         <v>iam_menu-232</v>
       </c>
-      <c r="H250" s="8" t="s">
+      <c r="H250" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I250" s="8" t="s">
+      <c r="I250" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J250" s="8" t="s">
+      <c r="J250" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="251" spans="5:10">
-      <c r="E251" s="8" t="s">
+      <c r="E251" s="10" t="s">
         <v>2019</v>
       </c>
-      <c r="F251" s="7" t="str">
+      <c r="F251" s="9" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
@@ -34211,21 +34301,21 @@
         <f>菜单SAAS版!$E$216</f>
         <v>iam_menu-233</v>
       </c>
-      <c r="H251" s="8" t="s">
+      <c r="H251" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I251" s="8" t="s">
+      <c r="I251" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J251" s="8" t="s">
+      <c r="J251" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="252" spans="5:10">
-      <c r="E252" s="8" t="s">
+      <c r="E252" s="10" t="s">
         <v>2020</v>
       </c>
-      <c r="F252" s="8" t="str">
+      <c r="F252" s="10" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
@@ -34233,21 +34323,21 @@
         <f>菜单SAAS版!$E$216</f>
         <v>iam_menu-233</v>
       </c>
-      <c r="H252" s="8" t="s">
+      <c r="H252" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I252" s="8" t="s">
+      <c r="I252" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J252" s="8" t="s">
+      <c r="J252" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="253" spans="5:10">
-      <c r="E253" s="8" t="s">
+      <c r="E253" s="10" t="s">
         <v>2021</v>
       </c>
-      <c r="F253" s="7" t="str">
+      <c r="F253" s="9" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
@@ -34255,21 +34345,21 @@
         <f>菜单SAAS版!$E$217</f>
         <v>iam_menu-234</v>
       </c>
-      <c r="H253" s="8" t="s">
+      <c r="H253" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I253" s="8" t="s">
+      <c r="I253" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J253" s="8" t="s">
+      <c r="J253" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="254" spans="5:10">
-      <c r="E254" s="8" t="s">
+      <c r="E254" s="10" t="s">
         <v>2022</v>
       </c>
-      <c r="F254" s="8" t="str">
+      <c r="F254" s="10" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
@@ -34277,145 +34367,145 @@
         <f>菜单SAAS版!$E$217</f>
         <v>iam_menu-234</v>
       </c>
-      <c r="H254" s="8" t="s">
+      <c r="H254" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I254" s="8" t="s">
+      <c r="I254" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J254" s="8" t="s">
+      <c r="J254" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="255" s="9" customFormat="1" spans="5:10">
-      <c r="E255" s="9" t="s">
+    <row r="255" s="11" customFormat="1" spans="5:10">
+      <c r="E255" s="11" t="s">
         <v>2023</v>
       </c>
-      <c r="F255" s="9" t="str">
+      <c r="F255" s="11" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G255" s="9" t="str">
+      <c r="G255" s="11" t="str">
         <f>菜单SAAS版!$E$228</f>
         <v>iam_menu-245</v>
       </c>
-      <c r="H255" s="9" t="s">
+      <c r="H255" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="I255" s="9" t="s">
+      <c r="I255" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="J255" s="9" t="s">
+      <c r="J255" s="11" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="256" s="9" customFormat="1" spans="5:10">
-      <c r="E256" s="9" t="s">
+    <row r="256" s="11" customFormat="1" spans="5:10">
+      <c r="E256" s="11" t="s">
         <v>2024</v>
       </c>
-      <c r="F256" s="9" t="str">
+      <c r="F256" s="11" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G256" s="9" t="str">
+      <c r="G256" s="11" t="str">
         <f>菜单SAAS版!$E$228</f>
         <v>iam_menu-245</v>
       </c>
-      <c r="H256" s="9" t="s">
+      <c r="H256" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="I256" s="9" t="s">
+      <c r="I256" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="J256" s="9" t="s">
+      <c r="J256" s="11" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="257" s="9" customFormat="1" spans="5:10">
-      <c r="E257" s="9" t="s">
+    <row r="257" s="11" customFormat="1" spans="5:10">
+      <c r="E257" s="11" t="s">
         <v>2025</v>
       </c>
-      <c r="F257" s="9" t="str">
+      <c r="F257" s="11" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
-      <c r="G257" s="9" t="str">
+      <c r="G257" s="11" t="str">
         <f>菜单SAAS版!$E$228</f>
         <v>iam_menu-245</v>
       </c>
-      <c r="H257" s="9" t="s">
+      <c r="H257" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="I257" s="9" t="s">
+      <c r="I257" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="J257" s="9" t="s">
+      <c r="J257" s="11" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="258" s="9" customFormat="1" spans="5:10">
-      <c r="E258" s="9" t="s">
+    <row r="258" s="11" customFormat="1" spans="5:10">
+      <c r="E258" s="11" t="s">
         <v>2026</v>
       </c>
-      <c r="F258" s="9" t="str">
+      <c r="F258" s="11" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G258" s="9" t="str">
+      <c r="G258" s="11" t="str">
         <f>菜单SAAS版!$E$229</f>
         <v>iam_menu-246</v>
       </c>
-      <c r="H258" s="9" t="s">
+      <c r="H258" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="I258" s="9" t="s">
+      <c r="I258" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="J258" s="9" t="s">
+      <c r="J258" s="11" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="259" s="9" customFormat="1" spans="5:10">
-      <c r="E259" s="9" t="s">
+    <row r="259" s="11" customFormat="1" spans="5:10">
+      <c r="E259" s="11" t="s">
         <v>2027</v>
       </c>
-      <c r="F259" s="9" t="str">
+      <c r="F259" s="11" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G259" s="9" t="str">
+      <c r="G259" s="11" t="str">
         <f>菜单SAAS版!$E$229</f>
         <v>iam_menu-246</v>
       </c>
-      <c r="H259" s="9" t="s">
+      <c r="H259" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="I259" s="9" t="s">
+      <c r="I259" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="J259" s="9" t="s">
+      <c r="J259" s="11" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="260" s="9" customFormat="1" spans="5:10">
-      <c r="E260" s="9" t="s">
+    <row r="260" s="11" customFormat="1" spans="5:10">
+      <c r="E260" s="11" t="s">
         <v>2028</v>
       </c>
-      <c r="F260" s="9" t="str">
+      <c r="F260" s="11" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
-      <c r="G260" s="9" t="str">
+      <c r="G260" s="11" t="str">
         <f>菜单SAAS版!$E$229</f>
         <v>iam_menu-246</v>
       </c>
-      <c r="H260" s="9" t="s">
+      <c r="H260" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="I260" s="9" t="s">
+      <c r="I260" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="J260" s="9" t="s">
+      <c r="J260" s="11" t="s">
         <v>1784</v>
       </c>
     </row>
@@ -34430,15 +34520,15 @@
   <sheetPr/>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="23.4236111111111" customWidth="1"/>
-    <col min="6" max="6" width="30.1388888888889" customWidth="1"/>
-    <col min="8" max="8" width="26.4236111111111" customWidth="1"/>
+    <col min="5" max="5" width="23.4222222222222" customWidth="1"/>
+    <col min="6" max="6" width="30.1407407407407" customWidth="1"/>
+    <col min="8" max="8" width="26.4222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -34834,7 +34924,7 @@
       </c>
     </row>
     <row r="18" spans="5:15">
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="8" t="s">
         <v>1690</v>
       </c>
       <c r="F18" t="s">
@@ -34866,10 +34956,10 @@
       </c>
     </row>
     <row r="19" spans="5:15">
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="8" t="s">
         <v>2066</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>2067</v>
       </c>
       <c r="G19" t="s">
@@ -34895,7 +34985,7 @@
       </c>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="6"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
@@ -35197,4 +35287,199 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="3" max="3" width="18.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.4222222222222" customWidth="1"/>
+    <col min="6" max="6" width="25.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="25.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="23.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="34.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1"/>
+    <row r="3" customFormat="1"/>
+    <row r="4" customFormat="1" spans="5:7">
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2073</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2074</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="4:10">
+      <c r="D8" s="1"/>
+      <c r="E8" s="5" t="s">
+        <v>2076</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2079</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="4:10">
+      <c r="D9" s="1"/>
+      <c r="E9" s="5" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2082</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2079</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="4:7">
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" customFormat="1"/>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2086</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>2087</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8">
+      <c r="E13" s="5" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F13" t="str">
+        <f>E8</f>
+        <v>fd_user_guide-1</v>
+      </c>
+      <c r="G13" t="str">
+        <f>菜单SAAS版!E10</f>
+        <v>iam_menu-10</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8">
+      <c r="E14" s="5" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F14" t="str">
+        <f>菜单SAAS版!E10</f>
+        <v>iam_menu-10</v>
+      </c>
+      <c r="G14" t="str">
+        <f>E9</f>
+        <v>fd_user_guide-2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -7997,7 +7997,7 @@
     <t>/test</t>
   </si>
   <si>
-    <t>/#/iam/org-admin?type=organization&amp;id=${projectId}&amp;name=${organizationName}&amp;organizationId=${organizationId}</t>
+    <t>/#/iam/org-admin?type=organization&amp;id=${organizationId}&amp;name=${organizationName}&amp;organizationId=${organizationId}</t>
   </si>
   <si>
     <t>fd_user_guide-2</t>
@@ -8035,10 +8035,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="52">
     <font>
@@ -8193,24 +8193,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8228,29 +8227,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -8265,8 +8242,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8280,8 +8266,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8313,22 +8322,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -8338,6 +8331,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8419,7 +8419,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8437,61 +8533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8503,61 +8551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8569,13 +8563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8593,13 +8587,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8707,21 +8707,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -8747,11 +8732,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8768,23 +8774,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8809,10 +8809,10 @@
     <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8821,133 +8821,133 @@
     <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -35295,7 +35295,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5973" uniqueCount="2091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5984" uniqueCount="2098">
   <si>
     <r>
       <rPr>
@@ -7970,6 +7970,30 @@
     <t>fd_user_guide</t>
   </si>
   <si>
+    <t>*ID</t>
+  </si>
+  <si>
+    <t>#CODE</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>MENU_ID</t>
+  </si>
+  <si>
+    <t>fd_user_guide-1</t>
+  </si>
+  <si>
+    <t>ORG-ADMIN</t>
+  </si>
+  <si>
+    <t>用户指引步骤表</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step</t>
+  </si>
+  <si>
     <t>#STEP_CODE</t>
   </si>
   <si>
@@ -7985,7 +8009,7 @@
     <t>PAGE_URL</t>
   </si>
   <si>
-    <t>fd_user_guide-1</t>
+    <t>fd_user_guide_step-1</t>
   </si>
   <si>
     <t>ADD-ORG-ADMIN</t>
@@ -8000,22 +8024,19 @@
     <t>/#/iam/org-admin?type=organization&amp;id=${organizationId}&amp;name=${organizationName}&amp;organizationId=${organizationId}</t>
   </si>
   <si>
-    <t>fd_user_guide-2</t>
+    <t>fd_user_guide_step-2</t>
   </si>
   <si>
     <t>DEL-ORG-ADMIN</t>
   </si>
   <si>
-    <t>用户指引菜单关系表</t>
-  </si>
-  <si>
-    <t>fd_user_guide_menu_rel</t>
-  </si>
-  <si>
-    <t>*ID</t>
-  </si>
-  <si>
-    <t>#MENU_ID</t>
+    <t>用户指引步骤关系表</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step_rel</t>
+  </si>
+  <si>
+    <t>#USER_GUIDE_ID</t>
   </si>
   <si>
     <t>#STEP_ID</t>
@@ -8024,10 +8045,10 @@
     <t>STEP_ORDER</t>
   </si>
   <si>
-    <t>fd_user_guide_menu_rel-1</t>
-  </si>
-  <si>
-    <t>fd_user_guide_menu_rel-2</t>
+    <t>fd_user_guide_step_rel-1</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step_rel-2</t>
   </si>
 </sst>
 </file>
@@ -8035,12 +8056,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="53">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8069,6 +8090,12 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8192,15 +8219,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8214,29 +8263,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8252,33 +8295,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8321,13 +8347,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -8336,8 +8355,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8419,25 +8446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8455,37 +8470,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8503,13 +8512,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8527,7 +8602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8539,67 +8620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8707,6 +8734,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -8717,32 +8759,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8764,8 +8780,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -8774,17 +8792,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8803,55 +8812,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8860,99 +8884,102 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8960,8 +8987,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8974,6 +9001,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -8992,13 +9020,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -9008,44 +9036,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -9058,7 +9086,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9461,10 +9489,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="30" customWidth="1"/>
-    <col min="2" max="2" width="10.2074074074074" style="31" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="31" customWidth="1"/>
+    <col min="2" max="2" width="10.2074074074074" style="32" customWidth="1"/>
     <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
-    <col min="4" max="4" width="35.2074074074074" style="7" customWidth="1"/>
+    <col min="4" max="4" width="35.2074074074074" style="8" customWidth="1"/>
     <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
     <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
     <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
@@ -9478,79 +9506,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="32"/>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="33"/>
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="35"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47"/>
+      <c r="E8" s="48"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -9558,56 +9586,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="51" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="53" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="56" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9617,64 +9645,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="36" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="36"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="36"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="60" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9706,7 +9734,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="4" max="4" width="14.8962962962963" customWidth="1"/>
-    <col min="5" max="5" width="21.7111111111111" style="21" customWidth="1"/>
+    <col min="5" max="5" width="21.7111111111111" style="22" customWidth="1"/>
     <col min="6" max="6" width="58.7111111111111" customWidth="1"/>
     <col min="7" max="7" width="28.1407407407407" customWidth="1"/>
     <col min="9" max="9" width="16.1407407407407" customWidth="1"/>
@@ -9733,7 +9761,7 @@
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -9756,7 +9784,7 @@
       <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -9821,7 +9849,7 @@
       </c>
     </row>
     <row r="8" hidden="1" spans="5:24">
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="24" t="s">
         <v>75</v>
       </c>
       <c r="F8" t="s">
@@ -9868,7 +9896,7 @@
       </c>
     </row>
     <row r="9" hidden="1" spans="5:24">
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>84</v>
       </c>
       <c r="F9" t="s">
@@ -9918,7 +9946,7 @@
       </c>
     </row>
     <row r="10" spans="5:24">
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="25" t="s">
         <v>88</v>
       </c>
       <c r="F10" t="s">
@@ -9975,7 +10003,7 @@
       </c>
     </row>
     <row r="11" hidden="1" spans="5:24">
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>97</v>
       </c>
       <c r="F11" t="s">
@@ -10026,7 +10054,7 @@
       </c>
     </row>
     <row r="12" hidden="1" spans="5:24">
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>104</v>
       </c>
       <c r="F12" t="s">
@@ -10074,7 +10102,7 @@
       </c>
     </row>
     <row r="13" hidden="1" spans="5:24">
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="22" t="s">
         <v>108</v>
       </c>
       <c r="F13" t="s">
@@ -10125,7 +10153,7 @@
       </c>
     </row>
     <row r="14" spans="5:24">
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="25" t="s">
         <v>112</v>
       </c>
       <c r="F14" t="s">
@@ -10182,7 +10210,7 @@
       </c>
     </row>
     <row r="15" hidden="1" spans="5:24">
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>119</v>
       </c>
       <c r="F15" t="s">
@@ -10230,7 +10258,7 @@
       </c>
     </row>
     <row r="16" spans="5:24">
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="22" t="s">
         <v>123</v>
       </c>
       <c r="F16" t="s">
@@ -10287,7 +10315,7 @@
       </c>
     </row>
     <row r="17" hidden="1" spans="5:24">
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="22" t="s">
         <v>131</v>
       </c>
       <c r="F17" t="s">
@@ -10338,7 +10366,7 @@
       </c>
     </row>
     <row r="18" hidden="1" spans="5:24">
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="22" t="s">
         <v>135</v>
       </c>
       <c r="F18" t="s">
@@ -10389,7 +10417,7 @@
       </c>
     </row>
     <row r="19" hidden="1" spans="5:24">
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="22" t="s">
         <v>140</v>
       </c>
       <c r="F19" t="s">
@@ -10440,7 +10468,7 @@
       </c>
     </row>
     <row r="20" hidden="1" spans="5:24">
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="22" t="s">
         <v>145</v>
       </c>
       <c r="F20" t="s">
@@ -10491,7 +10519,7 @@
       </c>
     </row>
     <row r="21" hidden="1" spans="5:24">
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="22" t="s">
         <v>150</v>
       </c>
       <c r="F21" t="s">
@@ -10542,7 +10570,7 @@
       </c>
     </row>
     <row r="22" hidden="1" spans="5:24">
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="22" t="s">
         <v>155</v>
       </c>
       <c r="F22" t="s">
@@ -10593,7 +10621,7 @@
       </c>
     </row>
     <row r="23" spans="5:24">
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="25" t="s">
         <v>159</v>
       </c>
       <c r="F23" t="s">
@@ -10650,7 +10678,7 @@
       </c>
     </row>
     <row r="24" hidden="1" spans="5:24">
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="22" t="s">
         <v>166</v>
       </c>
       <c r="F24" t="s">
@@ -10698,7 +10726,7 @@
       </c>
     </row>
     <row r="25" spans="5:24">
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="25" t="s">
         <v>170</v>
       </c>
       <c r="F25" t="s">
@@ -10755,7 +10783,7 @@
       </c>
     </row>
     <row r="26" hidden="1" spans="5:24">
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="22" t="s">
         <v>177</v>
       </c>
       <c r="F26" t="s">
@@ -10803,7 +10831,7 @@
       </c>
     </row>
     <row r="27" hidden="1" spans="5:24">
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="22" t="s">
         <v>181</v>
       </c>
       <c r="F27" t="s">
@@ -10851,7 +10879,7 @@
       </c>
     </row>
     <row r="28" hidden="1" spans="5:24">
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="22" t="s">
         <v>185</v>
       </c>
       <c r="F28" t="s">
@@ -10899,7 +10927,7 @@
       </c>
     </row>
     <row r="29" hidden="1" spans="5:24">
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="22" t="s">
         <v>189</v>
       </c>
       <c r="F29" t="s">
@@ -10947,7 +10975,7 @@
       </c>
     </row>
     <row r="30" hidden="1" spans="5:24">
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="22" t="s">
         <v>193</v>
       </c>
       <c r="F30" t="s">
@@ -10995,7 +11023,7 @@
       </c>
     </row>
     <row r="31" hidden="1" spans="5:24">
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="22" t="s">
         <v>197</v>
       </c>
       <c r="F31" t="s">
@@ -11043,7 +11071,7 @@
       </c>
     </row>
     <row r="32" hidden="1" spans="5:24">
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="22" t="s">
         <v>201</v>
       </c>
       <c r="F32" t="s">
@@ -11091,7 +11119,7 @@
       </c>
     </row>
     <row r="33" spans="5:24">
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="25" t="s">
         <v>205</v>
       </c>
       <c r="F33" t="s">
@@ -11148,7 +11176,7 @@
       </c>
     </row>
     <row r="34" hidden="1" spans="5:24">
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="22" t="s">
         <v>212</v>
       </c>
       <c r="F34" t="s">
@@ -11199,7 +11227,7 @@
       </c>
     </row>
     <row r="35" hidden="1" spans="5:24">
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="22" t="s">
         <v>216</v>
       </c>
       <c r="F35" t="s">
@@ -11250,7 +11278,7 @@
       </c>
     </row>
     <row r="36" hidden="1" spans="5:24">
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="22" t="s">
         <v>219</v>
       </c>
       <c r="F36" t="s">
@@ -11301,7 +11329,7 @@
       </c>
     </row>
     <row r="37" hidden="1" spans="5:24">
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="22" t="s">
         <v>223</v>
       </c>
       <c r="F37" t="s">
@@ -11349,7 +11377,7 @@
       </c>
     </row>
     <row r="38" hidden="1" spans="5:24">
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="22" t="s">
         <v>227</v>
       </c>
       <c r="F38" t="s">
@@ -11400,7 +11428,7 @@
       </c>
     </row>
     <row r="39" hidden="1" spans="5:24">
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="22" t="s">
         <v>232</v>
       </c>
       <c r="F39" t="s">
@@ -11451,7 +11479,7 @@
       </c>
     </row>
     <row r="40" hidden="1" spans="5:24">
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="22" t="s">
         <v>237</v>
       </c>
       <c r="F40" t="s">
@@ -11502,7 +11530,7 @@
       </c>
     </row>
     <row r="41" hidden="1" spans="5:24">
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="22" t="s">
         <v>242</v>
       </c>
       <c r="F41" t="s">
@@ -11553,7 +11581,7 @@
       </c>
     </row>
     <row r="42" hidden="1" spans="5:24">
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="22" t="s">
         <v>246</v>
       </c>
       <c r="F42" t="s">
@@ -11604,7 +11632,7 @@
       </c>
     </row>
     <row r="43" hidden="1" spans="5:24">
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="22" t="s">
         <v>250</v>
       </c>
       <c r="F43" t="s">
@@ -11655,7 +11683,7 @@
       </c>
     </row>
     <row r="44" hidden="1" spans="5:24">
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="22" t="s">
         <v>254</v>
       </c>
       <c r="F44" t="s">
@@ -11706,7 +11734,7 @@
       </c>
     </row>
     <row r="45" hidden="1" spans="5:24">
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="22" t="s">
         <v>258</v>
       </c>
       <c r="F45" t="s">
@@ -11757,7 +11785,7 @@
       </c>
     </row>
     <row r="46" hidden="1" spans="5:24">
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="22" t="s">
         <v>263</v>
       </c>
       <c r="F46" t="s">
@@ -11808,7 +11836,7 @@
       </c>
     </row>
     <row r="47" hidden="1" spans="5:24">
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="24" t="s">
         <v>268</v>
       </c>
       <c r="F47" t="s">
@@ -11858,7 +11886,7 @@
       </c>
     </row>
     <row r="48" spans="5:24">
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="25" t="s">
         <v>272</v>
       </c>
       <c r="F48" t="s">
@@ -11915,7 +11943,7 @@
       </c>
     </row>
     <row r="49" hidden="1" spans="5:24">
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="22" t="s">
         <v>279</v>
       </c>
       <c r="F49" t="s">
@@ -11966,7 +11994,7 @@
       </c>
     </row>
     <row r="50" hidden="1" spans="5:24">
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="22" t="s">
         <v>283</v>
       </c>
       <c r="F50" t="s">
@@ -12014,7 +12042,7 @@
       </c>
     </row>
     <row r="51" hidden="1" spans="5:24">
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="22" t="s">
         <v>287</v>
       </c>
       <c r="F51" t="s">
@@ -12065,7 +12093,7 @@
       </c>
     </row>
     <row r="52" hidden="1" spans="5:24">
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="22" t="s">
         <v>291</v>
       </c>
       <c r="F52" t="s">
@@ -12116,7 +12144,7 @@
       </c>
     </row>
     <row r="53" hidden="1" spans="5:24">
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="22" t="s">
         <v>295</v>
       </c>
       <c r="F53" t="s">
@@ -12167,7 +12195,7 @@
       </c>
     </row>
     <row r="54" spans="5:24">
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="25" t="s">
         <v>299</v>
       </c>
       <c r="F54" t="s">
@@ -12224,7 +12252,7 @@
       </c>
     </row>
     <row r="55" hidden="1" spans="5:24">
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="22" t="s">
         <v>306</v>
       </c>
       <c r="F55" t="s">
@@ -12272,7 +12300,7 @@
       </c>
     </row>
     <row r="56" hidden="1" spans="5:24">
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="22" t="s">
         <v>310</v>
       </c>
       <c r="F56" t="s">
@@ -12323,7 +12351,7 @@
       </c>
     </row>
     <row r="57" hidden="1" spans="5:24">
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="22" t="s">
         <v>315</v>
       </c>
       <c r="F57" t="s">
@@ -12374,7 +12402,7 @@
       </c>
     </row>
     <row r="58" hidden="1" spans="5:24">
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="22" t="s">
         <v>319</v>
       </c>
       <c r="F58" t="s">
@@ -12425,7 +12453,7 @@
       </c>
     </row>
     <row r="59" hidden="1" spans="5:24">
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="22" t="s">
         <v>323</v>
       </c>
       <c r="F59" t="s">
@@ -12476,7 +12504,7 @@
       </c>
     </row>
     <row r="60" hidden="1" spans="5:24">
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="22" t="s">
         <v>327</v>
       </c>
       <c r="F60" t="s">
@@ -12527,7 +12555,7 @@
       </c>
     </row>
     <row r="61" hidden="1" spans="5:24">
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="22" t="s">
         <v>331</v>
       </c>
       <c r="F61" t="s">
@@ -12578,7 +12606,7 @@
       </c>
     </row>
     <row r="62" hidden="1" spans="5:24">
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="22" t="s">
         <v>335</v>
       </c>
       <c r="F62" t="s">
@@ -12629,7 +12657,7 @@
       </c>
     </row>
     <row r="63" hidden="1" spans="5:24">
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="22" t="s">
         <v>339</v>
       </c>
       <c r="F63" t="s">
@@ -12680,7 +12708,7 @@
       </c>
     </row>
     <row r="64" hidden="1" spans="5:24">
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="22" t="s">
         <v>343</v>
       </c>
       <c r="F64" t="s">
@@ -12731,7 +12759,7 @@
       </c>
     </row>
     <row r="65" hidden="1" spans="5:24">
-      <c r="E65" s="21" t="s">
+      <c r="E65" s="22" t="s">
         <v>347</v>
       </c>
       <c r="F65" t="s">
@@ -12782,7 +12810,7 @@
       </c>
     </row>
     <row r="66" hidden="1" spans="5:24">
-      <c r="E66" s="21" t="s">
+      <c r="E66" s="22" t="s">
         <v>351</v>
       </c>
       <c r="F66" t="s">
@@ -12833,7 +12861,7 @@
       </c>
     </row>
     <row r="67" spans="5:24">
-      <c r="E67" s="24" t="s">
+      <c r="E67" s="25" t="s">
         <v>355</v>
       </c>
       <c r="F67" t="s">
@@ -12890,7 +12918,7 @@
       </c>
     </row>
     <row r="68" hidden="1" spans="5:24">
-      <c r="E68" s="21" t="s">
+      <c r="E68" s="22" t="s">
         <v>362</v>
       </c>
       <c r="F68" t="s">
@@ -12938,7 +12966,7 @@
       </c>
     </row>
     <row r="69" hidden="1" spans="5:24">
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="22" t="s">
         <v>366</v>
       </c>
       <c r="F69" t="s">
@@ -12989,7 +13017,7 @@
       </c>
     </row>
     <row r="70" hidden="1" spans="5:24">
-      <c r="E70" s="21" t="s">
+      <c r="E70" s="22" t="s">
         <v>370</v>
       </c>
       <c r="F70" t="s">
@@ -13040,7 +13068,7 @@
       </c>
     </row>
     <row r="71" spans="5:24">
-      <c r="E71" s="24" t="s">
+      <c r="E71" s="25" t="s">
         <v>374</v>
       </c>
       <c r="F71" t="s">
@@ -13097,7 +13125,7 @@
       </c>
     </row>
     <row r="72" hidden="1" spans="5:24">
-      <c r="E72" s="21" t="s">
+      <c r="E72" s="22" t="s">
         <v>381</v>
       </c>
       <c r="F72" t="s">
@@ -13145,7 +13173,7 @@
       </c>
     </row>
     <row r="73" hidden="1" spans="5:24">
-      <c r="E73" s="21" t="s">
+      <c r="E73" s="22" t="s">
         <v>385</v>
       </c>
       <c r="F73" t="s">
@@ -13193,7 +13221,7 @@
       </c>
     </row>
     <row r="74" hidden="1" spans="5:24">
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="22" t="s">
         <v>389</v>
       </c>
       <c r="F74" t="s">
@@ -13241,7 +13269,7 @@
       </c>
     </row>
     <row r="75" hidden="1" spans="5:24">
-      <c r="E75" s="21" t="s">
+      <c r="E75" s="22" t="s">
         <v>393</v>
       </c>
       <c r="F75" t="s">
@@ -13289,7 +13317,7 @@
       </c>
     </row>
     <row r="76" hidden="1" spans="5:24">
-      <c r="E76" s="21" t="s">
+      <c r="E76" s="22" t="s">
         <v>397</v>
       </c>
       <c r="F76" t="s">
@@ -13337,7 +13365,7 @@
       </c>
     </row>
     <row r="77" spans="5:24">
-      <c r="E77" s="24" t="s">
+      <c r="E77" s="25" t="s">
         <v>401</v>
       </c>
       <c r="F77" t="s">
@@ -13391,7 +13419,7 @@
       </c>
     </row>
     <row r="78" hidden="1" spans="5:24">
-      <c r="E78" s="21" t="s">
+      <c r="E78" s="22" t="s">
         <v>407</v>
       </c>
       <c r="F78" t="s">
@@ -13442,7 +13470,7 @@
       </c>
     </row>
     <row r="79" hidden="1" spans="5:24">
-      <c r="E79" s="21" t="s">
+      <c r="E79" s="22" t="s">
         <v>411</v>
       </c>
       <c r="F79" t="s">
@@ -13493,7 +13521,7 @@
       </c>
     </row>
     <row r="80" hidden="1" spans="5:24">
-      <c r="E80" s="21" t="s">
+      <c r="E80" s="22" t="s">
         <v>414</v>
       </c>
       <c r="F80" t="s">
@@ -13541,16 +13569,16 @@
       </c>
     </row>
     <row r="81" hidden="1" spans="5:24">
-      <c r="E81" s="23" t="s">
+      <c r="E81" s="24" t="s">
         <v>419</v>
       </c>
       <c r="F81" t="s">
         <v>420</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G81" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="8" t="s">
         <v>421</v>
       </c>
       <c r="J81" t="s">
@@ -13588,7 +13616,7 @@
       </c>
     </row>
     <row r="82" spans="5:24">
-      <c r="E82" s="24" t="s">
+      <c r="E82" s="25" t="s">
         <v>422</v>
       </c>
       <c r="F82" t="s">
@@ -13642,7 +13670,7 @@
       </c>
     </row>
     <row r="83" hidden="1" spans="5:24">
-      <c r="E83" s="21" t="s">
+      <c r="E83" s="22" t="s">
         <v>428</v>
       </c>
       <c r="F83" t="s">
@@ -13693,7 +13721,7 @@
       </c>
     </row>
     <row r="84" spans="5:24">
-      <c r="E84" s="24" t="s">
+      <c r="E84" s="25" t="s">
         <v>431</v>
       </c>
       <c r="F84" t="s">
@@ -13747,7 +13775,7 @@
       </c>
     </row>
     <row r="85" hidden="1" spans="5:24">
-      <c r="E85" s="21" t="s">
+      <c r="E85" s="22" t="s">
         <v>437</v>
       </c>
       <c r="F85" t="s">
@@ -13798,7 +13826,7 @@
       </c>
     </row>
     <row r="86" hidden="1" spans="5:24">
-      <c r="E86" s="21" t="s">
+      <c r="E86" s="22" t="s">
         <v>440</v>
       </c>
       <c r="F86" t="s">
@@ -13846,7 +13874,7 @@
       </c>
     </row>
     <row r="87" spans="5:24">
-      <c r="E87" s="24" t="s">
+      <c r="E87" s="25" t="s">
         <v>444</v>
       </c>
       <c r="F87" t="s">
@@ -13900,16 +13928,16 @@
       </c>
     </row>
     <row r="88" hidden="1" spans="5:24">
-      <c r="E88" s="23" t="s">
+      <c r="E88" s="24" t="s">
         <v>450</v>
       </c>
       <c r="F88" t="s">
         <v>451</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" s="8" t="s">
         <v>452</v>
       </c>
       <c r="I88" t="s">
@@ -13950,7 +13978,7 @@
       </c>
     </row>
     <row r="89" spans="5:24">
-      <c r="E89" s="24" t="s">
+      <c r="E89" s="25" t="s">
         <v>454</v>
       </c>
       <c r="F89" t="s">
@@ -13975,7 +14003,7 @@
       <c r="L89" t="s">
         <v>92</v>
       </c>
-      <c r="M89" s="25">
+      <c r="M89" s="26">
         <v>20</v>
       </c>
       <c r="N89" t="s">
@@ -14007,7 +14035,7 @@
       </c>
     </row>
     <row r="90" hidden="1" spans="5:24">
-      <c r="E90" s="21" t="s">
+      <c r="E90" s="22" t="s">
         <v>461</v>
       </c>
       <c r="F90" t="s">
@@ -14058,7 +14086,7 @@
       </c>
     </row>
     <row r="91" hidden="1" spans="5:24">
-      <c r="E91" s="21" t="s">
+      <c r="E91" s="22" t="s">
         <v>466</v>
       </c>
       <c r="F91" t="s">
@@ -14106,7 +14134,7 @@
       </c>
     </row>
     <row r="92" hidden="1" spans="5:24">
-      <c r="E92" s="21" t="s">
+      <c r="E92" s="22" t="s">
         <v>470</v>
       </c>
       <c r="F92" t="s">
@@ -14157,7 +14185,7 @@
       </c>
     </row>
     <row r="93" hidden="1" spans="5:24">
-      <c r="E93" s="21" t="s">
+      <c r="E93" s="22" t="s">
         <v>474</v>
       </c>
       <c r="F93" t="s">
@@ -14208,7 +14236,7 @@
       </c>
     </row>
     <row r="94" hidden="1" spans="5:24">
-      <c r="E94" s="21" t="s">
+      <c r="E94" s="22" t="s">
         <v>478</v>
       </c>
       <c r="F94" t="s">
@@ -14259,7 +14287,7 @@
       </c>
     </row>
     <row r="95" hidden="1" spans="5:24">
-      <c r="E95" s="21" t="s">
+      <c r="E95" s="22" t="s">
         <v>482</v>
       </c>
       <c r="F95" t="s">
@@ -14310,7 +14338,7 @@
       </c>
     </row>
     <row r="96" spans="5:24">
-      <c r="E96" s="24" t="s">
+      <c r="E96" s="25" t="s">
         <v>486</v>
       </c>
       <c r="F96" t="s">
@@ -14367,7 +14395,7 @@
       </c>
     </row>
     <row r="97" hidden="1" spans="5:24">
-      <c r="E97" s="21" t="s">
+      <c r="E97" s="22" t="s">
         <v>493</v>
       </c>
       <c r="F97" t="s">
@@ -14415,7 +14443,7 @@
       </c>
     </row>
     <row r="98" hidden="1" spans="5:24">
-      <c r="E98" s="21" t="s">
+      <c r="E98" s="22" t="s">
         <v>497</v>
       </c>
       <c r="F98" t="s">
@@ -14463,7 +14491,7 @@
       </c>
     </row>
     <row r="99" hidden="1" spans="5:24">
-      <c r="E99" s="21" t="s">
+      <c r="E99" s="22" t="s">
         <v>501</v>
       </c>
       <c r="F99" t="s">
@@ -14511,7 +14539,7 @@
       </c>
     </row>
     <row r="100" hidden="1" spans="5:24">
-      <c r="E100" s="21" t="s">
+      <c r="E100" s="22" t="s">
         <v>505</v>
       </c>
       <c r="F100" t="s">
@@ -14559,7 +14587,7 @@
       </c>
     </row>
     <row r="101" hidden="1" spans="5:24">
-      <c r="E101" s="21" t="s">
+      <c r="E101" s="22" t="s">
         <v>509</v>
       </c>
       <c r="F101" t="s">
@@ -14607,7 +14635,7 @@
       </c>
     </row>
     <row r="102" hidden="1" spans="5:24">
-      <c r="E102" s="21" t="s">
+      <c r="E102" s="22" t="s">
         <v>513</v>
       </c>
       <c r="F102" t="s">
@@ -14655,7 +14683,7 @@
       </c>
     </row>
     <row r="103" hidden="1" spans="5:24">
-      <c r="E103" s="21" t="s">
+      <c r="E103" s="22" t="s">
         <v>517</v>
       </c>
       <c r="F103" t="s">
@@ -14703,7 +14731,7 @@
       </c>
     </row>
     <row r="104" hidden="1" spans="5:24">
-      <c r="E104" s="21" t="s">
+      <c r="E104" s="22" t="s">
         <v>521</v>
       </c>
       <c r="F104" t="s">
@@ -14751,7 +14779,7 @@
       </c>
     </row>
     <row r="105" hidden="1" spans="5:24">
-      <c r="E105" s="21" t="s">
+      <c r="E105" s="22" t="s">
         <v>525</v>
       </c>
       <c r="F105" t="s">
@@ -14799,7 +14827,7 @@
       </c>
     </row>
     <row r="106" hidden="1" spans="5:24">
-      <c r="E106" s="21" t="s">
+      <c r="E106" s="22" t="s">
         <v>529</v>
       </c>
       <c r="F106" t="s">
@@ -14847,7 +14875,7 @@
       </c>
     </row>
     <row r="107" hidden="1" spans="5:24">
-      <c r="E107" s="21" t="s">
+      <c r="E107" s="22" t="s">
         <v>533</v>
       </c>
       <c r="F107" t="s">
@@ -14895,7 +14923,7 @@
       </c>
     </row>
     <row r="108" hidden="1" spans="5:24">
-      <c r="E108" s="21" t="s">
+      <c r="E108" s="22" t="s">
         <v>537</v>
       </c>
       <c r="F108" t="s">
@@ -14943,7 +14971,7 @@
       </c>
     </row>
     <row r="109" hidden="1" spans="5:24">
-      <c r="E109" s="21" t="s">
+      <c r="E109" s="22" t="s">
         <v>541</v>
       </c>
       <c r="F109" t="s">
@@ -14991,7 +15019,7 @@
       </c>
     </row>
     <row r="110" hidden="1" spans="5:24">
-      <c r="E110" s="21" t="s">
+      <c r="E110" s="22" t="s">
         <v>546</v>
       </c>
       <c r="F110" t="s">
@@ -15039,7 +15067,7 @@
       </c>
     </row>
     <row r="111" hidden="1" spans="5:24">
-      <c r="E111" s="21" t="s">
+      <c r="E111" s="22" t="s">
         <v>549</v>
       </c>
       <c r="F111" t="s">
@@ -15087,7 +15115,7 @@
       </c>
     </row>
     <row r="112" hidden="1" spans="5:24">
-      <c r="E112" s="21" t="s">
+      <c r="E112" s="22" t="s">
         <v>553</v>
       </c>
       <c r="F112" t="s">
@@ -15135,7 +15163,7 @@
       </c>
     </row>
     <row r="113" hidden="1" spans="5:24">
-      <c r="E113" s="21" t="s">
+      <c r="E113" s="22" t="s">
         <v>557</v>
       </c>
       <c r="F113" t="s">
@@ -15183,7 +15211,7 @@
       </c>
     </row>
     <row r="114" hidden="1" spans="5:24">
-      <c r="E114" s="21" t="s">
+      <c r="E114" s="22" t="s">
         <v>561</v>
       </c>
       <c r="F114" t="s">
@@ -15231,7 +15259,7 @@
       </c>
     </row>
     <row r="115" hidden="1" spans="5:24">
-      <c r="E115" s="21" t="s">
+      <c r="E115" s="22" t="s">
         <v>565</v>
       </c>
       <c r="F115" t="s">
@@ -15279,7 +15307,7 @@
       </c>
     </row>
     <row r="116" spans="5:24">
-      <c r="E116" s="24" t="s">
+      <c r="E116" s="25" t="s">
         <v>569</v>
       </c>
       <c r="F116" t="s">
@@ -15322,7 +15350,7 @@
       <c r="R116" t="s">
         <v>80</v>
       </c>
-      <c r="S116" s="7" t="s">
+      <c r="S116" s="8" t="s">
         <v>572</v>
       </c>
       <c r="T116" t="s">
@@ -15336,7 +15364,7 @@
       </c>
     </row>
     <row r="117" hidden="1" spans="5:24">
-      <c r="E117" s="21" t="s">
+      <c r="E117" s="22" t="s">
         <v>573</v>
       </c>
       <c r="F117" t="s">
@@ -15370,7 +15398,7 @@
       <c r="R117" t="s">
         <v>80</v>
       </c>
-      <c r="S117" s="7" t="s">
+      <c r="S117" s="8" t="s">
         <v>575</v>
       </c>
       <c r="T117" t="s">
@@ -15384,7 +15412,7 @@
       </c>
     </row>
     <row r="118" hidden="1" spans="5:24">
-      <c r="E118" s="21" t="s">
+      <c r="E118" s="22" t="s">
         <v>576</v>
       </c>
       <c r="F118" t="s">
@@ -15420,7 +15448,7 @@
       <c r="R118" t="s">
         <v>80</v>
       </c>
-      <c r="S118" s="7" t="s">
+      <c r="S118" s="8" t="s">
         <v>577</v>
       </c>
       <c r="T118" t="s">
@@ -15434,7 +15462,7 @@
       </c>
     </row>
     <row r="119" spans="5:24">
-      <c r="E119" s="24" t="s">
+      <c r="E119" s="25" t="s">
         <v>578</v>
       </c>
       <c r="F119" t="s">
@@ -15491,7 +15519,7 @@
       </c>
     </row>
     <row r="120" hidden="1" spans="5:24">
-      <c r="E120" s="21" t="s">
+      <c r="E120" s="22" t="s">
         <v>582</v>
       </c>
       <c r="F120" t="s">
@@ -15542,7 +15570,7 @@
       </c>
     </row>
     <row r="121" hidden="1" spans="5:24">
-      <c r="E121" s="21" t="s">
+      <c r="E121" s="22" t="s">
         <v>585</v>
       </c>
       <c r="F121" t="s">
@@ -15593,7 +15621,7 @@
       </c>
     </row>
     <row r="122" hidden="1" spans="5:24">
-      <c r="E122" s="21" t="s">
+      <c r="E122" s="22" t="s">
         <v>589</v>
       </c>
       <c r="F122" t="s">
@@ -15644,7 +15672,7 @@
       </c>
     </row>
     <row r="123" hidden="1" spans="5:24">
-      <c r="E123" s="21" t="s">
+      <c r="E123" s="22" t="s">
         <v>593</v>
       </c>
       <c r="F123" t="s">
@@ -15695,7 +15723,7 @@
       </c>
     </row>
     <row r="124" spans="5:24">
-      <c r="E124" s="24" t="s">
+      <c r="E124" s="25" t="s">
         <v>597</v>
       </c>
       <c r="F124" t="s">
@@ -15752,7 +15780,7 @@
       </c>
     </row>
     <row r="125" hidden="1" spans="5:24">
-      <c r="E125" s="21" t="s">
+      <c r="E125" s="22" t="s">
         <v>604</v>
       </c>
       <c r="F125" t="s">
@@ -15803,7 +15831,7 @@
       </c>
     </row>
     <row r="126" hidden="1" spans="5:24">
-      <c r="E126" s="21" t="s">
+      <c r="E126" s="22" t="s">
         <v>608</v>
       </c>
       <c r="F126" t="s">
@@ -15851,7 +15879,7 @@
       </c>
     </row>
     <row r="127" hidden="1" spans="5:24">
-      <c r="E127" s="21" t="s">
+      <c r="E127" s="22" t="s">
         <v>612</v>
       </c>
       <c r="F127" t="s">
@@ -15902,7 +15930,7 @@
       </c>
     </row>
     <row r="128" hidden="1" spans="5:24">
-      <c r="E128" s="21" t="s">
+      <c r="E128" s="22" t="s">
         <v>615</v>
       </c>
       <c r="F128" t="s">
@@ -15953,7 +15981,7 @@
       </c>
     </row>
     <row r="129" hidden="1" spans="5:24">
-      <c r="E129" s="21" t="s">
+      <c r="E129" s="22" t="s">
         <v>619</v>
       </c>
       <c r="F129" t="s">
@@ -16001,7 +16029,7 @@
       </c>
     </row>
     <row r="130" hidden="1" spans="5:24">
-      <c r="E130" s="21" t="s">
+      <c r="E130" s="22" t="s">
         <v>623</v>
       </c>
       <c r="F130" t="s">
@@ -16049,7 +16077,7 @@
       </c>
     </row>
     <row r="131" hidden="1" spans="5:24">
-      <c r="E131" s="21" t="s">
+      <c r="E131" s="22" t="s">
         <v>627</v>
       </c>
       <c r="F131" t="s">
@@ -16100,7 +16128,7 @@
       </c>
     </row>
     <row r="132" hidden="1" spans="5:24">
-      <c r="E132" s="26" t="s">
+      <c r="E132" s="27" t="s">
         <v>631</v>
       </c>
       <c r="F132" t="s">
@@ -16151,7 +16179,7 @@
       </c>
     </row>
     <row r="133" hidden="1" spans="5:24">
-      <c r="E133" s="26" t="s">
+      <c r="E133" s="27" t="s">
         <v>635</v>
       </c>
       <c r="F133" t="s">
@@ -16202,7 +16230,7 @@
       </c>
     </row>
     <row r="134" hidden="1" spans="5:24">
-      <c r="E134" s="21" t="s">
+      <c r="E134" s="22" t="s">
         <v>639</v>
       </c>
       <c r="F134" t="s">
@@ -16253,19 +16281,19 @@
       </c>
     </row>
     <row r="135" hidden="1" spans="5:24">
-      <c r="E135" s="23" t="s">
+      <c r="E135" s="24" t="s">
         <v>643</v>
       </c>
       <c r="F135" t="s">
         <v>644</v>
       </c>
-      <c r="G135" s="7" t="s">
+      <c r="G135" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="H135" s="7" t="s">
+      <c r="H135" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="I135" s="7" t="s">
+      <c r="I135" s="8" t="s">
         <v>645</v>
       </c>
       <c r="J135" t="s">
@@ -16303,7 +16331,7 @@
       </c>
     </row>
     <row r="136" spans="5:24">
-      <c r="E136" s="21" t="s">
+      <c r="E136" s="22" t="s">
         <v>647</v>
       </c>
       <c r="F136" t="s">
@@ -16360,7 +16388,7 @@
       </c>
     </row>
     <row r="137" spans="5:24">
-      <c r="E137" s="21" t="s">
+      <c r="E137" s="22" t="s">
         <v>654</v>
       </c>
       <c r="F137" t="s">
@@ -16417,7 +16445,7 @@
       </c>
     </row>
     <row r="138" hidden="1" spans="5:24">
-      <c r="E138" s="21" t="s">
+      <c r="E138" s="22" t="s">
         <v>661</v>
       </c>
       <c r="F138" t="s">
@@ -16468,7 +16496,7 @@
       </c>
     </row>
     <row r="139" hidden="1" spans="5:24">
-      <c r="E139" s="21" t="s">
+      <c r="E139" s="22" t="s">
         <v>664</v>
       </c>
       <c r="F139" t="s">
@@ -16519,7 +16547,7 @@
       </c>
     </row>
     <row r="140" spans="5:24">
-      <c r="E140" s="21" t="s">
+      <c r="E140" s="22" t="s">
         <v>667</v>
       </c>
       <c r="F140" t="s">
@@ -16576,7 +16604,7 @@
       </c>
     </row>
     <row r="141" hidden="1" spans="5:24">
-      <c r="E141" s="21" t="s">
+      <c r="E141" s="22" t="s">
         <v>674</v>
       </c>
       <c r="F141" t="s">
@@ -16627,7 +16655,7 @@
       </c>
     </row>
     <row r="142" spans="5:24">
-      <c r="E142" s="21" t="s">
+      <c r="E142" s="22" t="s">
         <v>677</v>
       </c>
       <c r="F142" t="s">
@@ -16684,7 +16712,7 @@
       </c>
     </row>
     <row r="143" hidden="1" spans="5:24">
-      <c r="E143" s="21" t="s">
+      <c r="E143" s="22" t="s">
         <v>683</v>
       </c>
       <c r="F143" t="s">
@@ -16732,7 +16760,7 @@
       </c>
     </row>
     <row r="144" spans="5:24">
-      <c r="E144" s="21" t="s">
+      <c r="E144" s="22" t="s">
         <v>687</v>
       </c>
       <c r="F144" t="s">
@@ -16789,7 +16817,7 @@
       </c>
     </row>
     <row r="145" hidden="1" spans="5:24">
-      <c r="E145" s="21" t="s">
+      <c r="E145" s="22" t="s">
         <v>691</v>
       </c>
       <c r="F145" t="s">
@@ -16837,7 +16865,7 @@
       </c>
     </row>
     <row r="146" spans="5:24">
-      <c r="E146" s="21" t="s">
+      <c r="E146" s="22" t="s">
         <v>695</v>
       </c>
       <c r="F146" t="s">
@@ -16894,7 +16922,7 @@
       </c>
     </row>
     <row r="147" hidden="1" spans="5:24">
-      <c r="E147" s="21" t="s">
+      <c r="E147" s="22" t="s">
         <v>699</v>
       </c>
       <c r="F147" t="s">
@@ -16942,7 +16970,7 @@
       </c>
     </row>
     <row r="148" hidden="1" spans="5:24">
-      <c r="E148" s="21" t="s">
+      <c r="E148" s="22" t="s">
         <v>702</v>
       </c>
       <c r="F148" t="s">
@@ -16992,7 +17020,7 @@
       </c>
     </row>
     <row r="149" spans="5:24">
-      <c r="E149" s="21" t="s">
+      <c r="E149" s="22" t="s">
         <v>704</v>
       </c>
       <c r="F149" t="s">
@@ -17049,7 +17077,7 @@
       </c>
     </row>
     <row r="150" hidden="1" spans="5:24">
-      <c r="E150" s="21" t="s">
+      <c r="E150" s="22" t="s">
         <v>711</v>
       </c>
       <c r="F150" t="s">
@@ -17097,7 +17125,7 @@
       </c>
     </row>
     <row r="151" hidden="1" spans="5:24">
-      <c r="E151" s="21" t="s">
+      <c r="E151" s="22" t="s">
         <v>715</v>
       </c>
       <c r="F151" t="s">
@@ -17145,7 +17173,7 @@
       </c>
     </row>
     <row r="152" hidden="1" spans="5:24">
-      <c r="E152" s="21" t="s">
+      <c r="E152" s="22" t="s">
         <v>719</v>
       </c>
       <c r="F152" t="s">
@@ -17193,7 +17221,7 @@
       </c>
     </row>
     <row r="153" hidden="1" spans="5:24">
-      <c r="E153" s="21" t="s">
+      <c r="E153" s="22" t="s">
         <v>723</v>
       </c>
       <c r="F153" t="s">
@@ -17241,7 +17269,7 @@
       </c>
     </row>
     <row r="154" spans="5:24">
-      <c r="E154" s="21" t="s">
+      <c r="E154" s="22" t="s">
         <v>727</v>
       </c>
       <c r="F154" t="s">
@@ -17298,7 +17326,7 @@
       </c>
     </row>
     <row r="155" hidden="1" spans="5:24">
-      <c r="E155" s="21" t="s">
+      <c r="E155" s="22" t="s">
         <v>734</v>
       </c>
       <c r="F155" t="s">
@@ -17349,7 +17377,7 @@
       </c>
     </row>
     <row r="156" hidden="1" spans="5:24">
-      <c r="E156" s="21" t="s">
+      <c r="E156" s="22" t="s">
         <v>737</v>
       </c>
       <c r="F156" t="s">
@@ -17400,7 +17428,7 @@
       </c>
     </row>
     <row r="157" hidden="1" spans="5:24">
-      <c r="E157" s="21" t="s">
+      <c r="E157" s="22" t="s">
         <v>741</v>
       </c>
       <c r="F157" t="s">
@@ -17448,7 +17476,7 @@
       </c>
     </row>
     <row r="158" hidden="1" spans="5:24">
-      <c r="E158" s="21" t="s">
+      <c r="E158" s="22" t="s">
         <v>745</v>
       </c>
       <c r="F158" t="s">
@@ -17499,7 +17527,7 @@
       </c>
     </row>
     <row r="159" spans="5:24">
-      <c r="E159" s="21" t="s">
+      <c r="E159" s="22" t="s">
         <v>749</v>
       </c>
       <c r="F159" t="s">
@@ -17556,7 +17584,7 @@
       </c>
     </row>
     <row r="160" hidden="1" spans="5:24">
-      <c r="E160" s="21" t="s">
+      <c r="E160" s="22" t="s">
         <v>755</v>
       </c>
       <c r="F160" t="s">
@@ -17604,7 +17632,7 @@
       </c>
     </row>
     <row r="161" spans="5:24">
-      <c r="E161" s="21" t="s">
+      <c r="E161" s="22" t="s">
         <v>759</v>
       </c>
       <c r="F161" t="s">
@@ -17661,7 +17689,7 @@
       </c>
     </row>
     <row r="162" hidden="1" spans="5:24">
-      <c r="E162" s="21" t="s">
+      <c r="E162" s="22" t="s">
         <v>765</v>
       </c>
       <c r="F162" t="s">
@@ -17709,7 +17737,7 @@
       </c>
     </row>
     <row r="163" hidden="1" spans="5:24">
-      <c r="E163" s="21" t="s">
+      <c r="E163" s="22" t="s">
         <v>769</v>
       </c>
       <c r="F163" t="s">
@@ -17757,7 +17785,7 @@
       </c>
     </row>
     <row r="164" hidden="1" spans="5:24">
-      <c r="E164" s="21" t="s">
+      <c r="E164" s="22" t="s">
         <v>772</v>
       </c>
       <c r="F164" t="s">
@@ -17808,7 +17836,7 @@
       </c>
     </row>
     <row r="165" hidden="1" spans="5:24">
-      <c r="E165" s="21" t="s">
+      <c r="E165" s="22" t="s">
         <v>775</v>
       </c>
       <c r="F165" t="s">
@@ -17859,7 +17887,7 @@
       </c>
     </row>
     <row r="166" hidden="1" spans="5:24">
-      <c r="E166" s="21" t="s">
+      <c r="E166" s="22" t="s">
         <v>779</v>
       </c>
       <c r="F166" t="s">
@@ -17913,7 +17941,7 @@
       </c>
     </row>
     <row r="167" spans="5:24">
-      <c r="E167" s="21" t="s">
+      <c r="E167" s="22" t="s">
         <v>783</v>
       </c>
       <c r="F167" t="s">
@@ -17970,7 +17998,7 @@
       </c>
     </row>
     <row r="168" spans="5:24">
-      <c r="E168" s="21" t="s">
+      <c r="E168" s="22" t="s">
         <v>790</v>
       </c>
       <c r="F168" t="s">
@@ -18027,7 +18055,7 @@
       </c>
     </row>
     <row r="169" hidden="1" spans="5:24">
-      <c r="E169" s="21" t="s">
+      <c r="E169" s="22" t="s">
         <v>797</v>
       </c>
       <c r="F169" t="s">
@@ -18078,7 +18106,7 @@
       </c>
     </row>
     <row r="170" hidden="1" spans="5:24">
-      <c r="E170" s="21" t="s">
+      <c r="E170" s="22" t="s">
         <v>800</v>
       </c>
       <c r="F170" t="s">
@@ -18129,7 +18157,7 @@
       </c>
     </row>
     <row r="171" spans="5:24">
-      <c r="E171" s="21" t="s">
+      <c r="E171" s="22" t="s">
         <v>803</v>
       </c>
       <c r="F171" t="s">
@@ -18186,7 +18214,7 @@
       </c>
     </row>
     <row r="172" hidden="1" spans="5:24">
-      <c r="E172" s="21" t="s">
+      <c r="E172" s="22" t="s">
         <v>806</v>
       </c>
       <c r="F172" t="s">
@@ -18234,7 +18262,7 @@
       </c>
     </row>
     <row r="173" hidden="1" spans="5:24">
-      <c r="E173" s="21" t="s">
+      <c r="E173" s="22" t="s">
         <v>809</v>
       </c>
       <c r="F173" t="s">
@@ -18285,7 +18313,7 @@
       </c>
     </row>
     <row r="174" hidden="1" spans="5:24">
-      <c r="E174" s="21" t="s">
+      <c r="E174" s="22" t="s">
         <v>812</v>
       </c>
       <c r="F174" t="s">
@@ -18333,7 +18361,7 @@
       </c>
     </row>
     <row r="175" hidden="1" spans="5:24">
-      <c r="E175" s="21" t="s">
+      <c r="E175" s="22" t="s">
         <v>815</v>
       </c>
       <c r="F175" t="s">
@@ -18381,7 +18409,7 @@
       </c>
     </row>
     <row r="176" hidden="1" spans="5:24">
-      <c r="E176" s="21" t="s">
+      <c r="E176" s="22" t="s">
         <v>818</v>
       </c>
       <c r="F176" t="s">
@@ -18429,7 +18457,7 @@
       </c>
     </row>
     <row r="177" hidden="1" spans="5:24">
-      <c r="E177" s="21" t="s">
+      <c r="E177" s="22" t="s">
         <v>821</v>
       </c>
       <c r="F177" t="s">
@@ -18477,7 +18505,7 @@
       </c>
     </row>
     <row r="178" hidden="1" spans="5:24">
-      <c r="E178" s="21" t="s">
+      <c r="E178" s="22" t="s">
         <v>824</v>
       </c>
       <c r="F178" t="s">
@@ -18525,7 +18553,7 @@
       </c>
     </row>
     <row r="179" spans="5:24">
-      <c r="E179" s="21" t="s">
+      <c r="E179" s="22" t="s">
         <v>827</v>
       </c>
       <c r="F179" t="s">
@@ -18582,7 +18610,7 @@
       </c>
     </row>
     <row r="180" hidden="1" spans="5:24">
-      <c r="E180" s="21" t="s">
+      <c r="E180" s="22" t="s">
         <v>834</v>
       </c>
       <c r="F180" t="s">
@@ -18630,7 +18658,7 @@
       </c>
     </row>
     <row r="181" hidden="1" spans="5:24">
-      <c r="E181" s="21" t="s">
+      <c r="E181" s="22" t="s">
         <v>838</v>
       </c>
       <c r="F181" t="s">
@@ -18678,7 +18706,7 @@
       </c>
     </row>
     <row r="182" hidden="1" spans="5:24">
-      <c r="E182" s="21" t="s">
+      <c r="E182" s="22" t="s">
         <v>842</v>
       </c>
       <c r="F182" t="s">
@@ -18728,7 +18756,7 @@
       </c>
     </row>
     <row r="183" spans="5:24">
-      <c r="E183" s="21" t="s">
+      <c r="E183" s="22" t="s">
         <v>844</v>
       </c>
       <c r="F183" t="s">
@@ -18785,7 +18813,7 @@
       </c>
     </row>
     <row r="184" hidden="1" spans="5:24">
-      <c r="E184" s="21" t="s">
+      <c r="E184" s="22" t="s">
         <v>848</v>
       </c>
       <c r="F184" t="s">
@@ -18833,7 +18861,7 @@
       </c>
     </row>
     <row r="185" hidden="1" spans="5:24">
-      <c r="E185" s="21" t="s">
+      <c r="E185" s="22" t="s">
         <v>851</v>
       </c>
       <c r="F185" t="s">
@@ -18884,7 +18912,7 @@
       </c>
     </row>
     <row r="186" hidden="1" spans="5:24">
-      <c r="E186" s="21" t="s">
+      <c r="E186" s="22" t="s">
         <v>855</v>
       </c>
       <c r="F186" t="s">
@@ -18935,7 +18963,7 @@
       </c>
     </row>
     <row r="187" hidden="1" spans="5:24">
-      <c r="E187" s="21" t="s">
+      <c r="E187" s="22" t="s">
         <v>859</v>
       </c>
       <c r="F187" t="s">
@@ -18986,7 +19014,7 @@
       </c>
     </row>
     <row r="188" hidden="1" spans="5:24">
-      <c r="E188" s="21" t="s">
+      <c r="E188" s="22" t="s">
         <v>863</v>
       </c>
       <c r="F188" t="s">
@@ -19040,7 +19068,7 @@
       </c>
     </row>
     <row r="189" spans="5:24">
-      <c r="E189" s="21" t="s">
+      <c r="E189" s="22" t="s">
         <v>866</v>
       </c>
       <c r="F189" t="s">
@@ -19097,7 +19125,7 @@
       </c>
     </row>
     <row r="190" hidden="1" spans="5:24">
-      <c r="E190" s="21" t="s">
+      <c r="E190" s="22" t="s">
         <v>873</v>
       </c>
       <c r="F190" t="s">
@@ -19145,7 +19173,7 @@
       </c>
     </row>
     <row r="191" hidden="1" spans="5:24">
-      <c r="E191" s="21" t="s">
+      <c r="E191" s="22" t="s">
         <v>877</v>
       </c>
       <c r="F191" t="s">
@@ -19196,7 +19224,7 @@
       </c>
     </row>
     <row r="192" hidden="1" spans="5:24">
-      <c r="E192" s="21" t="s">
+      <c r="E192" s="22" t="s">
         <v>880</v>
       </c>
       <c r="F192" t="s">
@@ -19244,7 +19272,7 @@
       </c>
     </row>
     <row r="193" hidden="1" spans="5:24">
-      <c r="E193" s="21" t="s">
+      <c r="E193" s="22" t="s">
         <v>884</v>
       </c>
       <c r="F193" t="s">
@@ -19292,7 +19320,7 @@
       </c>
     </row>
     <row r="194" hidden="1" spans="5:24">
-      <c r="E194" s="21" t="s">
+      <c r="E194" s="22" t="s">
         <v>888</v>
       </c>
       <c r="F194" t="s">
@@ -19343,7 +19371,7 @@
       </c>
     </row>
     <row r="195" hidden="1" spans="5:24">
-      <c r="E195" s="21" t="s">
+      <c r="E195" s="22" t="s">
         <v>892</v>
       </c>
       <c r="F195" t="s">
@@ -19394,7 +19422,7 @@
       </c>
     </row>
     <row r="196" spans="5:24">
-      <c r="E196" s="21" t="s">
+      <c r="E196" s="22" t="s">
         <v>896</v>
       </c>
       <c r="F196" t="s">
@@ -19451,7 +19479,7 @@
       </c>
     </row>
     <row r="197" hidden="1" spans="5:24">
-      <c r="E197" s="21" t="s">
+      <c r="E197" s="22" t="s">
         <v>903</v>
       </c>
       <c r="F197" t="s">
@@ -19499,7 +19527,7 @@
       </c>
     </row>
     <row r="198" hidden="1" spans="5:24">
-      <c r="E198" s="21" t="s">
+      <c r="E198" s="22" t="s">
         <v>907</v>
       </c>
       <c r="F198" t="s">
@@ -19547,7 +19575,7 @@
       </c>
     </row>
     <row r="199" hidden="1" spans="5:24">
-      <c r="E199" s="21" t="s">
+      <c r="E199" s="22" t="s">
         <v>911</v>
       </c>
       <c r="F199" t="s">
@@ -19595,7 +19623,7 @@
       </c>
     </row>
     <row r="200" hidden="1" spans="5:24">
-      <c r="E200" s="21" t="s">
+      <c r="E200" s="22" t="s">
         <v>915</v>
       </c>
       <c r="F200" t="s">
@@ -19643,7 +19671,7 @@
       </c>
     </row>
     <row r="201" hidden="1" spans="5:24">
-      <c r="E201" s="21" t="s">
+      <c r="E201" s="22" t="s">
         <v>919</v>
       </c>
       <c r="F201" t="s">
@@ -19691,7 +19719,7 @@
       </c>
     </row>
     <row r="202" spans="5:24">
-      <c r="E202" s="21" t="s">
+      <c r="E202" s="22" t="s">
         <v>923</v>
       </c>
       <c r="F202" t="s">
@@ -19748,7 +19776,7 @@
       </c>
     </row>
     <row r="203" hidden="1" spans="5:24">
-      <c r="E203" s="21" t="s">
+      <c r="E203" s="22" t="s">
         <v>927</v>
       </c>
       <c r="F203" t="s">
@@ -19799,7 +19827,7 @@
       </c>
     </row>
     <row r="204" hidden="1" spans="5:24">
-      <c r="E204" s="21" t="s">
+      <c r="E204" s="22" t="s">
         <v>930</v>
       </c>
       <c r="F204" t="s">
@@ -19847,7 +19875,7 @@
       </c>
     </row>
     <row r="205" hidden="1" spans="5:24">
-      <c r="E205" s="21" t="s">
+      <c r="E205" s="22" t="s">
         <v>933</v>
       </c>
       <c r="F205" t="s">
@@ -19898,7 +19926,7 @@
       </c>
     </row>
     <row r="206" hidden="1" spans="5:24">
-      <c r="E206" s="21" t="s">
+      <c r="E206" s="22" t="s">
         <v>937</v>
       </c>
       <c r="F206" t="s">
@@ -19949,7 +19977,7 @@
       </c>
     </row>
     <row r="207" hidden="1" spans="5:24">
-      <c r="E207" s="21" t="s">
+      <c r="E207" s="22" t="s">
         <v>941</v>
       </c>
       <c r="F207" t="s">
@@ -19997,7 +20025,7 @@
       </c>
     </row>
     <row r="208" hidden="1" spans="5:24">
-      <c r="E208" s="21" t="s">
+      <c r="E208" s="22" t="s">
         <v>945</v>
       </c>
       <c r="F208" t="s">
@@ -20045,7 +20073,7 @@
       </c>
     </row>
     <row r="209" hidden="1" spans="5:24">
-      <c r="E209" s="21" t="s">
+      <c r="E209" s="22" t="s">
         <v>949</v>
       </c>
       <c r="F209" t="s">
@@ -20093,7 +20121,7 @@
       </c>
     </row>
     <row r="210" hidden="1" spans="5:24">
-      <c r="E210" s="21" t="s">
+      <c r="E210" s="22" t="s">
         <v>953</v>
       </c>
       <c r="F210" t="s">
@@ -20141,7 +20169,7 @@
       </c>
     </row>
     <row r="211" hidden="1" spans="5:24">
-      <c r="E211" s="21" t="s">
+      <c r="E211" s="22" t="s">
         <v>957</v>
       </c>
       <c r="F211" t="s">
@@ -20189,7 +20217,7 @@
       </c>
     </row>
     <row r="212" hidden="1" spans="5:24">
-      <c r="E212" s="21" t="s">
+      <c r="E212" s="22" t="s">
         <v>961</v>
       </c>
       <c r="F212" t="s">
@@ -20237,7 +20265,7 @@
       </c>
     </row>
     <row r="213" hidden="1" spans="5:24">
-      <c r="E213" s="21" t="s">
+      <c r="E213" s="22" t="s">
         <v>965</v>
       </c>
       <c r="F213" t="s">
@@ -20285,16 +20313,16 @@
       </c>
     </row>
     <row r="214" hidden="1" spans="5:24">
-      <c r="E214" s="26" t="s">
+      <c r="E214" s="27" t="s">
         <v>969</v>
       </c>
-      <c r="F214" s="7" t="s">
+      <c r="F214" s="8" t="s">
         <v>970</v>
       </c>
-      <c r="G214" s="7" t="s">
+      <c r="G214" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="H214" s="7" t="s">
+      <c r="H214" s="8" t="s">
         <v>971</v>
       </c>
       <c r="J214" t="s">
@@ -20322,7 +20350,7 @@
       <c r="R214" t="s">
         <v>80</v>
       </c>
-      <c r="S214" s="7" t="s">
+      <c r="S214" s="8" t="s">
         <v>972</v>
       </c>
       <c r="T214" t="s">
@@ -20336,16 +20364,16 @@
       </c>
     </row>
     <row r="215" hidden="1" spans="5:24">
-      <c r="E215" s="26" t="s">
+      <c r="E215" s="27" t="s">
         <v>973</v>
       </c>
-      <c r="F215" s="7" t="s">
+      <c r="F215" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="G215" s="7" t="s">
+      <c r="G215" s="8" t="s">
         <v>975</v>
       </c>
-      <c r="H215" s="7" t="s">
+      <c r="H215" s="8" t="s">
         <v>975</v>
       </c>
       <c r="J215" t="s">
@@ -20370,7 +20398,7 @@
       <c r="R215" t="s">
         <v>80</v>
       </c>
-      <c r="S215" s="7" t="s">
+      <c r="S215" s="8" t="s">
         <v>976</v>
       </c>
       <c r="T215" t="s">
@@ -20384,16 +20412,16 @@
       </c>
     </row>
     <row r="216" hidden="1" spans="5:24">
-      <c r="E216" s="26" t="s">
+      <c r="E216" s="27" t="s">
         <v>977</v>
       </c>
-      <c r="F216" s="7" t="s">
+      <c r="F216" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="G216" s="7" t="s">
+      <c r="G216" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="H216" s="7" t="s">
+      <c r="H216" s="8" t="s">
         <v>979</v>
       </c>
       <c r="J216" t="s">
@@ -20418,7 +20446,7 @@
       <c r="R216" t="s">
         <v>80</v>
       </c>
-      <c r="S216" s="7" t="s">
+      <c r="S216" s="8" t="s">
         <v>980</v>
       </c>
       <c r="T216" t="s">
@@ -20432,16 +20460,16 @@
       </c>
     </row>
     <row r="217" hidden="1" spans="5:24">
-      <c r="E217" s="26" t="s">
+      <c r="E217" s="27" t="s">
         <v>981</v>
       </c>
-      <c r="F217" s="7" t="s">
+      <c r="F217" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="G217" s="7" t="s">
+      <c r="G217" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="H217" s="7" t="s">
+      <c r="H217" s="8" t="s">
         <v>983</v>
       </c>
       <c r="J217" t="s">
@@ -20466,7 +20494,7 @@
       <c r="R217" t="s">
         <v>80</v>
       </c>
-      <c r="S217" s="7" t="s">
+      <c r="S217" s="8" t="s">
         <v>984</v>
       </c>
       <c r="T217" t="s">
@@ -20479,305 +20507,305 @@
         <v>82</v>
       </c>
     </row>
-    <row r="218" s="9" customFormat="1" spans="5:24">
-      <c r="E218" s="27" t="s">
+    <row r="218" s="10" customFormat="1" spans="5:24">
+      <c r="E218" s="28" t="s">
         <v>985</v>
       </c>
-      <c r="F218" s="9" t="s">
+      <c r="F218" s="10" t="s">
         <v>986</v>
       </c>
-      <c r="G218" s="9" t="s">
+      <c r="G218" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="H218" s="9" t="s">
+      <c r="H218" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I218" s="9" t="s">
+      <c r="I218" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="J218" s="9" t="s">
+      <c r="J218" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K218" s="9" t="str">
+      <c r="K218" s="10" t="str">
         <f>菜单SAAS版!$E$118</f>
         <v>iam_menu-121</v>
       </c>
-      <c r="L218" s="9" t="s">
+      <c r="L218" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="M218" s="9">
+      <c r="M218" s="10">
         <v>90</v>
       </c>
-      <c r="N218" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O218" s="9" t="s">
+      <c r="N218" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O218" s="10" t="s">
         <v>987</v>
       </c>
-      <c r="P218" s="9" t="s">
+      <c r="P218" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="Q218" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="R218" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S218" s="9" t="s">
+      <c r="Q218" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R218" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S218" s="10" t="s">
         <v>989</v>
       </c>
-      <c r="T218" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="V218" s="9" t="s">
+      <c r="T218" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V218" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X218" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="219" s="9" customFormat="1" hidden="1" spans="5:24">
-      <c r="E219" s="27" t="s">
+      <c r="X218" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="219" s="10" customFormat="1" hidden="1" spans="5:24">
+      <c r="E219" s="28" t="s">
         <v>990</v>
       </c>
-      <c r="F219" s="9" t="s">
+      <c r="F219" s="10" t="s">
         <v>991</v>
       </c>
-      <c r="G219" s="9" t="s">
+      <c r="G219" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="H219" s="9" t="s">
+      <c r="H219" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="J219" s="9" t="s">
+      <c r="J219" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K219" s="9" t="str">
+      <c r="K219" s="10" t="str">
         <f>菜单SAAS版!$E$218</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="L219" s="9" t="s">
+      <c r="L219" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="M219" s="9">
+      <c r="M219" s="10">
         <v>10</v>
       </c>
-      <c r="N219" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q219" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="R219" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S219" s="9" t="s">
+      <c r="N219" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q219" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R219" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S219" s="10" t="s">
         <v>992</v>
       </c>
-      <c r="T219" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="V219" s="9" t="s">
+      <c r="T219" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V219" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X219" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="220" s="9" customFormat="1" hidden="1" spans="5:24">
-      <c r="E220" s="27" t="s">
+      <c r="X219" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="220" s="10" customFormat="1" hidden="1" spans="5:24">
+      <c r="E220" s="28" t="s">
         <v>993</v>
       </c>
-      <c r="F220" s="9" t="s">
+      <c r="F220" s="10" t="s">
         <v>994</v>
       </c>
-      <c r="G220" s="9" t="s">
+      <c r="G220" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="H220" s="9" t="s">
+      <c r="H220" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J220" s="9" t="s">
+      <c r="J220" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K220" s="9" t="str">
+      <c r="K220" s="10" t="str">
         <f>菜单SAAS版!$E$218</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="L220" s="9" t="s">
+      <c r="L220" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="M220" s="9">
+      <c r="M220" s="10">
         <v>20</v>
       </c>
-      <c r="N220" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q220" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="R220" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S220" s="9" t="s">
+      <c r="N220" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q220" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R220" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S220" s="10" t="s">
         <v>995</v>
       </c>
-      <c r="T220" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="V220" s="9" t="s">
+      <c r="T220" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V220" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X220" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="221" s="9" customFormat="1" hidden="1" spans="5:24">
-      <c r="E221" s="27" t="s">
+      <c r="X220" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="221" s="10" customFormat="1" hidden="1" spans="5:24">
+      <c r="E221" s="28" t="s">
         <v>996</v>
       </c>
-      <c r="F221" s="9" t="s">
+      <c r="F221" s="10" t="s">
         <v>997</v>
       </c>
-      <c r="G221" s="9" t="s">
+      <c r="G221" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="H221" s="9" t="s">
+      <c r="H221" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="J221" s="9" t="s">
+      <c r="J221" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K221" s="9" t="str">
+      <c r="K221" s="10" t="str">
         <f>菜单SAAS版!$E$218</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="L221" s="9" t="s">
+      <c r="L221" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="M221" s="9">
+      <c r="M221" s="10">
         <v>30</v>
       </c>
-      <c r="N221" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q221" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="R221" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S221" s="9" t="s">
+      <c r="N221" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q221" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R221" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S221" s="10" t="s">
         <v>998</v>
       </c>
-      <c r="T221" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="V221" s="9" t="s">
+      <c r="T221" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V221" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X221" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="222" s="9" customFormat="1" hidden="1" spans="5:24">
-      <c r="E222" s="27" t="s">
+      <c r="X221" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="222" s="10" customFormat="1" hidden="1" spans="5:24">
+      <c r="E222" s="28" t="s">
         <v>999</v>
       </c>
-      <c r="F222" s="9" t="s">
+      <c r="F222" s="10" t="s">
         <v>1000</v>
       </c>
-      <c r="G222" s="9" t="s">
+      <c r="G222" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="H222" s="9" t="s">
+      <c r="H222" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="J222" s="9" t="s">
+      <c r="J222" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K222" s="9" t="str">
+      <c r="K222" s="10" t="str">
         <f>菜单SAAS版!$E$218</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="L222" s="9" t="s">
+      <c r="L222" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="M222" s="9">
+      <c r="M222" s="10">
         <v>40</v>
       </c>
-      <c r="N222" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q222" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="R222" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S222" s="9" t="s">
+      <c r="N222" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q222" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R222" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S222" s="10" t="s">
         <v>1001</v>
       </c>
-      <c r="T222" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="V222" s="9" t="s">
+      <c r="T222" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V222" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X222" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="223" s="9" customFormat="1" hidden="1" spans="5:24">
-      <c r="E223" s="27" t="s">
+      <c r="X222" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="223" s="10" customFormat="1" hidden="1" spans="5:24">
+      <c r="E223" s="28" t="s">
         <v>1002</v>
       </c>
-      <c r="F223" s="9" t="s">
+      <c r="F223" s="10" t="s">
         <v>1003</v>
       </c>
-      <c r="G223" s="9" t="s">
+      <c r="G223" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="H223" s="9" t="s">
+      <c r="H223" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="J223" s="9" t="s">
+      <c r="J223" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K223" s="9" t="str">
+      <c r="K223" s="10" t="str">
         <f>菜单SAAS版!$E$218</f>
         <v>iam_menu-235</v>
       </c>
-      <c r="L223" s="9" t="s">
+      <c r="L223" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="M223" s="9">
+      <c r="M223" s="10">
         <v>50</v>
       </c>
-      <c r="N223" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q223" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="R223" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S223" s="9" t="s">
+      <c r="N223" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q223" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R223" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S223" s="10" t="s">
         <v>1004</v>
       </c>
-      <c r="T223" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="V223" s="9" t="s">
+      <c r="T223" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V223" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="X223" s="9" t="s">
+      <c r="X223" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="224" hidden="1" spans="5:24">
-      <c r="E224" s="21" t="s">
+      <c r="E224" s="22" t="s">
         <v>1005</v>
       </c>
       <c r="F224" t="s">
@@ -20825,28 +20853,28 @@
       </c>
     </row>
     <row r="225" hidden="1" spans="5:18">
-      <c r="E225" s="28" t="s">
+      <c r="E225" s="29" t="s">
         <v>1009</v>
       </c>
-      <c r="F225" s="9" t="s">
+      <c r="F225" s="10" t="s">
         <v>1010</v>
       </c>
-      <c r="G225" s="9" t="s">
+      <c r="G225" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="H225" s="9" t="s">
+      <c r="H225" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="J225" s="9" t="s">
+      <c r="J225" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K225">
         <v>0</v>
       </c>
-      <c r="L225" s="9" t="s">
+      <c r="L225" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="M225" s="9">
+      <c r="M225" s="10">
         <v>0</v>
       </c>
       <c r="N225">
@@ -20860,28 +20888,28 @@
       </c>
     </row>
     <row r="226" hidden="1" spans="5:18">
-      <c r="E226" s="28" t="s">
+      <c r="E226" s="29" t="s">
         <v>1012</v>
       </c>
-      <c r="F226" s="9" t="s">
+      <c r="F226" s="10" t="s">
         <v>1013</v>
       </c>
-      <c r="G226" s="9" t="s">
+      <c r="G226" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="H226" s="9" t="s">
+      <c r="H226" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="J226" s="9" t="s">
+      <c r="J226" s="10" t="s">
         <v>79</v>
       </c>
       <c r="K226">
         <v>0</v>
       </c>
-      <c r="L226" s="9" t="s">
+      <c r="L226" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="M226" s="9">
+      <c r="M226" s="10">
         <v>0</v>
       </c>
       <c r="N226">
@@ -20895,7 +20923,7 @@
       </c>
     </row>
     <row r="227" hidden="1" spans="5:24">
-      <c r="E227" s="21" t="s">
+      <c r="E227" s="22" t="s">
         <v>1014</v>
       </c>
       <c r="F227" t="s">
@@ -20942,56 +20970,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" s="11" customFormat="1" hidden="1" spans="5:24">
-      <c r="E228" s="29" t="s">
+    <row r="228" s="12" customFormat="1" hidden="1" spans="5:24">
+      <c r="E228" s="30" t="s">
         <v>1018</v>
       </c>
-      <c r="F228" s="11" t="s">
+      <c r="F228" s="12" t="s">
         <v>1019</v>
       </c>
-      <c r="G228" s="11" t="s">
+      <c r="G228" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="H228" s="11" t="s">
+      <c r="H228" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="J228" s="11" t="s">
+      <c r="J228" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K228" s="11" t="str">
+      <c r="K228" s="12" t="str">
         <f>菜单SAAS版!$E$96</f>
         <v>iam_menu-99</v>
       </c>
-      <c r="L228" s="11" t="s">
+      <c r="L228" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N228" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O228" s="11" t="s">
+      <c r="N228" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O228" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="Q228" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R228" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="S228" s="11" t="s">
+      <c r="Q228" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R228" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S228" s="12" t="s">
         <v>1021</v>
       </c>
-      <c r="T228" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="V228" s="11" t="s">
+      <c r="T228" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="V228" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="X228" s="11" t="s">
+      <c r="X228" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="229" customFormat="1" hidden="1" spans="5:24">
-      <c r="E229" s="29" t="s">
+      <c r="E229" s="30" t="s">
         <v>1022</v>
       </c>
       <c r="F229" t="s">
@@ -21039,7 +21067,7 @@
       </c>
     </row>
     <row r="230" spans="5:5">
-      <c r="E230" s="29"/>
+      <c r="E230" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:Y229">
@@ -21127,7 +21155,7 @@
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -21151,7 +21179,7 @@
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>1035</v>
       </c>
     </row>
@@ -21168,30 +21196,30 @@
       </c>
     </row>
     <row r="12" spans="5:8">
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>1038</v>
       </c>
-      <c r="F12" s="12" t="str">
+      <c r="F12" s="13" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>1039</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="5:8">
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>1040</v>
       </c>
-      <c r="F13" s="12" t="str">
+      <c r="F13" s="13" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>1041</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
@@ -24482,7 +24510,7 @@
       </c>
     </row>
     <row r="288" spans="5:7">
-      <c r="E288" s="8" t="s">
+      <c r="E288" s="9" t="s">
         <v>1531</v>
       </c>
       <c r="F288" t="str">
@@ -24494,19 +24522,19 @@
       </c>
     </row>
     <row r="289" spans="5:7">
-      <c r="E289" s="7" t="s">
+      <c r="E289" s="8" t="s">
         <v>1533</v>
       </c>
       <c r="F289" t="str">
         <f>菜单SAAS版!E52</f>
         <v>iam_menu-52</v>
       </c>
-      <c r="G289" s="7" t="s">
+      <c r="G289" s="8" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="290" spans="5:7">
-      <c r="E290" s="7" t="s">
+      <c r="E290" s="8" t="s">
         <v>1535</v>
       </c>
       <c r="F290" t="str">
@@ -24518,91 +24546,91 @@
       </c>
     </row>
     <row r="291" spans="5:7">
-      <c r="E291" s="12" t="s">
+      <c r="E291" s="13" t="s">
         <v>1537</v>
       </c>
-      <c r="F291" s="12" t="str">
+      <c r="F291" s="13" t="str">
         <f>菜单SAAS版!E79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G291" s="12" t="s">
+      <c r="G291" s="13" t="s">
         <v>1172</v>
       </c>
     </row>
     <row r="292" spans="5:7">
-      <c r="E292" s="14" t="s">
+      <c r="E292" s="15" t="s">
         <v>1538</v>
       </c>
-      <c r="F292" s="14" t="str">
+      <c r="F292" s="15" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G292" s="14" t="s">
+      <c r="G292" s="15" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="293" spans="5:7">
-      <c r="E293" s="15" t="s">
+      <c r="E293" s="16" t="s">
         <v>1540</v>
       </c>
-      <c r="F293" s="15" t="str">
+      <c r="F293" s="16" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G293" s="15" t="s">
+      <c r="G293" s="16" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="294" spans="5:7">
-      <c r="E294" s="16" t="s">
+      <c r="E294" s="17" t="s">
         <v>1542</v>
       </c>
-      <c r="F294" s="16" t="str">
+      <c r="F294" s="17" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G294" s="16" t="s">
+      <c r="G294" s="17" t="s">
         <v>1543</v>
       </c>
     </row>
     <row r="295" spans="5:7">
-      <c r="E295" s="14" t="s">
+      <c r="E295" s="15" t="s">
         <v>1544</v>
       </c>
-      <c r="F295" s="14" t="str">
+      <c r="F295" s="15" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G295" s="14" t="s">
+      <c r="G295" s="15" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="296" spans="5:7">
-      <c r="E296" s="12" t="s">
+      <c r="E296" s="13" t="s">
         <v>1546</v>
       </c>
-      <c r="F296" s="12" t="str">
+      <c r="F296" s="13" t="str">
         <f>菜单SAAS版!E72</f>
         <v>iam_menu-72</v>
       </c>
-      <c r="G296" s="12" t="s">
+      <c r="G296" s="13" t="s">
         <v>1547</v>
       </c>
     </row>
     <row r="297" spans="5:7">
-      <c r="E297" s="12" t="s">
+      <c r="E297" s="13" t="s">
         <v>1548</v>
       </c>
-      <c r="F297" s="12" t="str">
+      <c r="F297" s="13" t="str">
         <f>菜单SAAS版!E72</f>
         <v>iam_menu-72</v>
       </c>
-      <c r="G297" s="12" t="s">
+      <c r="G297" s="13" t="s">
         <v>1549</v>
       </c>
     </row>
     <row r="298" spans="5:7">
-      <c r="E298" s="12" t="s">
+      <c r="E298" s="13" t="s">
         <v>1550</v>
       </c>
       <c r="F298" t="str">
@@ -24734,590 +24762,590 @@
       </c>
     </row>
     <row r="309" spans="5:7">
-      <c r="E309" s="12" t="s">
+      <c r="E309" s="13" t="s">
         <v>1572</v>
       </c>
-      <c r="F309" s="12" t="str">
+      <c r="F309" s="13" t="str">
         <f>菜单SAAS版!E17</f>
         <v>iam_menu-17</v>
       </c>
-      <c r="G309" s="12" t="s">
+      <c r="G309" s="13" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="310" spans="5:7">
-      <c r="E310" s="12" t="s">
+      <c r="E310" s="13" t="s">
         <v>1574</v>
       </c>
-      <c r="F310" s="12" t="str">
+      <c r="F310" s="13" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-18</v>
       </c>
-      <c r="G310" s="12" t="s">
+      <c r="G310" s="13" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="311" spans="5:7">
-      <c r="E311" s="17" t="s">
+      <c r="E311" s="18" t="s">
         <v>1575</v>
       </c>
-      <c r="F311" s="17" t="str">
+      <c r="F311" s="18" t="str">
         <f>菜单SAAS版!E52</f>
         <v>iam_menu-52</v>
       </c>
-      <c r="G311" s="17" t="s">
+      <c r="G311" s="18" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="312" s="10" customFormat="1" spans="5:7">
-      <c r="E312" s="10" t="s">
+    <row r="312" s="11" customFormat="1" spans="5:7">
+      <c r="E312" s="11" t="s">
         <v>1577</v>
       </c>
-      <c r="F312" s="10" t="str">
+      <c r="F312" s="11" t="str">
         <f>菜单SAAS版!E207</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G312" s="10" t="s">
+      <c r="G312" s="11" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="313" s="10" customFormat="1" spans="5:7">
-      <c r="E313" s="10" t="s">
+    <row r="313" s="11" customFormat="1" spans="5:7">
+      <c r="E313" s="11" t="s">
         <v>1579</v>
       </c>
-      <c r="F313" s="10" t="str">
+      <c r="F313" s="11" t="str">
         <f>菜单SAAS版!E207</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G313" s="10" t="s">
+      <c r="G313" s="11" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="314" s="10" customFormat="1" spans="5:7">
-      <c r="E314" s="10" t="s">
+    <row r="314" s="11" customFormat="1" spans="5:7">
+      <c r="E314" s="11" t="s">
         <v>1580</v>
       </c>
-      <c r="F314" s="10" t="str">
+      <c r="F314" s="11" t="str">
         <f>菜单SAAS版!E207</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G314" s="10" t="s">
+      <c r="G314" s="11" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="315" spans="5:7">
-      <c r="E315" s="10" t="s">
+      <c r="E315" s="11" t="s">
         <v>1581</v>
       </c>
-      <c r="F315" s="10" t="str">
+      <c r="F315" s="11" t="str">
         <f>菜单SAAS版!E207</f>
         <v>iam_menu-224</v>
       </c>
-      <c r="G315" s="10" t="s">
+      <c r="G315" s="11" t="s">
         <v>1565</v>
       </c>
     </row>
     <row r="316" spans="5:7">
-      <c r="E316" s="10" t="s">
+      <c r="E316" s="11" t="s">
         <v>1582</v>
       </c>
-      <c r="F316" s="10" t="str">
+      <c r="F316" s="11" t="str">
         <f>菜单SAAS版!E208</f>
         <v>iam_menu-225</v>
       </c>
-      <c r="G316" s="10" t="s">
+      <c r="G316" s="11" t="s">
         <v>1569</v>
       </c>
     </row>
     <row r="317" spans="5:7">
-      <c r="E317" s="10" t="s">
+      <c r="E317" s="11" t="s">
         <v>1583</v>
       </c>
-      <c r="F317" s="10" t="str">
+      <c r="F317" s="11" t="str">
         <f>菜单SAAS版!E209</f>
         <v>iam_menu-226</v>
       </c>
-      <c r="G317" s="10" t="s">
+      <c r="G317" s="11" t="s">
         <v>1567</v>
       </c>
     </row>
     <row r="318" spans="5:7">
-      <c r="E318" s="10" t="s">
+      <c r="E318" s="11" t="s">
         <v>1584</v>
       </c>
-      <c r="F318" s="10" t="str">
+      <c r="F318" s="11" t="str">
         <f>菜单SAAS版!E210</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G318" s="10" t="s">
+      <c r="G318" s="11" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="319" spans="5:7">
-      <c r="E319" s="10" t="s">
+      <c r="E319" s="11" t="s">
         <v>1585</v>
       </c>
-      <c r="F319" s="10" t="str">
+      <c r="F319" s="11" t="str">
         <f>菜单SAAS版!E210</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G319" s="10" t="s">
+      <c r="G319" s="11" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="320" spans="5:7">
-      <c r="E320" s="10" t="s">
+      <c r="E320" s="11" t="s">
         <v>1586</v>
       </c>
-      <c r="F320" s="10" t="str">
+      <c r="F320" s="11" t="str">
         <f>菜单SAAS版!E210</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G320" s="10" t="s">
+      <c r="G320" s="11" t="s">
         <v>1557</v>
       </c>
     </row>
     <row r="321" spans="5:7">
-      <c r="E321" s="10" t="s">
+      <c r="E321" s="11" t="s">
         <v>1587</v>
       </c>
-      <c r="F321" s="10" t="str">
+      <c r="F321" s="11" t="str">
         <f>菜单SAAS版!E210</f>
         <v>iam_menu-227</v>
       </c>
-      <c r="G321" s="10" t="s">
+      <c r="G321" s="11" t="s">
         <v>1551</v>
       </c>
     </row>
     <row r="322" spans="5:7">
-      <c r="E322" s="10" t="s">
+      <c r="E322" s="11" t="s">
         <v>1588</v>
       </c>
-      <c r="F322" s="10" t="str">
+      <c r="F322" s="11" t="str">
         <f>菜单SAAS版!E211</f>
         <v>iam_menu-228</v>
       </c>
-      <c r="G322" s="10" t="s">
+      <c r="G322" s="11" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="323" spans="5:7">
-      <c r="E323" s="10" t="s">
+      <c r="E323" s="11" t="s">
         <v>1589</v>
       </c>
-      <c r="F323" s="10" t="str">
+      <c r="F323" s="11" t="str">
         <f>菜单SAAS版!E212</f>
         <v>iam_menu-229</v>
       </c>
-      <c r="G323" s="10" t="s">
+      <c r="G323" s="11" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="324" spans="5:7">
-      <c r="E324" s="10" t="s">
+      <c r="E324" s="11" t="s">
         <v>1590</v>
       </c>
-      <c r="F324" s="10" t="str">
+      <c r="F324" s="11" t="str">
         <f>菜单SAAS版!E213</f>
         <v>iam_menu-230</v>
       </c>
-      <c r="G324" s="10" t="s">
+      <c r="G324" s="11" t="s">
         <v>1563</v>
       </c>
     </row>
     <row r="325" spans="5:7">
-      <c r="E325" s="10" t="s">
+      <c r="E325" s="11" t="s">
         <v>1591</v>
       </c>
-      <c r="F325" s="10" t="str">
+      <c r="F325" s="11" t="str">
         <f>菜单SAAS版!E214</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="G325" s="10" t="s">
+      <c r="G325" s="11" t="s">
         <v>1592</v>
       </c>
     </row>
     <row r="326" spans="5:7">
-      <c r="E326" s="10" t="s">
+      <c r="E326" s="11" t="s">
         <v>1593</v>
       </c>
-      <c r="F326" s="10" t="str">
+      <c r="F326" s="11" t="str">
         <f>菜单SAAS版!E215</f>
         <v>iam_menu-232</v>
       </c>
-      <c r="G326" s="10" t="s">
+      <c r="G326" s="11" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="327" spans="5:7">
-      <c r="E327" s="10" t="s">
+      <c r="E327" s="11" t="s">
         <v>1595</v>
       </c>
-      <c r="F327" s="10" t="str">
+      <c r="F327" s="11" t="str">
         <f>菜单SAAS版!E216</f>
         <v>iam_menu-233</v>
       </c>
-      <c r="G327" s="10" t="s">
+      <c r="G327" s="11" t="s">
         <v>1596</v>
       </c>
     </row>
     <row r="328" spans="5:7">
-      <c r="E328" s="10" t="s">
+      <c r="E328" s="11" t="s">
         <v>1597</v>
       </c>
-      <c r="F328" s="10" t="str">
+      <c r="F328" s="11" t="str">
         <f>菜单SAAS版!E216</f>
         <v>iam_menu-233</v>
       </c>
-      <c r="G328" s="10" t="s">
+      <c r="G328" s="11" t="s">
         <v>1598</v>
       </c>
     </row>
     <row r="329" spans="5:7">
-      <c r="E329" s="10" t="s">
+      <c r="E329" s="11" t="s">
         <v>1599</v>
       </c>
-      <c r="F329" s="10" t="str">
+      <c r="F329" s="11" t="str">
         <f>菜单SAAS版!E217</f>
         <v>iam_menu-234</v>
       </c>
-      <c r="G329" s="10" t="s">
+      <c r="G329" s="11" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="330" spans="5:7">
-      <c r="E330" s="10" t="s">
+      <c r="E330" s="11" t="s">
         <v>1601</v>
       </c>
-      <c r="F330" s="10" t="str">
+      <c r="F330" s="11" t="str">
         <f>菜单SAAS版!E214</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="G330" s="10" t="s">
+      <c r="G330" s="11" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="331" spans="5:7">
-      <c r="E331" s="10" t="s">
+      <c r="E331" s="11" t="s">
         <v>1603</v>
       </c>
-      <c r="F331" s="10" t="str">
+      <c r="F331" s="11" t="str">
         <f>菜单SAAS版!E214</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="G331" s="10" t="s">
+      <c r="G331" s="11" t="s">
         <v>1604</v>
       </c>
     </row>
     <row r="332" spans="5:7">
-      <c r="E332" s="10" t="s">
+      <c r="E332" s="11" t="s">
         <v>1605</v>
       </c>
-      <c r="F332" s="7" t="str">
+      <c r="F332" s="8" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-15</v>
       </c>
-      <c r="G332" s="10" t="s">
+      <c r="G332" s="11" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="333" s="9" customFormat="1" spans="5:7">
-      <c r="E333" s="9" t="s">
+    <row r="333" s="10" customFormat="1" spans="5:7">
+      <c r="E333" s="10" t="s">
         <v>1607</v>
       </c>
-      <c r="F333" s="9" t="str">
+      <c r="F333" s="10" t="str">
         <f>菜单SAAS版!E219</f>
         <v>iam_menu-236</v>
       </c>
-      <c r="G333" s="9" t="s">
+      <c r="G333" s="10" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="334" s="9" customFormat="1" spans="5:7">
-      <c r="E334" s="9" t="s">
+    <row r="334" s="10" customFormat="1" spans="5:7">
+      <c r="E334" s="10" t="s">
         <v>1608</v>
       </c>
-      <c r="F334" s="9" t="str">
+      <c r="F334" s="10" t="str">
         <f>菜单SAAS版!E219</f>
         <v>iam_menu-236</v>
       </c>
-      <c r="G334" s="9" t="s">
+      <c r="G334" s="10" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="335" s="9" customFormat="1" spans="5:7">
-      <c r="E335" s="9" t="s">
+    <row r="335" s="10" customFormat="1" spans="5:7">
+      <c r="E335" s="10" t="s">
         <v>1610</v>
       </c>
-      <c r="F335" s="9" t="str">
+      <c r="F335" s="10" t="str">
         <f>菜单SAAS版!E220</f>
         <v>iam_menu-237</v>
       </c>
-      <c r="G335" s="9" t="s">
+      <c r="G335" s="10" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="336" s="9" customFormat="1" spans="5:7">
-      <c r="E336" s="9" t="s">
+    <row r="336" s="10" customFormat="1" spans="5:7">
+      <c r="E336" s="10" t="s">
         <v>1612</v>
       </c>
-      <c r="F336" s="9" t="str">
+      <c r="F336" s="10" t="str">
         <f>菜单SAAS版!E221</f>
         <v>iam_menu-238</v>
       </c>
-      <c r="G336" s="9" t="s">
+      <c r="G336" s="10" t="s">
         <v>1613</v>
       </c>
     </row>
-    <row r="337" s="9" customFormat="1" spans="5:7">
-      <c r="E337" s="9" t="s">
+    <row r="337" s="10" customFormat="1" spans="5:7">
+      <c r="E337" s="10" t="s">
         <v>1614</v>
       </c>
-      <c r="F337" s="9" t="str">
+      <c r="F337" s="10" t="str">
         <f>菜单SAAS版!E221</f>
         <v>iam_menu-238</v>
       </c>
-      <c r="G337" s="9" t="s">
+      <c r="G337" s="10" t="s">
         <v>1615</v>
       </c>
     </row>
     <row r="338" spans="5:7">
-      <c r="E338" s="9" t="s">
+      <c r="E338" s="10" t="s">
         <v>1616</v>
       </c>
-      <c r="F338" s="9" t="str">
+      <c r="F338" s="10" t="str">
         <f>菜单SAAS版!E222</f>
         <v>iam_menu-239</v>
       </c>
-      <c r="G338" s="18" t="s">
+      <c r="G338" s="19" t="s">
         <v>1617</v>
       </c>
     </row>
     <row r="339" spans="5:7">
-      <c r="E339" s="9" t="s">
+      <c r="E339" s="10" t="s">
         <v>1618</v>
       </c>
-      <c r="F339" s="9" t="str">
+      <c r="F339" s="10" t="str">
         <f>菜单SAAS版!E222</f>
         <v>iam_menu-239</v>
       </c>
-      <c r="G339" s="18" t="s">
+      <c r="G339" s="19" t="s">
         <v>1619</v>
       </c>
     </row>
     <row r="340" spans="5:7">
-      <c r="E340" s="9" t="s">
+      <c r="E340" s="10" t="s">
         <v>1620</v>
       </c>
-      <c r="F340" s="9" t="str">
+      <c r="F340" s="10" t="str">
         <f>菜单SAAS版!E223</f>
         <v>iam_menu-240</v>
       </c>
-      <c r="G340" s="18" t="s">
+      <c r="G340" s="19" t="s">
         <v>1621</v>
       </c>
     </row>
     <row r="341" spans="5:7">
-      <c r="E341" s="9" t="s">
+      <c r="E341" s="10" t="s">
         <v>1622</v>
       </c>
-      <c r="F341" s="9" t="str">
+      <c r="F341" s="10" t="str">
         <f>菜单SAAS版!E223</f>
         <v>iam_menu-240</v>
       </c>
-      <c r="G341" s="18" t="s">
+      <c r="G341" s="19" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="342" s="12" customFormat="1" spans="5:7">
-      <c r="E342" s="12" t="s">
+    <row r="342" s="13" customFormat="1" spans="5:7">
+      <c r="E342" s="13" t="s">
         <v>1624</v>
       </c>
-      <c r="F342" s="12" t="str">
+      <c r="F342" s="13" t="str">
         <f>菜单SAAS版!E74</f>
         <v>iam_menu-74</v>
       </c>
-      <c r="G342" s="19" t="s">
+      <c r="G342" s="20" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="343" s="13" customFormat="1" spans="5:7">
-      <c r="E343" s="13" t="s">
+    <row r="343" s="14" customFormat="1" spans="5:7">
+      <c r="E343" s="14" t="s">
         <v>1625</v>
       </c>
-      <c r="F343" s="13" t="str">
+      <c r="F343" s="14" t="str">
         <f>菜单SAAS版!E224</f>
         <v>iam_menu-241</v>
       </c>
-      <c r="G343" s="20" t="s">
+      <c r="G343" s="21" t="s">
         <v>1626</v>
       </c>
     </row>
     <row r="344" spans="5:7">
-      <c r="E344" s="13" t="s">
+      <c r="E344" s="14" t="s">
         <v>1627</v>
       </c>
-      <c r="F344" s="13" t="str">
+      <c r="F344" s="14" t="str">
         <f>菜单SAAS版!E224</f>
         <v>iam_menu-241</v>
       </c>
-      <c r="G344" s="18" t="s">
+      <c r="G344" s="19" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="345" s="12" customFormat="1" spans="5:7">
-      <c r="E345" s="12" t="s">
+    <row r="345" s="13" customFormat="1" spans="5:7">
+      <c r="E345" s="13" t="s">
         <v>1629</v>
       </c>
-      <c r="F345" s="12" t="str">
+      <c r="F345" s="13" t="str">
         <f>菜单SAAS版!$E$79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G345" s="19" t="s">
+      <c r="G345" s="20" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="346" s="12" customFormat="1" spans="5:7">
-      <c r="E346" s="12" t="s">
+    <row r="346" s="13" customFormat="1" spans="5:7">
+      <c r="E346" s="13" t="s">
         <v>1631</v>
       </c>
-      <c r="F346" s="12" t="str">
+      <c r="F346" s="13" t="str">
         <f>菜单SAAS版!$E$79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G346" s="19" t="s">
+      <c r="G346" s="20" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="347" s="12" customFormat="1" spans="5:7">
-      <c r="E347" s="12" t="s">
+    <row r="347" s="13" customFormat="1" spans="5:7">
+      <c r="E347" s="13" t="s">
         <v>1633</v>
       </c>
-      <c r="F347" s="12" t="str">
+      <c r="F347" s="13" t="str">
         <f>菜单SAAS版!$E$79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G347" s="19" t="s">
+      <c r="G347" s="20" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="348" s="12" customFormat="1" spans="5:7">
-      <c r="E348" s="12" t="s">
+    <row r="348" s="13" customFormat="1" spans="5:7">
+      <c r="E348" s="13" t="s">
         <v>1635</v>
       </c>
-      <c r="F348" s="12" t="str">
+      <c r="F348" s="13" t="str">
         <f>菜单SAAS版!$E$79</f>
         <v>iam_menu-79</v>
       </c>
-      <c r="G348" s="19" t="s">
+      <c r="G348" s="20" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="349" spans="5:7">
-      <c r="E349" s="12" t="s">
+      <c r="E349" s="13" t="s">
         <v>1637</v>
       </c>
-      <c r="F349" s="12" t="str">
+      <c r="F349" s="13" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G349" s="19" t="s">
+      <c r="G349" s="20" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="350" spans="5:7">
-      <c r="E350" s="12" t="s">
+      <c r="E350" s="13" t="s">
         <v>1638</v>
       </c>
-      <c r="F350" s="12" t="str">
+      <c r="F350" s="13" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G350" s="19" t="s">
+      <c r="G350" s="20" t="s">
         <v>1630</v>
       </c>
     </row>
     <row r="351" spans="5:7">
-      <c r="E351" s="12" t="s">
+      <c r="E351" s="13" t="s">
         <v>1639</v>
       </c>
-      <c r="F351" s="12" t="str">
+      <c r="F351" s="13" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G351" s="19" t="s">
+      <c r="G351" s="20" t="s">
         <v>1632</v>
       </c>
     </row>
     <row r="352" spans="5:7">
-      <c r="E352" s="12" t="s">
+      <c r="E352" s="13" t="s">
         <v>1640</v>
       </c>
-      <c r="F352" s="12" t="str">
+      <c r="F352" s="13" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G352" s="19" t="s">
+      <c r="G352" s="20" t="s">
         <v>1634</v>
       </c>
     </row>
     <row r="353" spans="5:7">
-      <c r="E353" s="12" t="s">
+      <c r="E353" s="13" t="s">
         <v>1641</v>
       </c>
-      <c r="F353" s="12" t="str">
+      <c r="F353" s="13" t="str">
         <f>菜单SAAS版!$E$120</f>
         <v>iam_menu-123</v>
       </c>
-      <c r="G353" s="19" t="s">
+      <c r="G353" s="20" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="354" spans="5:7">
-      <c r="E354" s="12" t="s">
+      <c r="E354" s="13" t="s">
         <v>1642</v>
       </c>
-      <c r="F354" s="12" t="str">
+      <c r="F354" s="13" t="str">
         <f>菜单SAAS版!$E$120</f>
         <v>iam_menu-123</v>
       </c>
-      <c r="G354" s="19" t="s">
+      <c r="G354" s="20" t="s">
         <v>1643</v>
       </c>
     </row>
     <row r="355" spans="5:7">
-      <c r="E355" s="12" t="s">
+      <c r="E355" s="13" t="s">
         <v>1644</v>
       </c>
-      <c r="F355" s="12" t="str">
+      <c r="F355" s="13" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G355" s="19" t="s">
+      <c r="G355" s="20" t="s">
         <v>1645</v>
       </c>
     </row>
     <row r="356" spans="5:7">
-      <c r="E356" s="12" t="s">
+      <c r="E356" s="13" t="s">
         <v>1646</v>
       </c>
-      <c r="F356" s="12" t="str">
+      <c r="F356" s="13" t="str">
         <f>菜单SAAS版!$E$123</f>
         <v>iam_menu-126</v>
       </c>
-      <c r="G356" s="19" t="s">
+      <c r="G356" s="20" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="357" s="10" customFormat="1" spans="5:7">
-      <c r="E357" s="10" t="s">
+    <row r="357" s="11" customFormat="1" spans="5:7">
+      <c r="E357" s="11" t="s">
         <v>1648</v>
       </c>
-      <c r="F357" s="10" t="str">
+      <c r="F357" s="11" t="str">
         <f>菜单SAAS版!$E$227</f>
         <v>iam_menu-244</v>
       </c>
-      <c r="G357" s="18" t="s">
+      <c r="G357" s="19" t="s">
         <v>1404</v>
       </c>
     </row>
@@ -25406,110 +25434,110 @@
       </c>
     </row>
     <row r="365" spans="1:7">
-      <c r="A365" s="11"/>
-      <c r="B365" s="11"/>
-      <c r="C365" s="11"/>
-      <c r="D365" s="11"/>
-      <c r="E365" s="11" t="s">
+      <c r="A365" s="12"/>
+      <c r="B365" s="12"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
+      <c r="E365" s="12" t="s">
         <v>1663</v>
       </c>
-      <c r="F365" s="11" t="str">
+      <c r="F365" s="12" t="str">
         <f>菜单SAAS版!$E$228</f>
         <v>iam_menu-245</v>
       </c>
-      <c r="G365" s="11" t="s">
+      <c r="G365" s="12" t="s">
         <v>1664</v>
       </c>
     </row>
     <row r="366" spans="1:7">
-      <c r="A366" s="11"/>
-      <c r="B366" s="11"/>
-      <c r="C366" s="11"/>
-      <c r="D366" s="11"/>
-      <c r="E366" s="11" t="s">
+      <c r="A366" s="12"/>
+      <c r="B366" s="12"/>
+      <c r="C366" s="12"/>
+      <c r="D366" s="12"/>
+      <c r="E366" s="12" t="s">
         <v>1665</v>
       </c>
-      <c r="F366" s="11" t="str">
+      <c r="F366" s="12" t="str">
         <f>菜单SAAS版!$E$228</f>
         <v>iam_menu-245</v>
       </c>
-      <c r="G366" s="11" t="s">
+      <c r="G366" s="12" t="s">
         <v>1666</v>
       </c>
     </row>
     <row r="367" spans="1:7">
-      <c r="A367" s="11"/>
-      <c r="B367" s="11"/>
-      <c r="C367" s="11"/>
-      <c r="D367" s="11"/>
-      <c r="E367" s="11" t="s">
+      <c r="A367" s="12"/>
+      <c r="B367" s="12"/>
+      <c r="C367" s="12"/>
+      <c r="D367" s="12"/>
+      <c r="E367" s="12" t="s">
         <v>1667</v>
       </c>
-      <c r="F367" s="11" t="str">
+      <c r="F367" s="12" t="str">
         <f>菜单SAAS版!$E$228</f>
         <v>iam_menu-245</v>
       </c>
-      <c r="G367" s="11" t="s">
+      <c r="G367" s="12" t="s">
         <v>1668</v>
       </c>
     </row>
     <row r="368" spans="1:7">
-      <c r="A368" s="11"/>
-      <c r="B368" s="11"/>
-      <c r="C368" s="11"/>
-      <c r="D368" s="11"/>
-      <c r="E368" s="11" t="s">
+      <c r="A368" s="12"/>
+      <c r="B368" s="12"/>
+      <c r="C368" s="12"/>
+      <c r="D368" s="12"/>
+      <c r="E368" s="12" t="s">
         <v>1669</v>
       </c>
-      <c r="F368" s="11" t="str">
+      <c r="F368" s="12" t="str">
         <f>菜单SAAS版!$E$229</f>
         <v>iam_menu-246</v>
       </c>
-      <c r="G368" s="11" t="s">
+      <c r="G368" s="12" t="s">
         <v>1664</v>
       </c>
     </row>
     <row r="369" spans="1:7">
-      <c r="A369" s="11"/>
-      <c r="B369" s="11"/>
-      <c r="C369" s="11"/>
-      <c r="D369" s="11"/>
-      <c r="E369" s="11" t="s">
+      <c r="A369" s="12"/>
+      <c r="B369" s="12"/>
+      <c r="C369" s="12"/>
+      <c r="D369" s="12"/>
+      <c r="E369" s="12" t="s">
         <v>1670</v>
       </c>
-      <c r="F369" s="11" t="str">
+      <c r="F369" s="12" t="str">
         <f>菜单SAAS版!$E$229</f>
         <v>iam_menu-246</v>
       </c>
-      <c r="G369" s="11" t="s">
+      <c r="G369" s="12" t="s">
         <v>1671</v>
       </c>
     </row>
     <row r="370" spans="1:7">
-      <c r="A370" s="11"/>
-      <c r="B370" s="11"/>
-      <c r="C370" s="11"/>
-      <c r="D370" s="11"/>
-      <c r="E370" s="11" t="s">
+      <c r="A370" s="12"/>
+      <c r="B370" s="12"/>
+      <c r="C370" s="12"/>
+      <c r="D370" s="12"/>
+      <c r="E370" s="12" t="s">
         <v>1672</v>
       </c>
-      <c r="F370" s="11" t="str">
+      <c r="F370" s="12" t="str">
         <f>菜单SAAS版!$E$229</f>
         <v>iam_menu-246</v>
       </c>
-      <c r="G370" s="11" t="s">
+      <c r="G370" s="12" t="s">
         <v>1673</v>
       </c>
     </row>
     <row r="371" spans="5:7">
-      <c r="E371" s="7" t="s">
+      <c r="E371" s="8" t="s">
         <v>1674</v>
       </c>
       <c r="F371" t="str">
         <f>菜单SAAS版!$E$80</f>
         <v>iam_menu-80</v>
       </c>
-      <c r="G371" s="7" t="s">
+      <c r="G371" s="8" t="s">
         <v>1675</v>
       </c>
     </row>
@@ -29053,7 +29081,7 @@
       </c>
     </row>
     <row r="14" spans="5:23">
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>1770</v>
       </c>
       <c r="F14" t="s">
@@ -31452,7 +31480,7 @@
       </c>
     </row>
     <row r="122" spans="5:10">
-      <c r="E122" s="8" t="s">
+      <c r="E122" s="9" t="s">
         <v>1889</v>
       </c>
       <c r="F122" t="str">
@@ -32574,7 +32602,7 @@
       </c>
     </row>
     <row r="173" spans="5:10">
-      <c r="E173" s="8" t="s">
+      <c r="E173" s="9" t="s">
         <v>1940</v>
       </c>
       <c r="F173" t="str">
@@ -32596,7 +32624,7 @@
       </c>
     </row>
     <row r="174" spans="5:10">
-      <c r="E174" s="8" t="s">
+      <c r="E174" s="9" t="s">
         <v>1942</v>
       </c>
       <c r="F174" t="str">
@@ -32618,7 +32646,7 @@
       </c>
     </row>
     <row r="175" spans="5:10">
-      <c r="E175" s="8" t="s">
+      <c r="E175" s="9" t="s">
         <v>1943</v>
       </c>
       <c r="F175" t="str">
@@ -32640,7 +32668,7 @@
       </c>
     </row>
     <row r="176" spans="5:10">
-      <c r="E176" s="8" t="s">
+      <c r="E176" s="9" t="s">
         <v>1944</v>
       </c>
       <c r="F176" t="str">
@@ -32662,7 +32690,7 @@
       </c>
     </row>
     <row r="177" spans="5:10">
-      <c r="E177" s="8" t="s">
+      <c r="E177" s="9" t="s">
         <v>1945</v>
       </c>
       <c r="F177" t="str">
@@ -32684,7 +32712,7 @@
       </c>
     </row>
     <row r="178" spans="5:10">
-      <c r="E178" s="8" t="s">
+      <c r="E178" s="9" t="s">
         <v>1946</v>
       </c>
       <c r="F178" t="str">
@@ -32706,7 +32734,7 @@
       </c>
     </row>
     <row r="179" spans="5:10">
-      <c r="E179" s="8" t="s">
+      <c r="E179" s="9" t="s">
         <v>1947</v>
       </c>
       <c r="F179" t="str">
@@ -33014,7 +33042,7 @@
       </c>
     </row>
     <row r="193" spans="5:10">
-      <c r="E193" s="8" t="s">
+      <c r="E193" s="9" t="s">
         <v>1961</v>
       </c>
       <c r="F193" t="str">
@@ -33036,7 +33064,7 @@
       </c>
     </row>
     <row r="194" spans="5:10">
-      <c r="E194" s="8" t="s">
+      <c r="E194" s="9" t="s">
         <v>1962</v>
       </c>
       <c r="F194" t="str">
@@ -33058,7 +33086,7 @@
       </c>
     </row>
     <row r="195" spans="5:10">
-      <c r="E195" s="8" t="s">
+      <c r="E195" s="9" t="s">
         <v>1963</v>
       </c>
       <c r="F195" t="str">
@@ -33080,7 +33108,7 @@
       </c>
     </row>
     <row r="196" spans="5:10">
-      <c r="E196" s="8" t="s">
+      <c r="E196" s="9" t="s">
         <v>1964</v>
       </c>
       <c r="F196" t="str">
@@ -33102,7 +33130,7 @@
       </c>
     </row>
     <row r="197" spans="5:10">
-      <c r="E197" s="8" t="s">
+      <c r="E197" s="9" t="s">
         <v>1965</v>
       </c>
       <c r="F197" t="str">
@@ -33146,7 +33174,7 @@
       </c>
     </row>
     <row r="199" spans="5:10">
-      <c r="E199" s="8" t="s">
+      <c r="E199" s="9" t="s">
         <v>1967</v>
       </c>
       <c r="F199" t="str">
@@ -33168,7 +33196,7 @@
       </c>
     </row>
     <row r="200" spans="5:10">
-      <c r="E200" s="8" t="s">
+      <c r="E200" s="9" t="s">
         <v>1968</v>
       </c>
       <c r="F200" t="str">
@@ -33190,7 +33218,7 @@
       </c>
     </row>
     <row r="201" spans="5:10">
-      <c r="E201" s="8" t="s">
+      <c r="E201" s="9" t="s">
         <v>1969</v>
       </c>
       <c r="F201" t="str">
@@ -33212,7 +33240,7 @@
       </c>
     </row>
     <row r="202" spans="5:10">
-      <c r="E202" s="8" t="s">
+      <c r="E202" s="9" t="s">
         <v>1970</v>
       </c>
       <c r="F202" t="str">
@@ -33234,7 +33262,7 @@
       </c>
     </row>
     <row r="203" spans="5:10">
-      <c r="E203" s="8" t="s">
+      <c r="E203" s="9" t="s">
         <v>1971</v>
       </c>
       <c r="F203" t="str">
@@ -33256,7 +33284,7 @@
       </c>
     </row>
     <row r="204" spans="5:10">
-      <c r="E204" s="8" t="s">
+      <c r="E204" s="9" t="s">
         <v>1972</v>
       </c>
       <c r="F204" t="str">
@@ -33278,7 +33306,7 @@
       </c>
     </row>
     <row r="205" spans="5:10">
-      <c r="E205" s="8" t="s">
+      <c r="E205" s="9" t="s">
         <v>1973</v>
       </c>
       <c r="F205" t="str">
@@ -33959,253 +33987,253 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="236" s="9" customFormat="1" spans="5:10">
-      <c r="E236" s="9" t="s">
+    <row r="236" s="10" customFormat="1" spans="5:10">
+      <c r="E236" s="10" t="s">
         <v>2004</v>
       </c>
-      <c r="F236" s="9" t="str">
+      <c r="F236" s="10" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G236" s="9" t="str">
+      <c r="G236" s="10" t="str">
         <f>菜单SAAS版!$E$219</f>
         <v>iam_menu-236</v>
       </c>
-      <c r="H236" s="9" t="s">
+      <c r="H236" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I236" s="9" t="s">
+      <c r="I236" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J236" s="9" t="s">
+      <c r="J236" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="237" s="9" customFormat="1" spans="5:10">
-      <c r="E237" s="9" t="s">
+    <row r="237" s="10" customFormat="1" spans="5:10">
+      <c r="E237" s="10" t="s">
         <v>2005</v>
       </c>
-      <c r="F237" s="9" t="str">
+      <c r="F237" s="10" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G237" s="9" t="str">
+      <c r="G237" s="10" t="str">
         <f>菜单SAAS版!$E$219</f>
         <v>iam_menu-236</v>
       </c>
-      <c r="H237" s="9" t="s">
+      <c r="H237" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I237" s="9" t="s">
+      <c r="I237" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J237" s="9" t="s">
+      <c r="J237" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="238" s="9" customFormat="1" spans="5:10">
-      <c r="E238" s="9" t="s">
+    <row r="238" s="10" customFormat="1" spans="5:10">
+      <c r="E238" s="10" t="s">
         <v>2006</v>
       </c>
-      <c r="F238" s="9" t="str">
+      <c r="F238" s="10" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G238" s="9" t="str">
+      <c r="G238" s="10" t="str">
         <f>菜单SAAS版!$E$220</f>
         <v>iam_menu-237</v>
       </c>
-      <c r="H238" s="9" t="s">
+      <c r="H238" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I238" s="9" t="s">
+      <c r="I238" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J238" s="9" t="s">
+      <c r="J238" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="239" s="9" customFormat="1" spans="5:10">
-      <c r="E239" s="9" t="s">
+    <row r="239" s="10" customFormat="1" spans="5:10">
+      <c r="E239" s="10" t="s">
         <v>2007</v>
       </c>
-      <c r="F239" s="9" t="str">
+      <c r="F239" s="10" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G239" s="9" t="str">
+      <c r="G239" s="10" t="str">
         <f>菜单SAAS版!$E$220</f>
         <v>iam_menu-237</v>
       </c>
-      <c r="H239" s="9" t="s">
+      <c r="H239" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I239" s="9" t="s">
+      <c r="I239" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J239" s="9" t="s">
+      <c r="J239" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="240" s="9" customFormat="1" spans="5:10">
-      <c r="E240" s="9" t="s">
+    <row r="240" s="10" customFormat="1" spans="5:10">
+      <c r="E240" s="10" t="s">
         <v>2008</v>
       </c>
-      <c r="F240" s="9" t="str">
+      <c r="F240" s="10" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G240" s="9" t="str">
+      <c r="G240" s="10" t="str">
         <f>菜单SAAS版!$E$221</f>
         <v>iam_menu-238</v>
       </c>
-      <c r="H240" s="9" t="s">
+      <c r="H240" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I240" s="9" t="s">
+      <c r="I240" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J240" s="9" t="s">
+      <c r="J240" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="241" s="9" customFormat="1" spans="5:10">
-      <c r="E241" s="9" t="s">
+    <row r="241" s="10" customFormat="1" spans="5:10">
+      <c r="E241" s="10" t="s">
         <v>2009</v>
       </c>
-      <c r="F241" s="9" t="str">
+      <c r="F241" s="10" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G241" s="9" t="str">
+      <c r="G241" s="10" t="str">
         <f>菜单SAAS版!$E$221</f>
         <v>iam_menu-238</v>
       </c>
-      <c r="H241" s="9" t="s">
+      <c r="H241" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I241" s="9" t="s">
+      <c r="I241" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J241" s="9" t="s">
+      <c r="J241" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="242" s="9" customFormat="1" spans="5:10">
-      <c r="E242" s="9" t="s">
+    <row r="242" s="10" customFormat="1" spans="5:10">
+      <c r="E242" s="10" t="s">
         <v>2010</v>
       </c>
-      <c r="F242" s="9" t="str">
+      <c r="F242" s="10" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G242" s="9" t="str">
+      <c r="G242" s="10" t="str">
         <f>菜单SAAS版!$E$222</f>
         <v>iam_menu-239</v>
       </c>
-      <c r="H242" s="9" t="s">
+      <c r="H242" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I242" s="9" t="s">
+      <c r="I242" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J242" s="9" t="s">
+      <c r="J242" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="243" s="9" customFormat="1" spans="5:10">
-      <c r="E243" s="9" t="s">
+    <row r="243" s="10" customFormat="1" spans="5:10">
+      <c r="E243" s="10" t="s">
         <v>2011</v>
       </c>
-      <c r="F243" s="9" t="str">
+      <c r="F243" s="10" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G243" s="9" t="str">
+      <c r="G243" s="10" t="str">
         <f>菜单SAAS版!$E$222</f>
         <v>iam_menu-239</v>
       </c>
-      <c r="H243" s="9" t="s">
+      <c r="H243" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I243" s="9" t="s">
+      <c r="I243" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J243" s="9" t="s">
+      <c r="J243" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="244" s="9" customFormat="1" spans="5:10">
-      <c r="E244" s="9" t="s">
+    <row r="244" s="10" customFormat="1" spans="5:10">
+      <c r="E244" s="10" t="s">
         <v>2012</v>
       </c>
-      <c r="F244" s="9" t="str">
+      <c r="F244" s="10" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G244" s="9" t="str">
+      <c r="G244" s="10" t="str">
         <f>菜单SAAS版!$E$223</f>
         <v>iam_menu-240</v>
       </c>
-      <c r="H244" s="9" t="s">
+      <c r="H244" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I244" s="9" t="s">
+      <c r="I244" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J244" s="9" t="s">
+      <c r="J244" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="245" s="9" customFormat="1" spans="5:10">
-      <c r="E245" s="9" t="s">
+    <row r="245" s="10" customFormat="1" spans="5:10">
+      <c r="E245" s="10" t="s">
         <v>2013</v>
       </c>
-      <c r="F245" s="9" t="str">
+      <c r="F245" s="10" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G245" s="9" t="str">
+      <c r="G245" s="10" t="str">
         <f>菜单SAAS版!$E$223</f>
         <v>iam_menu-240</v>
       </c>
-      <c r="H245" s="9" t="s">
+      <c r="H245" s="10" t="s">
         <v>1782</v>
       </c>
-      <c r="I245" s="9" t="s">
+      <c r="I245" s="10" t="s">
         <v>1783</v>
       </c>
-      <c r="J245" s="9" t="s">
+      <c r="J245" s="10" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="246" s="10" customFormat="1" spans="5:10">
-      <c r="E246" s="10" t="s">
+    <row r="246" s="11" customFormat="1" spans="5:10">
+      <c r="E246" s="11" t="s">
         <v>2014</v>
       </c>
-      <c r="F246" s="10" t="str">
+      <c r="F246" s="11" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G246" s="10" t="str">
+      <c r="G246" s="11" t="str">
         <f>菜单SAAS版!$E$227</f>
         <v>iam_menu-244</v>
       </c>
-      <c r="H246" s="10" t="s">
+      <c r="H246" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="I246" s="10" t="s">
+      <c r="I246" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="J246" s="10" t="s">
+      <c r="J246" s="11" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="247" spans="5:10">
-      <c r="E247" s="10" t="s">
+      <c r="E247" s="11" t="s">
         <v>2015</v>
       </c>
-      <c r="F247" s="9" t="str">
+      <c r="F247" s="10" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
@@ -34213,21 +34241,21 @@
         <f>菜单SAAS版!$E$214</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="H247" s="10" t="s">
+      <c r="H247" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="I247" s="10" t="s">
+      <c r="I247" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="J247" s="10" t="s">
+      <c r="J247" s="11" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="248" spans="5:10">
-      <c r="E248" s="10" t="s">
+      <c r="E248" s="11" t="s">
         <v>2016</v>
       </c>
-      <c r="F248" s="10" t="str">
+      <c r="F248" s="11" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
@@ -34235,21 +34263,21 @@
         <f>菜单SAAS版!$E$214</f>
         <v>iam_menu-231</v>
       </c>
-      <c r="H248" s="10" t="s">
+      <c r="H248" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="I248" s="10" t="s">
+      <c r="I248" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="J248" s="10" t="s">
+      <c r="J248" s="11" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="249" spans="5:10">
-      <c r="E249" s="10" t="s">
+      <c r="E249" s="11" t="s">
         <v>2017</v>
       </c>
-      <c r="F249" s="9" t="str">
+      <c r="F249" s="10" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
@@ -34257,21 +34285,21 @@
         <f>菜单SAAS版!$E$215</f>
         <v>iam_menu-232</v>
       </c>
-      <c r="H249" s="10" t="s">
+      <c r="H249" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="I249" s="10" t="s">
+      <c r="I249" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="J249" s="10" t="s">
+      <c r="J249" s="11" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="250" spans="5:10">
-      <c r="E250" s="10" t="s">
+      <c r="E250" s="11" t="s">
         <v>2018</v>
       </c>
-      <c r="F250" s="10" t="str">
+      <c r="F250" s="11" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
@@ -34279,21 +34307,21 @@
         <f>菜单SAAS版!$E$215</f>
         <v>iam_menu-232</v>
       </c>
-      <c r="H250" s="10" t="s">
+      <c r="H250" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="I250" s="10" t="s">
+      <c r="I250" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="J250" s="10" t="s">
+      <c r="J250" s="11" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="251" spans="5:10">
-      <c r="E251" s="10" t="s">
+      <c r="E251" s="11" t="s">
         <v>2019</v>
       </c>
-      <c r="F251" s="9" t="str">
+      <c r="F251" s="10" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
@@ -34301,21 +34329,21 @@
         <f>菜单SAAS版!$E$216</f>
         <v>iam_menu-233</v>
       </c>
-      <c r="H251" s="10" t="s">
+      <c r="H251" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="I251" s="10" t="s">
+      <c r="I251" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="J251" s="10" t="s">
+      <c r="J251" s="11" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="252" spans="5:10">
-      <c r="E252" s="10" t="s">
+      <c r="E252" s="11" t="s">
         <v>2020</v>
       </c>
-      <c r="F252" s="10" t="str">
+      <c r="F252" s="11" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
@@ -34323,21 +34351,21 @@
         <f>菜单SAAS版!$E$216</f>
         <v>iam_menu-233</v>
       </c>
-      <c r="H252" s="10" t="s">
+      <c r="H252" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="I252" s="10" t="s">
+      <c r="I252" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="J252" s="10" t="s">
+      <c r="J252" s="11" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="253" spans="5:10">
-      <c r="E253" s="10" t="s">
+      <c r="E253" s="11" t="s">
         <v>2021</v>
       </c>
-      <c r="F253" s="9" t="str">
+      <c r="F253" s="10" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
@@ -34345,21 +34373,21 @@
         <f>菜单SAAS版!$E$217</f>
         <v>iam_menu-234</v>
       </c>
-      <c r="H253" s="10" t="s">
+      <c r="H253" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="I253" s="10" t="s">
+      <c r="I253" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="J253" s="10" t="s">
+      <c r="J253" s="11" t="s">
         <v>1784</v>
       </c>
     </row>
     <row r="254" spans="5:10">
-      <c r="E254" s="10" t="s">
+      <c r="E254" s="11" t="s">
         <v>2022</v>
       </c>
-      <c r="F254" s="10" t="str">
+      <c r="F254" s="11" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
@@ -34367,145 +34395,145 @@
         <f>菜单SAAS版!$E$217</f>
         <v>iam_menu-234</v>
       </c>
-      <c r="H254" s="10" t="s">
+      <c r="H254" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="I254" s="10" t="s">
+      <c r="I254" s="11" t="s">
         <v>1783</v>
       </c>
-      <c r="J254" s="10" t="s">
+      <c r="J254" s="11" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="255" s="11" customFormat="1" spans="5:10">
-      <c r="E255" s="11" t="s">
+    <row r="255" s="12" customFormat="1" spans="5:10">
+      <c r="E255" s="12" t="s">
         <v>2023</v>
       </c>
-      <c r="F255" s="11" t="str">
+      <c r="F255" s="12" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G255" s="11" t="str">
+      <c r="G255" s="12" t="str">
         <f>菜单SAAS版!$E$228</f>
         <v>iam_menu-245</v>
       </c>
-      <c r="H255" s="11" t="s">
+      <c r="H255" s="12" t="s">
         <v>1782</v>
       </c>
-      <c r="I255" s="11" t="s">
+      <c r="I255" s="12" t="s">
         <v>1783</v>
       </c>
-      <c r="J255" s="11" t="s">
+      <c r="J255" s="12" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="256" s="11" customFormat="1" spans="5:10">
-      <c r="E256" s="11" t="s">
+    <row r="256" s="12" customFormat="1" spans="5:10">
+      <c r="E256" s="12" t="s">
         <v>2024</v>
       </c>
-      <c r="F256" s="11" t="str">
+      <c r="F256" s="12" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G256" s="11" t="str">
+      <c r="G256" s="12" t="str">
         <f>菜单SAAS版!$E$228</f>
         <v>iam_menu-245</v>
       </c>
-      <c r="H256" s="11" t="s">
+      <c r="H256" s="12" t="s">
         <v>1782</v>
       </c>
-      <c r="I256" s="11" t="s">
+      <c r="I256" s="12" t="s">
         <v>1783</v>
       </c>
-      <c r="J256" s="11" t="s">
+      <c r="J256" s="12" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="257" s="11" customFormat="1" spans="5:10">
-      <c r="E257" s="11" t="s">
+    <row r="257" s="12" customFormat="1" spans="5:10">
+      <c r="E257" s="12" t="s">
         <v>2025</v>
       </c>
-      <c r="F257" s="11" t="str">
+      <c r="F257" s="12" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
-      <c r="G257" s="11" t="str">
+      <c r="G257" s="12" t="str">
         <f>菜单SAAS版!$E$228</f>
         <v>iam_menu-245</v>
       </c>
-      <c r="H257" s="11" t="s">
+      <c r="H257" s="12" t="s">
         <v>1782</v>
       </c>
-      <c r="I257" s="11" t="s">
+      <c r="I257" s="12" t="s">
         <v>1783</v>
       </c>
-      <c r="J257" s="11" t="s">
+      <c r="J257" s="12" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="258" s="11" customFormat="1" spans="5:10">
-      <c r="E258" s="11" t="s">
+    <row r="258" s="12" customFormat="1" spans="5:10">
+      <c r="E258" s="12" t="s">
         <v>2026</v>
       </c>
-      <c r="F258" s="11" t="str">
+      <c r="F258" s="12" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G258" s="11" t="str">
+      <c r="G258" s="12" t="str">
         <f>菜单SAAS版!$E$229</f>
         <v>iam_menu-246</v>
       </c>
-      <c r="H258" s="11" t="s">
+      <c r="H258" s="12" t="s">
         <v>1782</v>
       </c>
-      <c r="I258" s="11" t="s">
+      <c r="I258" s="12" t="s">
         <v>1783</v>
       </c>
-      <c r="J258" s="11" t="s">
+      <c r="J258" s="12" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="259" s="11" customFormat="1" spans="5:10">
-      <c r="E259" s="11" t="s">
+    <row r="259" s="12" customFormat="1" spans="5:10">
+      <c r="E259" s="12" t="s">
         <v>2027</v>
       </c>
-      <c r="F259" s="11" t="str">
+      <c r="F259" s="12" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G259" s="11" t="str">
+      <c r="G259" s="12" t="str">
         <f>菜单SAAS版!$E$229</f>
         <v>iam_menu-246</v>
       </c>
-      <c r="H259" s="11" t="s">
+      <c r="H259" s="12" t="s">
         <v>1782</v>
       </c>
-      <c r="I259" s="11" t="s">
+      <c r="I259" s="12" t="s">
         <v>1783</v>
       </c>
-      <c r="J259" s="11" t="s">
+      <c r="J259" s="12" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="260" s="11" customFormat="1" spans="5:10">
-      <c r="E260" s="11" t="s">
+    <row r="260" s="12" customFormat="1" spans="5:10">
+      <c r="E260" s="12" t="s">
         <v>2028</v>
       </c>
-      <c r="F260" s="11" t="str">
+      <c r="F260" s="12" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
-      <c r="G260" s="11" t="str">
+      <c r="G260" s="12" t="str">
         <f>菜单SAAS版!$E$229</f>
         <v>iam_menu-246</v>
       </c>
-      <c r="H260" s="11" t="s">
+      <c r="H260" s="12" t="s">
         <v>1782</v>
       </c>
-      <c r="I260" s="11" t="s">
+      <c r="I260" s="12" t="s">
         <v>1783</v>
       </c>
-      <c r="J260" s="11" t="s">
+      <c r="J260" s="12" t="s">
         <v>1784</v>
       </c>
     </row>
@@ -34924,7 +34952,7 @@
       </c>
     </row>
     <row r="18" spans="5:15">
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>1690</v>
       </c>
       <c r="F18" t="s">
@@ -34956,10 +34984,10 @@
       </c>
     </row>
     <row r="19" spans="5:15">
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>2066</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>2067</v>
       </c>
       <c r="G19" t="s">
@@ -34985,7 +35013,7 @@
       </c>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="7"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
@@ -35292,10 +35320,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -35303,8 +35331,8 @@
     <col min="3" max="3" width="18.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="23.4222222222222" customWidth="1"/>
-    <col min="6" max="6" width="25.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="20.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="25.1111111111111" customWidth="1"/>
     <col min="9" max="9" width="23.7777777777778" customWidth="1"/>
     <col min="10" max="10" width="34.8888888888889" customWidth="1"/>
@@ -35339,7 +35367,7 @@
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" customFormat="1"/>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -35353,74 +35381,45 @@
         <v>2070</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="3" t="s">
         <v>2071</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" s="5" t="s">
         <v>2073</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" s="5" t="s">
         <v>2074</v>
       </c>
-      <c r="J7" t="s">
+    </row>
+    <row r="8" customFormat="1" spans="4:8">
+      <c r="D8" s="1"/>
+      <c r="E8" s="6" t="s">
         <v>2075</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="4:10">
-      <c r="D8" s="1"/>
-      <c r="E8" s="5" t="s">
+      <c r="F8" t="s">
         <v>2076</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>2077</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2078</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2079</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="4:10">
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" t="str">
+        <f>菜单SAAS版!E10</f>
+        <v>iam_menu-10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="4:4">
       <c r="D9" s="1"/>
-      <c r="E9" s="5" t="s">
-        <v>2081</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>2082</v>
-      </c>
-      <c r="G9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2079</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2080</v>
-      </c>
     </row>
     <row r="10" customFormat="1" spans="4:7">
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" customFormat="1"/>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -35428,53 +35427,125 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2081</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J12" t="s">
         <v>2083</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="13" spans="5:10">
+      <c r="E13" s="6" t="s">
         <v>2084</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>2085</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" t="s">
         <v>2086</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="I13" t="s">
         <v>2087</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J13" t="s">
         <v>2088</v>
       </c>
     </row>
-    <row r="13" spans="5:8">
-      <c r="E13" s="5" t="s">
+    <row r="14" spans="5:10">
+      <c r="E14" s="6" t="s">
         <v>2089</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F14" s="8" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2087</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>2093</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>2094</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" s="6" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F20" t="str">
         <f>E8</f>
         <v>fd_user_guide-1</v>
       </c>
-      <c r="G13" t="str">
-        <f>菜单SAAS版!E10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H13">
+      <c r="G20" t="str">
+        <f>E13</f>
+        <v>fd_user_guide_step-1</v>
+      </c>
+      <c r="H20">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="5:8">
-      <c r="E14" s="5" t="s">
-        <v>2090</v>
-      </c>
-      <c r="F14" t="str">
-        <f>菜单SAAS版!E10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="G14" t="str">
-        <f>E9</f>
-        <v>fd_user_guide-2</v>
-      </c>
-      <c r="H14">
+    <row r="21" spans="5:8">
+      <c r="E21" s="6" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F21" t="str">
+        <f>E8</f>
+        <v>fd_user_guide-1</v>
+      </c>
+      <c r="G21" t="str">
+        <f>E14</f>
+        <v>fd_user_guide_step-2</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -8152,8 +8152,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -8318,13 +8318,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -8337,53 +8330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8398,6 +8345,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -8406,6 +8383,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8430,6 +8415,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -8437,7 +8430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8445,7 +8438,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8461,6 +8454,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8548,7 +8548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8560,7 +8566,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8572,163 +8716,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8836,6 +8836,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -8850,17 +8874,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8882,48 +8924,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -8935,148 +8935,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9827,8 +9827,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y228"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F137" workbookViewId="0">
+      <selection activeCell="K229" sqref="K229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -21120,7 +21120,7 @@
         <v>iam_menu-121</v>
       </c>
       <c r="L228" t="s">
-        <v>92</v>
+        <v>782</v>
       </c>
       <c r="M228">
         <v>10</v>
@@ -25642,7 +25642,7 @@
   <sheetPr/>
   <dimension ref="A1:O160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+    <sheetView topLeftCell="A139" workbookViewId="0">
       <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/choerodon-iam-menu-user-role-label.xlsx
@@ -16,7 +16,7 @@
     <sheet name="用户指引" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">菜单SAAS版!$A$7:$X$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">菜单SAAS版!$A$7:$X$232</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5844" uniqueCount="1919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5853" uniqueCount="1919">
   <si>
     <r>
       <rPr>
@@ -3141,499 +3141,499 @@
     <t>choerodon.code.project.operation.saga-instance</t>
   </si>
   <si>
+    <t>/asgard/project-saga-instance</t>
+  </si>
+  <si>
+    <t>iam_menu-120</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.operation.saga-instance.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-121</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting</t>
+  </si>
+  <si>
+    <t>iam_menu-122</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.general-setting</t>
+  </si>
+  <si>
+    <t>基本信息</t>
+  </si>
+  <si>
+    <t>/iam/project-setting/info</t>
+  </si>
+  <si>
+    <t>iam_menu-123</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.general-setting.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-124</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.general-setting.ps.disable</t>
+  </si>
+  <si>
+    <t>停用项目</t>
+  </si>
+  <si>
+    <t>iam_menu-125</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.general-setting.ps.info</t>
+  </si>
+  <si>
+    <t>项目信息</t>
+  </si>
+  <si>
+    <t>iam_menu-126</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.general-setting.ps.update</t>
+  </si>
+  <si>
+    <t>修改项目信息</t>
+  </si>
+  <si>
+    <t>iam_menu-127</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.setting-notify</t>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>notifications_active-o</t>
+  </si>
+  <si>
+    <t>/notify/project-notify</t>
+  </si>
+  <si>
+    <t>iam_menu-128</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.setting-notify.ps.agile</t>
+  </si>
+  <si>
+    <t>敏捷消息</t>
+  </si>
+  <si>
+    <t>iam_menu-129</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.setting-notify.ps.agile-save</t>
+  </si>
+  <si>
+    <t>保存敏捷消息</t>
+  </si>
+  <si>
+    <t>iam_menu-130</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.setting-notify.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-131</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.setting-notify.ps.devops</t>
+  </si>
+  <si>
+    <t>DevOps消息</t>
+  </si>
+  <si>
+    <t>iam_menu-132</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.setting-notify.ps.devops-save</t>
+  </si>
+  <si>
+    <t>保存Devops消息</t>
+  </si>
+  <si>
+    <t>iam_menu-133</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.setting-notify.ps.resourcdelete-save</t>
+  </si>
+  <si>
+    <t>保存资源删除验证</t>
+  </si>
+  <si>
+    <t>iam_menu-134</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.setting-notify.ps.resource</t>
+  </si>
+  <si>
+    <t>资源删除验证</t>
+  </si>
+  <si>
+    <t>iam_menu-135</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.setting-notify.ps.webhook</t>
+  </si>
+  <si>
+    <t>Webhook配置</t>
+  </si>
+  <si>
+    <t>iam_menu-136</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.setting-notify.ps.webhook.create</t>
+  </si>
+  <si>
+    <t>创建WebHooks</t>
+  </si>
+  <si>
+    <t>iam_menu-137</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.setting.setting-notify.ps.webhook.logs</t>
+  </si>
+  <si>
+    <t>Webhook执行记录</t>
+  </si>
+  <si>
+    <t>iam_menu-138</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.hzero.manager</t>
+  </si>
+  <si>
+    <t>HZERO</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>iam_menu-139</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.hzero.manager.api</t>
+  </si>
+  <si>
+    <t>API统计</t>
+  </si>
+  <si>
+    <t>APITJ</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>/iam/hzero/api</t>
+  </si>
+  <si>
+    <t>iam_menu-140</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.hzero.manager.api-test</t>
+  </si>
+  <si>
+    <t>接口</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>APIS</t>
+  </si>
+  <si>
+    <t>/iam/hzero/api-test</t>
+  </si>
+  <si>
+    <t>iam_menu-141</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.hzero.manager.api-test.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-142</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.hzero.manager.api.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-143</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.hzero.manager.instances</t>
+  </si>
+  <si>
+    <t>微服务实例</t>
+  </si>
+  <si>
+    <t>WFWSL</t>
+  </si>
+  <si>
+    <t>micro</t>
+  </si>
+  <si>
+    <t>/iam/hzero/instance</t>
+  </si>
+  <si>
+    <t>iam_menu-144</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.hzero.manager.instances.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-145</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.hzero.manager.menu</t>
+  </si>
+  <si>
+    <t>菜单管理</t>
+  </si>
+  <si>
+    <t>CDGL</t>
+  </si>
+  <si>
+    <t>/iam/hzero/menu</t>
+  </si>
+  <si>
+    <t>iam_menu-146</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.hzero.manager.menu.ps.default</t>
+  </si>
+  <si>
+    <t>菜单管理默认权限集</t>
+  </si>
+  <si>
+    <t>iam_menu-147</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.hzero.manager.role</t>
+  </si>
+  <si>
+    <t>/iam/hzero/role</t>
+  </si>
+  <si>
+    <t>iam_menu-148</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.hzero.manager.role.ps.default</t>
+  </si>
+  <si>
+    <t>角色管理默认权限集</t>
+  </si>
+  <si>
+    <t>iam_menu-149</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.hzero.manager.user</t>
+  </si>
+  <si>
+    <t>/iam/hzero/user</t>
+  </si>
+  <si>
+    <t>iam_menu-150</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.hzero.manager.user.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-151</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager</t>
+  </si>
+  <si>
+    <t>iam_menu-152</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.announcement</t>
+  </si>
+  <si>
+    <t>系统公告</t>
+  </si>
+  <si>
+    <t>XTGG</t>
+  </si>
+  <si>
+    <t>volume_up-o</t>
+  </si>
+  <si>
+    <t>/notify/announcement</t>
+  </si>
+  <si>
+    <t>iam_menu-153</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.announcement.ps.add</t>
+  </si>
+  <si>
+    <t>添加公告</t>
+  </si>
+  <si>
+    <t>iam_menu-154</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.announcement.ps.default</t>
+  </si>
+  <si>
+    <t>系统公告默认权限集</t>
+  </si>
+  <si>
+    <t>iam_menu-155</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.announcement.ps.delete</t>
+  </si>
+  <si>
+    <t>删除系统公告</t>
+  </si>
+  <si>
+    <t>iam_menu-156</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.announcement.ps.update</t>
+  </si>
+  <si>
+    <t>修改系统公告</t>
+  </si>
+  <si>
+    <t>iam_menu-157</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.message-log</t>
+  </si>
+  <si>
+    <t>消息日志</t>
+  </si>
+  <si>
+    <t>XXRZ</t>
+  </si>
+  <si>
+    <t>speaker_notes-o</t>
+  </si>
+  <si>
+    <t>/notify/msg-log</t>
+  </si>
+  <si>
+    <t>iam_menu-158</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.message-log.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-159</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.message-log.ps.email</t>
+  </si>
+  <si>
+    <t>邮件日志</t>
+  </si>
+  <si>
+    <t>iam_menu-160</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.message-log.ps.retry-email</t>
+  </si>
+  <si>
+    <t>重试邮件</t>
+  </si>
+  <si>
+    <t>iam_menu-161</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.message-log.ps.webhook</t>
+  </si>
+  <si>
+    <t>webhook日志</t>
+  </si>
+  <si>
+    <t>iam_menu-175</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.platform-overview</t>
+  </si>
+  <si>
+    <t>平台概览</t>
+  </si>
+  <si>
+    <t>PTGL</t>
+  </si>
+  <si>
+    <t>/iam/platform-overview</t>
+  </si>
+  <si>
+    <t>iam_menu-176</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.platform-overview.ps.default</t>
+  </si>
+  <si>
+    <t>平台概览默认权限集</t>
+  </si>
+  <si>
+    <t>iam_menu-177</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.root-user</t>
+  </si>
+  <si>
+    <t>Root用户</t>
+  </si>
+  <si>
+    <t>ROOTYH</t>
+  </si>
+  <si>
+    <t>/iam/root-user</t>
+  </si>
+  <si>
+    <t>iam_menu-178</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.root-user.ps.add</t>
+  </si>
+  <si>
+    <t>添加root用户</t>
+  </si>
+  <si>
+    <t>iam_menu-179</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.root-user.ps.choerodon.code.site.manager.root-user.ps.add</t>
+  </si>
+  <si>
+    <t>iam_menu-180</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.root-user.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-181</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.root-user.ps.delete</t>
+  </si>
+  <si>
+    <t>删除root用户</t>
+  </si>
+  <si>
+    <t>iam_menu-182</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.saga-manager</t>
+  </si>
+  <si>
     <t>事务管理</t>
-  </si>
-  <si>
-    <t>/asgard/project-saga-instance</t>
-  </si>
-  <si>
-    <t>iam_menu-120</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.operation.saga-instance.ps.default</t>
-  </si>
-  <si>
-    <t>iam_menu-121</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting</t>
-  </si>
-  <si>
-    <t>iam_menu-122</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.general-setting</t>
-  </si>
-  <si>
-    <t>基本信息</t>
-  </si>
-  <si>
-    <t>/iam/project-setting/info</t>
-  </si>
-  <si>
-    <t>iam_menu-123</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.general-setting.ps.default</t>
-  </si>
-  <si>
-    <t>iam_menu-124</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.general-setting.ps.disable</t>
-  </si>
-  <si>
-    <t>停用项目</t>
-  </si>
-  <si>
-    <t>iam_menu-125</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.general-setting.ps.info</t>
-  </si>
-  <si>
-    <t>项目信息</t>
-  </si>
-  <si>
-    <t>iam_menu-126</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.general-setting.ps.update</t>
-  </si>
-  <si>
-    <t>修改项目信息</t>
-  </si>
-  <si>
-    <t>iam_menu-127</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.setting-notify</t>
-  </si>
-  <si>
-    <t>通知</t>
-  </si>
-  <si>
-    <t>TZ</t>
-  </si>
-  <si>
-    <t>notifications_active-o</t>
-  </si>
-  <si>
-    <t>/notify/project-notify</t>
-  </si>
-  <si>
-    <t>iam_menu-128</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.setting-notify.ps.agile</t>
-  </si>
-  <si>
-    <t>敏捷消息</t>
-  </si>
-  <si>
-    <t>iam_menu-129</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.setting-notify.ps.agile-save</t>
-  </si>
-  <si>
-    <t>保存敏捷消息</t>
-  </si>
-  <si>
-    <t>iam_menu-130</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.setting-notify.ps.default</t>
-  </si>
-  <si>
-    <t>iam_menu-131</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.setting-notify.ps.devops</t>
-  </si>
-  <si>
-    <t>DevOps消息</t>
-  </si>
-  <si>
-    <t>iam_menu-132</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.setting-notify.ps.devops-save</t>
-  </si>
-  <si>
-    <t>保存Devops消息</t>
-  </si>
-  <si>
-    <t>iam_menu-133</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.setting-notify.ps.resourcdelete-save</t>
-  </si>
-  <si>
-    <t>保存资源删除验证</t>
-  </si>
-  <si>
-    <t>iam_menu-134</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.setting-notify.ps.resource</t>
-  </si>
-  <si>
-    <t>资源删除验证</t>
-  </si>
-  <si>
-    <t>iam_menu-135</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.setting-notify.ps.webhook</t>
-  </si>
-  <si>
-    <t>Webhook配置</t>
-  </si>
-  <si>
-    <t>iam_menu-136</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.setting-notify.ps.webhook.create</t>
-  </si>
-  <si>
-    <t>创建WebHooks</t>
-  </si>
-  <si>
-    <t>iam_menu-137</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.setting.setting-notify.ps.webhook.logs</t>
-  </si>
-  <si>
-    <t>Webhook执行记录</t>
-  </si>
-  <si>
-    <t>iam_menu-138</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager</t>
-  </si>
-  <si>
-    <t>HZERO</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>iam_menu-139</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.api</t>
-  </si>
-  <si>
-    <t>API统计</t>
-  </si>
-  <si>
-    <t>APITJ</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>/iam/hzero/api</t>
-  </si>
-  <si>
-    <t>iam_menu-140</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.api-test</t>
-  </si>
-  <si>
-    <t>接口</t>
-  </si>
-  <si>
-    <t>JK</t>
-  </si>
-  <si>
-    <t>APIS</t>
-  </si>
-  <si>
-    <t>/iam/hzero/api-test</t>
-  </si>
-  <si>
-    <t>iam_menu-141</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.api-test.ps.default</t>
-  </si>
-  <si>
-    <t>iam_menu-142</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.api.ps.default</t>
-  </si>
-  <si>
-    <t>iam_menu-143</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.instances</t>
-  </si>
-  <si>
-    <t>微服务实例</t>
-  </si>
-  <si>
-    <t>WFWSL</t>
-  </si>
-  <si>
-    <t>micro</t>
-  </si>
-  <si>
-    <t>/iam/hzero/instance</t>
-  </si>
-  <si>
-    <t>iam_menu-144</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.instances.ps.default</t>
-  </si>
-  <si>
-    <t>iam_menu-145</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.menu</t>
-  </si>
-  <si>
-    <t>菜单管理</t>
-  </si>
-  <si>
-    <t>CDGL</t>
-  </si>
-  <si>
-    <t>/iam/hzero/menu</t>
-  </si>
-  <si>
-    <t>iam_menu-146</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.menu.ps.default</t>
-  </si>
-  <si>
-    <t>菜单管理默认权限集</t>
-  </si>
-  <si>
-    <t>iam_menu-147</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.role</t>
-  </si>
-  <si>
-    <t>/iam/hzero/role</t>
-  </si>
-  <si>
-    <t>iam_menu-148</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.role.ps.default</t>
-  </si>
-  <si>
-    <t>角色管理默认权限集</t>
-  </si>
-  <si>
-    <t>iam_menu-149</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.user</t>
-  </si>
-  <si>
-    <t>/iam/hzero/user</t>
-  </si>
-  <si>
-    <t>iam_menu-150</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.hzero.manager.user.ps.default</t>
-  </si>
-  <si>
-    <t>iam_menu-151</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager</t>
-  </si>
-  <si>
-    <t>iam_menu-152</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.announcement</t>
-  </si>
-  <si>
-    <t>系统公告</t>
-  </si>
-  <si>
-    <t>XTGG</t>
-  </si>
-  <si>
-    <t>volume_up-o</t>
-  </si>
-  <si>
-    <t>/notify/announcement</t>
-  </si>
-  <si>
-    <t>iam_menu-153</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.announcement.ps.add</t>
-  </si>
-  <si>
-    <t>添加公告</t>
-  </si>
-  <si>
-    <t>iam_menu-154</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.announcement.ps.default</t>
-  </si>
-  <si>
-    <t>系统公告默认权限集</t>
-  </si>
-  <si>
-    <t>iam_menu-155</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.announcement.ps.delete</t>
-  </si>
-  <si>
-    <t>删除系统公告</t>
-  </si>
-  <si>
-    <t>iam_menu-156</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.announcement.ps.update</t>
-  </si>
-  <si>
-    <t>修改系统公告</t>
-  </si>
-  <si>
-    <t>iam_menu-157</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.message-log</t>
-  </si>
-  <si>
-    <t>消息日志</t>
-  </si>
-  <si>
-    <t>XXRZ</t>
-  </si>
-  <si>
-    <t>speaker_notes-o</t>
-  </si>
-  <si>
-    <t>/notify/msg-log</t>
-  </si>
-  <si>
-    <t>iam_menu-158</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.message-log.ps.default</t>
-  </si>
-  <si>
-    <t>iam_menu-159</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.message-log.ps.email</t>
-  </si>
-  <si>
-    <t>邮件日志</t>
-  </si>
-  <si>
-    <t>iam_menu-160</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.message-log.ps.retry-email</t>
-  </si>
-  <si>
-    <t>重试邮件</t>
-  </si>
-  <si>
-    <t>iam_menu-161</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.message-log.ps.webhook</t>
-  </si>
-  <si>
-    <t>webhook日志</t>
-  </si>
-  <si>
-    <t>iam_menu-175</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.platform-overview</t>
-  </si>
-  <si>
-    <t>平台概览</t>
-  </si>
-  <si>
-    <t>PTGL</t>
-  </si>
-  <si>
-    <t>/iam/platform-overview</t>
-  </si>
-  <si>
-    <t>iam_menu-176</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.platform-overview.ps.default</t>
-  </si>
-  <si>
-    <t>平台概览默认权限集</t>
-  </si>
-  <si>
-    <t>iam_menu-177</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.root-user</t>
-  </si>
-  <si>
-    <t>Root用户</t>
-  </si>
-  <si>
-    <t>ROOTYH</t>
-  </si>
-  <si>
-    <t>/iam/root-user</t>
-  </si>
-  <si>
-    <t>iam_menu-178</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.root-user.ps.add</t>
-  </si>
-  <si>
-    <t>添加root用户</t>
-  </si>
-  <si>
-    <t>iam_menu-179</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.root-user.ps.choerodon.code.site.manager.root-user.ps.add</t>
-  </si>
-  <si>
-    <t>iam_menu-180</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.root-user.ps.default</t>
-  </si>
-  <si>
-    <t>iam_menu-181</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.root-user.ps.delete</t>
-  </si>
-  <si>
-    <t>删除root用户</t>
-  </si>
-  <si>
-    <t>iam_menu-182</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager.saga-manager</t>
   </si>
   <si>
     <t>dir</t>
@@ -7570,10 +7570,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="54">
     <font>
@@ -7740,10 +7740,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7754,13 +7755,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -7776,7 +7771,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7789,33 +7784,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7830,6 +7801,44 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -7837,32 +7846,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7877,15 +7878,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7973,7 +7973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7985,7 +7985,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7997,13 +8117,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8015,145 +8153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8263,8 +8263,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8280,6 +8280,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8301,59 +8340,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8363,10 +8363,10 @@
     <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8375,138 +8375,138 @@
     <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <ali